--- a/BehaviourChangeTechniques/inputs/BCTO.xlsx
+++ b/BehaviourChangeTechniques/inputs/BCTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/HBCP/ontologies/BehaviourChangeTechniques/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9959D9-9EA1-A241-BC71-D9B5E6922A99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73F5AEE-430C-3A4F-83B8-C63F40C25BCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7420" yWindow="460" windowWidth="18180" windowHeight="14780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/BehaviourChangeTechniques/inputs/BCTO.xlsx
+++ b/BehaviourChangeTechniques/inputs/BCTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/HBCP/ontologies/BehaviourChangeTechniques/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEC642E-D1F7-0D4E-A029-638E8B4210A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3742EA-F6F1-BE42-87CF-BE9EFBB714CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14620" yWindow="-20900" windowWidth="29760" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="825">
   <si>
     <t>ID</t>
   </si>
@@ -2075,13 +2075,436 @@
   </si>
   <si>
     <t xml:space="preserve">identify self as role model BCT </t>
+  </si>
+  <si>
+    <t>BCIO:007163</t>
+  </si>
+  <si>
+    <t>BCIO:007164</t>
+  </si>
+  <si>
+    <t>BCIO:007165</t>
+  </si>
+  <si>
+    <t>BCIO:007166</t>
+  </si>
+  <si>
+    <t>BCIO:007167</t>
+  </si>
+  <si>
+    <t>BCIO:007168</t>
+  </si>
+  <si>
+    <t>BCIO:007169</t>
+  </si>
+  <si>
+    <t>BCIO:007170</t>
+  </si>
+  <si>
+    <t>BCIO:007171</t>
+  </si>
+  <si>
+    <t>BCIO:007172</t>
+  </si>
+  <si>
+    <t>BCIO:007173</t>
+  </si>
+  <si>
+    <t>BCIO:007174</t>
+  </si>
+  <si>
+    <t>BCIO:007175</t>
+  </si>
+  <si>
+    <t>BCIO:007176</t>
+  </si>
+  <si>
+    <t>BCIO:007177</t>
+  </si>
+  <si>
+    <t>BCIO:007178</t>
+  </si>
+  <si>
+    <t>BCIO:007179</t>
+  </si>
+  <si>
+    <t>BCIO:007180</t>
+  </si>
+  <si>
+    <t>BCIO:007181</t>
+  </si>
+  <si>
+    <t>BCIO:007182</t>
+  </si>
+  <si>
+    <t>BCIO:007183</t>
+  </si>
+  <si>
+    <t>BCIO:007184</t>
+  </si>
+  <si>
+    <t>BCIO:007185</t>
+  </si>
+  <si>
+    <t>BCIO:007186</t>
+  </si>
+  <si>
+    <t>BCIO:007187</t>
+  </si>
+  <si>
+    <t>BCIO:007188</t>
+  </si>
+  <si>
+    <t>BCIO:007189</t>
+  </si>
+  <si>
+    <t>BCIO:007190</t>
+  </si>
+  <si>
+    <t>BCIO:007191</t>
+  </si>
+  <si>
+    <t>BCIO:007192</t>
+  </si>
+  <si>
+    <t>BCIO:007193</t>
+  </si>
+  <si>
+    <t>BCIO:007194</t>
+  </si>
+  <si>
+    <t>BCIO:007195</t>
+  </si>
+  <si>
+    <t>BCIO:007196</t>
+  </si>
+  <si>
+    <t>BCIO:007197</t>
+  </si>
+  <si>
+    <t>BCIO:007198</t>
+  </si>
+  <si>
+    <t>BCIO:007199</t>
+  </si>
+  <si>
+    <t>BCIO:007200</t>
+  </si>
+  <si>
+    <t>BCIO:007201</t>
+  </si>
+  <si>
+    <t>BCIO:007202</t>
+  </si>
+  <si>
+    <t>BCIO:007203</t>
+  </si>
+  <si>
+    <t>BCIO:007204</t>
+  </si>
+  <si>
+    <t>BCIO:007205</t>
+  </si>
+  <si>
+    <t>BCIO:007206</t>
+  </si>
+  <si>
+    <t>BCIO:007207</t>
+  </si>
+  <si>
+    <t>BCIO:007208</t>
+  </si>
+  <si>
+    <t>BCIO:007209</t>
+  </si>
+  <si>
+    <t>BCIO:007210</t>
+  </si>
+  <si>
+    <t>BCIO:007211</t>
+  </si>
+  <si>
+    <t>BCIO:007212</t>
+  </si>
+  <si>
+    <t>BCIO:007213</t>
+  </si>
+  <si>
+    <t>BCIO:007214</t>
+  </si>
+  <si>
+    <t>BCIO:007215</t>
+  </si>
+  <si>
+    <t>BCIO:007216</t>
+  </si>
+  <si>
+    <t>BCIO:007217</t>
+  </si>
+  <si>
+    <t>BCIO:007218</t>
+  </si>
+  <si>
+    <t>BCIO:007219</t>
+  </si>
+  <si>
+    <t>BCIO:007220</t>
+  </si>
+  <si>
+    <t>BCIO:007221</t>
+  </si>
+  <si>
+    <t>BCIO:007222</t>
+  </si>
+  <si>
+    <t>BCIO:007223</t>
+  </si>
+  <si>
+    <t>BCIO:007224</t>
+  </si>
+  <si>
+    <t>BCIO:007225</t>
+  </si>
+  <si>
+    <t>BCIO:007226</t>
+  </si>
+  <si>
+    <t>BCIO:007227</t>
+  </si>
+  <si>
+    <t>BCIO:007228</t>
+  </si>
+  <si>
+    <t>BCIO:007229</t>
+  </si>
+  <si>
+    <t>BCIO:007230</t>
+  </si>
+  <si>
+    <t>BCIO:007231</t>
+  </si>
+  <si>
+    <t>BCIO:007232</t>
+  </si>
+  <si>
+    <t>BCIO:007233</t>
+  </si>
+  <si>
+    <t>BCIO:007234</t>
+  </si>
+  <si>
+    <t>BCIO:007235</t>
+  </si>
+  <si>
+    <t>BCIO:007236</t>
+  </si>
+  <si>
+    <t>BCIO:007237</t>
+  </si>
+  <si>
+    <t>BCIO:007238</t>
+  </si>
+  <si>
+    <t>BCIO:007239</t>
+  </si>
+  <si>
+    <t>BCIO:007240</t>
+  </si>
+  <si>
+    <t>BCIO:007241</t>
+  </si>
+  <si>
+    <t>BCIO:007242</t>
+  </si>
+  <si>
+    <t>BCIO:007243</t>
+  </si>
+  <si>
+    <t>BCIO:007244</t>
+  </si>
+  <si>
+    <t>BCIO:007245</t>
+  </si>
+  <si>
+    <t>BCIO:007246</t>
+  </si>
+  <si>
+    <t>BCIO:007247</t>
+  </si>
+  <si>
+    <t>BCIO:007248</t>
+  </si>
+  <si>
+    <t>BCIO:007249</t>
+  </si>
+  <si>
+    <t>BCIO:007250</t>
+  </si>
+  <si>
+    <t>BCIO:007251</t>
+  </si>
+  <si>
+    <t>BCIO:007252</t>
+  </si>
+  <si>
+    <t>BCIO:007253</t>
+  </si>
+  <si>
+    <t>BCIO:007254</t>
+  </si>
+  <si>
+    <t>BCIO:007255</t>
+  </si>
+  <si>
+    <t>BCIO:007256</t>
+  </si>
+  <si>
+    <t>BCIO:007257</t>
+  </si>
+  <si>
+    <t>BCIO:007258</t>
+  </si>
+  <si>
+    <t>BCIO:007259</t>
+  </si>
+  <si>
+    <t>BCIO:007260</t>
+  </si>
+  <si>
+    <t>BCIO:007261</t>
+  </si>
+  <si>
+    <t>BCIO:007262</t>
+  </si>
+  <si>
+    <t>BCIO:007263</t>
+  </si>
+  <si>
+    <t>BCIO:007264</t>
+  </si>
+  <si>
+    <t>BCIO:007265</t>
+  </si>
+  <si>
+    <t>BCIO:007266</t>
+  </si>
+  <si>
+    <t>BCIO:007267</t>
+  </si>
+  <si>
+    <t>BCIO:007268</t>
+  </si>
+  <si>
+    <t>BCIO:007269</t>
+  </si>
+  <si>
+    <t>BCIO:007270</t>
+  </si>
+  <si>
+    <t>BCIO:007271</t>
+  </si>
+  <si>
+    <t>BCIO:007272</t>
+  </si>
+  <si>
+    <t>BCIO:007273</t>
+  </si>
+  <si>
+    <t>BCIO:007274</t>
+  </si>
+  <si>
+    <t>BCIO:007275</t>
+  </si>
+  <si>
+    <t>BCIO:007276</t>
+  </si>
+  <si>
+    <t>BCIO:007277</t>
+  </si>
+  <si>
+    <t>BCIO:007278</t>
+  </si>
+  <si>
+    <t>BCIO:007279</t>
+  </si>
+  <si>
+    <t>BCIO:007280</t>
+  </si>
+  <si>
+    <t>BCIO:007281</t>
+  </si>
+  <si>
+    <t>BCIO:007282</t>
+  </si>
+  <si>
+    <t>BCIO:007283</t>
+  </si>
+  <si>
+    <t>BCIO:007284</t>
+  </si>
+  <si>
+    <t>BCIO:007285</t>
+  </si>
+  <si>
+    <t>BCIO:007286</t>
+  </si>
+  <si>
+    <t>BCIO:007287</t>
+  </si>
+  <si>
+    <t>BCIO:007288</t>
+  </si>
+  <si>
+    <t>BCIO:007289</t>
+  </si>
+  <si>
+    <t>BCIO:007290</t>
+  </si>
+  <si>
+    <t>BCIO:007291</t>
+  </si>
+  <si>
+    <t>BCIO:007292</t>
+  </si>
+  <si>
+    <t>BCIO:007293</t>
+  </si>
+  <si>
+    <t>BCIO:007294</t>
+  </si>
+  <si>
+    <t>BCIO:007295</t>
+  </si>
+  <si>
+    <t>BCIO:007296</t>
+  </si>
+  <si>
+    <t>BCIO:007297</t>
+  </si>
+  <si>
+    <t>BCIO:007298</t>
+  </si>
+  <si>
+    <t>BCIO:007299</t>
+  </si>
+  <si>
+    <t>BCIO:007300</t>
+  </si>
+  <si>
+    <t>BCIO:007301</t>
+  </si>
+  <si>
+    <t>BCIO:007302</t>
+  </si>
+  <si>
+    <t>BCIO:007303</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2094,6 +2517,12 @@
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2423,7 +2852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A241" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="B262" sqref="B262"/>
     </sheetView>
   </sheetViews>
@@ -2481,16 +2910,19 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>205</v>
+        <v>185</v>
+      </c>
+      <c r="I2" t="s">
+        <v>186</v>
       </c>
       <c r="L2" t="s">
         <v>16</v>
@@ -2498,44 +2930,56 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>438</v>
+        <v>187</v>
+      </c>
+      <c r="I3" t="s">
+        <v>186</v>
       </c>
       <c r="L3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>171</v>
+      </c>
       <c r="B4" t="s">
-        <v>439</v>
+        <v>172</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>440</v>
+        <v>188</v>
+      </c>
+      <c r="I4" t="s">
+        <v>650</v>
       </c>
       <c r="L4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
       <c r="B5" t="s">
-        <v>441</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>442</v>
+        <v>193</v>
       </c>
       <c r="L5" t="s">
         <v>16</v>
@@ -2543,16 +2987,19 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="B6" t="s">
-        <v>448</v>
+        <v>174</v>
       </c>
       <c r="C6" t="s">
-        <v>443</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>449</v>
+        <v>194</v>
+      </c>
+      <c r="I6" t="s">
+        <v>538</v>
       </c>
       <c r="L6" t="s">
         <v>16</v>
@@ -2560,50 +3007,50 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>450</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>443</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>451</v>
+        <v>198</v>
       </c>
       <c r="L7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>139</v>
+      </c>
       <c r="B8" t="s">
-        <v>423</v>
+        <v>203</v>
       </c>
       <c r="C8" t="s">
-        <v>420</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>424</v>
-      </c>
-      <c r="I8" t="s">
-        <v>377</v>
+        <v>204</v>
       </c>
       <c r="L8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
       <c r="B9" t="s">
-        <v>425</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>420</v>
+        <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>426</v>
-      </c>
-      <c r="I9" t="s">
-        <v>249</v>
+        <v>205</v>
       </c>
       <c r="L9" t="s">
         <v>16</v>
@@ -2611,16 +3058,19 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>160</v>
       </c>
       <c r="C10" t="s">
-        <v>395</v>
+        <v>106</v>
       </c>
       <c r="D10" t="s">
-        <v>401</v>
+        <v>206</v>
+      </c>
+      <c r="I10" t="s">
+        <v>464</v>
       </c>
       <c r="L10" t="s">
         <v>16</v>
@@ -2628,16 +3078,16 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C11" t="s">
         <v>106</v>
       </c>
       <c r="D11" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="L11" t="s">
         <v>16</v>
@@ -2645,16 +3095,19 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>161</v>
       </c>
       <c r="B12" t="s">
-        <v>272</v>
+        <v>162</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="D12" t="s">
-        <v>275</v>
+        <v>211</v>
+      </c>
+      <c r="I12" t="s">
+        <v>538</v>
       </c>
       <c r="L12" t="s">
         <v>16</v>
@@ -2662,44 +3115,50 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
-        <v>393</v>
+        <v>212</v>
       </c>
       <c r="C13" t="s">
-        <v>375</v>
+        <v>106</v>
       </c>
       <c r="D13" t="s">
-        <v>394</v>
+        <v>213</v>
       </c>
       <c r="L13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
       <c r="B14" t="s">
-        <v>428</v>
+        <v>215</v>
       </c>
       <c r="C14" t="s">
-        <v>420</v>
+        <v>106</v>
       </c>
       <c r="D14" t="s">
-        <v>429</v>
+        <v>216</v>
       </c>
       <c r="L14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>98</v>
+      </c>
       <c r="B15" t="s">
-        <v>375</v>
+        <v>219</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="D15" t="s">
-        <v>376</v>
+        <v>220</v>
       </c>
       <c r="L15" t="s">
         <v>16</v>
@@ -2707,16 +3166,16 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="B16" t="s">
-        <v>420</v>
+        <v>100</v>
       </c>
       <c r="C16" t="s">
         <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>421</v>
+        <v>225</v>
       </c>
       <c r="L16" t="s">
         <v>16</v>
@@ -2724,19 +3183,16 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>227</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>223</v>
-      </c>
-      <c r="I17" t="s">
-        <v>186</v>
+        <v>226</v>
       </c>
       <c r="L17" t="s">
         <v>16</v>
@@ -2744,16 +3200,19 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>230</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>224</v>
+        <v>231</v>
+      </c>
+      <c r="I18" t="s">
+        <v>464</v>
       </c>
       <c r="L18" t="s">
         <v>16</v>
@@ -2761,19 +3220,16 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>228</v>
       </c>
       <c r="C19" t="s">
-        <v>247</v>
+        <v>100</v>
       </c>
       <c r="D19" t="s">
-        <v>253</v>
-      </c>
-      <c r="I19" t="s">
-        <v>186</v>
+        <v>229</v>
       </c>
       <c r="L19" t="s">
         <v>16</v>
@@ -2781,16 +3237,16 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="C20" t="s">
-        <v>247</v>
+        <v>100</v>
       </c>
       <c r="D20" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="L20" t="s">
         <v>16</v>
@@ -2798,16 +3254,19 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>237</v>
       </c>
       <c r="C21" t="s">
-        <v>247</v>
+        <v>100</v>
       </c>
       <c r="D21" t="s">
-        <v>252</v>
+        <v>238</v>
+      </c>
+      <c r="I21" t="s">
+        <v>464</v>
       </c>
       <c r="L21" t="s">
         <v>16</v>
@@ -2815,16 +3274,16 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>240</v>
       </c>
       <c r="C22" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="D22" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="L22" t="s">
         <v>16</v>
@@ -2832,19 +3291,19 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>166</v>
       </c>
       <c r="B23" t="s">
-        <v>247</v>
+        <v>167</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="D23" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="I23" t="s">
-        <v>437</v>
+        <v>464</v>
       </c>
       <c r="L23" t="s">
         <v>16</v>
@@ -2852,16 +3311,16 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="B24" t="s">
-        <v>215</v>
+        <v>169</v>
       </c>
       <c r="C24" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D24" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="L24" t="s">
         <v>16</v>
@@ -2869,16 +3328,16 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>180</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>445</v>
+        <v>242</v>
       </c>
       <c r="C25" t="s">
-        <v>443</v>
+        <v>237</v>
       </c>
       <c r="D25" t="s">
-        <v>446</v>
+        <v>243</v>
       </c>
       <c r="L25" t="s">
         <v>16</v>
@@ -2886,16 +3345,16 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>244</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>237</v>
       </c>
       <c r="D26" t="s">
-        <v>193</v>
+        <v>245</v>
       </c>
       <c r="L26" t="s">
         <v>16</v>
@@ -2903,16 +3362,19 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>176</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>270</v>
+        <v>66</v>
       </c>
       <c r="D27" t="s">
-        <v>278</v>
+        <v>246</v>
+      </c>
+      <c r="I27" t="s">
+        <v>464</v>
       </c>
       <c r="L27" t="s">
         <v>16</v>
@@ -2920,16 +3382,19 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>247</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>198</v>
+        <v>248</v>
+      </c>
+      <c r="I28" t="s">
+        <v>437</v>
       </c>
       <c r="L28" t="s">
         <v>16</v>
@@ -2937,16 +3402,16 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>355</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>247</v>
       </c>
       <c r="D29" t="s">
-        <v>353</v>
+        <v>250</v>
       </c>
       <c r="L29" t="s">
         <v>16</v>
@@ -2954,16 +3419,16 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>48</v>
+        <v>247</v>
       </c>
       <c r="D30" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="L30" t="s">
         <v>16</v>
@@ -2971,16 +3436,16 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>48</v>
+        <v>247</v>
       </c>
       <c r="D31" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L31" t="s">
         <v>16</v>
@@ -2988,16 +3453,19 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>247</v>
       </c>
       <c r="D32" t="s">
-        <v>257</v>
+        <v>253</v>
+      </c>
+      <c r="I32" t="s">
+        <v>186</v>
       </c>
       <c r="L32" t="s">
         <v>16</v>
@@ -3005,16 +3473,19 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C33" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D33" t="s">
-        <v>255</v>
+        <v>254</v>
+      </c>
+      <c r="I33" t="s">
+        <v>214</v>
       </c>
       <c r="L33" t="s">
         <v>16</v>
@@ -3022,16 +3493,16 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C34" t="s">
-        <v>365</v>
+        <v>48</v>
       </c>
       <c r="D34" t="s">
-        <v>367</v>
+        <v>255</v>
       </c>
       <c r="L34" t="s">
         <v>16</v>
@@ -3039,19 +3510,16 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" t="s">
         <v>48</v>
       </c>
-      <c r="C35" t="s">
-        <v>24</v>
-      </c>
       <c r="D35" t="s">
-        <v>254</v>
-      </c>
-      <c r="I35" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="L35" t="s">
         <v>16</v>
@@ -3059,16 +3527,16 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="D36" t="s">
-        <v>368</v>
+        <v>257</v>
       </c>
       <c r="L36" t="s">
         <v>16</v>
@@ -3076,16 +3544,16 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D37" t="s">
-        <v>351</v>
+        <v>258</v>
       </c>
       <c r="L37" t="s">
         <v>16</v>
@@ -3093,19 +3561,16 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>259</v>
       </c>
       <c r="C38" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="D38" t="s">
-        <v>352</v>
-      </c>
-      <c r="J38" t="s">
-        <v>73</v>
+        <v>260</v>
       </c>
       <c r="L38" t="s">
         <v>16</v>
@@ -3113,16 +3578,16 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="B39" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="C39" t="s">
-        <v>106</v>
+        <v>259</v>
       </c>
       <c r="D39" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="L39" t="s">
         <v>16</v>
@@ -3130,19 +3595,19 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="B40" t="s">
-        <v>338</v>
+        <v>263</v>
       </c>
       <c r="C40" t="s">
-        <v>66</v>
+        <v>259</v>
       </c>
       <c r="D40" t="s">
-        <v>339</v>
+        <v>264</v>
       </c>
       <c r="I40" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="L40" t="s">
         <v>16</v>
@@ -3150,16 +3615,16 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>67</v>
+        <v>147</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>265</v>
       </c>
       <c r="C41" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="D41" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="L41" t="s">
         <v>16</v>
@@ -3167,19 +3632,16 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="B42" t="s">
-        <v>452</v>
+        <v>267</v>
       </c>
       <c r="C42" t="s">
-        <v>66</v>
+        <v>259</v>
       </c>
       <c r="D42" t="s">
-        <v>453</v>
-      </c>
-      <c r="I42" t="s">
-        <v>427</v>
+        <v>268</v>
       </c>
       <c r="L42" t="s">
         <v>16</v>
@@ -3187,16 +3649,16 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="B43" t="s">
-        <v>415</v>
+        <v>272</v>
       </c>
       <c r="C43" t="s">
         <v>66</v>
       </c>
       <c r="D43" t="s">
-        <v>416</v>
+        <v>275</v>
       </c>
       <c r="L43" t="s">
         <v>16</v>
@@ -3204,16 +3666,16 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>281</v>
+        <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>66</v>
+        <v>270</v>
       </c>
       <c r="D44" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="L44" t="s">
         <v>16</v>
@@ -3221,16 +3683,16 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>285</v>
       </c>
       <c r="C45" t="s">
-        <v>395</v>
+        <v>283</v>
       </c>
       <c r="D45" t="s">
-        <v>397</v>
+        <v>286</v>
       </c>
       <c r="L45" t="s">
         <v>16</v>
@@ -3238,30 +3700,33 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B46" t="s">
-        <v>329</v>
+        <v>287</v>
       </c>
       <c r="C46" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="D46" t="s">
-        <v>330</v>
+        <v>288</v>
       </c>
       <c r="L46" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>70</v>
+      </c>
       <c r="B47" t="s">
-        <v>383</v>
+        <v>281</v>
       </c>
       <c r="C47" t="s">
-        <v>375</v>
+        <v>66</v>
       </c>
       <c r="D47" t="s">
-        <v>384</v>
+        <v>282</v>
       </c>
       <c r="L47" t="s">
         <v>16</v>
@@ -3269,16 +3734,16 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="B48" t="s">
-        <v>381</v>
+        <v>279</v>
       </c>
       <c r="C48" t="s">
-        <v>375</v>
+        <v>270</v>
       </c>
       <c r="D48" t="s">
-        <v>382</v>
+        <v>280</v>
       </c>
       <c r="L48" t="s">
         <v>16</v>
@@ -3286,16 +3751,16 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c r="B49" t="s">
-        <v>378</v>
+        <v>289</v>
       </c>
       <c r="C49" t="s">
-        <v>375</v>
+        <v>283</v>
       </c>
       <c r="D49" t="s">
-        <v>379</v>
+        <v>290</v>
       </c>
       <c r="L49" t="s">
         <v>16</v>
@@ -3303,16 +3768,16 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="B50" t="s">
-        <v>212</v>
+        <v>291</v>
       </c>
       <c r="C50" t="s">
-        <v>106</v>
+        <v>283</v>
       </c>
       <c r="D50" t="s">
-        <v>213</v>
+        <v>292</v>
       </c>
       <c r="L50" t="s">
         <v>16</v>
@@ -3320,16 +3785,16 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="B51" t="s">
-        <v>83</v>
+        <v>269</v>
       </c>
       <c r="C51" t="s">
-        <v>355</v>
+        <v>270</v>
       </c>
       <c r="D51" t="s">
-        <v>357</v>
+        <v>271</v>
       </c>
       <c r="L51" t="s">
         <v>16</v>
@@ -3337,19 +3802,16 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="B52" t="s">
-        <v>85</v>
+        <v>406</v>
       </c>
       <c r="C52" t="s">
-        <v>355</v>
+        <v>402</v>
       </c>
       <c r="D52" t="s">
-        <v>358</v>
-      </c>
-      <c r="J52" t="s">
-        <v>89</v>
+        <v>407</v>
       </c>
       <c r="L52" t="s">
         <v>16</v>
@@ -3357,16 +3819,16 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="B53" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C53" t="s">
-        <v>259</v>
+        <v>106</v>
       </c>
       <c r="D53" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="L53" t="s">
         <v>16</v>
@@ -3374,19 +3836,16 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>146</v>
+        <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="C54" t="s">
-        <v>259</v>
+        <v>66</v>
       </c>
       <c r="D54" t="s">
-        <v>264</v>
-      </c>
-      <c r="I54" t="s">
-        <v>400</v>
+        <v>301</v>
       </c>
       <c r="L54" t="s">
         <v>16</v>
@@ -3394,16 +3853,16 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="B55" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="C55" t="s">
-        <v>259</v>
+        <v>300</v>
       </c>
       <c r="D55" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="L55" t="s">
         <v>16</v>
@@ -3411,16 +3870,16 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="B56" t="s">
-        <v>261</v>
+        <v>310</v>
       </c>
       <c r="C56" t="s">
-        <v>259</v>
+        <v>300</v>
       </c>
       <c r="D56" t="s">
-        <v>262</v>
+        <v>308</v>
       </c>
       <c r="L56" t="s">
         <v>16</v>
@@ -3428,16 +3887,16 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="B57" t="s">
-        <v>259</v>
+        <v>320</v>
       </c>
       <c r="C57" t="s">
-        <v>24</v>
+        <v>300</v>
       </c>
       <c r="D57" t="s">
-        <v>260</v>
+        <v>321</v>
       </c>
       <c r="L57" t="s">
         <v>16</v>
@@ -3445,16 +3904,16 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="B58" t="s">
-        <v>279</v>
+        <v>130</v>
       </c>
       <c r="C58" t="s">
-        <v>270</v>
+        <v>100</v>
       </c>
       <c r="D58" t="s">
-        <v>280</v>
+        <v>234</v>
       </c>
       <c r="L58" t="s">
         <v>16</v>
@@ -3462,16 +3921,16 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="B59" t="s">
-        <v>88</v>
+        <v>326</v>
       </c>
       <c r="C59" t="s">
-        <v>19</v>
+        <v>320</v>
       </c>
       <c r="D59" t="s">
-        <v>431</v>
+        <v>327</v>
       </c>
       <c r="L59" t="s">
         <v>16</v>
@@ -3479,16 +3938,16 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>115</v>
+        <v>163</v>
       </c>
       <c r="B60" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="C60" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="D60" t="s">
-        <v>292</v>
+        <v>164</v>
       </c>
       <c r="L60" t="s">
         <v>16</v>
@@ -3496,16 +3955,16 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="B61" t="s">
-        <v>398</v>
+        <v>329</v>
       </c>
       <c r="C61" t="s">
-        <v>395</v>
+        <v>300</v>
       </c>
       <c r="D61" t="s">
-        <v>399</v>
+        <v>330</v>
       </c>
       <c r="L61" t="s">
         <v>16</v>
@@ -3513,16 +3972,16 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="B62" t="s">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="C62" t="s">
-        <v>94</v>
+        <v>300</v>
       </c>
       <c r="D62" t="s">
-        <v>419</v>
+        <v>331</v>
       </c>
       <c r="L62" t="s">
         <v>16</v>
@@ -3530,19 +3989,19 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B63" t="s">
-        <v>19</v>
+        <v>338</v>
       </c>
       <c r="C63" t="s">
         <v>66</v>
       </c>
       <c r="D63" t="s">
-        <v>430</v>
+        <v>339</v>
       </c>
       <c r="I63" t="s">
-        <v>239</v>
+        <v>422</v>
       </c>
       <c r="L63" t="s">
         <v>16</v>
@@ -3550,44 +4009,50 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>96</v>
+        <v>175</v>
       </c>
       <c r="B64" t="s">
-        <v>365</v>
+        <v>340</v>
       </c>
       <c r="C64" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="D64" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="L64" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>123</v>
+      </c>
       <c r="B65" t="s">
-        <v>369</v>
+        <v>342</v>
       </c>
       <c r="C65" t="s">
-        <v>365</v>
+        <v>338</v>
       </c>
       <c r="D65" t="s">
-        <v>370</v>
+        <v>343</v>
       </c>
       <c r="L65" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>81</v>
+      </c>
       <c r="B66" t="s">
-        <v>217</v>
+        <v>344</v>
       </c>
       <c r="C66" t="s">
-        <v>106</v>
+        <v>338</v>
       </c>
       <c r="D66" t="s">
-        <v>218</v>
+        <v>345</v>
       </c>
       <c r="L66" t="s">
         <v>16</v>
@@ -3595,16 +4060,19 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="B67" t="s">
-        <v>391</v>
+        <v>346</v>
       </c>
       <c r="C67" t="s">
-        <v>375</v>
+        <v>338</v>
       </c>
       <c r="D67" t="s">
-        <v>392</v>
+        <v>347</v>
+      </c>
+      <c r="I67" t="s">
+        <v>464</v>
       </c>
       <c r="L67" t="s">
         <v>16</v>
@@ -3612,19 +4080,19 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>105</v>
+        <v>178</v>
       </c>
       <c r="B68" t="s">
-        <v>106</v>
+        <v>179</v>
       </c>
       <c r="C68" t="s">
-        <v>66</v>
+        <v>338</v>
       </c>
       <c r="D68" t="s">
-        <v>185</v>
+        <v>348</v>
       </c>
       <c r="I68" t="s">
-        <v>186</v>
+        <v>499</v>
       </c>
       <c r="L68" t="s">
         <v>16</v>
@@ -3632,19 +4100,16 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="B69" t="s">
-        <v>40</v>
+        <v>349</v>
       </c>
       <c r="C69" t="s">
-        <v>106</v>
+        <v>338</v>
       </c>
       <c r="D69" t="s">
-        <v>187</v>
-      </c>
-      <c r="I69" t="s">
-        <v>186</v>
+        <v>350</v>
       </c>
       <c r="L69" t="s">
         <v>16</v>
@@ -3652,33 +4117,33 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="B70" t="s">
-        <v>203</v>
+        <v>355</v>
       </c>
       <c r="C70" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="D70" t="s">
-        <v>204</v>
+        <v>353</v>
       </c>
       <c r="L70" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>141</v>
+      </c>
       <c r="B71" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="C71" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="D71" t="s">
-        <v>372</v>
-      </c>
-      <c r="I71" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="L71" t="s">
         <v>16</v>
@@ -3686,19 +4151,16 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="B72" t="s">
-        <v>683</v>
+        <v>83</v>
       </c>
       <c r="C72" t="s">
-        <v>443</v>
+        <v>355</v>
       </c>
       <c r="D72" t="s">
-        <v>447</v>
-      </c>
-      <c r="I72" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c r="L72" t="s">
         <v>16</v>
@@ -3706,19 +4168,19 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="B73" t="s">
-        <v>332</v>
+        <v>85</v>
       </c>
       <c r="C73" t="s">
-        <v>300</v>
+        <v>355</v>
       </c>
       <c r="D73" t="s">
-        <v>333</v>
-      </c>
-      <c r="I73" t="s">
-        <v>380</v>
+        <v>358</v>
+      </c>
+      <c r="J73" t="s">
+        <v>89</v>
       </c>
       <c r="L73" t="s">
         <v>16</v>
@@ -3726,16 +4188,16 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="B74" t="s">
-        <v>334</v>
+        <v>359</v>
       </c>
       <c r="C74" t="s">
-        <v>300</v>
+        <v>355</v>
       </c>
       <c r="D74" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="L74" t="s">
         <v>16</v>
@@ -3743,30 +4205,33 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="B75" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="C75" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="D75" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="L75" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>56</v>
+      </c>
       <c r="B76" t="s">
-        <v>293</v>
+        <v>57</v>
       </c>
       <c r="C76" t="s">
-        <v>66</v>
+        <v>365</v>
       </c>
       <c r="D76" t="s">
-        <v>294</v>
+        <v>367</v>
       </c>
       <c r="L76" t="s">
         <v>16</v>
@@ -3774,30 +4239,33 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>65</v>
+        <v>177</v>
       </c>
       <c r="B77" t="s">
-        <v>300</v>
+        <v>373</v>
       </c>
       <c r="C77" t="s">
+        <v>365</v>
+      </c>
+      <c r="D77" t="s">
+        <v>374</v>
+      </c>
+      <c r="L77" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>59</v>
+      </c>
+      <c r="B78" t="s">
+        <v>60</v>
+      </c>
+      <c r="C78" t="s">
         <v>66</v>
       </c>
-      <c r="D77" t="s">
-        <v>301</v>
-      </c>
-      <c r="L77" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B78" t="s">
-        <v>295</v>
-      </c>
-      <c r="C78" t="s">
-        <v>293</v>
-      </c>
       <c r="D78" t="s">
-        <v>296</v>
+        <v>368</v>
       </c>
       <c r="L78" t="s">
         <v>16</v>
@@ -3805,33 +4273,36 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="B79" t="s">
-        <v>342</v>
+        <v>62</v>
       </c>
       <c r="C79" t="s">
-        <v>338</v>
+        <v>60</v>
       </c>
       <c r="D79" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="L79" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>63</v>
+      </c>
       <c r="B80" t="s">
-        <v>298</v>
+        <v>64</v>
       </c>
       <c r="C80" t="s">
-        <v>293</v>
+        <v>60</v>
       </c>
       <c r="D80" t="s">
-        <v>299</v>
-      </c>
-      <c r="I80" t="s">
-        <v>297</v>
+        <v>352</v>
+      </c>
+      <c r="J80" t="s">
+        <v>73</v>
       </c>
       <c r="L80" t="s">
         <v>16</v>
@@ -3839,16 +4310,16 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>163</v>
+        <v>71</v>
       </c>
       <c r="B81" t="s">
-        <v>328</v>
+        <v>385</v>
       </c>
       <c r="C81" t="s">
-        <v>300</v>
+        <v>375</v>
       </c>
       <c r="D81" t="s">
-        <v>164</v>
+        <v>386</v>
       </c>
       <c r="L81" t="s">
         <v>16</v>
@@ -3856,19 +4327,16 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="B82" t="s">
-        <v>117</v>
+        <v>387</v>
       </c>
       <c r="C82" t="s">
-        <v>19</v>
+        <v>375</v>
       </c>
       <c r="D82" t="s">
-        <v>432</v>
-      </c>
-      <c r="J82" t="s">
-        <v>118</v>
+        <v>388</v>
       </c>
       <c r="L82" t="s">
         <v>16</v>
@@ -3876,16 +4344,16 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="B83" t="s">
-        <v>326</v>
+        <v>378</v>
       </c>
       <c r="C83" t="s">
-        <v>320</v>
+        <v>375</v>
       </c>
       <c r="D83" t="s">
-        <v>327</v>
+        <v>379</v>
       </c>
       <c r="L83" t="s">
         <v>16</v>
@@ -3893,16 +4361,16 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B84" t="s">
-        <v>285</v>
+        <v>381</v>
       </c>
       <c r="C84" t="s">
-        <v>283</v>
+        <v>375</v>
       </c>
       <c r="D84" t="s">
-        <v>286</v>
+        <v>382</v>
       </c>
       <c r="L84" t="s">
         <v>16</v>
@@ -3910,30 +4378,33 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="B85" t="s">
-        <v>320</v>
+        <v>389</v>
       </c>
       <c r="C85" t="s">
-        <v>300</v>
+        <v>375</v>
       </c>
       <c r="D85" t="s">
-        <v>321</v>
+        <v>390</v>
       </c>
       <c r="L85" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>104</v>
+      </c>
       <c r="B86" t="s">
-        <v>312</v>
+        <v>391</v>
       </c>
       <c r="C86" t="s">
-        <v>300</v>
+        <v>375</v>
       </c>
       <c r="D86" t="s">
-        <v>315</v>
+        <v>392</v>
       </c>
       <c r="L86" t="s">
         <v>16</v>
@@ -3941,128 +4412,167 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B87" t="s">
-        <v>302</v>
+        <v>201</v>
       </c>
       <c r="C87" t="s">
+        <v>106</v>
+      </c>
+      <c r="D87" t="s">
+        <v>202</v>
+      </c>
+      <c r="I87" t="s">
+        <v>518</v>
+      </c>
+      <c r="L87" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>80</v>
+      </c>
+      <c r="B88" t="s">
+        <v>452</v>
+      </c>
+      <c r="C88" t="s">
+        <v>66</v>
+      </c>
+      <c r="D88" t="s">
+        <v>453</v>
+      </c>
+      <c r="I88" t="s">
+        <v>427</v>
+      </c>
+      <c r="L88" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>112</v>
+      </c>
+      <c r="B89" t="s">
+        <v>332</v>
+      </c>
+      <c r="C89" t="s">
         <v>300</v>
       </c>
-      <c r="D87" t="s">
-        <v>303</v>
-      </c>
-      <c r="L87" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B88" t="s">
-        <v>324</v>
-      </c>
-      <c r="C88" t="s">
-        <v>320</v>
-      </c>
-      <c r="D88" t="s">
-        <v>325</v>
-      </c>
-      <c r="L88" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B89" t="s">
-        <v>318</v>
-      </c>
-      <c r="C89" t="s">
-        <v>312</v>
-      </c>
       <c r="D89" t="s">
-        <v>319</v>
+        <v>333</v>
+      </c>
+      <c r="I89" t="s">
+        <v>380</v>
       </c>
       <c r="L89" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>113</v>
+      </c>
       <c r="B90" t="s">
-        <v>306</v>
+        <v>334</v>
       </c>
       <c r="C90" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D90" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="L90" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>183</v>
+      </c>
       <c r="B91" t="s">
-        <v>311</v>
+        <v>184</v>
       </c>
       <c r="C91" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="D91" t="s">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="L91" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>181</v>
+      </c>
       <c r="B92" t="s">
-        <v>322</v>
+        <v>182</v>
       </c>
       <c r="C92" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="D92" t="s">
-        <v>323</v>
+        <v>337</v>
+      </c>
+      <c r="I92" t="s">
+        <v>464</v>
       </c>
       <c r="L92" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>126</v>
+      </c>
       <c r="B93" t="s">
-        <v>316</v>
+        <v>127</v>
       </c>
       <c r="C93" t="s">
-        <v>312</v>
+        <v>106</v>
       </c>
       <c r="D93" t="s">
-        <v>317</v>
+        <v>199</v>
+      </c>
+      <c r="I93" t="s">
+        <v>200</v>
       </c>
       <c r="L93" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>78</v>
+      </c>
       <c r="B94" t="s">
-        <v>304</v>
+        <v>79</v>
       </c>
       <c r="C94" t="s">
-        <v>302</v>
+        <v>395</v>
       </c>
       <c r="D94" t="s">
-        <v>305</v>
+        <v>397</v>
       </c>
       <c r="L94" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>135</v>
+      </c>
       <c r="B95" t="s">
-        <v>309</v>
+        <v>393</v>
       </c>
       <c r="C95" t="s">
-        <v>310</v>
+        <v>375</v>
       </c>
       <c r="D95" t="s">
-        <v>313</v>
+        <v>394</v>
       </c>
       <c r="L95" t="s">
         <v>16</v>
@@ -4070,16 +4580,16 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="B96" t="s">
-        <v>310</v>
+        <v>415</v>
       </c>
       <c r="C96" t="s">
-        <v>300</v>
+        <v>66</v>
       </c>
       <c r="D96" t="s">
-        <v>308</v>
+        <v>416</v>
       </c>
       <c r="L96" t="s">
         <v>16</v>
@@ -4087,16 +4597,16 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B97" t="s">
-        <v>269</v>
+        <v>404</v>
       </c>
       <c r="C97" t="s">
-        <v>270</v>
+        <v>402</v>
       </c>
       <c r="D97" t="s">
-        <v>271</v>
+        <v>405</v>
       </c>
       <c r="L97" t="s">
         <v>16</v>
@@ -4104,33 +4614,36 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B98" t="s">
-        <v>127</v>
+        <v>408</v>
       </c>
       <c r="C98" t="s">
-        <v>106</v>
+        <v>402</v>
       </c>
       <c r="D98" t="s">
-        <v>199</v>
-      </c>
-      <c r="I98" t="s">
-        <v>200</v>
+        <v>409</v>
       </c>
       <c r="L98" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>103</v>
+      </c>
       <c r="B99" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="C99" t="s">
-        <v>66</v>
+        <v>402</v>
       </c>
       <c r="D99" t="s">
-        <v>396</v>
+        <v>411</v>
+      </c>
+      <c r="I99" t="s">
+        <v>464</v>
       </c>
       <c r="L99" t="s">
         <v>16</v>
@@ -4138,16 +4651,19 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="B100" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C100" t="s">
         <v>402</v>
       </c>
       <c r="D100" t="s">
-        <v>409</v>
+        <v>413</v>
+      </c>
+      <c r="I100" t="s">
+        <v>464</v>
       </c>
       <c r="L100" t="s">
         <v>16</v>
@@ -4155,16 +4671,19 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="B101" t="s">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="C101" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D101" t="s">
-        <v>234</v>
+        <v>223</v>
+      </c>
+      <c r="I101" t="s">
+        <v>186</v>
       </c>
       <c r="L101" t="s">
         <v>16</v>
@@ -4172,16 +4691,16 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>131</v>
+        <v>28</v>
       </c>
       <c r="B102" t="s">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="C102" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="D102" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L102" t="s">
         <v>16</v>
@@ -4189,16 +4708,16 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="B103" t="s">
-        <v>227</v>
+        <v>398</v>
       </c>
       <c r="C103" t="s">
-        <v>100</v>
+        <v>395</v>
       </c>
       <c r="D103" t="s">
-        <v>226</v>
+        <v>399</v>
       </c>
       <c r="L103" t="s">
         <v>16</v>
@@ -4206,30 +4725,36 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B104" t="s">
-        <v>228</v>
+        <v>94</v>
       </c>
       <c r="C104" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="D104" t="s">
-        <v>229</v>
+        <v>417</v>
       </c>
       <c r="L104" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>149</v>
+      </c>
       <c r="B105" t="s">
-        <v>616</v>
+        <v>150</v>
       </c>
       <c r="C105" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="D105" t="s">
-        <v>607</v>
+        <v>418</v>
+      </c>
+      <c r="I105" t="s">
+        <v>464</v>
       </c>
       <c r="L105" t="s">
         <v>16</v>
@@ -4237,16 +4762,16 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="B106" t="s">
-        <v>389</v>
+        <v>93</v>
       </c>
       <c r="C106" t="s">
-        <v>375</v>
+        <v>94</v>
       </c>
       <c r="D106" t="s">
-        <v>390</v>
+        <v>419</v>
       </c>
       <c r="L106" t="s">
         <v>16</v>
@@ -4254,16 +4779,16 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="B107" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="C107" t="s">
-        <v>402</v>
+        <v>66</v>
       </c>
       <c r="D107" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="L107" t="s">
         <v>16</v>
@@ -4271,16 +4796,19 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="B108" t="s">
-        <v>221</v>
+        <v>19</v>
       </c>
       <c r="C108" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="D108" t="s">
-        <v>222</v>
+        <v>430</v>
+      </c>
+      <c r="I108" t="s">
+        <v>239</v>
       </c>
       <c r="L108" t="s">
         <v>16</v>
@@ -4288,16 +4816,16 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="B109" t="s">
-        <v>385</v>
+        <v>88</v>
       </c>
       <c r="C109" t="s">
-        <v>375</v>
+        <v>19</v>
       </c>
       <c r="D109" t="s">
-        <v>386</v>
+        <v>431</v>
       </c>
       <c r="L109" t="s">
         <v>16</v>
@@ -4305,780 +4833,927 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="B110" t="s">
-        <v>344</v>
+        <v>117</v>
       </c>
       <c r="C110" t="s">
-        <v>338</v>
+        <v>19</v>
       </c>
       <c r="D110" t="s">
-        <v>345</v>
+        <v>432</v>
+      </c>
+      <c r="J110" t="s">
+        <v>118</v>
       </c>
       <c r="L110" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>156</v>
+      </c>
       <c r="B111" t="s">
+        <v>362</v>
+      </c>
+      <c r="C111" t="s">
+        <v>355</v>
+      </c>
+      <c r="D111" t="s">
+        <v>363</v>
+      </c>
+      <c r="L111" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>20</v>
+      </c>
+      <c r="B112" t="s">
+        <v>21</v>
+      </c>
+      <c r="C112" t="s">
+        <v>395</v>
+      </c>
+      <c r="D112" t="s">
+        <v>401</v>
+      </c>
+      <c r="L112" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>49</v>
+      </c>
+      <c r="B113" t="s">
+        <v>433</v>
+      </c>
+      <c r="C113" t="s">
+        <v>19</v>
+      </c>
+      <c r="D113" t="s">
+        <v>434</v>
+      </c>
+      <c r="I113" t="s">
+        <v>499</v>
+      </c>
+      <c r="L113" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>17</v>
+      </c>
+      <c r="B114" t="s">
+        <v>18</v>
+      </c>
+      <c r="C114" t="s">
+        <v>19</v>
+      </c>
+      <c r="D114" t="s">
+        <v>438</v>
+      </c>
+      <c r="L114" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>165</v>
+      </c>
+      <c r="B115" t="s">
+        <v>443</v>
+      </c>
+      <c r="C115" t="s">
+        <v>66</v>
+      </c>
+      <c r="D115" t="s">
+        <v>444</v>
+      </c>
+      <c r="L115" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>111</v>
+      </c>
+      <c r="B116" t="s">
+        <v>683</v>
+      </c>
+      <c r="C116" t="s">
+        <v>443</v>
+      </c>
+      <c r="D116" t="s">
+        <v>447</v>
+      </c>
+      <c r="I116" t="s">
+        <v>380</v>
+      </c>
+      <c r="L116" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>180</v>
+      </c>
+      <c r="B117" t="s">
+        <v>445</v>
+      </c>
+      <c r="C117" t="s">
+        <v>443</v>
+      </c>
+      <c r="D117" t="s">
+        <v>446</v>
+      </c>
+      <c r="L117" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>76</v>
+      </c>
+      <c r="B118" t="s">
+        <v>448</v>
+      </c>
+      <c r="C118" t="s">
+        <v>443</v>
+      </c>
+      <c r="D118" t="s">
+        <v>449</v>
+      </c>
+      <c r="L118" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>138</v>
+      </c>
+      <c r="B119" t="s">
+        <v>450</v>
+      </c>
+      <c r="C119" t="s">
+        <v>443</v>
+      </c>
+      <c r="D119" t="s">
+        <v>451</v>
+      </c>
+      <c r="L119" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>67</v>
+      </c>
+      <c r="B120" t="s">
+        <v>66</v>
+      </c>
+      <c r="C120" t="s">
+        <v>273</v>
+      </c>
+      <c r="D120" t="s">
+        <v>274</v>
+      </c>
+      <c r="L120" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>684</v>
+      </c>
+      <c r="B121" t="s">
+        <v>439</v>
+      </c>
+      <c r="C121" t="s">
+        <v>18</v>
+      </c>
+      <c r="D121" t="s">
+        <v>440</v>
+      </c>
+      <c r="L121" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>685</v>
+      </c>
+      <c r="B122" t="s">
+        <v>441</v>
+      </c>
+      <c r="C122" t="s">
+        <v>18</v>
+      </c>
+      <c r="D122" t="s">
+        <v>442</v>
+      </c>
+      <c r="L122" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>686</v>
+      </c>
+      <c r="B123" t="s">
+        <v>423</v>
+      </c>
+      <c r="C123" t="s">
+        <v>420</v>
+      </c>
+      <c r="D123" t="s">
+        <v>424</v>
+      </c>
+      <c r="I123" t="s">
+        <v>377</v>
+      </c>
+      <c r="L123" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>687</v>
+      </c>
+      <c r="B124" t="s">
+        <v>425</v>
+      </c>
+      <c r="C124" t="s">
+        <v>420</v>
+      </c>
+      <c r="D124" t="s">
+        <v>426</v>
+      </c>
+      <c r="I124" t="s">
+        <v>249</v>
+      </c>
+      <c r="L124" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>688</v>
+      </c>
+      <c r="B125" t="s">
+        <v>428</v>
+      </c>
+      <c r="C125" t="s">
+        <v>420</v>
+      </c>
+      <c r="D125" t="s">
+        <v>429</v>
+      </c>
+      <c r="L125" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>689</v>
+      </c>
+      <c r="B126" t="s">
+        <v>375</v>
+      </c>
+      <c r="C126" t="s">
+        <v>66</v>
+      </c>
+      <c r="D126" t="s">
+        <v>376</v>
+      </c>
+      <c r="L126" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>690</v>
+      </c>
+      <c r="B127" t="s">
+        <v>383</v>
+      </c>
+      <c r="C127" t="s">
+        <v>375</v>
+      </c>
+      <c r="D127" t="s">
+        <v>384</v>
+      </c>
+      <c r="L127" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>691</v>
+      </c>
+      <c r="B128" t="s">
+        <v>369</v>
+      </c>
+      <c r="C128" t="s">
+        <v>365</v>
+      </c>
+      <c r="D128" t="s">
+        <v>370</v>
+      </c>
+      <c r="L128" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>692</v>
+      </c>
+      <c r="B129" t="s">
+        <v>217</v>
+      </c>
+      <c r="C129" t="s">
+        <v>106</v>
+      </c>
+      <c r="D129" t="s">
+        <v>218</v>
+      </c>
+      <c r="L129" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>693</v>
+      </c>
+      <c r="B130" t="s">
+        <v>371</v>
+      </c>
+      <c r="C130" t="s">
+        <v>365</v>
+      </c>
+      <c r="D130" t="s">
+        <v>372</v>
+      </c>
+      <c r="I130" t="s">
+        <v>380</v>
+      </c>
+      <c r="L130" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>694</v>
+      </c>
+      <c r="B131" t="s">
+        <v>293</v>
+      </c>
+      <c r="C131" t="s">
+        <v>66</v>
+      </c>
+      <c r="D131" t="s">
+        <v>294</v>
+      </c>
+      <c r="L131" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>695</v>
+      </c>
+      <c r="B132" t="s">
+        <v>295</v>
+      </c>
+      <c r="C132" t="s">
+        <v>293</v>
+      </c>
+      <c r="D132" t="s">
+        <v>296</v>
+      </c>
+      <c r="L132" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>696</v>
+      </c>
+      <c r="B133" t="s">
+        <v>298</v>
+      </c>
+      <c r="C133" t="s">
+        <v>293</v>
+      </c>
+      <c r="D133" t="s">
+        <v>299</v>
+      </c>
+      <c r="I133" t="s">
+        <v>297</v>
+      </c>
+      <c r="L133" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>697</v>
+      </c>
+      <c r="B134" t="s">
+        <v>312</v>
+      </c>
+      <c r="C134" t="s">
+        <v>300</v>
+      </c>
+      <c r="D134" t="s">
+        <v>315</v>
+      </c>
+      <c r="L134" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>698</v>
+      </c>
+      <c r="B135" t="s">
+        <v>324</v>
+      </c>
+      <c r="C135" t="s">
+        <v>320</v>
+      </c>
+      <c r="D135" t="s">
+        <v>325</v>
+      </c>
+      <c r="L135" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>699</v>
+      </c>
+      <c r="B136" t="s">
+        <v>318</v>
+      </c>
+      <c r="C136" t="s">
+        <v>312</v>
+      </c>
+      <c r="D136" t="s">
+        <v>319</v>
+      </c>
+      <c r="L136" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>700</v>
+      </c>
+      <c r="B137" t="s">
+        <v>306</v>
+      </c>
+      <c r="C137" t="s">
+        <v>302</v>
+      </c>
+      <c r="D137" t="s">
+        <v>307</v>
+      </c>
+      <c r="L137" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>701</v>
+      </c>
+      <c r="B138" t="s">
+        <v>311</v>
+      </c>
+      <c r="C138" t="s">
+        <v>310</v>
+      </c>
+      <c r="D138" t="s">
+        <v>314</v>
+      </c>
+      <c r="L138" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>702</v>
+      </c>
+      <c r="B139" t="s">
+        <v>322</v>
+      </c>
+      <c r="C139" t="s">
+        <v>320</v>
+      </c>
+      <c r="D139" t="s">
+        <v>323</v>
+      </c>
+      <c r="L139" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>703</v>
+      </c>
+      <c r="B140" t="s">
+        <v>316</v>
+      </c>
+      <c r="C140" t="s">
+        <v>312</v>
+      </c>
+      <c r="D140" t="s">
+        <v>317</v>
+      </c>
+      <c r="L140" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>704</v>
+      </c>
+      <c r="B141" t="s">
+        <v>304</v>
+      </c>
+      <c r="C141" t="s">
+        <v>302</v>
+      </c>
+      <c r="D141" t="s">
+        <v>305</v>
+      </c>
+      <c r="L141" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>705</v>
+      </c>
+      <c r="B142" t="s">
+        <v>309</v>
+      </c>
+      <c r="C142" t="s">
+        <v>310</v>
+      </c>
+      <c r="D142" t="s">
+        <v>313</v>
+      </c>
+      <c r="L142" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>706</v>
+      </c>
+      <c r="B143" t="s">
+        <v>395</v>
+      </c>
+      <c r="C143" t="s">
+        <v>66</v>
+      </c>
+      <c r="D143" t="s">
+        <v>396</v>
+      </c>
+      <c r="L143" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>707</v>
+      </c>
+      <c r="B144" t="s">
+        <v>616</v>
+      </c>
+      <c r="C144" t="s">
+        <v>66</v>
+      </c>
+      <c r="D144" t="s">
+        <v>607</v>
+      </c>
+      <c r="L144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>708</v>
+      </c>
+      <c r="B145" t="s">
         <v>543</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C145" t="s">
         <v>452</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D145" t="s">
         <v>531</v>
       </c>
-      <c r="L111" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B112" t="s">
+      <c r="L145" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>709</v>
+      </c>
+      <c r="B146" t="s">
         <v>600</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C146" t="s">
         <v>452</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D146" t="s">
         <v>591</v>
       </c>
-      <c r="L112" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B113" t="s">
+      <c r="L146" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>710</v>
+      </c>
+      <c r="B147" t="s">
         <v>582</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C147" t="s">
         <v>543</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D147" t="s">
         <v>573</v>
       </c>
-      <c r="L113" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B114" t="s">
+      <c r="L147" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>711</v>
+      </c>
+      <c r="B148" t="s">
         <v>613</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C148" t="s">
         <v>600</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D148" t="s">
         <v>604</v>
       </c>
-      <c r="L114" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B115" t="s">
+      <c r="L148" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>712</v>
+      </c>
+      <c r="B149" t="s">
         <v>597</v>
-      </c>
-      <c r="C115" t="s">
-        <v>582</v>
-      </c>
-      <c r="D115" t="s">
-        <v>588</v>
-      </c>
-      <c r="L115" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="116" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B116" t="s">
-        <v>593</v>
-      </c>
-      <c r="C116" t="s">
-        <v>582</v>
-      </c>
-      <c r="D116" t="s">
-        <v>584</v>
-      </c>
-      <c r="L116" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="117" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B117" t="s">
-        <v>599</v>
-      </c>
-      <c r="C117" t="s">
-        <v>597</v>
-      </c>
-      <c r="D117" t="s">
-        <v>590</v>
-      </c>
-      <c r="L117" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="118" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B118" t="s">
-        <v>674</v>
-      </c>
-      <c r="C118" t="s">
-        <v>672</v>
-      </c>
-      <c r="D118" t="s">
-        <v>664</v>
-      </c>
-      <c r="L118" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B119" t="s">
-        <v>672</v>
-      </c>
-      <c r="C119" t="s">
-        <v>658</v>
-      </c>
-      <c r="D119" t="s">
-        <v>662</v>
-      </c>
-      <c r="L119" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="120" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B120" t="s">
-        <v>679</v>
-      </c>
-      <c r="C120" t="s">
-        <v>675</v>
-      </c>
-      <c r="D120" t="s">
-        <v>669</v>
-      </c>
-      <c r="L120" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="121" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B121" t="s">
-        <v>583</v>
-      </c>
-      <c r="C121" t="s">
-        <v>582</v>
-      </c>
-      <c r="D121" t="s">
-        <v>574</v>
-      </c>
-      <c r="L121" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="122" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B122" t="s">
-        <v>598</v>
-      </c>
-      <c r="C122" t="s">
-        <v>597</v>
-      </c>
-      <c r="D122" t="s">
-        <v>589</v>
-      </c>
-      <c r="L122" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="123" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B123" t="s">
-        <v>673</v>
-      </c>
-      <c r="C123" t="s">
-        <v>672</v>
-      </c>
-      <c r="D123" t="s">
-        <v>663</v>
-      </c>
-      <c r="L123" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="124" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B124" t="s">
-        <v>658</v>
-      </c>
-      <c r="C124" t="s">
-        <v>616</v>
-      </c>
-      <c r="D124" t="s">
-        <v>647</v>
-      </c>
-      <c r="L124" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="125" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B125" t="s">
-        <v>675</v>
-      </c>
-      <c r="C125" t="s">
-        <v>616</v>
-      </c>
-      <c r="D125" t="s">
-        <v>665</v>
-      </c>
-      <c r="L125" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="126" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B126" t="s">
-        <v>544</v>
-      </c>
-      <c r="C126" t="s">
-        <v>543</v>
-      </c>
-      <c r="D126" t="s">
-        <v>532</v>
-      </c>
-      <c r="I126" t="s">
-        <v>361</v>
-      </c>
-      <c r="L126" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="127" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B127" t="s">
-        <v>601</v>
-      </c>
-      <c r="C127" t="s">
-        <v>600</v>
-      </c>
-      <c r="D127" t="s">
-        <v>592</v>
-      </c>
-      <c r="I127" t="s">
-        <v>364</v>
-      </c>
-      <c r="L127" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="128" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B128" t="s">
-        <v>576</v>
-      </c>
-      <c r="C128" t="s">
-        <v>544</v>
-      </c>
-      <c r="D128" t="s">
-        <v>567</v>
-      </c>
-      <c r="L128" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="129" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B129" t="s">
-        <v>547</v>
-      </c>
-      <c r="C129" t="s">
-        <v>544</v>
-      </c>
-      <c r="D129" t="s">
-        <v>535</v>
-      </c>
-      <c r="L129" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="130" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B130" t="s">
-        <v>558</v>
-      </c>
-      <c r="C130" t="s">
-        <v>544</v>
-      </c>
-      <c r="D130" t="s">
-        <v>550</v>
-      </c>
-      <c r="L130" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="131" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B131" t="s">
-        <v>564</v>
-      </c>
-      <c r="C131" t="s">
-        <v>544</v>
-      </c>
-      <c r="D131" t="s">
-        <v>556</v>
-      </c>
-      <c r="L131" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="132" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B132" t="s">
-        <v>561</v>
-      </c>
-      <c r="C132" t="s">
-        <v>544</v>
-      </c>
-      <c r="D132" t="s">
-        <v>553</v>
-      </c>
-      <c r="L132" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="133" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B133" t="s">
-        <v>546</v>
-      </c>
-      <c r="C133" t="s">
-        <v>544</v>
-      </c>
-      <c r="D133" t="s">
-        <v>534</v>
-      </c>
-      <c r="L133" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="134" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B134" t="s">
-        <v>578</v>
-      </c>
-      <c r="C134" t="s">
-        <v>576</v>
-      </c>
-      <c r="D134" t="s">
-        <v>569</v>
-      </c>
-      <c r="L134" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="135" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B135" t="s">
-        <v>549</v>
-      </c>
-      <c r="C135" t="s">
-        <v>547</v>
-      </c>
-      <c r="D135" t="s">
-        <v>537</v>
-      </c>
-      <c r="L135" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="136" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B136" t="s">
-        <v>560</v>
-      </c>
-      <c r="C136" t="s">
-        <v>558</v>
-      </c>
-      <c r="D136" t="s">
-        <v>552</v>
-      </c>
-      <c r="L136" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="137" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B137" t="s">
-        <v>575</v>
-      </c>
-      <c r="C137" t="s">
-        <v>564</v>
-      </c>
-      <c r="D137" t="s">
-        <v>566</v>
-      </c>
-      <c r="I137" t="s">
-        <v>414</v>
-      </c>
-      <c r="L137" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="138" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B138" t="s">
-        <v>563</v>
-      </c>
-      <c r="C138" t="s">
-        <v>561</v>
-      </c>
-      <c r="D138" t="s">
-        <v>555</v>
-      </c>
-      <c r="I138" t="s">
-        <v>189</v>
-      </c>
-      <c r="L138" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="139" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B139" t="s">
-        <v>671</v>
-      </c>
-      <c r="C139" t="s">
-        <v>659</v>
-      </c>
-      <c r="D139" t="s">
-        <v>661</v>
-      </c>
-      <c r="I139" t="s">
-        <v>192</v>
-      </c>
-      <c r="L139" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="140" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B140" t="s">
-        <v>659</v>
-      </c>
-      <c r="C140" t="s">
-        <v>658</v>
-      </c>
-      <c r="D140" t="s">
-        <v>648</v>
-      </c>
-      <c r="I140" t="s">
-        <v>197</v>
-      </c>
-      <c r="L140" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="141" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B141" t="s">
-        <v>676</v>
-      </c>
-      <c r="C141" t="s">
-        <v>675</v>
-      </c>
-      <c r="D141" t="s">
-        <v>666</v>
-      </c>
-      <c r="I141" t="s">
-        <v>189</v>
-      </c>
-      <c r="L141" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="142" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B142" t="s">
-        <v>545</v>
-      </c>
-      <c r="C142" t="s">
-        <v>544</v>
-      </c>
-      <c r="D142" t="s">
-        <v>533</v>
-      </c>
-      <c r="L142" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="143" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B143" t="s">
-        <v>577</v>
-      </c>
-      <c r="C143" t="s">
-        <v>576</v>
-      </c>
-      <c r="D143" t="s">
-        <v>568</v>
-      </c>
-      <c r="L143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="144" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B144" t="s">
-        <v>548</v>
-      </c>
-      <c r="C144" t="s">
-        <v>547</v>
-      </c>
-      <c r="D144" t="s">
-        <v>536</v>
-      </c>
-      <c r="L144" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="145" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B145" t="s">
-        <v>559</v>
-      </c>
-      <c r="C145" t="s">
-        <v>558</v>
-      </c>
-      <c r="D145" t="s">
-        <v>551</v>
-      </c>
-      <c r="L145" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="146" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B146" t="s">
-        <v>565</v>
-      </c>
-      <c r="C146" t="s">
-        <v>564</v>
-      </c>
-      <c r="D146" t="s">
-        <v>557</v>
-      </c>
-      <c r="L146" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="147" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B147" t="s">
-        <v>562</v>
-      </c>
-      <c r="C147" t="s">
-        <v>561</v>
-      </c>
-      <c r="D147" t="s">
-        <v>554</v>
-      </c>
-      <c r="L147" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="148" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B148" t="s">
-        <v>660</v>
-      </c>
-      <c r="C148" t="s">
-        <v>659</v>
-      </c>
-      <c r="D148" t="s">
-        <v>649</v>
-      </c>
-      <c r="L148" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="149" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B149" t="s">
-        <v>594</v>
       </c>
       <c r="C149" t="s">
         <v>582</v>
       </c>
       <c r="D149" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="L149" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="150" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>713</v>
+      </c>
       <c r="B150" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C150" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="D150" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="L150" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>714</v>
+      </c>
       <c r="B151" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="C151" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="D151" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="L151" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="152" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>715</v>
+      </c>
       <c r="B152" t="s">
-        <v>579</v>
+        <v>674</v>
       </c>
       <c r="C152" t="s">
+        <v>672</v>
+      </c>
+      <c r="D152" t="s">
+        <v>664</v>
+      </c>
+      <c r="L152" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>716</v>
+      </c>
+      <c r="B153" t="s">
+        <v>672</v>
+      </c>
+      <c r="C153" t="s">
+        <v>658</v>
+      </c>
+      <c r="D153" t="s">
+        <v>662</v>
+      </c>
+      <c r="L153" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>717</v>
+      </c>
+      <c r="B154" t="s">
+        <v>679</v>
+      </c>
+      <c r="C154" t="s">
+        <v>675</v>
+      </c>
+      <c r="D154" t="s">
+        <v>669</v>
+      </c>
+      <c r="L154" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>718</v>
+      </c>
+      <c r="B155" t="s">
+        <v>583</v>
+      </c>
+      <c r="C155" t="s">
+        <v>582</v>
+      </c>
+      <c r="D155" t="s">
+        <v>574</v>
+      </c>
+      <c r="L155" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>719</v>
+      </c>
+      <c r="B156" t="s">
+        <v>598</v>
+      </c>
+      <c r="C156" t="s">
+        <v>597</v>
+      </c>
+      <c r="D156" t="s">
+        <v>589</v>
+      </c>
+      <c r="L156" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>720</v>
+      </c>
+      <c r="B157" t="s">
+        <v>673</v>
+      </c>
+      <c r="C157" t="s">
+        <v>672</v>
+      </c>
+      <c r="D157" t="s">
+        <v>663</v>
+      </c>
+      <c r="L157" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>721</v>
+      </c>
+      <c r="B158" t="s">
+        <v>658</v>
+      </c>
+      <c r="C158" t="s">
+        <v>616</v>
+      </c>
+      <c r="D158" t="s">
+        <v>647</v>
+      </c>
+      <c r="L158" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>722</v>
+      </c>
+      <c r="B159" t="s">
+        <v>675</v>
+      </c>
+      <c r="C159" t="s">
+        <v>616</v>
+      </c>
+      <c r="D159" t="s">
+        <v>665</v>
+      </c>
+      <c r="L159" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>723</v>
+      </c>
+      <c r="B160" t="s">
         <v>544</v>
       </c>
-      <c r="D152" t="s">
-        <v>570</v>
-      </c>
-      <c r="I152" t="s">
-        <v>463</v>
-      </c>
-      <c r="L152" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="153" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B153" t="s">
-        <v>581</v>
-      </c>
-      <c r="C153" t="s">
-        <v>579</v>
-      </c>
-      <c r="D153" t="s">
-        <v>572</v>
-      </c>
-      <c r="I153" t="s">
-        <v>464</v>
-      </c>
-      <c r="L153" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="154" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B154" t="s">
-        <v>580</v>
-      </c>
-      <c r="C154" t="s">
-        <v>579</v>
-      </c>
-      <c r="D154" t="s">
-        <v>571</v>
-      </c>
-      <c r="L154" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="155" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B155" t="s">
-        <v>615</v>
-      </c>
-      <c r="C155" t="s">
-        <v>613</v>
-      </c>
-      <c r="D155" t="s">
-        <v>606</v>
-      </c>
-      <c r="L155" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="156" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B156" t="s">
-        <v>681</v>
-      </c>
-      <c r="C156" t="s">
-        <v>679</v>
-      </c>
-      <c r="D156" t="s">
-        <v>682</v>
-      </c>
-      <c r="I156" t="s">
-        <v>464</v>
-      </c>
-      <c r="L156" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="157" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B157" t="s">
-        <v>614</v>
-      </c>
-      <c r="C157" t="s">
-        <v>613</v>
-      </c>
-      <c r="D157" t="s">
-        <v>605</v>
-      </c>
-      <c r="L157" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="158" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B158" t="s">
-        <v>680</v>
-      </c>
-      <c r="C158" t="s">
-        <v>679</v>
-      </c>
-      <c r="D158" t="s">
-        <v>670</v>
-      </c>
-      <c r="L158" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="159" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B159" t="s">
-        <v>612</v>
-      </c>
-      <c r="C159" t="s">
+      <c r="C160" t="s">
+        <v>543</v>
+      </c>
+      <c r="D160" t="s">
+        <v>532</v>
+      </c>
+      <c r="I160" t="s">
+        <v>361</v>
+      </c>
+      <c r="L160" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>724</v>
+      </c>
+      <c r="B161" t="s">
         <v>601</v>
       </c>
-      <c r="D159" t="s">
-        <v>603</v>
-      </c>
-      <c r="I159" t="s">
-        <v>464</v>
-      </c>
-      <c r="L159" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="160" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B160" t="s">
-        <v>678</v>
-      </c>
-      <c r="C160" t="s">
-        <v>676</v>
-      </c>
-      <c r="D160" t="s">
-        <v>668</v>
-      </c>
-      <c r="L160" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B161" t="s">
-        <v>611</v>
-      </c>
       <c r="C161" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D161" t="s">
-        <v>602</v>
+        <v>592</v>
+      </c>
+      <c r="I161" t="s">
+        <v>364</v>
       </c>
       <c r="L161" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>725</v>
+      </c>
       <c r="B162" t="s">
-        <v>677</v>
+        <v>576</v>
       </c>
       <c r="C162" t="s">
-        <v>676</v>
+        <v>544</v>
       </c>
       <c r="D162" t="s">
-        <v>667</v>
-      </c>
-      <c r="I162" t="s">
-        <v>464</v>
+        <v>567</v>
       </c>
       <c r="L162" t="s">
         <v>16</v>
@@ -5086,16 +5761,16 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>140</v>
+        <v>726</v>
       </c>
       <c r="B163" t="s">
-        <v>94</v>
+        <v>547</v>
       </c>
       <c r="C163" t="s">
-        <v>66</v>
+        <v>544</v>
       </c>
       <c r="D163" t="s">
-        <v>417</v>
+        <v>535</v>
       </c>
       <c r="L163" t="s">
         <v>16</v>
@@ -5103,16 +5778,16 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>142</v>
+        <v>727</v>
       </c>
       <c r="B164" t="s">
-        <v>143</v>
+        <v>558</v>
       </c>
       <c r="C164" t="s">
-        <v>300</v>
+        <v>544</v>
       </c>
       <c r="D164" t="s">
-        <v>331</v>
+        <v>550</v>
       </c>
       <c r="L164" t="s">
         <v>16</v>
@@ -5120,19 +5795,16 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>103</v>
+        <v>728</v>
       </c>
       <c r="B165" t="s">
-        <v>410</v>
+        <v>564</v>
       </c>
       <c r="C165" t="s">
-        <v>402</v>
+        <v>544</v>
       </c>
       <c r="D165" t="s">
-        <v>411</v>
-      </c>
-      <c r="I165" t="s">
-        <v>464</v>
+        <v>556</v>
       </c>
       <c r="L165" t="s">
         <v>16</v>
@@ -5140,16 +5812,16 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>165</v>
+        <v>729</v>
       </c>
       <c r="B166" t="s">
-        <v>443</v>
+        <v>561</v>
       </c>
       <c r="C166" t="s">
-        <v>66</v>
+        <v>544</v>
       </c>
       <c r="D166" t="s">
-        <v>444</v>
+        <v>553</v>
       </c>
       <c r="L166" t="s">
         <v>16</v>
@@ -5157,16 +5829,16 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>141</v>
+        <v>730</v>
       </c>
       <c r="B167" t="s">
-        <v>354</v>
+        <v>546</v>
       </c>
       <c r="C167" t="s">
-        <v>355</v>
+        <v>544</v>
       </c>
       <c r="D167" t="s">
-        <v>356</v>
+        <v>534</v>
       </c>
       <c r="L167" t="s">
         <v>16</v>
@@ -5174,19 +5846,16 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>170</v>
+        <v>731</v>
       </c>
       <c r="B168" t="s">
-        <v>412</v>
+        <v>578</v>
       </c>
       <c r="C168" t="s">
-        <v>402</v>
+        <v>576</v>
       </c>
       <c r="D168" t="s">
-        <v>413</v>
-      </c>
-      <c r="I168" t="s">
-        <v>464</v>
+        <v>569</v>
       </c>
       <c r="L168" t="s">
         <v>16</v>
@@ -5194,47 +5863,53 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>175</v>
+        <v>732</v>
       </c>
       <c r="B169" t="s">
-        <v>340</v>
+        <v>549</v>
       </c>
       <c r="C169" t="s">
-        <v>338</v>
+        <v>547</v>
       </c>
       <c r="D169" t="s">
-        <v>341</v>
+        <v>537</v>
       </c>
       <c r="L169" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>733</v>
+      </c>
       <c r="B170" t="s">
-        <v>402</v>
+        <v>560</v>
       </c>
       <c r="C170" t="s">
-        <v>66</v>
+        <v>558</v>
       </c>
       <c r="D170" t="s">
-        <v>403</v>
+        <v>552</v>
       </c>
       <c r="L170" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>734</v>
+      </c>
       <c r="B171" t="s">
-        <v>454</v>
+        <v>575</v>
       </c>
       <c r="C171" t="s">
-        <v>452</v>
+        <v>564</v>
       </c>
       <c r="D171" t="s">
-        <v>455</v>
+        <v>566</v>
       </c>
       <c r="I171" t="s">
-        <v>464</v>
+        <v>414</v>
       </c>
       <c r="L171" t="s">
         <v>16</v>
@@ -5242,16 +5917,19 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>72</v>
+        <v>735</v>
       </c>
       <c r="B172" t="s">
-        <v>242</v>
+        <v>563</v>
       </c>
       <c r="C172" t="s">
-        <v>237</v>
+        <v>561</v>
       </c>
       <c r="D172" t="s">
-        <v>243</v>
+        <v>555</v>
+      </c>
+      <c r="I172" t="s">
+        <v>189</v>
       </c>
       <c r="L172" t="s">
         <v>16</v>
@@ -5259,19 +5937,19 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>49</v>
+        <v>736</v>
       </c>
       <c r="B173" t="s">
-        <v>433</v>
+        <v>671</v>
       </c>
       <c r="C173" t="s">
-        <v>19</v>
+        <v>659</v>
       </c>
       <c r="D173" t="s">
-        <v>434</v>
+        <v>661</v>
       </c>
       <c r="I173" t="s">
-        <v>499</v>
+        <v>192</v>
       </c>
       <c r="L173" t="s">
         <v>16</v>
@@ -5279,19 +5957,19 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>99</v>
+        <v>737</v>
       </c>
       <c r="B174" t="s">
-        <v>237</v>
+        <v>659</v>
       </c>
       <c r="C174" t="s">
-        <v>100</v>
+        <v>658</v>
       </c>
       <c r="D174" t="s">
-        <v>238</v>
+        <v>648</v>
       </c>
       <c r="I174" t="s">
-        <v>464</v>
+        <v>197</v>
       </c>
       <c r="L174" t="s">
         <v>16</v>
@@ -5299,16 +5977,19 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>101</v>
+        <v>738</v>
       </c>
       <c r="B175" t="s">
-        <v>240</v>
+        <v>676</v>
       </c>
       <c r="C175" t="s">
-        <v>237</v>
+        <v>675</v>
       </c>
       <c r="D175" t="s">
-        <v>241</v>
+        <v>666</v>
+      </c>
+      <c r="I175" t="s">
+        <v>189</v>
       </c>
       <c r="L175" t="s">
         <v>16</v>
@@ -5316,171 +5997,189 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>102</v>
+        <v>739</v>
       </c>
       <c r="B176" t="s">
-        <v>244</v>
+        <v>545</v>
       </c>
       <c r="C176" t="s">
-        <v>237</v>
+        <v>544</v>
       </c>
       <c r="D176" t="s">
-        <v>245</v>
+        <v>533</v>
       </c>
       <c r="L176" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>740</v>
+      </c>
       <c r="B177" t="s">
-        <v>505</v>
+        <v>577</v>
       </c>
       <c r="C177" t="s">
-        <v>454</v>
+        <v>576</v>
       </c>
       <c r="D177" t="s">
-        <v>495</v>
-      </c>
-      <c r="I177" t="s">
-        <v>464</v>
+        <v>568</v>
       </c>
       <c r="L177" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>741</v>
+      </c>
       <c r="B178" t="s">
-        <v>508</v>
+        <v>548</v>
       </c>
       <c r="C178" t="s">
-        <v>505</v>
+        <v>547</v>
       </c>
       <c r="D178" t="s">
-        <v>498</v>
+        <v>536</v>
       </c>
       <c r="L178" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>742</v>
+      </c>
       <c r="B179" t="s">
-        <v>507</v>
+        <v>559</v>
       </c>
       <c r="C179" t="s">
-        <v>505</v>
+        <v>558</v>
       </c>
       <c r="D179" t="s">
-        <v>497</v>
+        <v>551</v>
       </c>
       <c r="L179" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>743</v>
+      </c>
       <c r="B180" t="s">
-        <v>520</v>
+        <v>565</v>
       </c>
       <c r="C180" t="s">
-        <v>508</v>
+        <v>564</v>
       </c>
       <c r="D180" t="s">
-        <v>510</v>
-      </c>
-      <c r="I180" t="s">
-        <v>464</v>
+        <v>557</v>
       </c>
       <c r="L180" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>744</v>
+      </c>
       <c r="B181" t="s">
-        <v>636</v>
+        <v>562</v>
       </c>
       <c r="C181" t="s">
-        <v>634</v>
+        <v>561</v>
       </c>
       <c r="D181" t="s">
-        <v>626</v>
+        <v>554</v>
       </c>
       <c r="L181" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>745</v>
+      </c>
       <c r="B182" t="s">
-        <v>634</v>
+        <v>660</v>
       </c>
       <c r="C182" t="s">
-        <v>617</v>
+        <v>659</v>
       </c>
       <c r="D182" t="s">
-        <v>624</v>
+        <v>649</v>
       </c>
       <c r="L182" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>746</v>
+      </c>
       <c r="B183" t="s">
-        <v>506</v>
+        <v>594</v>
       </c>
       <c r="C183" t="s">
-        <v>505</v>
+        <v>582</v>
       </c>
       <c r="D183" t="s">
-        <v>496</v>
-      </c>
-      <c r="I183" t="s">
-        <v>518</v>
+        <v>585</v>
       </c>
       <c r="L183" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>747</v>
+      </c>
       <c r="B184" t="s">
-        <v>519</v>
+        <v>596</v>
       </c>
       <c r="C184" t="s">
-        <v>508</v>
+        <v>594</v>
       </c>
       <c r="D184" t="s">
-        <v>509</v>
-      </c>
-      <c r="I184" t="s">
-        <v>464</v>
+        <v>587</v>
       </c>
       <c r="L184" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>748</v>
+      </c>
       <c r="B185" t="s">
-        <v>635</v>
+        <v>595</v>
       </c>
       <c r="C185" t="s">
-        <v>634</v>
+        <v>594</v>
       </c>
       <c r="D185" t="s">
-        <v>625</v>
+        <v>586</v>
       </c>
       <c r="L185" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>749</v>
+      </c>
       <c r="B186" t="s">
-        <v>617</v>
+        <v>579</v>
       </c>
       <c r="C186" t="s">
-        <v>616</v>
+        <v>544</v>
       </c>
       <c r="D186" t="s">
-        <v>608</v>
+        <v>570</v>
       </c>
       <c r="I186" t="s">
-        <v>538</v>
+        <v>463</v>
       </c>
       <c r="L186" t="s">
         <v>16</v>
@@ -5488,16 +6187,16 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>149</v>
+        <v>750</v>
       </c>
       <c r="B187" t="s">
-        <v>150</v>
+        <v>581</v>
       </c>
       <c r="C187" t="s">
-        <v>94</v>
+        <v>579</v>
       </c>
       <c r="D187" t="s">
-        <v>418</v>
+        <v>572</v>
       </c>
       <c r="I187" t="s">
         <v>464</v>
@@ -5507,287 +6206,344 @@
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>751</v>
+      </c>
       <c r="B188" t="s">
-        <v>489</v>
+        <v>580</v>
       </c>
       <c r="C188" t="s">
-        <v>465</v>
+        <v>579</v>
       </c>
       <c r="D188" t="s">
-        <v>480</v>
+        <v>571</v>
       </c>
       <c r="L188" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>752</v>
+      </c>
       <c r="B189" t="s">
-        <v>465</v>
+        <v>615</v>
       </c>
       <c r="C189" t="s">
+        <v>613</v>
+      </c>
+      <c r="D189" t="s">
+        <v>606</v>
+      </c>
+      <c r="L189" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>753</v>
+      </c>
+      <c r="B190" t="s">
+        <v>681</v>
+      </c>
+      <c r="C190" t="s">
+        <v>679</v>
+      </c>
+      <c r="D190" t="s">
+        <v>682</v>
+      </c>
+      <c r="I190" t="s">
+        <v>464</v>
+      </c>
+      <c r="L190" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>754</v>
+      </c>
+      <c r="B191" t="s">
+        <v>614</v>
+      </c>
+      <c r="C191" t="s">
+        <v>613</v>
+      </c>
+      <c r="D191" t="s">
+        <v>605</v>
+      </c>
+      <c r="L191" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>755</v>
+      </c>
+      <c r="B192" t="s">
+        <v>680</v>
+      </c>
+      <c r="C192" t="s">
+        <v>679</v>
+      </c>
+      <c r="D192" t="s">
+        <v>670</v>
+      </c>
+      <c r="L192" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>756</v>
+      </c>
+      <c r="B193" t="s">
+        <v>612</v>
+      </c>
+      <c r="C193" t="s">
+        <v>601</v>
+      </c>
+      <c r="D193" t="s">
+        <v>603</v>
+      </c>
+      <c r="I193" t="s">
+        <v>464</v>
+      </c>
+      <c r="L193" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>757</v>
+      </c>
+      <c r="B194" t="s">
+        <v>678</v>
+      </c>
+      <c r="C194" t="s">
+        <v>676</v>
+      </c>
+      <c r="D194" t="s">
+        <v>668</v>
+      </c>
+      <c r="L194" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>758</v>
+      </c>
+      <c r="B195" t="s">
+        <v>611</v>
+      </c>
+      <c r="C195" t="s">
+        <v>601</v>
+      </c>
+      <c r="D195" t="s">
+        <v>602</v>
+      </c>
+      <c r="L195" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>759</v>
+      </c>
+      <c r="B196" t="s">
+        <v>677</v>
+      </c>
+      <c r="C196" t="s">
+        <v>676</v>
+      </c>
+      <c r="D196" t="s">
+        <v>667</v>
+      </c>
+      <c r="I196" t="s">
+        <v>464</v>
+      </c>
+      <c r="L196" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>760</v>
+      </c>
+      <c r="B197" t="s">
+        <v>402</v>
+      </c>
+      <c r="C197" t="s">
+        <v>66</v>
+      </c>
+      <c r="D197" t="s">
+        <v>403</v>
+      </c>
+      <c r="L197" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>761</v>
+      </c>
+      <c r="B198" t="s">
         <v>454</v>
       </c>
-      <c r="D189" t="s">
-        <v>456</v>
-      </c>
-      <c r="I189" t="s">
-        <v>539</v>
-      </c>
-      <c r="L189" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B190" t="s">
-        <v>468</v>
-      </c>
-      <c r="C190" t="s">
-        <v>465</v>
-      </c>
-      <c r="D190" t="s">
-        <v>459</v>
-      </c>
-      <c r="I190" t="s">
-        <v>463</v>
-      </c>
-      <c r="L190" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B191" t="s">
-        <v>471</v>
-      </c>
-      <c r="C191" t="s">
-        <v>465</v>
-      </c>
-      <c r="D191" t="s">
-        <v>462</v>
-      </c>
-      <c r="I191" t="s">
+      <c r="C198" t="s">
+        <v>452</v>
+      </c>
+      <c r="D198" t="s">
+        <v>455</v>
+      </c>
+      <c r="I198" t="s">
         <v>464</v>
       </c>
-      <c r="L191" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B192" t="s">
-        <v>486</v>
-      </c>
-      <c r="C192" t="s">
-        <v>465</v>
-      </c>
-      <c r="D192" t="s">
-        <v>477</v>
-      </c>
-      <c r="L192" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="193" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B193" t="s">
-        <v>483</v>
-      </c>
-      <c r="C193" t="s">
-        <v>465</v>
-      </c>
-      <c r="D193" t="s">
-        <v>474</v>
-      </c>
-      <c r="L193" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="194" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B194" t="s">
-        <v>467</v>
-      </c>
-      <c r="C194" t="s">
-        <v>465</v>
-      </c>
-      <c r="D194" t="s">
-        <v>458</v>
-      </c>
-      <c r="I194" t="s">
+      <c r="L198" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>762</v>
+      </c>
+      <c r="B199" t="s">
+        <v>505</v>
+      </c>
+      <c r="C199" t="s">
+        <v>454</v>
+      </c>
+      <c r="D199" t="s">
+        <v>495</v>
+      </c>
+      <c r="I199" t="s">
         <v>464</v>
       </c>
-      <c r="L194" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="195" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B195" t="s">
-        <v>501</v>
-      </c>
-      <c r="C195" t="s">
-        <v>489</v>
-      </c>
-      <c r="D195" t="s">
-        <v>491</v>
-      </c>
-      <c r="L195" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="196" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B196" t="s">
-        <v>470</v>
-      </c>
-      <c r="C196" t="s">
-        <v>468</v>
-      </c>
-      <c r="D196" t="s">
-        <v>461</v>
-      </c>
-      <c r="L196" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="197" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B197" t="s">
-        <v>482</v>
-      </c>
-      <c r="C197" t="s">
-        <v>471</v>
-      </c>
-      <c r="D197" t="s">
-        <v>473</v>
-      </c>
-      <c r="I197" t="s">
+      <c r="L199" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>763</v>
+      </c>
+      <c r="B200" t="s">
+        <v>508</v>
+      </c>
+      <c r="C200" t="s">
+        <v>505</v>
+      </c>
+      <c r="D200" t="s">
+        <v>498</v>
+      </c>
+      <c r="L200" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>764</v>
+      </c>
+      <c r="B201" t="s">
+        <v>507</v>
+      </c>
+      <c r="C201" t="s">
+        <v>505</v>
+      </c>
+      <c r="D201" t="s">
+        <v>497</v>
+      </c>
+      <c r="L201" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>765</v>
+      </c>
+      <c r="B202" t="s">
+        <v>520</v>
+      </c>
+      <c r="C202" t="s">
+        <v>508</v>
+      </c>
+      <c r="D202" t="s">
+        <v>510</v>
+      </c>
+      <c r="I202" t="s">
         <v>464</v>
       </c>
-      <c r="L197" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="198" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B198" t="s">
-        <v>488</v>
-      </c>
-      <c r="C198" t="s">
-        <v>486</v>
-      </c>
-      <c r="D198" t="s">
-        <v>479</v>
-      </c>
-      <c r="L198" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="199" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B199" t="s">
-        <v>485</v>
-      </c>
-      <c r="C199" t="s">
-        <v>483</v>
-      </c>
-      <c r="D199" t="s">
-        <v>476</v>
-      </c>
-      <c r="L199" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="200" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B200" t="s">
-        <v>630</v>
-      </c>
-      <c r="C200" t="s">
-        <v>618</v>
-      </c>
-      <c r="D200" t="s">
-        <v>620</v>
-      </c>
-      <c r="I200" t="s">
-        <v>464</v>
-      </c>
-      <c r="L200" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="201" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B201" t="s">
-        <v>618</v>
-      </c>
-      <c r="C201" t="s">
+      <c r="L202" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>766</v>
+      </c>
+      <c r="B203" t="s">
+        <v>636</v>
+      </c>
+      <c r="C203" t="s">
+        <v>634</v>
+      </c>
+      <c r="D203" t="s">
+        <v>626</v>
+      </c>
+      <c r="L203" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>767</v>
+      </c>
+      <c r="B204" t="s">
+        <v>634</v>
+      </c>
+      <c r="C204" t="s">
         <v>617</v>
       </c>
-      <c r="D201" t="s">
-        <v>609</v>
-      </c>
-      <c r="L201" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="202" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B202" t="s">
-        <v>466</v>
-      </c>
-      <c r="C202" t="s">
-        <v>465</v>
-      </c>
-      <c r="D202" t="s">
-        <v>457</v>
-      </c>
-      <c r="L202" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="203" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B203" t="s">
-        <v>500</v>
-      </c>
-      <c r="C203" t="s">
-        <v>489</v>
-      </c>
-      <c r="D203" t="s">
-        <v>490</v>
-      </c>
-      <c r="I203" t="s">
-        <v>464</v>
-      </c>
-      <c r="L203" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="204" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B204" t="s">
-        <v>469</v>
-      </c>
-      <c r="C204" t="s">
-        <v>468</v>
-      </c>
       <c r="D204" t="s">
-        <v>460</v>
+        <v>624</v>
       </c>
       <c r="L204" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="205" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>768</v>
+      </c>
       <c r="B205" t="s">
-        <v>481</v>
+        <v>506</v>
       </c>
       <c r="C205" t="s">
-        <v>471</v>
+        <v>505</v>
       </c>
       <c r="D205" t="s">
-        <v>472</v>
+        <v>496</v>
+      </c>
+      <c r="I205" t="s">
+        <v>518</v>
       </c>
       <c r="L205" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="206" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>769</v>
+      </c>
       <c r="B206" t="s">
-        <v>487</v>
+        <v>519</v>
       </c>
       <c r="C206" t="s">
-        <v>486</v>
+        <v>508</v>
       </c>
       <c r="D206" t="s">
-        <v>478</v>
+        <v>509</v>
       </c>
       <c r="I206" t="s">
         <v>464</v>
@@ -5796,91 +6552,112 @@
         <v>16</v>
       </c>
     </row>
-    <row r="207" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>770</v>
+      </c>
       <c r="B207" t="s">
-        <v>484</v>
+        <v>635</v>
       </c>
       <c r="C207" t="s">
-        <v>483</v>
+        <v>634</v>
       </c>
       <c r="D207" t="s">
-        <v>475</v>
+        <v>625</v>
       </c>
       <c r="L207" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="208" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>771</v>
+      </c>
       <c r="B208" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C208" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D208" t="s">
-        <v>610</v>
+        <v>608</v>
+      </c>
+      <c r="I208" t="s">
+        <v>538</v>
       </c>
       <c r="L208" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>772</v>
+      </c>
       <c r="B209" t="s">
-        <v>633</v>
+        <v>489</v>
       </c>
       <c r="C209" t="s">
-        <v>631</v>
+        <v>465</v>
       </c>
       <c r="D209" t="s">
-        <v>623</v>
-      </c>
-      <c r="I209" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="L209" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>773</v>
+      </c>
       <c r="B210" t="s">
-        <v>521</v>
+        <v>465</v>
       </c>
       <c r="C210" t="s">
-        <v>505</v>
+        <v>454</v>
       </c>
       <c r="D210" t="s">
-        <v>511</v>
+        <v>456</v>
+      </c>
+      <c r="I210" t="s">
+        <v>539</v>
       </c>
       <c r="L210" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>774</v>
+      </c>
       <c r="B211" t="s">
-        <v>523</v>
+        <v>468</v>
       </c>
       <c r="C211" t="s">
-        <v>521</v>
+        <v>465</v>
       </c>
       <c r="D211" t="s">
-        <v>513</v>
+        <v>459</v>
       </c>
       <c r="I211" t="s">
-        <v>499</v>
+        <v>463</v>
       </c>
       <c r="L211" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>775</v>
+      </c>
       <c r="B212" t="s">
-        <v>639</v>
+        <v>471</v>
       </c>
       <c r="C212" t="s">
-        <v>637</v>
+        <v>465</v>
       </c>
       <c r="D212" t="s">
-        <v>629</v>
+        <v>462</v>
       </c>
       <c r="I212" t="s">
         <v>464</v>
@@ -5890,112 +6667,142 @@
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>776</v>
+      </c>
       <c r="B213" t="s">
-        <v>637</v>
+        <v>486</v>
       </c>
       <c r="C213" t="s">
-        <v>634</v>
+        <v>465</v>
       </c>
       <c r="D213" t="s">
-        <v>627</v>
+        <v>477</v>
       </c>
       <c r="L213" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>777</v>
+      </c>
       <c r="B214" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
       <c r="C214" t="s">
-        <v>521</v>
+        <v>465</v>
       </c>
       <c r="D214" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="L214" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>778</v>
+      </c>
       <c r="B215" t="s">
-        <v>638</v>
+        <v>467</v>
       </c>
       <c r="C215" t="s">
-        <v>637</v>
+        <v>465</v>
       </c>
       <c r="D215" t="s">
-        <v>628</v>
+        <v>458</v>
+      </c>
+      <c r="I215" t="s">
+        <v>464</v>
       </c>
       <c r="L215" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>779</v>
+      </c>
       <c r="B216" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C216" t="s">
-        <v>465</v>
+        <v>489</v>
       </c>
       <c r="D216" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L216" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>780</v>
+      </c>
       <c r="B217" t="s">
-        <v>504</v>
+        <v>470</v>
       </c>
       <c r="C217" t="s">
-        <v>502</v>
+        <v>468</v>
       </c>
       <c r="D217" t="s">
-        <v>494</v>
+        <v>461</v>
       </c>
       <c r="L217" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>781</v>
+      </c>
       <c r="B218" t="s">
-        <v>631</v>
+        <v>482</v>
       </c>
       <c r="C218" t="s">
-        <v>618</v>
+        <v>471</v>
       </c>
       <c r="D218" t="s">
-        <v>621</v>
+        <v>473</v>
+      </c>
+      <c r="I218" t="s">
+        <v>464</v>
       </c>
       <c r="L218" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>782</v>
+      </c>
       <c r="B219" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="C219" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="D219" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="L219" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>783</v>
+      </c>
       <c r="B220" t="s">
-        <v>632</v>
+        <v>485</v>
       </c>
       <c r="C220" t="s">
-        <v>631</v>
+        <v>483</v>
       </c>
       <c r="D220" t="s">
-        <v>622</v>
+        <v>476</v>
       </c>
       <c r="L220" t="s">
         <v>16</v>
@@ -6003,16 +6810,19 @@
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>152</v>
+        <v>784</v>
       </c>
       <c r="B221" t="s">
-        <v>287</v>
+        <v>630</v>
       </c>
       <c r="C221" t="s">
-        <v>283</v>
+        <v>618</v>
       </c>
       <c r="D221" t="s">
-        <v>288</v>
+        <v>620</v>
+      </c>
+      <c r="I221" t="s">
+        <v>464</v>
       </c>
       <c r="L221" t="s">
         <v>16</v>
@@ -6020,19 +6830,16 @@
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>153</v>
+        <v>785</v>
       </c>
       <c r="B222" t="s">
-        <v>230</v>
+        <v>618</v>
       </c>
       <c r="C222" t="s">
-        <v>100</v>
+        <v>617</v>
       </c>
       <c r="D222" t="s">
-        <v>231</v>
-      </c>
-      <c r="I222" t="s">
-        <v>464</v>
+        <v>609</v>
       </c>
       <c r="L222" t="s">
         <v>16</v>
@@ -6040,16 +6847,16 @@
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>154</v>
+        <v>786</v>
       </c>
       <c r="B223" t="s">
-        <v>232</v>
+        <v>466</v>
       </c>
       <c r="C223" t="s">
-        <v>100</v>
+        <v>465</v>
       </c>
       <c r="D223" t="s">
-        <v>233</v>
+        <v>457</v>
       </c>
       <c r="L223" t="s">
         <v>16</v>
@@ -6057,33 +6864,36 @@
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>155</v>
+        <v>787</v>
       </c>
       <c r="B224" t="s">
-        <v>359</v>
+        <v>500</v>
       </c>
       <c r="C224" t="s">
-        <v>355</v>
+        <v>489</v>
       </c>
       <c r="D224" t="s">
-        <v>360</v>
+        <v>490</v>
+      </c>
+      <c r="I224" t="s">
+        <v>464</v>
       </c>
       <c r="L224" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>788</v>
+      </c>
       <c r="B225" t="s">
-        <v>435</v>
+        <v>469</v>
       </c>
       <c r="C225" t="s">
-        <v>19</v>
+        <v>468</v>
       </c>
       <c r="D225" t="s">
-        <v>436</v>
-      </c>
-      <c r="I225" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="L225" t="s">
         <v>16</v>
@@ -6091,16 +6901,16 @@
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>156</v>
+        <v>789</v>
       </c>
       <c r="B226" t="s">
-        <v>362</v>
+        <v>481</v>
       </c>
       <c r="C226" t="s">
-        <v>355</v>
+        <v>471</v>
       </c>
       <c r="D226" t="s">
-        <v>363</v>
+        <v>472</v>
       </c>
       <c r="L226" t="s">
         <v>16</v>
@@ -6108,16 +6918,19 @@
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>157</v>
+        <v>790</v>
       </c>
       <c r="B227" t="s">
-        <v>289</v>
+        <v>487</v>
       </c>
       <c r="C227" t="s">
-        <v>283</v>
+        <v>486</v>
       </c>
       <c r="D227" t="s">
-        <v>290</v>
+        <v>478</v>
+      </c>
+      <c r="I227" t="s">
+        <v>464</v>
       </c>
       <c r="L227" t="s">
         <v>16</v>
@@ -6125,47 +6938,50 @@
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>158</v>
+        <v>791</v>
       </c>
       <c r="B228" t="s">
-        <v>406</v>
+        <v>484</v>
       </c>
       <c r="C228" t="s">
-        <v>402</v>
+        <v>483</v>
       </c>
       <c r="D228" t="s">
-        <v>407</v>
+        <v>475</v>
       </c>
       <c r="L228" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>792</v>
+      </c>
       <c r="B229" t="s">
-        <v>524</v>
+        <v>619</v>
       </c>
       <c r="C229" t="s">
-        <v>452</v>
+        <v>618</v>
       </c>
       <c r="D229" t="s">
-        <v>514</v>
-      </c>
-      <c r="I229" t="s">
-        <v>463</v>
+        <v>610</v>
       </c>
       <c r="L229" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>793</v>
+      </c>
       <c r="B230" t="s">
-        <v>540</v>
+        <v>633</v>
       </c>
       <c r="C230" t="s">
-        <v>524</v>
+        <v>631</v>
       </c>
       <c r="D230" t="s">
-        <v>528</v>
+        <v>623</v>
       </c>
       <c r="I230" t="s">
         <v>464</v>
@@ -6175,42 +6991,54 @@
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>794</v>
+      </c>
       <c r="B231" t="s">
-        <v>542</v>
+        <v>521</v>
       </c>
       <c r="C231" t="s">
-        <v>540</v>
+        <v>505</v>
       </c>
       <c r="D231" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="L231" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>795</v>
+      </c>
       <c r="B232" t="s">
-        <v>657</v>
+        <v>523</v>
       </c>
       <c r="C232" t="s">
-        <v>655</v>
+        <v>521</v>
       </c>
       <c r="D232" t="s">
-        <v>646</v>
+        <v>513</v>
+      </c>
+      <c r="I232" t="s">
+        <v>499</v>
       </c>
       <c r="L232" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>796</v>
+      </c>
       <c r="B233" t="s">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="C233" t="s">
-        <v>651</v>
+        <v>637</v>
       </c>
       <c r="D233" t="s">
-        <v>644</v>
+        <v>629</v>
       </c>
       <c r="I233" t="s">
         <v>464</v>
@@ -6220,138 +7048,156 @@
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>797</v>
+      </c>
       <c r="B234" t="s">
-        <v>541</v>
+        <v>637</v>
       </c>
       <c r="C234" t="s">
-        <v>540</v>
+        <v>634</v>
       </c>
       <c r="D234" t="s">
-        <v>529</v>
+        <v>627</v>
       </c>
       <c r="L234" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>798</v>
+      </c>
       <c r="B235" t="s">
-        <v>656</v>
+        <v>522</v>
       </c>
       <c r="C235" t="s">
-        <v>655</v>
+        <v>521</v>
       </c>
       <c r="D235" t="s">
-        <v>645</v>
-      </c>
-      <c r="I235" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="L235" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>799</v>
+      </c>
       <c r="B236" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="C236" t="s">
-        <v>616</v>
+        <v>637</v>
       </c>
       <c r="D236" t="s">
-        <v>640</v>
-      </c>
-      <c r="I236" t="s">
+        <v>628</v>
+      </c>
+      <c r="L236" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>800</v>
+      </c>
+      <c r="B237" t="s">
+        <v>502</v>
+      </c>
+      <c r="C237" t="s">
+        <v>465</v>
+      </c>
+      <c r="D237" t="s">
+        <v>492</v>
+      </c>
+      <c r="L237" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>801</v>
+      </c>
+      <c r="B238" t="s">
+        <v>504</v>
+      </c>
+      <c r="C238" t="s">
+        <v>502</v>
+      </c>
+      <c r="D238" t="s">
+        <v>494</v>
+      </c>
+      <c r="L238" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>802</v>
+      </c>
+      <c r="B239" t="s">
+        <v>631</v>
+      </c>
+      <c r="C239" t="s">
+        <v>618</v>
+      </c>
+      <c r="D239" t="s">
+        <v>621</v>
+      </c>
+      <c r="L239" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>803</v>
+      </c>
+      <c r="B240" t="s">
+        <v>503</v>
+      </c>
+      <c r="C240" t="s">
+        <v>502</v>
+      </c>
+      <c r="D240" t="s">
+        <v>493</v>
+      </c>
+      <c r="L240" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>804</v>
+      </c>
+      <c r="B241" t="s">
+        <v>632</v>
+      </c>
+      <c r="C241" t="s">
+        <v>631</v>
+      </c>
+      <c r="D241" t="s">
+        <v>622</v>
+      </c>
+      <c r="L241" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>805</v>
+      </c>
+      <c r="B242" t="s">
+        <v>435</v>
+      </c>
+      <c r="C242" t="s">
+        <v>19</v>
+      </c>
+      <c r="D242" t="s">
+        <v>436</v>
+      </c>
+      <c r="I242" t="s">
         <v>464</v>
-      </c>
-      <c r="L236" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B237" t="s">
-        <v>525</v>
-      </c>
-      <c r="C237" t="s">
-        <v>524</v>
-      </c>
-      <c r="D237" t="s">
-        <v>515</v>
-      </c>
-      <c r="L237" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B238" t="s">
-        <v>527</v>
-      </c>
-      <c r="C238" t="s">
-        <v>525</v>
-      </c>
-      <c r="D238" t="s">
-        <v>517</v>
-      </c>
-      <c r="L238" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B239" t="s">
-        <v>654</v>
-      </c>
-      <c r="C239" t="s">
-        <v>652</v>
-      </c>
-      <c r="D239" t="s">
-        <v>643</v>
-      </c>
-      <c r="I239" t="s">
-        <v>464</v>
-      </c>
-      <c r="L239" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B240" t="s">
-        <v>652</v>
-      </c>
-      <c r="C240" t="s">
-        <v>651</v>
-      </c>
-      <c r="D240" t="s">
-        <v>641</v>
-      </c>
-      <c r="L240" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B241" t="s">
-        <v>526</v>
-      </c>
-      <c r="C241" t="s">
-        <v>525</v>
-      </c>
-      <c r="D241" t="s">
-        <v>516</v>
-      </c>
-      <c r="L241" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B242" t="s">
-        <v>653</v>
-      </c>
-      <c r="C242" t="s">
-        <v>652</v>
-      </c>
-      <c r="D242" t="s">
-        <v>642</v>
-      </c>
-      <c r="I242" t="s">
-        <v>518</v>
       </c>
       <c r="L242" t="s">
         <v>16</v>
@@ -6359,33 +7205,39 @@
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>159</v>
+        <v>806</v>
       </c>
       <c r="B243" t="s">
-        <v>160</v>
+        <v>524</v>
       </c>
       <c r="C243" t="s">
-        <v>106</v>
+        <v>452</v>
       </c>
       <c r="D243" t="s">
-        <v>206</v>
+        <v>514</v>
       </c>
       <c r="I243" t="s">
+        <v>463</v>
+      </c>
+      <c r="L243" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>807</v>
+      </c>
+      <c r="B244" t="s">
+        <v>540</v>
+      </c>
+      <c r="C244" t="s">
+        <v>524</v>
+      </c>
+      <c r="D244" t="s">
+        <v>528</v>
+      </c>
+      <c r="I244" t="s">
         <v>464</v>
-      </c>
-      <c r="L243" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B244" t="s">
-        <v>207</v>
-      </c>
-      <c r="C244" t="s">
-        <v>106</v>
-      </c>
-      <c r="D244" t="s">
-        <v>208</v>
       </c>
       <c r="L244" t="s">
         <v>16</v>
@@ -6393,19 +7245,16 @@
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>161</v>
+        <v>808</v>
       </c>
       <c r="B245" t="s">
-        <v>162</v>
+        <v>542</v>
       </c>
       <c r="C245" t="s">
-        <v>106</v>
+        <v>540</v>
       </c>
       <c r="D245" t="s">
-        <v>211</v>
-      </c>
-      <c r="I245" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="L245" t="s">
         <v>16</v>
@@ -6413,19 +7262,16 @@
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>166</v>
+        <v>809</v>
       </c>
       <c r="B246" t="s">
-        <v>167</v>
+        <v>657</v>
       </c>
       <c r="C246" t="s">
-        <v>100</v>
+        <v>655</v>
       </c>
       <c r="D246" t="s">
-        <v>235</v>
-      </c>
-      <c r="I246" t="s">
-        <v>464</v>
+        <v>646</v>
       </c>
       <c r="L246" t="s">
         <v>16</v>
@@ -6433,16 +7279,19 @@
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>168</v>
+        <v>810</v>
       </c>
       <c r="B247" t="s">
-        <v>169</v>
+        <v>655</v>
       </c>
       <c r="C247" t="s">
-        <v>100</v>
+        <v>651</v>
       </c>
       <c r="D247" t="s">
-        <v>236</v>
+        <v>644</v>
+      </c>
+      <c r="I247" t="s">
+        <v>464</v>
       </c>
       <c r="L247" t="s">
         <v>16</v>
@@ -6450,19 +7299,16 @@
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>171</v>
+        <v>811</v>
       </c>
       <c r="B248" t="s">
-        <v>172</v>
+        <v>541</v>
       </c>
       <c r="C248" t="s">
-        <v>40</v>
+        <v>540</v>
       </c>
       <c r="D248" t="s">
-        <v>188</v>
-      </c>
-      <c r="I248" t="s">
-        <v>650</v>
+        <v>529</v>
       </c>
       <c r="L248" t="s">
         <v>16</v>
@@ -6470,33 +7316,36 @@
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>108</v>
+        <v>812</v>
       </c>
       <c r="B249" t="s">
-        <v>201</v>
+        <v>656</v>
       </c>
       <c r="C249" t="s">
-        <v>106</v>
+        <v>655</v>
       </c>
       <c r="D249" t="s">
-        <v>202</v>
+        <v>645</v>
       </c>
       <c r="I249" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="L249" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>813</v>
+      </c>
       <c r="B250" t="s">
-        <v>190</v>
+        <v>651</v>
       </c>
       <c r="C250" t="s">
-        <v>172</v>
+        <v>616</v>
       </c>
       <c r="D250" t="s">
-        <v>191</v>
+        <v>640</v>
       </c>
       <c r="I250" t="s">
         <v>464</v>
@@ -6506,14 +7355,17 @@
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>814</v>
+      </c>
       <c r="B251" t="s">
-        <v>195</v>
+        <v>525</v>
       </c>
       <c r="C251" t="s">
-        <v>174</v>
+        <v>524</v>
       </c>
       <c r="D251" t="s">
-        <v>196</v>
+        <v>515</v>
       </c>
       <c r="L251" t="s">
         <v>16</v>
@@ -6521,19 +7373,16 @@
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>173</v>
+        <v>815</v>
       </c>
       <c r="B252" t="s">
-        <v>174</v>
+        <v>527</v>
       </c>
       <c r="C252" t="s">
-        <v>40</v>
+        <v>525</v>
       </c>
       <c r="D252" t="s">
-        <v>194</v>
-      </c>
-      <c r="I252" t="s">
-        <v>538</v>
+        <v>517</v>
       </c>
       <c r="L252" t="s">
         <v>16</v>
@@ -6541,16 +7390,16 @@
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>176</v>
+        <v>816</v>
       </c>
       <c r="B253" t="s">
-        <v>24</v>
+        <v>654</v>
       </c>
       <c r="C253" t="s">
-        <v>66</v>
+        <v>652</v>
       </c>
       <c r="D253" t="s">
-        <v>246</v>
+        <v>643</v>
       </c>
       <c r="I253" t="s">
         <v>464</v>
@@ -6561,47 +7410,53 @@
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>68</v>
+        <v>817</v>
       </c>
       <c r="B254" t="s">
-        <v>387</v>
+        <v>652</v>
       </c>
       <c r="C254" t="s">
-        <v>375</v>
+        <v>651</v>
       </c>
       <c r="D254" t="s">
-        <v>388</v>
+        <v>641</v>
       </c>
       <c r="L254" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>818</v>
+      </c>
       <c r="B255" t="s">
-        <v>283</v>
+        <v>526</v>
       </c>
       <c r="C255" t="s">
-        <v>66</v>
+        <v>525</v>
       </c>
       <c r="D255" t="s">
-        <v>284</v>
+        <v>516</v>
       </c>
       <c r="L255" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>819</v>
+      </c>
       <c r="B256" t="s">
-        <v>276</v>
+        <v>653</v>
       </c>
       <c r="C256" t="s">
-        <v>270</v>
+        <v>652</v>
       </c>
       <c r="D256" t="s">
-        <v>277</v>
+        <v>642</v>
       </c>
       <c r="I256" t="s">
-        <v>463</v>
+        <v>518</v>
       </c>
       <c r="L256" t="s">
         <v>16</v>
@@ -6609,19 +7464,16 @@
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>25</v>
+        <v>820</v>
       </c>
       <c r="B257" t="s">
-        <v>346</v>
+        <v>207</v>
       </c>
       <c r="C257" t="s">
-        <v>338</v>
+        <v>106</v>
       </c>
       <c r="D257" t="s">
-        <v>347</v>
-      </c>
-      <c r="I257" t="s">
-        <v>464</v>
+        <v>208</v>
       </c>
       <c r="L257" t="s">
         <v>16</v>
@@ -6629,16 +7481,19 @@
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>177</v>
+        <v>821</v>
       </c>
       <c r="B258" t="s">
-        <v>373</v>
+        <v>190</v>
       </c>
       <c r="C258" t="s">
-        <v>365</v>
+        <v>172</v>
       </c>
       <c r="D258" t="s">
-        <v>374</v>
+        <v>191</v>
+      </c>
+      <c r="I258" t="s">
+        <v>464</v>
       </c>
       <c r="L258" t="s">
         <v>16</v>
@@ -6646,19 +7501,16 @@
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>178</v>
+        <v>822</v>
       </c>
       <c r="B259" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="C259" t="s">
-        <v>338</v>
+        <v>174</v>
       </c>
       <c r="D259" t="s">
-        <v>348</v>
-      </c>
-      <c r="I259" t="s">
-        <v>499</v>
+        <v>196</v>
       </c>
       <c r="L259" t="s">
         <v>16</v>
@@ -6666,19 +7518,16 @@
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>181</v>
+        <v>823</v>
       </c>
       <c r="B260" t="s">
-        <v>182</v>
+        <v>283</v>
       </c>
       <c r="C260" t="s">
-        <v>300</v>
+        <v>66</v>
       </c>
       <c r="D260" t="s">
-        <v>337</v>
-      </c>
-      <c r="I260" t="s">
-        <v>464</v>
+        <v>284</v>
       </c>
       <c r="L260" t="s">
         <v>16</v>
@@ -6686,25 +7535,29 @@
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>183</v>
+        <v>824</v>
       </c>
       <c r="B261" t="s">
-        <v>184</v>
+        <v>276</v>
       </c>
       <c r="C261" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="D261" t="s">
-        <v>336</v>
+        <v>277</v>
+      </c>
+      <c r="I261" t="s">
+        <v>463</v>
       </c>
       <c r="L261" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D264">
-    <sortCondition ref="B2"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N261">
+    <sortCondition ref="A2:A261"/>
   </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -6954,15 +7807,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac97e7bc-1267-463a-8e0a-d8030d117d70">
@@ -6971,6 +7815,15 @@
     <TaxCatchAll xmlns="fa734e6e-2dd8-4275-9b08-04e206339f53" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6993,14 +7846,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A401E2FF-8919-4A76-9828-7BF9F63B977C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{434E0FAC-9855-41F9-BF24-940187D4E6C8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -7015,4 +7860,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A401E2FF-8919-4A76-9828-7BF9F63B977C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/BehaviourChangeTechniques/inputs/BCTO.xlsx
+++ b/BehaviourChangeTechniques/inputs/BCTO.xlsx
@@ -1908,7 +1908,7 @@
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>awareness of other people's thoughts, feelings and actions BCT</t>
+          <t>awareness of other people‘s thoughts, feelings and actions BCT</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">

--- a/BehaviourChangeTechniques/inputs/BCTO.xlsx
+++ b/BehaviourChangeTechniques/inputs/BCTO.xlsx
@@ -1908,7 +1908,7 @@
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>awareness of other people‘s thoughts, feelings and actions BCT</t>
+          <t>awareness of other peoples thoughts, feelings and actions BCT</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">

--- a/BehaviourChangeTechniques/inputs/BCTO.xlsx
+++ b/BehaviourChangeTechniques/inputs/BCTO.xlsx
@@ -1908,7 +1908,7 @@
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>awareness of other peoples thoughts, feelings and actions BCT</t>
+          <t>awareness of other people‘s thoughts, feelings and actions BCT</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
@@ -3215,7 +3215,7 @@
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>awareness of other people's thoughts, feelings and actions BCT</t>
+          <t>awareness of other people‘s thoughts, feelings and actions BCT</t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>awareness of other people's thoughts, feelings and actions BCT</t>
+          <t>awareness of other people‘s thoughts, feelings and actions BCT</t>
         </is>
       </c>
       <c r="D79" s="2" t="inlineStr">
@@ -4488,7 +4488,7 @@
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>awareness of other people's thoughts, feelings and actions BCT</t>
+          <t>awareness of other people‘s thoughts, feelings and actions BCT</t>
         </is>
       </c>
       <c r="D110" s="2" t="inlineStr">
@@ -6668,7 +6668,7 @@
       </c>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>awareness of other people's thoughts, feelings and actions BCT</t>
+          <t>awareness of other people‘s thoughts, feelings and actions BCT</t>
         </is>
       </c>
       <c r="D169" s="2" t="inlineStr">
@@ -9988,7 +9988,7 @@
       </c>
       <c r="C257" s="2" t="inlineStr">
         <is>
-          <t>awareness of other people's thoughts, feelings and actions BCT</t>
+          <t>awareness of other people‘s thoughts, feelings and actions BCT</t>
         </is>
       </c>
       <c r="D257" s="2" t="inlineStr">

--- a/BehaviourChangeTechniques/inputs/BCTO.xlsx
+++ b/BehaviourChangeTechniques/inputs/BCTO.xlsx
@@ -10064,7 +10064,7 @@
       </c>
       <c r="C259" s="2" t="inlineStr">
         <is>
-          <t>awareness of other people's thoughts, feelings and actions BCT</t>
+          <t>awareness of other people‘s thoughts, feelings and actions BCT</t>
         </is>
       </c>
       <c r="D259" s="2" t="inlineStr">

--- a/BehaviourChangeTechniques/inputs/BCTO.xlsx
+++ b/BehaviourChangeTechniques/inputs/BCTO.xlsx
@@ -522,7 +522,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>A goal directed BCT that involves making a detailed plan for the performance of the behaviour, which must include at least one of context, frequency, duration or intensity.</t>
+          <t>A &lt;goal directed BCT&gt; that involves making a detailed plan for the performance of the behaviour, which must include at least one of context, frequency, duration or intensity.</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr"/>

--- a/BehaviourChangeTechniques/inputs/BCTO.xlsx
+++ b/BehaviourChangeTechniques/inputs/BCTO.xlsx
@@ -522,7 +522,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>A &lt;goal directed BCT&gt; that involves making a detailed plan for the performance of the behaviour, which must include at least one of context, frequency, duration or intensity.</t>
+          <t>A goal directed BCT that involves making a detailed plan for the performance of the behaviour, which must include at least one of context, frequency, duration or intensity.</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr"/>

--- a/BehaviourChangeTechniques/inputs/BCTO.xlsx
+++ b/BehaviourChangeTechniques/inputs/BCTO.xlsx
@@ -1943,7 +1943,7 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007162</t>
+          <t>BCIO:033000</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">

--- a/BehaviourChangeTechniques/inputs/BCTO.xlsx
+++ b/BehaviourChangeTechniques/inputs/BCTO.xlsx
@@ -875,22 +875,22 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007050</t>
+          <t>BCIO:007135</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">advise how to perform behaviour BCT </t>
+          <t>advise paradoxical behaviour BCT</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>behaviour change technique</t>
+          <t>advise specific behaviour BCT</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change technique that provides guidance regarding how to perform the behaviour.</t>
+          <t>An advise specific behaviour BCT that advises the person to engage in an unwanted behaviour in a way that is aversive.</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr"/>
@@ -911,22 +911,22 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007135</t>
+          <t>BCIO:007167</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>advise paradoxical behaviour BCT</t>
+          <t>advise sensory ways to change emotions BCT</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>advise specific behaviour BCT</t>
+          <t>advise to change emotions BCT</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>An advise specific behaviour BCT that advises the person to engage in an unwanted behaviour in a way that is aversive.</t>
+          <t>An advise how to change emotions BCT that suggests the person use a method that stimulates one or more senses.</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr"/>
@@ -947,22 +947,22 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007167</t>
+          <t>BCIO:007168</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>advise sensory ways to change emotions BCT</t>
+          <t>advise specific behaviour BCT</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>advise to change emotions BCT</t>
+          <t>behaviour change technique</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>An advise how to change emotions BCT that suggests the person use a method that stimulates one or more senses.</t>
+          <t>A behaviour change technique that advises the person to perform a behaviour in a particular way to help change the target behaviour.</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr"/>
@@ -983,12 +983,12 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007168</t>
+          <t>BCIO:007147</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>advise specific behaviour BCT</t>
+          <t>advise to change emotions BCT</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change technique that advises the person to perform a behaviour in a particular way to help change the target behaviour.</t>
+          <t>A behaviour change technique that suggests a method to alter emotions.</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr"/>
@@ -1019,29 +1019,33 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007147</t>
+          <t>BCIO:007141</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>advise to change emotions BCT</t>
+          <t>advise to keep behaviour goal in mind BCT</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>behaviour change technique</t>
+          <t>goal directed BCT</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change technique that suggests a method to alter emotions.</t>
+          <t>A goal directed BCT that advises the person to find ways to remind themselves of their behavioural goal.</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr"/>
       <c r="F16" s="2" t="inlineStr"/>
       <c r="G16" s="2" t="inlineStr"/>
       <c r="H16" s="2" t="inlineStr"/>
-      <c r="I16" s="2" t="inlineStr"/>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>A goal is an explicit representation of a desired end state</t>
+        </is>
+      </c>
       <c r="J16" s="2" t="inlineStr"/>
       <c r="K16" s="2" t="inlineStr"/>
       <c r="L16" s="2" t="inlineStr">
@@ -1055,12 +1059,12 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007141</t>
+          <t>BCIO:007142</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>advise to keep behaviour goal in mind BCT</t>
+          <t>advise to keep outcome goal in mind BCT</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -1070,18 +1074,14 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>A goal directed BCT that advises the person to find ways to remind themselves of their behavioural goal.</t>
+          <t>A goal directed BCT that advises the person to find ways to remind themselves of their goal in terms of a desired outcome of performing the behaviour.</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr"/>
       <c r="F17" s="2" t="inlineStr"/>
       <c r="G17" s="2" t="inlineStr"/>
       <c r="H17" s="2" t="inlineStr"/>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>A goal is an explicit representation of a desired end state</t>
-        </is>
-      </c>
+      <c r="I17" s="2" t="inlineStr"/>
       <c r="J17" s="2" t="inlineStr"/>
       <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr">
@@ -1095,29 +1095,33 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007142</t>
+          <t>BCIO:007033</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>advise to keep outcome goal in mind BCT</t>
+          <t xml:space="preserve">advise to seek appraisal support BCT </t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>goal directed BCT</t>
+          <t>advise to seek support BCT</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>A goal directed BCT that advises the person to find ways to remind themselves of their goal in terms of a desired outcome of performing the behaviour.</t>
+          <t>An advise to seek support BCT that suggests the person try to obtain support from another in terms of information that will aid in evaluating oneself or the situation.</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr"/>
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr"/>
       <c r="H18" s="2" t="inlineStr"/>
-      <c r="I18" s="2" t="inlineStr"/>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>A goal is an explicit representation of a desired end state</t>
+        </is>
+      </c>
       <c r="J18" s="2" t="inlineStr"/>
       <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr">
@@ -1131,12 +1135,12 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007033</t>
+          <t>BCIO:007031</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">advise to seek appraisal support BCT </t>
+          <t xml:space="preserve">advise to seek emotional support BCT </t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
@@ -1146,18 +1150,14 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>An advise to seek support BCT that suggests the person try to obtain support from another in terms of information that will aid in evaluating oneself or the situation.</t>
+          <t>An advise to seek support BCT that suggests the person try to obtain support from another in terms of expressing concern, caring and empathy.</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr"/>
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr"/>
       <c r="H19" s="2" t="inlineStr"/>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>A goal is an explicit representation of a desired end state</t>
-        </is>
-      </c>
+      <c r="I19" s="2" t="inlineStr"/>
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr">
@@ -1171,12 +1171,12 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007031</t>
+          <t>BCIO:007032</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">advise to seek emotional support BCT </t>
+          <t xml:space="preserve">advise to seek informational support BCT </t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>An advise to seek support BCT that suggests the person try to obtain support from another in terms of expressing concern, caring and empathy.</t>
+          <t>An advise to seek support BCT that suggests the person try to obtain support from another in terms of advice, suggestions and information.</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr"/>
@@ -1207,12 +1207,12 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007032</t>
+          <t>BCIO:007030</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">advise to seek informational support BCT </t>
+          <t xml:space="preserve">advise to seek instrumental support BCT </t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>An advise to seek support BCT that suggests the person try to obtain support from another in terms of advice, suggestions and information.</t>
+          <t>An advise to seek support BCT that suggests the person try to obtain support from another in terms of tangible aid.</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr"/>
@@ -1243,29 +1243,33 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007030</t>
+          <t>BCIO:007029</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">advise to seek instrumental support BCT </t>
+          <t>advise to seek support BCT</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>advise to seek support BCT</t>
+          <t>social support BCT</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>An advise to seek support BCT that suggests the person try to obtain support from another in terms of tangible aid.</t>
+          <t>A social support BCT that involves advising the person to seek support from another person.</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr"/>
       <c r="F22" s="2" t="inlineStr"/>
       <c r="G22" s="2" t="inlineStr"/>
       <c r="H22" s="2" t="inlineStr"/>
-      <c r="I22" s="2" t="inlineStr"/>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>Reducing a distraction to zero is equivalent to removing a distraction</t>
+        </is>
+      </c>
       <c r="J22" s="2" t="inlineStr"/>
       <c r="K22" s="2" t="inlineStr"/>
       <c r="L22" s="2" t="inlineStr">
@@ -1279,33 +1283,29 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007029</t>
+          <t>BCIO:007015</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>advise to seek support BCT</t>
+          <t xml:space="preserve">affirm commitment BCT </t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>social support BCT</t>
+          <t>goal directed BCT</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>A social support BCT that involves advising the person to seek support from another person.</t>
+          <t>A goal directed BCT that asks the person to affirm or reaffirm statements indicating commitment to change the behaviour.</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr"/>
       <c r="F23" s="2" t="inlineStr"/>
       <c r="G23" s="2" t="inlineStr"/>
       <c r="H23" s="2" t="inlineStr"/>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>Reducing a distraction to zero is equivalent to removing a distraction</t>
-        </is>
-      </c>
+      <c r="I23" s="2" t="inlineStr"/>
       <c r="J23" s="2" t="inlineStr"/>
       <c r="K23" s="2" t="inlineStr"/>
       <c r="L23" s="2" t="inlineStr">
@@ -1319,22 +1319,22 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007015</t>
+          <t>BCIO:007159</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">affirm commitment BCT </t>
+          <t xml:space="preserve">affirm valued self-identity BCT </t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>goal directed BCT</t>
+          <t>prompt focus on self-identity BCT</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>A goal directed BCT that asks the person to affirm or reaffirm statements indicating commitment to change the behaviour.</t>
+          <t>A prompt focus on self-identity BCT that advises engagement in activities that affirm the person's valued attributes.</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr"/>
@@ -1355,22 +1355,22 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007159</t>
+          <t>BCIO:007004</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">affirm valued self-identity BCT </t>
+          <t xml:space="preserve">agree behaviour goal BCT </t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>prompt focus on self-identity BCT</t>
+          <t>goal setting BCT</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>A prompt focus on self-identity BCT that advises engagement in activities that affirm the person's valued attributes.</t>
+          <t>A goal setting BCT that involves the intervention source agreeing with the person on a behavioural goal.</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr"/>
@@ -1391,22 +1391,22 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007004</t>
+          <t>BCIO:007051</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">agree behaviour goal BCT </t>
+          <t xml:space="preserve">agree on how to perform behaviour BCT </t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>goal setting BCT</t>
+          <t>guide how to perform behaviour BCT</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>A goal setting BCT that involves the intervention source agreeing with the person on a behavioural goal.</t>
+          <t>A guide how to perform behaviour BCT that involves reaching consensus on how to perform the behaviour.</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr"/>
@@ -1427,22 +1427,22 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007051</t>
+          <t>BCIO:007006</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">agree on how to perform behaviour BCT </t>
+          <t>agree outcome goal BCT</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>advise how to perform behaviour BCT</t>
+          <t>goal setting BCT</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>An advise how to perform behaviour BCT that involves reaching consensus on how to perform the behaviour.</t>
+          <t>A goal setting BCT that involves the intervention source agreeing with the person on a goal which is a positive outcome of performing the behaviour.</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr"/>
@@ -1463,22 +1463,22 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007006</t>
+          <t>BCIO:007079</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>agree outcome goal BCT</t>
+          <t>alter external stimulus BCT</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>goal setting BCT</t>
+          <t>associative learning BCT</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>A goal setting BCT that involves the intervention source agreeing with the person on a goal which is a positive outcome of performing the behaviour.</t>
+          <t>An associative learning BCT that involves creating, strengthening or reducing an association between the behaviour and an environmental trigger.</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr"/>
@@ -1499,22 +1499,22 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007079</t>
+          <t>BCIO:007038</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>alter external stimulus BCT</t>
+          <t xml:space="preserve">arrange appraisal support BCT </t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>associative learning BCT</t>
+          <t>arrange support BCT</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>An associative learning BCT that involves creating, strengthening or reducing an association between the behaviour and an environmental trigger.</t>
+          <t>An arrange support BCT that organises support from another in terms of information that will aid in evaluating oneself or the situation.</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr"/>
@@ -1535,12 +1535,12 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007038</t>
+          <t>BCIO:007036</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">arrange appraisal support BCT </t>
+          <t xml:space="preserve">arrange emotional support BCT </t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>An arrange support BCT that organises support from another in terms of information that will aid in evaluating oneself or the situation.</t>
+          <t>An arrange support BCT that organises support from another in terms of expressing concern, caring and empathy.</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr"/>
@@ -1571,12 +1571,12 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007036</t>
+          <t>BCIO:007037</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">arrange emotional support BCT </t>
+          <t>arrange informational support BCT</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>An arrange support BCT that organises support from another in terms of expressing concern, caring and empathy.</t>
+          <t>An arrange support BCT that organises support from another in terms of advice, suggestions and information.</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr"/>
@@ -1607,12 +1607,12 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007037</t>
+          <t>BCIO:007035</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>arrange informational support BCT</t>
+          <t xml:space="preserve">arrange instrumental support BCT </t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>An arrange support BCT that organises support from another in terms of advice, suggestions and information.</t>
+          <t>An arrange support BCT that organises support from another in terms of tangible aid.</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr"/>
@@ -1643,22 +1643,22 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007035</t>
+          <t>BCIO:007087</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">arrange instrumental support BCT </t>
+          <t xml:space="preserve">arrange satiation BCT </t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>arrange support BCT</t>
+          <t>expose to stimulus BCT</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>An arrange support BCT that organises support from another in terms of tangible aid.</t>
+          <t xml:space="preserve">An expose to stimulus BCT that provides sustained exposure to a stimulus to reduce or extinguish an unwanted behaviour. </t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr"/>
@@ -1679,29 +1679,33 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007087</t>
+          <t>BCIO:007034</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">arrange satiation BCT </t>
+          <t>arrange support BCT</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>expose to stimulus BCT</t>
+          <t>social support BCT</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An expose to stimulus BCT that provides sustained exposure to a stimulus to reduce or extinguish an unwanted behaviour. </t>
+          <t>A social support BCT that organises support from another for the person.</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr"/>
       <c r="F34" s="2" t="inlineStr"/>
       <c r="G34" s="2" t="inlineStr"/>
       <c r="H34" s="2" t="inlineStr"/>
-      <c r="I34" s="2" t="inlineStr"/>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>The person witnessing the agreement can be the intervention source or another person who is present at the time</t>
+        </is>
+      </c>
       <c r="J34" s="2" t="inlineStr"/>
       <c r="K34" s="2" t="inlineStr"/>
       <c r="L34" s="2" t="inlineStr">
@@ -1715,33 +1719,29 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007034</t>
+          <t>BCIO:007090</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>arrange support BCT</t>
+          <t>associative learning BCT</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>social support BCT</t>
+          <t>behaviour change technique</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>A social support BCT that organises support from another for the person.</t>
+          <t>A behaviour change technique that involves repeated pairing of a stimulus with another stimulus or with a behavioural outcome.</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr"/>
       <c r="F35" s="2" t="inlineStr"/>
       <c r="G35" s="2" t="inlineStr"/>
       <c r="H35" s="2" t="inlineStr"/>
-      <c r="I35" s="2" t="inlineStr">
-        <is>
-          <t>The person witnessing the agreement can be the intervention source or another person who is present at the time</t>
-        </is>
-      </c>
+      <c r="I35" s="2" t="inlineStr"/>
       <c r="J35" s="2" t="inlineStr"/>
       <c r="K35" s="2" t="inlineStr"/>
       <c r="L35" s="2" t="inlineStr">
@@ -1755,22 +1755,22 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007090</t>
+          <t>BCIO:007091</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
+          <t xml:space="preserve">associative learning to elicit behaviour BCT </t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
           <t>associative learning BCT</t>
         </is>
       </c>
-      <c r="C36" s="2" t="inlineStr">
-        <is>
-          <t>behaviour change technique</t>
-        </is>
-      </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change technique that involves repeated pairing of a stimulus with another stimulus or with a behavioural outcome.</t>
+          <t xml:space="preserve">An associative learning BCT that involves repeated pairing of a neutral stimulus with a stimulus that already elicits the behaviour until the neutral stimulus elicits the behaviour. </t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr"/>
@@ -1791,12 +1791,12 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007091</t>
+          <t>BCIO:007092</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">associative learning to elicit behaviour BCT </t>
+          <t xml:space="preserve">associative learning to extinguish behaviour BCT </t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An associative learning BCT that involves repeated pairing of a neutral stimulus with a stimulus that already elicits the behaviour until the neutral stimulus elicits the behaviour. </t>
+          <t>An associative learning BCT that stops the presentation of a reward for the behaviour.</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr"/>
@@ -1814,7 +1814,11 @@
       <c r="G37" s="2" t="inlineStr"/>
       <c r="H37" s="2" t="inlineStr"/>
       <c r="I37" s="2" t="inlineStr"/>
-      <c r="J37" s="2" t="inlineStr"/>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>Using a pedometer to keep track of number of steps taken in a day.</t>
+        </is>
+      </c>
       <c r="K37" s="2" t="inlineStr"/>
       <c r="L37" s="2" t="inlineStr">
         <is>
@@ -1827,22 +1831,22 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007092</t>
+          <t>BCIO:007012</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">associative learning to extinguish behaviour BCT </t>
+          <t xml:space="preserve">attend to discrepancy between current behaviour and goal BCT </t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>associative learning BCT</t>
+          <t>goal directed BCT</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>An associative learning BCT that stops the presentation of a reward for the behaviour.</t>
+          <t>A goal directed BCT that draws attention to discrepancies between a person's current behaviour and the person's outcome goal, behavioural goal or action plan.</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr"/>
@@ -1850,11 +1854,7 @@
       <c r="G38" s="2" t="inlineStr"/>
       <c r="H38" s="2" t="inlineStr"/>
       <c r="I38" s="2" t="inlineStr"/>
-      <c r="J38" s="2" t="inlineStr">
-        <is>
-          <t>Using a pedometer to keep track of number of steps taken in a day.</t>
-        </is>
-      </c>
+      <c r="J38" s="2" t="inlineStr"/>
       <c r="K38" s="2" t="inlineStr"/>
       <c r="L38" s="2" t="inlineStr">
         <is>
@@ -1867,29 +1867,33 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007012</t>
+          <t>BCIO:007072</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">attend to discrepancy between current behaviour and goal BCT </t>
+          <t>awareness of other people's thoughts, feelings and actions BCT</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>goal directed BCT</t>
+          <t>behaviour change technique</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>A goal directed BCT that draws attention to discrepancies between a person's current behaviour and the person's outcome goal, behavioural goal or action plan.</t>
+          <t>A behaviour change technique that increases awareness of what other people think, do, or feel.</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr"/>
       <c r="F39" s="2" t="inlineStr"/>
       <c r="G39" s="2" t="inlineStr"/>
       <c r="H39" s="2" t="inlineStr"/>
-      <c r="I39" s="2" t="inlineStr"/>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This is a broad category. It can include both advising people on ways to change emotions and directly intervening to change emotions. </t>
+        </is>
+      </c>
       <c r="J39" s="2" t="inlineStr"/>
       <c r="K39" s="2" t="inlineStr"/>
       <c r="L39" s="2" t="inlineStr">
@@ -1903,33 +1907,29 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007072</t>
+          <t>BCIO:007162</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>awareness of other people‘s thoughts, feelings and actions BCT</t>
+          <t>behaviour change technique</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>behaviour change technique</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change technique that increases awareness of what other people think, do, or feel.</t>
+          <t>A planned process that is the smallest part of BCI content that is observable, replicable and on its own has the potential to bring about behaviour change</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr"/>
       <c r="F40" s="2" t="inlineStr"/>
       <c r="G40" s="2" t="inlineStr"/>
       <c r="H40" s="2" t="inlineStr"/>
-      <c r="I40" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This is a broad category. It can include both advising people on ways to change emotions and directly intervening to change emotions. </t>
-        </is>
-      </c>
+      <c r="I40" s="2" t="inlineStr"/>
       <c r="J40" s="2" t="inlineStr"/>
       <c r="K40" s="2" t="inlineStr"/>
       <c r="L40" s="2" t="inlineStr">
@@ -1943,29 +1943,33 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>BCIO:033000</t>
+          <t>BCIO:007101</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
+          <t>behavioural consequence BCT</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
           <t>behaviour change technique</t>
         </is>
       </c>
-      <c r="C41" s="2" t="inlineStr">
-        <is>
-          <t>planned process</t>
-        </is>
-      </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>A planned process that is the smallest part of BCI content that is observable, replicable and on its own has the potential to bring about behaviour change</t>
+          <t>A behaviour change technique that alters the consequences or promised consequences for the behaviour.</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr"/>
       <c r="F41" s="2" t="inlineStr"/>
       <c r="G41" s="2" t="inlineStr"/>
       <c r="H41" s="2" t="inlineStr"/>
-      <c r="I41" s="2" t="inlineStr"/>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>The target of the mental process advised by this BCT will be an emotion. If a BCT suggests adopting a different cognitive perspective on behaviour, which then changes emotions, use "suggest different perspective on behaviour BCT" or one of its child classes.</t>
+        </is>
+      </c>
       <c r="J41" s="2" t="inlineStr"/>
       <c r="K41" s="2" t="inlineStr"/>
       <c r="L41" s="2" t="inlineStr">
@@ -1979,12 +1983,12 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007101</t>
+          <t>BCIO:007136</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>behavioural consequence BCT</t>
+          <t>change the body BCT</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
@@ -1994,18 +1998,14 @@
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change technique that alters the consequences or promised consequences for the behaviour.</t>
+          <t>A behaviour change technique that alters the structure or functioning of the person's body.</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr"/>
       <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr"/>
       <c r="H42" s="2" t="inlineStr"/>
-      <c r="I42" s="2" t="inlineStr">
-        <is>
-          <t>The target of the mental process advised by this BCT will be an emotion. If a BCT suggests adopting a different cognitive perspective on behaviour, which then changes emotions, use "suggest different perspective on behaviour BCT" or one of its child classes.</t>
-        </is>
-      </c>
+      <c r="I42" s="2" t="inlineStr"/>
       <c r="J42" s="2" t="inlineStr"/>
       <c r="K42" s="2" t="inlineStr"/>
       <c r="L42" s="2" t="inlineStr">
@@ -2019,12 +2019,12 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007136</t>
+          <t>BCIO:007054</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>change the body BCT</t>
+          <t xml:space="preserve">conduct a behavioural experiment BCT </t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
@@ -2034,7 +2034,7 @@
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change technique that alters the structure or functioning of the person's body.</t>
+          <t>A behaviour change technique that advises on how to identify and test hypotheses about the behaviour, its causes and consequences.</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr"/>
@@ -2055,22 +2055,22 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007054</t>
+          <t>BCIO:007134</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">conduct a behavioural experiment BCT </t>
+          <t xml:space="preserve">conserve mental resources BCT </t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>behaviour change technique</t>
+          <t>manage mental processes BCT</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change technique that advises on how to identify and test hypotheses about the behaviour, its causes and consequences.</t>
+          <t>A manage mental processes BCT that advises a way to minimise demands on mental resources.</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr"/>
@@ -2091,22 +2091,22 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007134</t>
+          <t>BCIO:007069</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">conserve mental resources BCT </t>
+          <t>consider pros and cons BCT</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>manage mental processes BCT</t>
+          <t>increase awareness of consequences BCT</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>A manage mental processes BCT that advises a way to minimise demands on mental resources.</t>
+          <t>An increase awareness of consequences BCT that advises identification and comparison of the positive and negative consequences of performing or not performing the behaviour.</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr"/>
@@ -2127,22 +2127,22 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007069</t>
+          <t>BCIO:007169</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>consider pros and cons BCT</t>
+          <t>context-specific non-enactment of behaviour BCT</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>increase awareness of consequences BCT</t>
+          <t>advise specific behaviour BCT</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>An increase awareness of consequences BCT that advises identification and comparison of the positive and negative consequences of performing or not performing the behaviour.</t>
+          <t>An advise specific behaviour BCT that advises the person to refrain from engaging in the behaviour in a specified context.</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr"/>
@@ -2163,12 +2163,12 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007169</t>
+          <t>BCIO:007097</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>context-specific non-enactment of behaviour BCT</t>
+          <t>context-specific repetition of alternative behaviour BCT</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
@@ -2178,7 +2178,7 @@
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>An advise specific behaviour BCT that advises the person to refrain from engaging in the behaviour in a specified context.</t>
+          <t>An advise specific behaviour BCT that advises the person to repeat an alternative behaviour consistently in a context that previously elicited an unwanted behaviour.</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr"/>
@@ -2199,12 +2199,12 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007097</t>
+          <t>BCIO:007096</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>context-specific repetition of alternative behaviour BCT</t>
+          <t>context-specific repetition of behaviour BCT</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>An advise specific behaviour BCT that advises the person to repeat an alternative behaviour consistently in a context that previously elicited an unwanted behaviour.</t>
+          <t>An advise specific behaviour BCT that advises the person to repeat the behaviour in the same context.</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr"/>
@@ -2235,22 +2235,22 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007096</t>
+          <t>BCIO:007014</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>context-specific repetition of behaviour BCT</t>
+          <t xml:space="preserve">create behavioural contract BCT </t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>advise specific behaviour BCT</t>
+          <t>goal directed BCT</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>An advise specific behaviour BCT that advises the person to repeat the behaviour in the same context.</t>
+          <t>A goal directed BCT that creates a written specification of the behaviour to be performed, agreed on by the person, and witnessed by another person.</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr"/>
@@ -2271,22 +2271,22 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007014</t>
+          <t>BCIO:007081</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">create behavioural contract BCT </t>
+          <t xml:space="preserve">cue BCT </t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>goal directed BCT</t>
+          <t>alter external stimulus BCT</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>A goal directed BCT that creates a written specification of the behaviour to be performed, agreed on by the person, and witnessed by another person.</t>
+          <t>An alter external stimulus BCT that introduces external information that is already associated with the behaviour in order to elicit that behaviour.</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr"/>
@@ -2307,12 +2307,12 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007081</t>
+          <t>BCIO:007082</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">cue BCT </t>
+          <t xml:space="preserve">cue signalling reward BCT </t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
@@ -2322,7 +2322,7 @@
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>An alter external stimulus BCT that introduces external information that is already associated with the behaviour in order to elicit that behaviour.</t>
+          <t>An alter external stimulus BCT that identifies an external stimulus that reliably signals that reward will follow the behaviour.</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr"/>
@@ -2330,7 +2330,13 @@
       <c r="G51" s="2" t="inlineStr"/>
       <c r="H51" s="2" t="inlineStr"/>
       <c r="I51" s="2" t="inlineStr"/>
-      <c r="J51" s="2" t="inlineStr"/>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>Example 1: Changing meal portion size to reduce the amount people eat at a sitting.
+Example 2: Removing unhealthy snacks from the till area in supermarkets to reduce impulse buying of these items.
+Example 3: Organisationwide use of ‘red time’ notices that people can put on their door or desk to signal that they are not to be interrupted in order to increase productivity.</t>
+        </is>
+      </c>
       <c r="K51" s="2" t="inlineStr"/>
       <c r="L51" s="2" t="inlineStr">
         <is>
@@ -2343,22 +2349,22 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007082</t>
+          <t>BCIO:007043</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">cue signalling reward BCT </t>
+          <t xml:space="preserve">deliver appraisal support BCT </t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>alter external stimulus BCT</t>
+          <t>deliver support BCT</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>An alter external stimulus BCT that identifies an external stimulus that reliably signals that reward will follow the behaviour.</t>
+          <t>A deliver support BCT that provides information that will aid in evaluating oneself or the situation.</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr"/>
@@ -2366,13 +2372,7 @@
       <c r="G52" s="2" t="inlineStr"/>
       <c r="H52" s="2" t="inlineStr"/>
       <c r="I52" s="2" t="inlineStr"/>
-      <c r="J52" s="2" t="inlineStr">
-        <is>
-          <t>Example 1: Changing meal portion size to reduce the amount people eat at a sitting.
-Example 2: Removing unhealthy snacks from the till area in supermarkets to reduce impulse buying of these items.
-Example 3: Organisationwide use of ‘red time’ notices that people can put on their door or desk to signal that they are not to be interrupted in order to increase productivity.</t>
-        </is>
-      </c>
+      <c r="J52" s="2" t="inlineStr"/>
       <c r="K52" s="2" t="inlineStr"/>
       <c r="L52" s="2" t="inlineStr">
         <is>
@@ -2385,12 +2385,12 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007043</t>
+          <t>BCIO:007041</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">deliver appraisal support BCT </t>
+          <t xml:space="preserve">deliver emotional support BCT </t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
@@ -2400,14 +2400,18 @@
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>A deliver support BCT that provides information that will aid in evaluating oneself or the situation.</t>
+          <t>A deliver support BCT that provides expressions of concern, caring and empathy.</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr"/>
       <c r="F53" s="2" t="inlineStr"/>
       <c r="G53" s="2" t="inlineStr"/>
       <c r="H53" s="2" t="inlineStr"/>
-      <c r="I53" s="2" t="inlineStr"/>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>Automatic responses can include impulses, habits or emotions that lead to the unwanted behaviour.</t>
+        </is>
+      </c>
       <c r="J53" s="2" t="inlineStr"/>
       <c r="K53" s="2" t="inlineStr"/>
       <c r="L53" s="2" t="inlineStr">
@@ -2421,12 +2425,12 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007041</t>
+          <t>BCIO:007042</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">deliver emotional support BCT </t>
+          <t xml:space="preserve">deliver informational support BCT </t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
@@ -2436,18 +2440,14 @@
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>A deliver support BCT that provides expressions of concern, caring and empathy.</t>
+          <t>A deliver support BCT that provides advice, suggestions and information.</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr"/>
       <c r="F54" s="2" t="inlineStr"/>
       <c r="G54" s="2" t="inlineStr"/>
       <c r="H54" s="2" t="inlineStr"/>
-      <c r="I54" s="2" t="inlineStr">
-        <is>
-          <t>Automatic responses can include impulses, habits or emotions that lead to the unwanted behaviour.</t>
-        </is>
-      </c>
+      <c r="I54" s="2" t="inlineStr"/>
       <c r="J54" s="2" t="inlineStr"/>
       <c r="K54" s="2" t="inlineStr"/>
       <c r="L54" s="2" t="inlineStr">
@@ -2461,12 +2461,12 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007042</t>
+          <t>BCIO:007040</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">deliver informational support BCT </t>
+          <t xml:space="preserve">deliver instrumental support BCT </t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
@@ -2476,7 +2476,7 @@
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>A deliver support BCT that provides advice, suggestions and information.</t>
+          <t>A deliver support BCT that provides tangible aid.</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr"/>
@@ -2497,22 +2497,22 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007040</t>
+          <t>BCIO:007039</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">deliver instrumental support BCT </t>
+          <t>deliver support BCT</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>deliver support BCT</t>
+          <t>social support BCT</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>A deliver support BCT that provides tangible aid.</t>
+          <t>A social support BCT that directly provides support to the person.</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr"/>
@@ -2533,22 +2533,22 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007039</t>
+          <t>BCIO:007055</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>deliver support BCT</t>
+          <t xml:space="preserve">demonstrate the behaviour BCT </t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>social support BCT</t>
+          <t>guide how to perform behaviour BCT</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>A social support BCT that directly provides support to the person.</t>
+          <t>A guide how to perform behaviour BCT that provides an observable sample of the performance of the behaviour for the person to aspire to or imitate.</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr"/>
@@ -2569,22 +2569,22 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007055</t>
+          <t>BCIO:007151</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">demonstrate the behaviour BCT </t>
+          <t>direct environmental restructuring BCT</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>advise how to perform behaviour BCT</t>
+          <t>environmental restructuring BCT</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>An advise how to perform behaviour BCT that provides an observable sample of the performance of the behaviour for the person to aspire to or imitate.</t>
+          <t>An environmental restructuring BCT that changes the person’s directly experienced environment at the time the behaviour is, or would have been, performed.</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr"/>
@@ -2605,22 +2605,22 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007151</t>
+          <t>BCIO:007057</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>direct environmental restructuring BCT</t>
+          <t>draw attention to incompatible beliefs BCT</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>environmental restructuring BCT</t>
+          <t>suggest different perspective on behaviour BCT</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>An environmental restructuring BCT that changes the person’s directly experienced environment at the time the behaviour is, or would have been, performed.</t>
+          <t>A suggest different perspective on behaviour BCT that draws the person's attention to the discrepancies between current or past behaviour and self-identity.</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr"/>
@@ -2641,22 +2641,22 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007057</t>
+          <t>BCIO:007143</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>draw attention to incompatible beliefs BCT</t>
+          <t>enable person to manage automatic responses BCT</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>suggest different perspective on behaviour BCT</t>
+          <t>manage mental processes BCT</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>A suggest different perspective on behaviour BCT that draws the person's attention to the discrepancies between current or past behaviour and self-identity.</t>
+          <t>A manage mental processes BCT that promotes a task that trains the person to control automatic responses.</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr"/>
@@ -2677,22 +2677,22 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007143</t>
+          <t>BCIO:007146</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>enable person to manage automatic responses BCT</t>
+          <t xml:space="preserve">encourage pharmacological support BCT </t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>manage mental processes BCT</t>
+          <t>promote pharmacological support BCT</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>A manage mental processes BCT that promotes a task that trains the person to control automatic responses.</t>
+          <t>A promote pharmacological support BCT that encourages the person to use medicines or other drugs.</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr"/>
@@ -2713,29 +2713,33 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007146</t>
+          <t>BCIO:007150</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">encourage pharmacological support BCT </t>
+          <t>environmental restructuring BCT</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>promote pharmacological support BCT</t>
+          <t>behaviour change technique</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>A promote pharmacological support BCT that encourages the person to use medicines or other drugs.</t>
+          <t>A behaviour change technique that alters the environment in which the behaviour is, or would have been, performed in a way that facilitates or impedes the behaviour.</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr"/>
       <c r="F62" s="2" t="inlineStr"/>
       <c r="G62" s="2" t="inlineStr"/>
       <c r="H62" s="2" t="inlineStr"/>
-      <c r="I62" s="2" t="inlineStr"/>
+      <c r="I62" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Feedback is provision of data about some aspect of behaviour without an evaluation (positive or negative). Where feedback includes reward or punishment, see behavioural consequence BCT, outcome consequence BCT and their child classes. </t>
+        </is>
+      </c>
       <c r="J62" s="2" t="inlineStr"/>
       <c r="K62" s="2" t="inlineStr"/>
       <c r="L62" s="2" t="inlineStr">
@@ -2749,33 +2753,29 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007150</t>
+          <t>BCIO:007085</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>environmental restructuring BCT</t>
+          <t>expose to stimulus BCT</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>behaviour change technique</t>
+          <t>alter external stimulus BCT</t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change technique that alters the environment in which the behaviour is, or would have been, performed in a way that facilitates or impedes the behaviour.</t>
+          <t>An alter external stimulus BCT that sustains the person's exposure to a stimulus associated with the behaviour.</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr"/>
       <c r="F63" s="2" t="inlineStr"/>
       <c r="G63" s="2" t="inlineStr"/>
       <c r="H63" s="2" t="inlineStr"/>
-      <c r="I63" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Feedback is provision of data about some aspect of behaviour without an evaluation (positive or negative). Where feedback includes reward or punishment, see behavioural consequence BCT, outcome consequence BCT and their child classes. </t>
-        </is>
-      </c>
+      <c r="I63" s="2" t="inlineStr"/>
       <c r="J63" s="2" t="inlineStr"/>
       <c r="K63" s="2" t="inlineStr"/>
       <c r="L63" s="2" t="inlineStr">
@@ -2789,22 +2789,22 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007085</t>
+          <t>BCIO:007170</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
+          <t>expose to sustained aversive stimulus BCT</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
           <t>expose to stimulus BCT</t>
         </is>
       </c>
-      <c r="C64" s="2" t="inlineStr">
-        <is>
-          <t>alter external stimulus BCT</t>
-        </is>
-      </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>An alter external stimulus BCT that sustains the person's exposure to a stimulus associated with the behaviour.</t>
+          <t>An expose to stimulus BCT that involves sustained exposure to an aversive stimulus to reduce the likelihood of the behaviour when encountering that stimulus.</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr"/>
@@ -2825,22 +2825,22 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007170</t>
+          <t>BCIO:007171</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>expose to sustained aversive stimulus BCT</t>
+          <t>facilitate alternative goal-directed activity BCT</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>expose to stimulus BCT</t>
+          <t>goal directed BCT</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>An expose to stimulus BCT that involves sustained exposure to an aversive stimulus to reduce the likelihood of the behaviour when encountering that stimulus.</t>
+          <t>A goal directed BCT that enables the person to engage in an alternative rewarding behaviour that increases the likelihood of goal achievement.</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr"/>
@@ -2861,22 +2861,22 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007171</t>
+          <t>BCIO:007099</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>facilitate alternative goal-directed activity BCT</t>
+          <t xml:space="preserve">generalise behaviour BCT </t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>goal directed BCT</t>
+          <t>advise specific behaviour BCT</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>A goal directed BCT that enables the person to engage in an alternative rewarding behaviour that increases the likelihood of goal achievement.</t>
+          <t>An advise specific behaviour BCT that advises the person to perform the behaviour which is already performed in a particular context, in a similar context.</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr"/>
@@ -2897,29 +2897,33 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007099</t>
+          <t>BCIO:007001</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">generalise behaviour BCT </t>
+          <t>goal directed BCT</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>advise specific behaviour BCT</t>
+          <t>behaviour change technique</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>An advise specific behaviour BCT that advises the person to perform the behaviour which is already performed in a particular context, in a similar context.</t>
+          <t>A behaviour change technique that sets or changes goals.</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr"/>
       <c r="F67" s="2" t="inlineStr"/>
       <c r="G67" s="2" t="inlineStr"/>
       <c r="H67" s="2" t="inlineStr"/>
-      <c r="I67" s="2" t="inlineStr"/>
+      <c r="I67" s="2" t="inlineStr">
+        <is>
+          <t>A goal is an explicit representation of a desired end state</t>
+        </is>
+      </c>
       <c r="J67" s="2" t="inlineStr"/>
       <c r="K67" s="2" t="inlineStr"/>
       <c r="L67" s="2" t="inlineStr">
@@ -2933,22 +2937,22 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007001</t>
+          <t>BCIO:007002</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
+          <t>goal setting BCT</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
           <t>goal directed BCT</t>
         </is>
       </c>
-      <c r="C68" s="2" t="inlineStr">
-        <is>
-          <t>behaviour change technique</t>
-        </is>
-      </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change technique that sets or changes goals.</t>
+          <t>A goal directed BCT that sets goals.</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr"/>
@@ -2973,12 +2977,12 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007002</t>
+          <t>BCIO:007008</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>goal setting BCT</t>
+          <t>goal strategising BCT</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
@@ -2988,18 +2992,14 @@
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>A goal directed BCT that sets goals.</t>
+          <t>A goal directed BCT in which the person analyses factors influencing the behaviour and generates, selects, or reviews strategies to increase facilitators and overcome barriers.</t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr"/>
       <c r="F69" s="2" t="inlineStr"/>
       <c r="G69" s="2" t="inlineStr"/>
       <c r="H69" s="2" t="inlineStr"/>
-      <c r="I69" s="2" t="inlineStr">
-        <is>
-          <t>A goal is an explicit representation of a desired end state</t>
-        </is>
-      </c>
+      <c r="I69" s="2" t="inlineStr"/>
       <c r="J69" s="2" t="inlineStr"/>
       <c r="K69" s="2" t="inlineStr"/>
       <c r="L69" s="2" t="inlineStr">
@@ -3013,29 +3013,33 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007008</t>
+          <t>BCIO:007172</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>goal strategising BCT</t>
+          <t>gradually increase exposure to aversive stimulus BCT</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>goal directed BCT</t>
+          <t>expose to stimulus BCT</t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>A goal directed BCT in which the person analyses factors influencing the behaviour and generates, selects, or reviews strategies to increase facilitators and overcome barriers.</t>
+          <t>An expose to stimulus BCT that involves gradually increasing exposure to an aversive stimulus to reduce the likelihood of the behaviour when encountering that stimulus.</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr"/>
       <c r="F70" s="2" t="inlineStr"/>
       <c r="G70" s="2" t="inlineStr"/>
       <c r="H70" s="2" t="inlineStr"/>
-      <c r="I70" s="2" t="inlineStr"/>
+      <c r="I70" s="2" t="inlineStr">
+        <is>
+          <t>For the purposes of this BCT, preceding behaviour can be considered part of the context</t>
+        </is>
+      </c>
       <c r="J70" s="2" t="inlineStr"/>
       <c r="K70" s="2" t="inlineStr"/>
       <c r="L70" s="2" t="inlineStr">
@@ -3049,33 +3053,29 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007172</t>
+          <t>BCIO:007050</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>gradually increase exposure to aversive stimulus BCT</t>
+          <t xml:space="preserve">guide how to perform behaviour BCT </t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>expose to stimulus BCT</t>
+          <t>behaviour change technique</t>
         </is>
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>An expose to stimulus BCT that involves gradually increasing exposure to an aversive stimulus to reduce the likelihood of the behaviour when encountering that stimulus.</t>
+          <t>A behaviour change technique that provides guidance regarding how to perform the behaviour.</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr"/>
       <c r="F71" s="2" t="inlineStr"/>
       <c r="G71" s="2" t="inlineStr"/>
       <c r="H71" s="2" t="inlineStr"/>
-      <c r="I71" s="2" t="inlineStr">
-        <is>
-          <t>For the purposes of this BCT, preceding behaviour can be considered part of the context</t>
-        </is>
-      </c>
+      <c r="I71" s="2" t="inlineStr"/>
       <c r="J71" s="2" t="inlineStr"/>
       <c r="K71" s="2" t="inlineStr"/>
       <c r="L71" s="2" t="inlineStr">
@@ -3215,7 +3215,7 @@
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>awareness of other people‘s thoughts, feelings and actions BCT</t>
+          <t>awareness of other people's thoughts, feelings and actions BCT</t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>awareness of other people‘s thoughts, feelings and actions BCT</t>
+          <t>awareness of other people's thoughts, feelings and actions BCT</t>
         </is>
       </c>
       <c r="D79" s="2" t="inlineStr">
@@ -4016,12 +4016,12 @@
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>advise how to perform behaviour BCT</t>
+          <t>guide how to perform behaviour BCT</t>
         </is>
       </c>
       <c r="D97" s="2" t="inlineStr">
         <is>
-          <t>An advise how to perform behaviour BCT that involves telling the person how to perform the behaviour.</t>
+          <t>A guide how to perform behaviour BCT that involves telling the person how to perform the behaviour.</t>
         </is>
       </c>
       <c r="E97" s="2" t="inlineStr"/>
@@ -4488,7 +4488,7 @@
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>awareness of other people‘s thoughts, feelings and actions BCT</t>
+          <t>awareness of other people's thoughts, feelings and actions BCT</t>
         </is>
       </c>
       <c r="D110" s="2" t="inlineStr">
@@ -6668,7 +6668,7 @@
       </c>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>awareness of other people‘s thoughts, feelings and actions BCT</t>
+          <t>awareness of other people's thoughts, feelings and actions BCT</t>
         </is>
       </c>
       <c r="D169" s="2" t="inlineStr">
@@ -9948,12 +9948,12 @@
       </c>
       <c r="C256" s="2" t="inlineStr">
         <is>
-          <t>advise how to perform behaviour BCT</t>
+          <t>guide how to perform behaviour BCT</t>
         </is>
       </c>
       <c r="D256" s="2" t="inlineStr">
         <is>
-          <t>An advise how to perform behaviour BCT that provides a suggestion regarding how to perform the behaviour.</t>
+          <t>A guide how to perform behaviour BCT that provides a suggestion regarding how to perform the behaviour.</t>
         </is>
       </c>
       <c r="E256" s="2" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
       </c>
       <c r="C257" s="2" t="inlineStr">
         <is>
-          <t>awareness of other people‘s thoughts, feelings and actions BCT</t>
+          <t>awareness of other people's thoughts, feelings and actions BCT</t>
         </is>
       </c>
       <c r="D257" s="2" t="inlineStr">
@@ -10064,7 +10064,7 @@
       </c>
       <c r="C259" s="2" t="inlineStr">
         <is>
-          <t>awareness of other people‘s thoughts, feelings and actions BCT</t>
+          <t>awareness of other people's thoughts, feelings and actions BCT</t>
         </is>
       </c>
       <c r="D259" s="2" t="inlineStr">

--- a/BehaviourChangeTechniques/inputs/BCTO.xlsx
+++ b/BehaviourChangeTechniques/inputs/BCTO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisazhang/Documents/GitHub/ontologies/BehaviourChangeTechniques/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5E7F38-F2E7-714C-AEBA-BF93BE01AA1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3493935-1B0D-924E-939D-43E755358C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="5520" windowWidth="30240" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="6540" windowWidth="30240" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="841">
   <si>
     <t>ID</t>
   </si>
@@ -1120,18 +1120,12 @@
     <t>BCIO:007187</t>
   </si>
   <si>
-    <t>promise behavioural consequence BCT</t>
-  </si>
-  <si>
     <t>A behavioural consequence BCT that promises a future consequence contingent on performing or not performing the behaviour.</t>
   </si>
   <si>
     <t>BCIO:007188</t>
   </si>
   <si>
-    <t>promise behavioural consequence removal BCT</t>
-  </si>
-  <si>
     <t>A behavioural consequence BCT that promises future removal of a consequence contingent on performing or not performing the behaviour.</t>
   </si>
   <si>
@@ -1156,12 +1150,6 @@
     <t>BCIO:007192</t>
   </si>
   <si>
-    <t>promise negative material behavioural consequence BCT</t>
-  </si>
-  <si>
-    <t>A promise negative behavioural consequence BCT where the consequence is money, vouchers or other valued objects.</t>
-  </si>
-  <si>
     <t>BCIO:007193</t>
   </si>
   <si>
@@ -1174,24 +1162,12 @@
     <t>BCIO:007194</t>
   </si>
   <si>
-    <t>promise negative material outcome consequence</t>
-  </si>
-  <si>
-    <t>promise negative outcome consequence BCT</t>
-  </si>
-  <si>
-    <t>A promise negative outcome consequence BCT where the consequence is money, vouchers or other valued objects.</t>
-  </si>
-  <si>
     <t>BCIO:007195</t>
   </si>
   <si>
     <t>promise outcome consequence BCT</t>
   </si>
   <si>
-    <t>A promise outcome consequence BCT where the consequence is negative</t>
-  </si>
-  <si>
     <t>BCIO:007196</t>
   </si>
   <si>
@@ -1201,18 +1177,9 @@
     <t>promise outcome consequence removal BCT</t>
   </si>
   <si>
-    <t>A promise outcome consequence removal BCT where the consequence is negative.</t>
-  </si>
-  <si>
     <t>BCIO:007197</t>
   </si>
   <si>
-    <t>promise negative social behavioural consequence BCT</t>
-  </si>
-  <si>
-    <t>A promise negative behavioural consequence BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
-  </si>
-  <si>
     <t>BCIO:007198</t>
   </si>
   <si>
@@ -1225,12 +1192,6 @@
     <t>BCIO:007199</t>
   </si>
   <si>
-    <t>promise negative social outcome consequence BCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A promise negative outcome consequence BCT where the consequence is an interpersonal process or a proxy interpersonal process. </t>
-  </si>
-  <si>
     <t>BCIO:007200</t>
   </si>
   <si>
@@ -1249,9 +1210,6 @@
     <t>promise positive behavioural consequence BCT</t>
   </si>
   <si>
-    <t>A promise behavioural consequence BCT where the consequence is positive.</t>
-  </si>
-  <si>
     <t>The reduction in frequency of cue presentation can be gradual or rapid. This BCT is concerned with reducing the frequency of cue presentation. In contrast, in "reduce exposure to cues for the behaviour BCT", the cue frequency may remain unchanged but the person's exposure to the presentation of the cue is reduced.</t>
   </si>
   <si>
@@ -1261,9 +1219,6 @@
     <t>promise positive behavioural consequence removal BCT</t>
   </si>
   <si>
-    <t>A promise behavioural consequence removal BCT where the consequence is positive.</t>
-  </si>
-  <si>
     <t>The reduction in exposure can be gradual, as in the technique of "fading" or not so gradual. This BCT is concerned with reducing the person's exposure to the cue, while the cue frequency may remain unchanged. In contrast, "reduce cue frequency BCT" is concerned with a reduction in the number of times with which the cue is presented.</t>
   </si>
   <si>
@@ -1273,54 +1228,33 @@
     <t>promise positive consequence for alternative behaviour BCT</t>
   </si>
   <si>
-    <t>A promise positive behavioural consequence BCT that promises the consequence will be provided for the behaviour that is different from an unwanted behaviour.</t>
-  </si>
-  <si>
     <t>BCIO:007205</t>
   </si>
   <si>
     <t>promise positive consequence for approximating behaviour BCT</t>
   </si>
   <si>
-    <t>A promise positive behavioural consequence BCT where the consequence is provided for approximation to the behaviour, gradually rewarding only performance closer to the behaviour.</t>
-  </si>
-  <si>
     <t>BCIO:007206</t>
   </si>
   <si>
     <t>promise positive consequence for behavioural sequence BCT</t>
   </si>
   <si>
-    <t>A promise positive behavioural consequence BCT in which the consequence will be provided for performing the behaviour that is the final step of a sequence of behaviours, and then gradually adding behaviours that occur earlier in the sequence.</t>
-  </si>
-  <si>
     <t>BCIO:007207</t>
   </si>
   <si>
     <t>promise positive consequence for incompatible behaviour BCT</t>
   </si>
   <si>
-    <t>A promise positive behavioural consequence BCT that promises the consequence will be provided for the behaviour that is incompatible with the unwanted behaviour.</t>
-  </si>
-  <si>
     <t>BCIO:007208</t>
   </si>
   <si>
     <t>promise positive consequence for situation specific behaviour BCT</t>
   </si>
   <si>
-    <t>A promise positive behavioural consequence BCT that promises the consequence will be provided for the behaviour in one situation but not in another.</t>
-  </si>
-  <si>
     <t>BCIO:007209</t>
   </si>
   <si>
-    <t>promise positive material behavioural consequence BCT</t>
-  </si>
-  <si>
-    <t>A promise positive behavioural consequence BCT where the consequence is money, vouchers or other valued objects.</t>
-  </si>
-  <si>
     <t>BCIO:007210</t>
   </si>
   <si>
@@ -1342,12 +1276,6 @@
     <t>BCIO:007212</t>
   </si>
   <si>
-    <t>promise positive material consequence for behavioural sequence BCT</t>
-  </si>
-  <si>
-    <t>A promise positive consequence for behavioural sequence BCT in which the consequence is money, vouchers or other valued objects.</t>
-  </si>
-  <si>
     <t>BCIO:007213</t>
   </si>
   <si>
@@ -1375,15 +1303,9 @@
     <t>BCIO:007215</t>
   </si>
   <si>
-    <t>promise positive material outcome consequence</t>
-  </si>
-  <si>
     <t>promise positive outcome consequence BCT</t>
   </si>
   <si>
-    <t>A promise positive outcome consequence BCT where the consequence is money, vouchers or other valued objects.</t>
-  </si>
-  <si>
     <t>A behavioural goal might be set in general terms - e.g. "to do more physical activity" or in measurable terms - e.g. "to do 30 minutes of physical activity five times a week" or "to walk 8000 steps a day." Use this class for measurable behaviour goals</t>
   </si>
   <si>
@@ -2531,6 +2453,99 @@
   </si>
   <si>
     <t>A promise negative consequence for behaviour BCT that promises the consequence will be provided for the behaviour in one situation but not in another.</t>
+  </si>
+  <si>
+    <t>promise negative material consequence for behaviour BCT</t>
+  </si>
+  <si>
+    <t>A promise negative consequence for behaviour BCT where the consequence is money, vouchers or other valued objects.</t>
+  </si>
+  <si>
+    <t>promise negative material consequence for outcome of behaviour</t>
+  </si>
+  <si>
+    <t>promise negative consequence for outcome of behaviour BCT</t>
+  </si>
+  <si>
+    <t>A promise negative consequence for outcome of behaviour BCT where the consequence is money, vouchers or other valued objects.</t>
+  </si>
+  <si>
+    <t>promise consequence for outcome of behaviour BCT</t>
+  </si>
+  <si>
+    <t>A promise consequence for outcome of behaviour BCT where the consequence is negative.</t>
+  </si>
+  <si>
+    <t>promise to remove negative consequence for outcome of behaviour BCT</t>
+  </si>
+  <si>
+    <t>promise to remove consequence for outcome of behaviour BCT</t>
+  </si>
+  <si>
+    <t>A promise to remove consequence for outcome of behaviour BCT where the consequence is negative.</t>
+  </si>
+  <si>
+    <t>promise negative social consequence for behaviour BCT</t>
+  </si>
+  <si>
+    <t>A promise negative consequence for behaviour BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
+  </si>
+  <si>
+    <t>promise negative social consequence for outcome of behaviour BCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A promise negative consequence for outcome of behaviour BCT where the consequence is an interpersonal process or a proxy interpersonal process. </t>
+  </si>
+  <si>
+    <t>promise positive consequence for behaviour BCT</t>
+  </si>
+  <si>
+    <t>A promise consequence for behaviour BCT where the consequence is positive.</t>
+  </si>
+  <si>
+    <t>promise to remove positive consequence for behaviour BCT</t>
+  </si>
+  <si>
+    <t>A promise to remove consequence for behaviour BCT where the consequence is positive.</t>
+  </si>
+  <si>
+    <t>A promise positive consequence for behaviour BCT that promises the consequence will be provided for the behaviour that is different from an unwanted behaviour.</t>
+  </si>
+  <si>
+    <t>A promise positive consequence for behaviour BCT where the consequence is provided for approximation to the behaviour, gradually rewarding only performance closer to the behaviour.</t>
+  </si>
+  <si>
+    <t>A promise positive consequence for behaviour BCT in which the consequence will be provided for performing the behaviour that is the final step of a sequence of behaviours, and then gradually adding behaviours that occur earlier in the sequence.</t>
+  </si>
+  <si>
+    <t>A promise positive consequence for behaviour BCT that promises the consequence will be provided for the behaviour that is incompatible with the unwanted behaviour.</t>
+  </si>
+  <si>
+    <t>A promise positive consequence for behaviour BCT that promises the consequence will be provided for the behaviour in one situation but not in another.</t>
+  </si>
+  <si>
+    <t>A promise positive consequence for behaviour BCT where the consequence is money, vouchers or other valued objects.</t>
+  </si>
+  <si>
+    <t>promise positive consequence for completion of behavioural sequence BCT</t>
+  </si>
+  <si>
+    <t>promise positive material consequence for behaviour BCT</t>
+  </si>
+  <si>
+    <t>promise positive material consequence for completion of behavioural sequence BCT</t>
+  </si>
+  <si>
+    <t>A promise positive consequence for completion of behavioural sequence BCT in which the consequence is money, vouchers or other valued objects.</t>
+  </si>
+  <si>
+    <t>promise positive material consequence for outcome of behaviour BCT</t>
+  </si>
+  <si>
+    <t>promise positive consequence for outcome of behaviour BCT</t>
+  </si>
+  <si>
+    <t>A promise positive consequence for outcome of behaviour BCT where the consequence is money, vouchers or other valued objects.</t>
   </si>
 </sst>
 </file>
@@ -2885,8 +2900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3285,13 +3300,13 @@
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
-        <v>817</v>
+        <v>791</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>818</v>
+        <v>792</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -4549,7 +4564,7 @@
         <v>217</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>821</v>
+        <v>795</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>60</v>
@@ -5841,13 +5856,13 @@
         <v>364</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>829</v>
+        <v>803</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>149</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
@@ -5864,16 +5879,16 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>830</v>
+        <v>804</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>149</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
@@ -5890,16 +5905,16 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>831</v>
+        <v>805</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>829</v>
+        <v>803</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>832</v>
+        <v>806</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
@@ -5916,16 +5931,16 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>833</v>
+        <v>807</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>830</v>
+        <v>804</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>834</v>
+        <v>808</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
@@ -5942,16 +5957,16 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>831</v>
+        <v>805</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>835</v>
+        <v>809</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
@@ -5968,16 +5983,16 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>377</v>
+        <v>810</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>371</v>
+        <v>805</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>378</v>
+        <v>811</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
@@ -5994,16 +6009,16 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
@@ -6020,16 +6035,16 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>383</v>
+        <v>812</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>384</v>
+        <v>813</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>385</v>
+        <v>814</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
@@ -6046,16 +6061,16 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>384</v>
+        <v>813</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>387</v>
+        <v>815</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>388</v>
+        <v>816</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
@@ -6072,16 +6087,16 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>390</v>
+        <v>817</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>391</v>
+        <v>818</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>392</v>
+        <v>819</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
@@ -6098,16 +6113,16 @@
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>394</v>
+        <v>820</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>371</v>
+        <v>805</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>395</v>
+        <v>821</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
@@ -6124,16 +6139,16 @@
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
@@ -6150,16 +6165,16 @@
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>400</v>
+        <v>822</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>384</v>
+        <v>813</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>401</v>
+        <v>823</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
@@ -6176,16 +6191,16 @@
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>387</v>
+        <v>815</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>347</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
@@ -6202,16 +6217,16 @@
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>391</v>
+        <v>818</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>347</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
@@ -6228,23 +6243,23 @@
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>407</v>
+        <v>824</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>365</v>
+        <v>803</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>408</v>
+        <v>825</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
       <c r="I127" s="2" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="J127" s="2"/>
       <c r="K127" s="2"/>
@@ -6256,23 +6271,23 @@
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>411</v>
+        <v>826</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>368</v>
+        <v>804</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>412</v>
+        <v>827</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
       <c r="I128" s="2" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="J128" s="2"/>
       <c r="K128" s="2"/>
@@ -6284,16 +6299,16 @@
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>407</v>
+        <v>824</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>416</v>
+        <v>828</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
@@ -6310,16 +6325,16 @@
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>407</v>
+        <v>824</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>419</v>
+        <v>829</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
@@ -6336,16 +6351,16 @@
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>421</v>
+        <v>834</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>407</v>
+        <v>824</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>422</v>
+        <v>830</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
@@ -6362,16 +6377,16 @@
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>407</v>
+        <v>824</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>425</v>
+        <v>831</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
@@ -6388,16 +6403,16 @@
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>407</v>
+        <v>824</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>428</v>
+        <v>832</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
@@ -6414,16 +6429,16 @@
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>430</v>
+        <v>835</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>407</v>
+        <v>824</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>431</v>
+        <v>833</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
@@ -6440,16 +6455,16 @@
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>432</v>
+        <v>410</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>433</v>
+        <v>411</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>434</v>
+        <v>412</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
@@ -6466,16 +6481,16 @@
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>435</v>
+        <v>413</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>436</v>
+        <v>414</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>437</v>
+        <v>415</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
@@ -6492,16 +6507,16 @@
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>438</v>
+        <v>416</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>439</v>
+        <v>836</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>421</v>
+        <v>834</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>440</v>
+        <v>837</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
@@ -6518,23 +6533,23 @@
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
       <c r="I138" s="2" t="s">
-        <v>444</v>
+        <v>420</v>
       </c>
       <c r="J138" s="2"/>
       <c r="K138" s="2"/>
@@ -6546,23 +6561,23 @@
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>446</v>
+        <v>422</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
       <c r="H139" s="2"/>
       <c r="I139" s="2" t="s">
-        <v>448</v>
+        <v>424</v>
       </c>
       <c r="J139" s="2"/>
       <c r="K139" s="2"/>
@@ -6574,23 +6589,23 @@
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>450</v>
+        <v>838</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>451</v>
+        <v>839</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>452</v>
+        <v>840</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
       <c r="I140" s="2" t="s">
-        <v>453</v>
+        <v>427</v>
       </c>
       <c r="J140" s="2"/>
       <c r="K140" s="2"/>
@@ -6602,23 +6617,23 @@
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>454</v>
+        <v>428</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>455</v>
+        <v>429</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
       <c r="I141" s="2" t="s">
-        <v>456</v>
+        <v>430</v>
       </c>
       <c r="J141" s="2"/>
       <c r="K141" s="2"/>
@@ -6630,23 +6645,23 @@
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>457</v>
+        <v>431</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>458</v>
+        <v>432</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>459</v>
+        <v>433</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
       <c r="I142" s="2" t="s">
-        <v>448</v>
+        <v>424</v>
       </c>
       <c r="J142" s="2"/>
       <c r="K142" s="2"/>
@@ -6658,16 +6673,16 @@
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>460</v>
+        <v>434</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>461</v>
+        <v>435</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>462</v>
+        <v>436</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
@@ -6684,16 +6699,16 @@
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>463</v>
+        <v>437</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>464</v>
+        <v>438</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>465</v>
+        <v>439</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
@@ -6710,16 +6725,16 @@
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>466</v>
+        <v>440</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>467</v>
+        <v>441</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>468</v>
+        <v>442</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
@@ -6736,16 +6751,16 @@
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>469</v>
+        <v>443</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>470</v>
+        <v>444</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>471</v>
+        <v>445</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
@@ -6762,16 +6777,16 @@
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>472</v>
+        <v>446</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>474</v>
+        <v>448</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
@@ -6788,16 +6803,16 @@
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>475</v>
+        <v>449</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>476</v>
+        <v>450</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>477</v>
+        <v>451</v>
       </c>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
@@ -6814,16 +6829,16 @@
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>478</v>
+        <v>452</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>479</v>
+        <v>453</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>480</v>
+        <v>454</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
@@ -6840,16 +6855,16 @@
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>481</v>
+        <v>455</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>482</v>
+        <v>456</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>483</v>
+        <v>457</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
@@ -6866,16 +6881,16 @@
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>484</v>
+        <v>458</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>485</v>
+        <v>459</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>482</v>
+        <v>456</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>486</v>
+        <v>460</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
@@ -6892,16 +6907,16 @@
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>487</v>
+        <v>461</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>488</v>
+        <v>462</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>482</v>
+        <v>456</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>489</v>
+        <v>463</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
@@ -6918,23 +6933,23 @@
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>490</v>
+        <v>464</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>491</v>
+        <v>465</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>492</v>
+        <v>466</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
       <c r="H153" s="2"/>
       <c r="I153" s="2" t="s">
-        <v>493</v>
+        <v>467</v>
       </c>
       <c r="J153" s="2"/>
       <c r="K153" s="2"/>
@@ -6946,23 +6961,23 @@
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>494</v>
+        <v>468</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>495</v>
+        <v>469</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>491</v>
+        <v>465</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>496</v>
+        <v>470</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
       <c r="H154" s="2"/>
       <c r="I154" s="2" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
@@ -6974,16 +6989,16 @@
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>498</v>
+        <v>472</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>499</v>
+        <v>473</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>491</v>
+        <v>465</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>500</v>
+        <v>474</v>
       </c>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
@@ -7000,16 +7015,16 @@
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>501</v>
+        <v>475</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>502</v>
+        <v>476</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>503</v>
+        <v>477</v>
       </c>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
@@ -7026,23 +7041,23 @@
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>504</v>
+        <v>478</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>505</v>
+        <v>479</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>506</v>
+        <v>480</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
       <c r="H157" s="2"/>
       <c r="I157" s="2" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="J157" s="2"/>
       <c r="K157" s="2"/>
@@ -7054,16 +7069,16 @@
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>507</v>
+        <v>481</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>508</v>
+        <v>482</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>509</v>
+        <v>483</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
@@ -7080,16 +7095,16 @@
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>510</v>
+        <v>484</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>511</v>
+        <v>485</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>512</v>
+        <v>486</v>
       </c>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
@@ -7106,23 +7121,23 @@
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>513</v>
+        <v>487</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>514</v>
+        <v>488</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>515</v>
+        <v>489</v>
       </c>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
       <c r="H160" s="2"/>
       <c r="I160" s="2" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="J160" s="2"/>
       <c r="K160" s="2"/>
@@ -7134,16 +7149,16 @@
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>516</v>
+        <v>490</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>517</v>
+        <v>491</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>458</v>
+        <v>432</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>518</v>
+        <v>492</v>
       </c>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
@@ -7160,16 +7175,16 @@
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>519</v>
+        <v>493</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>520</v>
+        <v>494</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>521</v>
+        <v>495</v>
       </c>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
@@ -7186,23 +7201,23 @@
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>522</v>
+        <v>496</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>523</v>
+        <v>497</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>458</v>
+        <v>432</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>524</v>
+        <v>498</v>
       </c>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
       <c r="H163" s="2"/>
       <c r="I163" s="2" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="J163" s="2"/>
       <c r="K163" s="2"/>
@@ -7214,7 +7229,7 @@
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>525</v>
+        <v>499</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>215</v>
@@ -7223,7 +7238,7 @@
         <v>60</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>526</v>
+        <v>500</v>
       </c>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
@@ -7240,16 +7255,16 @@
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>527</v>
+        <v>501</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>163</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
@@ -7266,23 +7281,23 @@
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>530</v>
+        <v>504</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>531</v>
+        <v>505</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>332</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>532</v>
+        <v>506</v>
       </c>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
       <c r="G166" s="2"/>
       <c r="H166" s="2"/>
       <c r="I166" s="2" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="J166" s="2"/>
       <c r="K166" s="2"/>
@@ -7294,7 +7309,7 @@
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>533</v>
+        <v>507</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>31</v>
@@ -7303,7 +7318,7 @@
         <v>60</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>534</v>
+        <v>508</v>
       </c>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
@@ -7320,16 +7335,16 @@
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>535</v>
+        <v>509</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>536</v>
+        <v>510</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>106</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>537</v>
+        <v>511</v>
       </c>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
@@ -7346,23 +7361,23 @@
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>538</v>
+        <v>512</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>539</v>
+        <v>513</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>332</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>540</v>
+        <v>514</v>
       </c>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
       <c r="H169" s="2"/>
       <c r="I169" s="2" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="J169" s="2"/>
       <c r="K169" s="2"/>
@@ -7374,16 +7389,16 @@
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>541</v>
+        <v>515</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>542</v>
+        <v>516</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>142</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>543</v>
+        <v>517</v>
       </c>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
@@ -7400,7 +7415,7 @@
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>544</v>
+        <v>518</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>332</v>
@@ -7409,7 +7424,7 @@
         <v>60</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>545</v>
+        <v>519</v>
       </c>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
@@ -7426,23 +7441,23 @@
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>546</v>
+        <v>520</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>822</v>
+        <v>796</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>149</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>548</v>
+        <v>522</v>
       </c>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
       <c r="H172" s="2"/>
       <c r="I172" s="2" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="J172" s="2"/>
       <c r="K172" s="2"/>
@@ -7454,16 +7469,16 @@
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>549</v>
+        <v>523</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>550</v>
+        <v>524</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>551</v>
+        <v>525</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>552</v>
+        <v>526</v>
       </c>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
@@ -7480,23 +7495,23 @@
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>553</v>
+        <v>527</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>554</v>
+        <v>528</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>555</v>
+        <v>529</v>
       </c>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
       <c r="H174" s="2"/>
       <c r="I174" s="2" t="s">
-        <v>556</v>
+        <v>530</v>
       </c>
       <c r="J174" s="2"/>
       <c r="K174" s="2"/>
@@ -7508,23 +7523,23 @@
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>557</v>
+        <v>531</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>551</v>
+        <v>525</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>336</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>558</v>
+        <v>532</v>
       </c>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
       <c r="H175" s="2"/>
       <c r="I175" s="2" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="J175" s="2"/>
       <c r="K175" s="2"/>
@@ -7536,16 +7551,16 @@
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>559</v>
+        <v>533</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>560</v>
+        <v>534</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>551</v>
+        <v>525</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>561</v>
+        <v>535</v>
       </c>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
@@ -7562,16 +7577,16 @@
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>562</v>
+        <v>536</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>563</v>
+        <v>537</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>551</v>
+        <v>525</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>564</v>
+        <v>538</v>
       </c>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
@@ -7588,23 +7603,23 @@
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>565</v>
+        <v>539</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>566</v>
+        <v>540</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>547</v>
+        <v>521</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>567</v>
+        <v>541</v>
       </c>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
       <c r="G178" s="2"/>
       <c r="H178" s="2"/>
       <c r="I178" s="2" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="J178" s="2"/>
       <c r="K178" s="2"/>
@@ -7616,16 +7631,16 @@
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>568</v>
+        <v>542</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>566</v>
+        <v>540</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
@@ -7642,16 +7657,16 @@
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>571</v>
+        <v>545</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>566</v>
+        <v>540</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>573</v>
+        <v>547</v>
       </c>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
@@ -7668,23 +7683,23 @@
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>575</v>
+        <v>549</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>576</v>
+        <v>550</v>
       </c>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
       <c r="G181" s="2"/>
       <c r="H181" s="2"/>
       <c r="I181" s="2" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="J181" s="2"/>
       <c r="K181" s="2"/>
@@ -7696,16 +7711,16 @@
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>577</v>
+        <v>551</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>578</v>
+        <v>552</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>579</v>
+        <v>553</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>580</v>
+        <v>554</v>
       </c>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
@@ -7722,16 +7737,16 @@
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>581</v>
+        <v>555</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>579</v>
+        <v>553</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>582</v>
+        <v>556</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>583</v>
+        <v>557</v>
       </c>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
@@ -7748,23 +7763,23 @@
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>584</v>
+        <v>558</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>585</v>
+        <v>559</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>566</v>
+        <v>540</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>586</v>
+        <v>560</v>
       </c>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
       <c r="H184" s="2"/>
       <c r="I184" s="2" t="s">
-        <v>587</v>
+        <v>561</v>
       </c>
       <c r="J184" s="2"/>
       <c r="K184" s="2"/>
@@ -7776,23 +7791,23 @@
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>588</v>
+        <v>562</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>589</v>
+        <v>563</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>590</v>
+        <v>564</v>
       </c>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
       <c r="H185" s="2"/>
       <c r="I185" s="2" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="J185" s="2"/>
       <c r="K185" s="2"/>
@@ -7804,16 +7819,16 @@
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>591</v>
+        <v>565</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>592</v>
+        <v>566</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>579</v>
+        <v>553</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>593</v>
+        <v>567</v>
       </c>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
@@ -7830,23 +7845,23 @@
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>594</v>
+        <v>568</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>582</v>
+        <v>556</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>347</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>595</v>
+        <v>569</v>
       </c>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
       <c r="G187" s="2"/>
       <c r="H187" s="2"/>
       <c r="I187" s="2" t="s">
-        <v>596</v>
+        <v>570</v>
       </c>
       <c r="J187" s="2"/>
       <c r="K187" s="2"/>
@@ -7858,23 +7873,23 @@
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>597</v>
+        <v>571</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>598</v>
+        <v>572</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>215</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>599</v>
+        <v>573</v>
       </c>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
       <c r="G188" s="2"/>
       <c r="H188" s="2"/>
       <c r="I188" s="2" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="J188" s="2"/>
       <c r="K188" s="2"/>
@@ -7886,16 +7901,16 @@
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
-        <v>600</v>
+        <v>574</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>601</v>
+        <v>575</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>602</v>
+        <v>576</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>603</v>
+        <v>577</v>
       </c>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
@@ -7912,23 +7927,23 @@
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>604</v>
+        <v>578</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>823</v>
+        <v>797</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>822</v>
+        <v>796</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>824</v>
+        <v>798</v>
       </c>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
       <c r="G190" s="2"/>
       <c r="H190" s="2"/>
       <c r="I190" s="2" t="s">
-        <v>605</v>
+        <v>579</v>
       </c>
       <c r="J190" s="2"/>
       <c r="K190" s="2"/>
@@ -7940,23 +7955,23 @@
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>606</v>
+        <v>580</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>607</v>
+        <v>581</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>602</v>
+        <v>576</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>608</v>
+        <v>582</v>
       </c>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
       <c r="G191" s="2"/>
       <c r="H191" s="2"/>
       <c r="I191" s="2" t="s">
-        <v>493</v>
+        <v>467</v>
       </c>
       <c r="J191" s="2"/>
       <c r="K191" s="2"/>
@@ -7968,23 +7983,23 @@
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>609</v>
+        <v>583</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>610</v>
+        <v>584</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>602</v>
+        <v>576</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>611</v>
+        <v>585</v>
       </c>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
       <c r="G192" s="2"/>
       <c r="H192" s="2"/>
       <c r="I192" s="2" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="J192" s="2"/>
       <c r="K192" s="2"/>
@@ -7996,16 +8011,16 @@
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>612</v>
+        <v>586</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>613</v>
+        <v>587</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>602</v>
+        <v>576</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>614</v>
+        <v>588</v>
       </c>
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
@@ -8022,16 +8037,16 @@
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>615</v>
+        <v>589</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>616</v>
+        <v>590</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>602</v>
+        <v>576</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>617</v>
+        <v>591</v>
       </c>
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
@@ -8048,23 +8063,23 @@
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>618</v>
+        <v>592</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>827</v>
+        <v>801</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>823</v>
+        <v>797</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>828</v>
+        <v>802</v>
       </c>
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
       <c r="G195" s="2"/>
       <c r="H195" s="2"/>
       <c r="I195" s="2" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="J195" s="2"/>
       <c r="K195" s="2"/>
@@ -8076,16 +8091,16 @@
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>619</v>
+        <v>593</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>620</v>
+        <v>594</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>601</v>
+        <v>575</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>621</v>
+        <v>595</v>
       </c>
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
@@ -8102,16 +8117,16 @@
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>622</v>
+        <v>596</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>623</v>
+        <v>597</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>607</v>
+        <v>581</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>624</v>
+        <v>598</v>
       </c>
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
@@ -8128,23 +8143,23 @@
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>625</v>
+        <v>599</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>626</v>
+        <v>600</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>610</v>
+        <v>584</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>627</v>
+        <v>601</v>
       </c>
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
       <c r="G198" s="2"/>
       <c r="H198" s="2"/>
       <c r="I198" s="2" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="J198" s="2"/>
       <c r="K198" s="2"/>
@@ -8156,16 +8171,16 @@
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>628</v>
+        <v>602</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>629</v>
+        <v>603</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>613</v>
+        <v>587</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>630</v>
+        <v>604</v>
       </c>
       <c r="E199" s="2"/>
       <c r="F199" s="2"/>
@@ -8182,16 +8197,16 @@
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>631</v>
+        <v>605</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>632</v>
+        <v>606</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>616</v>
+        <v>590</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>633</v>
+        <v>607</v>
       </c>
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
@@ -8208,23 +8223,23 @@
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>634</v>
+        <v>608</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>635</v>
+        <v>609</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>636</v>
+        <v>610</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>637</v>
+        <v>611</v>
       </c>
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
       <c r="G201" s="2"/>
       <c r="H201" s="2"/>
       <c r="I201" s="2" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="J201" s="2"/>
       <c r="K201" s="2"/>
@@ -8236,16 +8251,16 @@
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>638</v>
+        <v>612</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>636</v>
+        <v>610</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>582</v>
+        <v>556</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>639</v>
+        <v>613</v>
       </c>
       <c r="E202" s="2"/>
       <c r="F202" s="2"/>
@@ -8262,16 +8277,16 @@
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>640</v>
+        <v>614</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>825</v>
+        <v>799</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>823</v>
+        <v>797</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>826</v>
+        <v>800</v>
       </c>
       <c r="E203" s="2"/>
       <c r="F203" s="2"/>
@@ -8288,23 +8303,23 @@
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>641</v>
+        <v>615</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>642</v>
+        <v>616</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>601</v>
+        <v>575</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>643</v>
+        <v>617</v>
       </c>
       <c r="E204" s="2"/>
       <c r="F204" s="2"/>
       <c r="G204" s="2"/>
       <c r="H204" s="2"/>
       <c r="I204" s="2" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="J204" s="2"/>
       <c r="K204" s="2"/>
@@ -8316,16 +8331,16 @@
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>644</v>
+        <v>618</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>645</v>
+        <v>619</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>607</v>
+        <v>581</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>646</v>
+        <v>620</v>
       </c>
       <c r="E205" s="2"/>
       <c r="F205" s="2"/>
@@ -8342,16 +8357,16 @@
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>647</v>
+        <v>621</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>648</v>
+        <v>622</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>610</v>
+        <v>584</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>649</v>
+        <v>623</v>
       </c>
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
@@ -8368,23 +8383,23 @@
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>650</v>
+        <v>624</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>651</v>
+        <v>625</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>613</v>
+        <v>587</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>652</v>
+        <v>626</v>
       </c>
       <c r="E207" s="2"/>
       <c r="F207" s="2"/>
       <c r="G207" s="2"/>
       <c r="H207" s="2"/>
       <c r="I207" s="2" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="J207" s="2"/>
       <c r="K207" s="2"/>
@@ -8396,16 +8411,16 @@
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>653</v>
+        <v>627</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>654</v>
+        <v>628</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>616</v>
+        <v>590</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>655</v>
+        <v>629</v>
       </c>
       <c r="E208" s="2"/>
       <c r="F208" s="2"/>
@@ -8422,16 +8437,16 @@
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>656</v>
+        <v>630</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>657</v>
+        <v>631</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>636</v>
+        <v>610</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>658</v>
+        <v>632</v>
       </c>
       <c r="E209" s="2"/>
       <c r="F209" s="2"/>
@@ -8448,23 +8463,23 @@
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>659</v>
+        <v>633</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>660</v>
+        <v>634</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>661</v>
+        <v>635</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>662</v>
+        <v>636</v>
       </c>
       <c r="E210" s="2"/>
       <c r="F210" s="2"/>
       <c r="G210" s="2"/>
       <c r="H210" s="2"/>
       <c r="I210" s="2" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="J210" s="2"/>
       <c r="K210" s="2"/>
@@ -8476,16 +8491,16 @@
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>663</v>
+        <v>637</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>664</v>
+        <v>638</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>566</v>
+        <v>540</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>665</v>
+        <v>639</v>
       </c>
       <c r="E211" s="2"/>
       <c r="F211" s="2"/>
@@ -8502,23 +8517,23 @@
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>666</v>
+        <v>640</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>667</v>
+        <v>641</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>664</v>
+        <v>638</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>668</v>
+        <v>642</v>
       </c>
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
       <c r="G212" s="2"/>
       <c r="H212" s="2"/>
       <c r="I212" s="2" t="s">
-        <v>556</v>
+        <v>530</v>
       </c>
       <c r="J212" s="2"/>
       <c r="K212" s="2"/>
@@ -8530,23 +8545,23 @@
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>669</v>
+        <v>643</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>670</v>
+        <v>644</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>671</v>
+        <v>645</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>672</v>
+        <v>646</v>
       </c>
       <c r="E213" s="2"/>
       <c r="F213" s="2"/>
       <c r="G213" s="2"/>
       <c r="H213" s="2"/>
       <c r="I213" s="2" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="J213" s="2"/>
       <c r="K213" s="2"/>
@@ -8558,16 +8573,16 @@
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>673</v>
+        <v>647</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>671</v>
+        <v>645</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>579</v>
+        <v>553</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>674</v>
+        <v>648</v>
       </c>
       <c r="E214" s="2"/>
       <c r="F214" s="2"/>
@@ -8584,16 +8599,16 @@
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>675</v>
+        <v>649</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>676</v>
+        <v>650</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>664</v>
+        <v>638</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>677</v>
+        <v>651</v>
       </c>
       <c r="E215" s="2"/>
       <c r="F215" s="2"/>
@@ -8610,16 +8625,16 @@
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
-        <v>678</v>
+        <v>652</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>679</v>
+        <v>653</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>671</v>
+        <v>645</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>680</v>
+        <v>654</v>
       </c>
       <c r="E216" s="2"/>
       <c r="F216" s="2"/>
@@ -8636,16 +8651,16 @@
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
-        <v>681</v>
+        <v>655</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>682</v>
+        <v>656</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>602</v>
+        <v>576</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>683</v>
+        <v>657</v>
       </c>
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
@@ -8662,16 +8677,16 @@
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
-        <v>684</v>
+        <v>658</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>685</v>
+        <v>659</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>682</v>
+        <v>656</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>686</v>
+        <v>660</v>
       </c>
       <c r="E218" s="2"/>
       <c r="F218" s="2"/>
@@ -8688,16 +8703,16 @@
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>687</v>
+        <v>661</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>661</v>
+        <v>635</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>636</v>
+        <v>610</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>688</v>
+        <v>662</v>
       </c>
       <c r="E219" s="2"/>
       <c r="F219" s="2"/>
@@ -8714,16 +8729,16 @@
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
-        <v>689</v>
+        <v>663</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>690</v>
+        <v>664</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>682</v>
+        <v>656</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>691</v>
+        <v>665</v>
       </c>
       <c r="E220" s="2"/>
       <c r="F220" s="2"/>
@@ -8740,16 +8755,16 @@
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
-        <v>692</v>
+        <v>666</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>693</v>
+        <v>667</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>661</v>
+        <v>635</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>694</v>
+        <v>668</v>
       </c>
       <c r="E221" s="2"/>
       <c r="F221" s="2"/>
@@ -8766,16 +8781,16 @@
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
-        <v>695</v>
+        <v>669</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>696</v>
+        <v>670</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>208</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>697</v>
+        <v>671</v>
       </c>
       <c r="E222" s="2"/>
       <c r="F222" s="2"/>
@@ -8792,23 +8807,23 @@
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>698</v>
+        <v>672</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>699</v>
+        <v>673</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>336</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>700</v>
+        <v>674</v>
       </c>
       <c r="E223" s="2"/>
       <c r="F223" s="2"/>
       <c r="G223" s="2"/>
       <c r="H223" s="2"/>
       <c r="I223" s="2" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="J223" s="2"/>
       <c r="K223" s="2"/>
@@ -8820,16 +8835,16 @@
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
-        <v>701</v>
+        <v>675</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>702</v>
+        <v>676</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>336</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>703</v>
+        <v>677</v>
       </c>
       <c r="E224" s="2"/>
       <c r="F224" s="2"/>
@@ -8846,16 +8861,16 @@
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
-        <v>704</v>
+        <v>678</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>705</v>
+        <v>679</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>106</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>706</v>
+        <v>680</v>
       </c>
       <c r="E225" s="2"/>
       <c r="F225" s="2"/>
@@ -8872,23 +8887,23 @@
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>707</v>
+        <v>681</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>708</v>
+        <v>682</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>709</v>
+        <v>683</v>
       </c>
       <c r="E226" s="2"/>
       <c r="F226" s="2"/>
       <c r="G226" s="2"/>
       <c r="H226" s="2"/>
       <c r="I226" s="2" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="J226" s="2"/>
       <c r="K226" s="2"/>
@@ -8900,16 +8915,16 @@
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>710</v>
+        <v>684</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>711</v>
+        <v>685</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>106</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>712</v>
+        <v>686</v>
       </c>
       <c r="E227" s="2"/>
       <c r="F227" s="2"/>
@@ -8926,16 +8941,16 @@
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
-        <v>713</v>
+        <v>687</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>714</v>
+        <v>688</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>208</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>715</v>
+        <v>689</v>
       </c>
       <c r="E228" s="2"/>
       <c r="F228" s="2"/>
@@ -8952,16 +8967,16 @@
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
-        <v>716</v>
+        <v>690</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>717</v>
+        <v>691</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>332</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>718</v>
+        <v>692</v>
       </c>
       <c r="E229" s="2"/>
       <c r="F229" s="2"/>
@@ -8979,13 +8994,13 @@
     <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230" s="2"/>
       <c r="B230" s="2" t="s">
-        <v>819</v>
+        <v>793</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>106</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>820</v>
+        <v>794</v>
       </c>
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
@@ -9000,23 +9015,23 @@
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
-        <v>719</v>
+        <v>693</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>720</v>
+        <v>694</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>149</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>721</v>
+        <v>695</v>
       </c>
       <c r="E231" s="2"/>
       <c r="F231" s="2"/>
       <c r="G231" s="2"/>
       <c r="H231" s="2"/>
       <c r="I231" s="2" t="s">
-        <v>493</v>
+        <v>467</v>
       </c>
       <c r="J231" s="2"/>
       <c r="K231" s="2"/>
@@ -9028,23 +9043,23 @@
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
-        <v>722</v>
+        <v>696</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>723</v>
+        <v>697</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>720</v>
+        <v>694</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>724</v>
+        <v>698</v>
       </c>
       <c r="E232" s="2"/>
       <c r="F232" s="2"/>
       <c r="G232" s="2"/>
       <c r="H232" s="2"/>
       <c r="I232" s="2" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="J232" s="2"/>
       <c r="K232" s="2"/>
@@ -9056,16 +9071,16 @@
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
-        <v>725</v>
+        <v>699</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>726</v>
+        <v>700</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>723</v>
+        <v>697</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>727</v>
+        <v>701</v>
       </c>
       <c r="E233" s="2"/>
       <c r="F233" s="2"/>
@@ -9082,16 +9097,16 @@
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>728</v>
+        <v>702</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>729</v>
+        <v>703</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>730</v>
+        <v>704</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>731</v>
+        <v>705</v>
       </c>
       <c r="E234" s="2"/>
       <c r="F234" s="2"/>
@@ -9108,23 +9123,23 @@
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>732</v>
+        <v>706</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>730</v>
+        <v>704</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>733</v>
+        <v>707</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>734</v>
+        <v>708</v>
       </c>
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
       <c r="G235" s="2"/>
       <c r="H235" s="2"/>
       <c r="I235" s="2" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="J235" s="2"/>
       <c r="K235" s="2"/>
@@ -9136,16 +9151,16 @@
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
-        <v>735</v>
+        <v>709</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>736</v>
+        <v>710</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>723</v>
+        <v>697</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>737</v>
+        <v>711</v>
       </c>
       <c r="E236" s="2"/>
       <c r="F236" s="2"/>
@@ -9162,23 +9177,23 @@
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
-        <v>738</v>
+        <v>712</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>739</v>
+        <v>713</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>730</v>
+        <v>704</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="E237" s="2"/>
       <c r="F237" s="2"/>
       <c r="G237" s="2"/>
       <c r="H237" s="2"/>
       <c r="I237" s="2" t="s">
-        <v>556</v>
+        <v>530</v>
       </c>
       <c r="J237" s="2"/>
       <c r="K237" s="2"/>
@@ -9190,23 +9205,23 @@
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>741</v>
+        <v>715</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>733</v>
+        <v>707</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>347</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>742</v>
+        <v>716</v>
       </c>
       <c r="E238" s="2"/>
       <c r="F238" s="2"/>
       <c r="G238" s="2"/>
       <c r="H238" s="2"/>
       <c r="I238" s="2" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="J238" s="2"/>
       <c r="K238" s="2"/>
@@ -9218,16 +9233,16 @@
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
-        <v>743</v>
+        <v>717</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>744</v>
+        <v>718</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>720</v>
+        <v>694</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>745</v>
+        <v>719</v>
       </c>
       <c r="E239" s="2"/>
       <c r="F239" s="2"/>
@@ -9244,16 +9259,16 @@
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
-        <v>746</v>
+        <v>720</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>747</v>
+        <v>721</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>744</v>
+        <v>718</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>748</v>
+        <v>722</v>
       </c>
       <c r="E240" s="2"/>
       <c r="F240" s="2"/>
@@ -9270,23 +9285,23 @@
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
-        <v>749</v>
+        <v>723</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>750</v>
+        <v>724</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>751</v>
+        <v>725</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>752</v>
+        <v>726</v>
       </c>
       <c r="E241" s="2"/>
       <c r="F241" s="2"/>
       <c r="G241" s="2"/>
       <c r="H241" s="2"/>
       <c r="I241" s="2" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="J241" s="2"/>
       <c r="K241" s="2"/>
@@ -9298,16 +9313,16 @@
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>753</v>
+        <v>727</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>751</v>
+        <v>725</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>733</v>
+        <v>707</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>754</v>
+        <v>728</v>
       </c>
       <c r="E242" s="2"/>
       <c r="F242" s="2"/>
@@ -9324,16 +9339,16 @@
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
-        <v>755</v>
+        <v>729</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>756</v>
+        <v>730</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>744</v>
+        <v>718</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>757</v>
+        <v>731</v>
       </c>
       <c r="E243" s="2"/>
       <c r="F243" s="2"/>
@@ -9350,23 +9365,23 @@
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>751</v>
+        <v>725</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>760</v>
+        <v>734</v>
       </c>
       <c r="E244" s="2"/>
       <c r="F244" s="2"/>
       <c r="G244" s="2"/>
       <c r="H244" s="2"/>
       <c r="I244" s="2" t="s">
-        <v>587</v>
+        <v>561</v>
       </c>
       <c r="J244" s="2"/>
       <c r="K244" s="2"/>
@@ -9378,23 +9393,23 @@
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
-        <v>761</v>
+        <v>735</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>762</v>
+        <v>736</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>763</v>
+        <v>737</v>
       </c>
       <c r="E245" s="2"/>
       <c r="F245" s="2"/>
       <c r="G245" s="2"/>
       <c r="H245" s="2"/>
       <c r="I245" s="2" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="J245" s="2"/>
       <c r="K245" s="2"/>
@@ -9406,16 +9421,16 @@
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
-        <v>764</v>
+        <v>738</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>765</v>
+        <v>739</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>766</v>
+        <v>740</v>
       </c>
       <c r="E246" s="2"/>
       <c r="F246" s="2"/>
@@ -9432,23 +9447,23 @@
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
-        <v>767</v>
+        <v>741</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>768</v>
+        <v>742</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>769</v>
+        <v>743</v>
       </c>
       <c r="E247" s="2"/>
       <c r="F247" s="2"/>
       <c r="G247" s="2"/>
       <c r="H247" s="2"/>
       <c r="I247" s="2" t="s">
-        <v>596</v>
+        <v>570</v>
       </c>
       <c r="J247" s="2"/>
       <c r="K247" s="2"/>
@@ -9460,23 +9475,23 @@
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
-        <v>770</v>
+        <v>744</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>771</v>
+        <v>745</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>336</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>772</v>
+        <v>746</v>
       </c>
       <c r="E248" s="2"/>
       <c r="F248" s="2"/>
       <c r="G248" s="2"/>
       <c r="H248" s="2"/>
       <c r="I248" s="2" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="J248" s="2"/>
       <c r="K248" s="2"/>
@@ -9488,16 +9503,16 @@
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
-        <v>773</v>
+        <v>747</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>336</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>775</v>
+        <v>749</v>
       </c>
       <c r="E249" s="2"/>
       <c r="F249" s="2"/>
@@ -9514,23 +9529,23 @@
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>776</v>
+        <v>750</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>777</v>
+        <v>751</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>96</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>778</v>
+        <v>752</v>
       </c>
       <c r="E250" s="2"/>
       <c r="F250" s="2"/>
       <c r="G250" s="2"/>
       <c r="H250" s="2"/>
       <c r="I250" s="2" t="s">
-        <v>779</v>
+        <v>753</v>
       </c>
       <c r="J250" s="2"/>
       <c r="K250" s="2"/>
@@ -9542,23 +9557,23 @@
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>780</v>
+        <v>754</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>781</v>
+        <v>755</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>782</v>
+        <v>756</v>
       </c>
       <c r="E251" s="2"/>
       <c r="F251" s="2"/>
       <c r="G251" s="2"/>
       <c r="H251" s="2"/>
       <c r="I251" s="2" t="s">
-        <v>587</v>
+        <v>561</v>
       </c>
       <c r="J251" s="2"/>
       <c r="K251" s="2"/>
@@ -9570,23 +9585,23 @@
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>783</v>
+        <v>757</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>784</v>
+        <v>758</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>777</v>
+        <v>751</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>785</v>
+        <v>759</v>
       </c>
       <c r="E252" s="2"/>
       <c r="F252" s="2"/>
       <c r="G252" s="2"/>
       <c r="H252" s="2"/>
       <c r="I252" s="2" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="J252" s="2"/>
       <c r="K252" s="2"/>
@@ -9598,16 +9613,16 @@
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
-        <v>786</v>
+        <v>760</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>787</v>
+        <v>761</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>788</v>
+        <v>762</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>789</v>
+        <v>763</v>
       </c>
       <c r="E253" s="2"/>
       <c r="F253" s="2"/>
@@ -9624,23 +9639,23 @@
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>790</v>
+        <v>764</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>788</v>
+        <v>762</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>96</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>791</v>
+        <v>765</v>
       </c>
       <c r="E254" s="2"/>
       <c r="F254" s="2"/>
       <c r="G254" s="2"/>
       <c r="H254" s="2"/>
       <c r="I254" s="2" t="s">
-        <v>596</v>
+        <v>570</v>
       </c>
       <c r="J254" s="2"/>
       <c r="K254" s="2"/>
@@ -9652,7 +9667,7 @@
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>792</v>
+        <v>766</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>85</v>
@@ -9661,14 +9676,14 @@
         <v>60</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>793</v>
+        <v>767</v>
       </c>
       <c r="E255" s="2"/>
       <c r="F255" s="2"/>
       <c r="G255" s="2"/>
       <c r="H255" s="2"/>
       <c r="I255" s="2" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="J255" s="2"/>
       <c r="K255" s="2"/>
@@ -9680,16 +9695,16 @@
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
-        <v>794</v>
+        <v>768</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>795</v>
+        <v>769</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>796</v>
+        <v>770</v>
       </c>
       <c r="E256" s="2"/>
       <c r="F256" s="2"/>
@@ -9706,7 +9721,7 @@
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
-        <v>797</v>
+        <v>771</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>208</v>
@@ -9715,7 +9730,7 @@
         <v>60</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>798</v>
+        <v>772</v>
       </c>
       <c r="E257" s="2"/>
       <c r="F257" s="2"/>
@@ -9732,23 +9747,23 @@
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
-        <v>799</v>
+        <v>773</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>800</v>
+        <v>774</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>801</v>
+        <v>775</v>
       </c>
       <c r="E258" s="2"/>
       <c r="F258" s="2"/>
       <c r="G258" s="2"/>
       <c r="H258" s="2"/>
       <c r="I258" s="2" t="s">
-        <v>493</v>
+        <v>467</v>
       </c>
       <c r="J258" s="2"/>
       <c r="K258" s="2"/>
@@ -9760,23 +9775,23 @@
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>802</v>
+        <v>776</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>803</v>
+        <v>777</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>142</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>804</v>
+        <v>778</v>
       </c>
       <c r="E259" s="2"/>
       <c r="F259" s="2"/>
       <c r="G259" s="2"/>
       <c r="H259" s="2"/>
       <c r="I259" s="2" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="J259" s="2"/>
       <c r="K259" s="2"/>
@@ -9788,16 +9803,16 @@
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
-        <v>805</v>
+        <v>779</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>806</v>
+        <v>780</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>124</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>807</v>
+        <v>781</v>
       </c>
       <c r="E260" s="2"/>
       <c r="F260" s="2"/>
@@ -9814,23 +9829,23 @@
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
-        <v>808</v>
+        <v>782</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>809</v>
+        <v>783</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>142</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>810</v>
+        <v>784</v>
       </c>
       <c r="E261" s="2"/>
       <c r="F261" s="2"/>
       <c r="G261" s="2"/>
       <c r="H261" s="2"/>
       <c r="I261" s="2" t="s">
-        <v>556</v>
+        <v>530</v>
       </c>
       <c r="J261" s="2"/>
       <c r="K261" s="2"/>
@@ -9842,23 +9857,23 @@
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>811</v>
+        <v>785</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>812</v>
+        <v>786</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>163</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>813</v>
+        <v>787</v>
       </c>
       <c r="E262" s="2"/>
       <c r="F262" s="2"/>
       <c r="G262" s="2"/>
       <c r="H262" s="2"/>
       <c r="I262" s="2" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="J262" s="2"/>
       <c r="K262" s="2"/>
@@ -9870,16 +9885,16 @@
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
-        <v>814</v>
+        <v>788</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>815</v>
+        <v>789</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>163</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>816</v>
+        <v>790</v>
       </c>
       <c r="E263" s="2"/>
       <c r="F263" s="2"/>

--- a/BehaviourChangeTechniques/inputs/BCTO.xlsx
+++ b/BehaviourChangeTechniques/inputs/BCTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisazhang/Documents/GitHub/ontologies/BehaviourChangeTechniques/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7ABFF5F-1595-5F4B-90D7-552281C0971F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFDFD51-499C-3D4D-A6B6-1EAD213A374B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="845">
   <si>
     <t>ID</t>
   </si>
@@ -2918,8 +2918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N263"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="O222" sqref="O222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8993,6 +8993,9 @@
       <c r="D229" t="s">
         <v>741</v>
       </c>
+      <c r="L229" s="2" t="s">
+        <v>844</v>
+      </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">

--- a/BehaviourChangeTechniques/inputs/BCTO.xlsx
+++ b/BehaviourChangeTechniques/inputs/BCTO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisazhang/Documents/GitHub/ontologies/BehaviourChangeTechniques/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFDFD51-499C-3D4D-A6B6-1EAD213A374B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4839B692-60B1-974B-94CE-54E910ACF720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="8920" windowWidth="30240" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="840">
   <si>
     <t>ID</t>
   </si>
@@ -1354,15 +1354,6 @@
     <t>BCIO:007216</t>
   </si>
   <si>
-    <t>promise positive outcome consequence BCT</t>
-  </si>
-  <si>
-    <t>promise outcome consequence BCT</t>
-  </si>
-  <si>
-    <t>A promise outcome consequence BCT where the consequence is positive</t>
-  </si>
-  <si>
     <t>An outcome goal might be set in general terms - e.g. "to lose weight" or in measurable terms - e.g. "to lose 5kg of weight" or "to lose 10% of my body weight". Use this class for measurable outcome goals</t>
   </si>
   <si>
@@ -1372,24 +1363,9 @@
     <t>promise positive outcome consequence removal BCT</t>
   </si>
   <si>
-    <t>promise outcome consequence removal BCT</t>
-  </si>
-  <si>
-    <t>A promise outcome consequence removal BCT where the consequence is positive.</t>
-  </si>
-  <si>
     <t>BCIO:007218</t>
   </si>
   <si>
-    <t>promise positive social behavioural consequence BCT</t>
-  </si>
-  <si>
-    <t>promise positive behavioural consequence BCT</t>
-  </si>
-  <si>
-    <t>A promise positive behavioural consequence BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
-  </si>
-  <si>
     <t>BCIO:007219</t>
   </si>
   <si>
@@ -1411,15 +1387,6 @@
     <t>BCIO:007221</t>
   </si>
   <si>
-    <t>promise positive social consequence for behavioural sequence BCT</t>
-  </si>
-  <si>
-    <t>promise positive consequence for behavioural sequence BCT</t>
-  </si>
-  <si>
-    <t>A promise positive consequence for behavioural sequence BCT in which the consequence is an interpersonal process or a proxy interpersonal process.</t>
-  </si>
-  <si>
     <t>BCIO:007222</t>
   </si>
   <si>
@@ -1441,105 +1408,42 @@
     <t>BCIO:007224</t>
   </si>
   <si>
-    <t>promise positive social outcome consequence BCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A promise positive outcome consequence BCT where the consequence is an interpersonal process or a proxy interpersonal process. </t>
-  </si>
-  <si>
     <t>BCIO:007225</t>
   </si>
   <si>
-    <t>promise reduced frequency of negative behavioural consequence BCT</t>
-  </si>
-  <si>
-    <t>promise negative behavioural consequence BCT</t>
-  </si>
-  <si>
-    <t>A promise negative behavioural consequence BCT that promises to provide the consequence at increasingly less frequent intervals.</t>
-  </si>
-  <si>
     <t>BCIO:007226</t>
   </si>
   <si>
-    <t>promise reduced frequency of negative material behavioural consequence BCT</t>
-  </si>
-  <si>
-    <t>A promise reduced frequency of negative behavioural consequence BCT in which the consequence is money, vouchers or other valued objects.</t>
-  </si>
-  <si>
     <t>BCIO:007227</t>
   </si>
   <si>
-    <t>promise reduced frequency of negative social behavioural consequence BCT</t>
-  </si>
-  <si>
-    <t>A promise reduced frequency of negative behavioural consequence BCT in which the consequence is an interpersonal process or a proxy interpersonal process.</t>
-  </si>
-  <si>
     <t>BCIO:007228</t>
   </si>
   <si>
-    <t>promise reduced frequency of positive behavioural consequence BCT</t>
-  </si>
-  <si>
-    <t>A promise positive behavioural consequence BCT that promises to provide the consequence at increasingly less frequent intervals.</t>
-  </si>
-  <si>
     <t>To qualify as positive, the consequence should be positively valued by the person receiving it.</t>
   </si>
   <si>
     <t>BCIO:007229</t>
   </si>
   <si>
-    <t>promise reduced frequency of positive material behavioural consequence BCT</t>
-  </si>
-  <si>
-    <t>A promise reduced frequency of positive behavioural consequence BCT in which the consequence is money, vouchers or other valued objects.</t>
-  </si>
-  <si>
     <t>A proxy interpersonal process is where the person interacts with a chatbot, digital assistant, or similar computer program designed to simulate and process human communication</t>
   </si>
   <si>
     <t>BCIO:007230</t>
   </si>
   <si>
-    <t>promise reduced frequency of positive social behavioural consequence BCT</t>
-  </si>
-  <si>
-    <t>A promise reduced frequency of positive behavioural consequence BCT in which the consequence is an interpersonal process or a proxy interpersonal process.</t>
-  </si>
-  <si>
     <t>BCIO:007231</t>
   </si>
   <si>
-    <t>promise removal of negative material behavioural consequence BCT</t>
-  </si>
-  <si>
-    <t>promise negative behavioural consequence removal BCT</t>
-  </si>
-  <si>
-    <t>A promise negative behavioural consequence removal BCT in which the consequence is money, vouchers or other valued objects.</t>
-  </si>
-  <si>
     <t>BCIO:007232</t>
   </si>
   <si>
-    <t>promise removal of negative material outcome consequence BCT</t>
-  </si>
-  <si>
     <t>promise negative outcome consequence removal BCT</t>
   </si>
   <si>
-    <t>A promise negative outcome consequence removal BCT where the consequence is money, vouchers or other valued objects.</t>
-  </si>
-  <si>
     <t>BCIO:007233</t>
   </si>
   <si>
-    <t>promise removal of negative social behavioural consequence BCT</t>
-  </si>
-  <si>
     <t>A promise negative behavioural consequence removal BCT in which the consequence is an interpersonal process or a proxy interpersonal process</t>
   </si>
   <si>
@@ -2558,6 +2462,87 @@
   </si>
   <si>
     <t>Published</t>
+  </si>
+  <si>
+    <t>A promise consequence for outcome of behaviour BCT where the consequence is positive</t>
+  </si>
+  <si>
+    <t>promise to remove positive consequence for outcome of behaviour BCT</t>
+  </si>
+  <si>
+    <t>A promise to remove consequence for outcome of behaviour BCT where the consequence is positive.</t>
+  </si>
+  <si>
+    <t>promise positive social consequence for behaviour BCT</t>
+  </si>
+  <si>
+    <t>A promise positive consequence for behaviour BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
+  </si>
+  <si>
+    <t>promise positive social consequence for completion of behavioural sequence BCT</t>
+  </si>
+  <si>
+    <t>A promise positive consequence for completion of behavioural sequence BCT in which the consequence is an interpersonal process or a proxy interpersonal process.</t>
+  </si>
+  <si>
+    <t>promise positive social consequence for outcome of behaviour BCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A promise positive consequence for outcome of behaviour BCT where the consequence is an interpersonal process or a proxy interpersonal process. </t>
+  </si>
+  <si>
+    <t>promise reduced frequency of negative consequence for behaviour BCT</t>
+  </si>
+  <si>
+    <t>A promise negative consequence for behaviour BCT that promises to provide the consequence at increasingly less frequent intervals.</t>
+  </si>
+  <si>
+    <t>promise reduced frequency of negative material consequence for behaviour BCT</t>
+  </si>
+  <si>
+    <t>A promise reduced frequency of negative consequence for behaviour BCT in which the consequence is money, vouchers or other valued objects.</t>
+  </si>
+  <si>
+    <t>promise reduced frequency of negative social consequence for behaviour BCT</t>
+  </si>
+  <si>
+    <t>A promise reduced frequency of negative consequence for behaviour BCT in which the consequence is an interpersonal process or a proxy interpersonal process.</t>
+  </si>
+  <si>
+    <t>promise reduced frequency of positive consequence for behaviour BCT</t>
+  </si>
+  <si>
+    <t>A promise positive consequence for behaviour BCT that promises to provide the consequence at increasingly less frequent intervals.</t>
+  </si>
+  <si>
+    <t>promise reduced frequency of positive material consequence for behaviour BCT</t>
+  </si>
+  <si>
+    <t>A promise reduced frequency of positive consequence for behaviour BCT in which the consequence is money, vouchers or other valued objects.</t>
+  </si>
+  <si>
+    <t>promise reduced frequency of positive social consequence for behaviour BCT</t>
+  </si>
+  <si>
+    <t>A promise reduced frequency of positive consequence for behaviour BCT in which the consequence is an interpersonal process or a proxy interpersonal process.</t>
+  </si>
+  <si>
+    <t>promise to remove negative material consequence for behaviour BCT</t>
+  </si>
+  <si>
+    <t>promise to remove negative consequence for behaviour  BCT</t>
+  </si>
+  <si>
+    <t>A promise to remove negative consequence for behaviour BCT in which the consequence is money, vouchers or other valued objects.</t>
+  </si>
+  <si>
+    <t>promise to remove negative material consequence for outcome of behaviour BCT</t>
+  </si>
+  <si>
+    <t>A promise to remove negative consequence for outcome of behaviour BCT where the consequence is money, vouchers or other valued objects.</t>
+  </si>
+  <si>
+    <t>promise to remove negative social consequence for behaviour BCT</t>
   </si>
 </sst>
 </file>
@@ -2918,11 +2903,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="O222" sqref="O222"/>
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="C152" sqref="C152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="65.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="115.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -2989,7 +2979,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>844</v>
+        <v>812</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -6477,20 +6467,20 @@
         <v>442</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>444</v>
+        <v>369</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>445</v>
+        <v>813</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
       <c r="I135" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="J135" s="2"/>
       <c r="K135" s="2"/>
@@ -6502,16 +6492,16 @@
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>448</v>
+        <v>814</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>449</v>
+        <v>494</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>450</v>
+        <v>815</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
@@ -6530,16 +6520,16 @@
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>452</v>
+        <v>816</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>453</v>
+        <v>400</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>454</v>
+        <v>817</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
@@ -6556,16 +6546,16 @@
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>399</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
@@ -6582,16 +6572,16 @@
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>403</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
@@ -6608,16 +6598,16 @@
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>462</v>
+        <v>818</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>463</v>
+        <v>409</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>464</v>
+        <v>819</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
@@ -6634,16 +6624,16 @@
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>412</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
@@ -6660,16 +6650,16 @@
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>415</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
@@ -6686,16 +6676,16 @@
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>472</v>
+        <v>820</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>473</v>
+        <v>821</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
@@ -6712,16 +6702,16 @@
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>475</v>
+        <v>822</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>476</v>
+        <v>372</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>477</v>
+        <v>823</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
@@ -6738,16 +6728,16 @@
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>479</v>
+        <v>824</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>475</v>
+        <v>822</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>480</v>
+        <v>825</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
@@ -6764,16 +6754,16 @@
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>482</v>
+        <v>826</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>475</v>
+        <v>822</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>483</v>
+        <v>827</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
@@ -6790,23 +6780,23 @@
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>484</v>
+        <v>464</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>485</v>
+        <v>828</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>453</v>
+        <v>400</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>486</v>
+        <v>829</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
       <c r="H147" s="2"/>
       <c r="I147" s="2" t="s">
-        <v>487</v>
+        <v>465</v>
       </c>
       <c r="J147" s="2"/>
       <c r="K147" s="2"/>
@@ -6818,23 +6808,23 @@
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>488</v>
+        <v>466</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>489</v>
+        <v>830</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>485</v>
+        <v>828</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>490</v>
+        <v>831</v>
       </c>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
       <c r="I148" s="2" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="J148" s="2"/>
       <c r="K148" s="2"/>
@@ -6846,16 +6836,16 @@
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>493</v>
+        <v>832</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>485</v>
+        <v>828</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>494</v>
+        <v>833</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
@@ -6872,16 +6862,16 @@
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>495</v>
+        <v>469</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>496</v>
+        <v>834</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>497</v>
+        <v>835</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>498</v>
+        <v>836</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
@@ -6898,23 +6888,23 @@
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="C151" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>501</v>
-      </c>
       <c r="D151" s="2" t="s">
-        <v>502</v>
+        <v>838</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
       <c r="H151" s="2"/>
       <c r="I151" s="2" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="J151" s="2"/>
       <c r="K151" s="2"/>
@@ -6926,16 +6916,16 @@
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>503</v>
+        <v>472</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>504</v>
+        <v>839</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>497</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>505</v>
+        <v>473</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
@@ -6952,16 +6942,16 @@
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>506</v>
+        <v>474</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>507</v>
+        <v>475</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>501</v>
+        <v>471</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>508</v>
+        <v>476</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
@@ -6978,23 +6968,23 @@
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>509</v>
+        <v>477</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>510</v>
+        <v>478</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>511</v>
+        <v>479</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>512</v>
+        <v>480</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
       <c r="H154" s="2"/>
       <c r="I154" s="2" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
@@ -7006,16 +6996,16 @@
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>513</v>
+        <v>481</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>514</v>
+        <v>482</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>515</v>
+        <v>483</v>
       </c>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
@@ -7032,16 +7022,16 @@
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>516</v>
+        <v>484</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>517</v>
+        <v>485</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>511</v>
+        <v>479</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>518</v>
+        <v>486</v>
       </c>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
@@ -7058,23 +7048,23 @@
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>520</v>
+        <v>488</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>521</v>
+        <v>489</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
       <c r="H157" s="2"/>
       <c r="I157" s="2" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="J157" s="2"/>
       <c r="K157" s="2"/>
@@ -7086,16 +7076,16 @@
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>522</v>
+        <v>490</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>523</v>
+        <v>491</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>153</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>524</v>
+        <v>492</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
@@ -7112,16 +7102,16 @@
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>525</v>
+        <v>493</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>526</v>
+        <v>494</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>348</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>527</v>
+        <v>495</v>
       </c>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
@@ -7138,16 +7128,16 @@
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>528</v>
+        <v>496</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>529</v>
+        <v>497</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>523</v>
+        <v>491</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>530</v>
+        <v>498</v>
       </c>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
@@ -7164,16 +7154,16 @@
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>531</v>
+        <v>499</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>532</v>
+        <v>500</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>526</v>
+        <v>494</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>533</v>
+        <v>501</v>
       </c>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
@@ -7190,23 +7180,23 @@
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>534</v>
+        <v>502</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>535</v>
+        <v>503</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>523</v>
+        <v>491</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
       <c r="H162" s="2"/>
       <c r="I162" s="2" t="s">
-        <v>537</v>
+        <v>505</v>
       </c>
       <c r="J162" s="2"/>
       <c r="K162" s="2"/>
@@ -7218,7 +7208,7 @@
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>538</v>
+        <v>506</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>219</v>
@@ -7227,7 +7217,7 @@
         <v>60</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>539</v>
+        <v>507</v>
       </c>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
@@ -7244,16 +7234,16 @@
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>540</v>
+        <v>508</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>541</v>
+        <v>509</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>167</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>542</v>
+        <v>510</v>
       </c>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
@@ -7270,23 +7260,23 @@
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>543</v>
+        <v>511</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>544</v>
+        <v>512</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>333</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>545</v>
+        <v>513</v>
       </c>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
       <c r="H165" s="2"/>
       <c r="I165" s="2" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="J165" s="2"/>
       <c r="K165" s="2"/>
@@ -7298,7 +7288,7 @@
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>546</v>
+        <v>514</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>31</v>
@@ -7307,7 +7297,7 @@
         <v>60</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>547</v>
+        <v>515</v>
       </c>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
@@ -7324,16 +7314,16 @@
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>548</v>
+        <v>516</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>549</v>
+        <v>517</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>550</v>
+        <v>518</v>
       </c>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
@@ -7350,23 +7340,23 @@
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>551</v>
+        <v>519</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>552</v>
+        <v>520</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>333</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>553</v>
+        <v>521</v>
       </c>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
       <c r="G168" s="2"/>
       <c r="H168" s="2"/>
       <c r="I168" s="2" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="J168" s="2"/>
       <c r="K168" s="2"/>
@@ -7378,16 +7368,16 @@
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>554</v>
+        <v>522</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>555</v>
+        <v>523</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>146</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>556</v>
+        <v>524</v>
       </c>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
@@ -7404,7 +7394,7 @@
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>557</v>
+        <v>525</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>333</v>
@@ -7413,7 +7403,7 @@
         <v>60</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>558</v>
+        <v>526</v>
       </c>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
@@ -7430,16 +7420,16 @@
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>559</v>
+        <v>527</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>560</v>
+        <v>528</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>561</v>
+        <v>529</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>562</v>
+        <v>530</v>
       </c>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
@@ -7456,23 +7446,23 @@
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>563</v>
+        <v>531</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>564</v>
+        <v>532</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>153</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>565</v>
+        <v>533</v>
       </c>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
       <c r="H172" s="2"/>
       <c r="I172" s="2" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="J172" s="2"/>
       <c r="K172" s="2"/>
@@ -7484,23 +7474,23 @@
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>566</v>
+        <v>534</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>567</v>
+        <v>535</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>568</v>
+        <v>536</v>
       </c>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
       <c r="H173" s="2"/>
       <c r="I173" s="2" t="s">
-        <v>569</v>
+        <v>537</v>
       </c>
       <c r="J173" s="2"/>
       <c r="K173" s="2"/>
@@ -7512,23 +7502,23 @@
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>570</v>
+        <v>538</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>561</v>
+        <v>529</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>337</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>571</v>
+        <v>539</v>
       </c>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
       <c r="H174" s="2"/>
       <c r="I174" s="2" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="J174" s="2"/>
       <c r="K174" s="2"/>
@@ -7540,16 +7530,16 @@
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>572</v>
+        <v>540</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>573</v>
+        <v>541</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>561</v>
+        <v>529</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>574</v>
+        <v>542</v>
       </c>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
@@ -7566,16 +7556,16 @@
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>575</v>
+        <v>543</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>576</v>
+        <v>544</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>561</v>
+        <v>529</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>577</v>
+        <v>545</v>
       </c>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
@@ -7592,23 +7582,23 @@
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>578</v>
+        <v>546</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>579</v>
+        <v>547</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>580</v>
+        <v>548</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>581</v>
+        <v>549</v>
       </c>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
       <c r="G177" s="2"/>
       <c r="H177" s="2"/>
       <c r="I177" s="2" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="J177" s="2"/>
       <c r="K177" s="2"/>
@@ -7620,16 +7610,16 @@
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>582</v>
+        <v>550</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>583</v>
+        <v>551</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>579</v>
+        <v>547</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>584</v>
+        <v>552</v>
       </c>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
@@ -7646,16 +7636,16 @@
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>585</v>
+        <v>553</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>586</v>
+        <v>554</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>579</v>
+        <v>547</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>587</v>
+        <v>555</v>
       </c>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
@@ -7672,23 +7662,23 @@
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>588</v>
+        <v>556</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>589</v>
+        <v>557</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>583</v>
+        <v>551</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>590</v>
+        <v>558</v>
       </c>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
       <c r="H180" s="2"/>
       <c r="I180" s="2" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="J180" s="2"/>
       <c r="K180" s="2"/>
@@ -7700,16 +7690,16 @@
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>591</v>
+        <v>559</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>592</v>
+        <v>560</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>593</v>
+        <v>561</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
@@ -7726,16 +7716,16 @@
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>595</v>
+        <v>563</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>593</v>
+        <v>561</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>596</v>
+        <v>564</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>597</v>
+        <v>565</v>
       </c>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
@@ -7752,23 +7742,23 @@
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>598</v>
+        <v>566</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>599</v>
+        <v>567</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>579</v>
+        <v>547</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>600</v>
+        <v>568</v>
       </c>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
       <c r="G183" s="2"/>
       <c r="H183" s="2"/>
       <c r="I183" s="2" t="s">
-        <v>601</v>
+        <v>569</v>
       </c>
       <c r="J183" s="2"/>
       <c r="K183" s="2"/>
@@ -7780,23 +7770,23 @@
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>602</v>
+        <v>570</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>603</v>
+        <v>571</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>583</v>
+        <v>551</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>604</v>
+        <v>572</v>
       </c>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
       <c r="H184" s="2"/>
       <c r="I184" s="2" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="J184" s="2"/>
       <c r="K184" s="2"/>
@@ -7808,16 +7798,16 @@
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>605</v>
+        <v>573</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>606</v>
+        <v>574</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>593</v>
+        <v>561</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>607</v>
+        <v>575</v>
       </c>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
@@ -7834,23 +7824,23 @@
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>596</v>
+        <v>564</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>348</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>609</v>
+        <v>577</v>
       </c>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
       <c r="G186" s="2"/>
       <c r="H186" s="2"/>
       <c r="I186" s="2" t="s">
-        <v>610</v>
+        <v>578</v>
       </c>
       <c r="J186" s="2"/>
       <c r="K186" s="2"/>
@@ -7862,23 +7852,23 @@
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>611</v>
+        <v>579</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>612</v>
+        <v>580</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>219</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>613</v>
+        <v>581</v>
       </c>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
       <c r="G187" s="2"/>
       <c r="H187" s="2"/>
       <c r="I187" s="2" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="J187" s="2"/>
       <c r="K187" s="2"/>
@@ -7890,16 +7880,16 @@
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>614</v>
+        <v>582</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>615</v>
+        <v>583</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>616</v>
+        <v>584</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>617</v>
+        <v>585</v>
       </c>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
@@ -7916,23 +7906,23 @@
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
-        <v>618</v>
+        <v>586</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>619</v>
+        <v>587</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>616</v>
+        <v>584</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>620</v>
+        <v>588</v>
       </c>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
       <c r="G189" s="2"/>
       <c r="H189" s="2"/>
       <c r="I189" s="2" t="s">
-        <v>487</v>
+        <v>465</v>
       </c>
       <c r="J189" s="2"/>
       <c r="K189" s="2"/>
@@ -7944,23 +7934,23 @@
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>621</v>
+        <v>589</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>622</v>
+        <v>590</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>564</v>
+        <v>532</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>623</v>
+        <v>591</v>
       </c>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
       <c r="G190" s="2"/>
       <c r="H190" s="2"/>
       <c r="I190" s="2" t="s">
-        <v>624</v>
+        <v>592</v>
       </c>
       <c r="J190" s="2"/>
       <c r="K190" s="2"/>
@@ -7972,23 +7962,23 @@
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>625</v>
+        <v>593</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>626</v>
+        <v>594</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>616</v>
+        <v>584</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>627</v>
+        <v>595</v>
       </c>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
       <c r="G191" s="2"/>
       <c r="H191" s="2"/>
       <c r="I191" s="2" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="J191" s="2"/>
       <c r="K191" s="2"/>
@@ -8000,16 +7990,16 @@
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>628</v>
+        <v>596</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>629</v>
+        <v>597</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>616</v>
+        <v>584</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>630</v>
+        <v>598</v>
       </c>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
@@ -8026,16 +8016,16 @@
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>631</v>
+        <v>599</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>632</v>
+        <v>600</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>616</v>
+        <v>584</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>633</v>
+        <v>601</v>
       </c>
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
@@ -8052,16 +8042,16 @@
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>634</v>
+        <v>602</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>635</v>
+        <v>603</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>615</v>
+        <v>583</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>636</v>
+        <v>604</v>
       </c>
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
@@ -8078,16 +8068,16 @@
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>637</v>
+        <v>605</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>638</v>
+        <v>606</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>619</v>
+        <v>587</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>639</v>
+        <v>607</v>
       </c>
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
@@ -8104,23 +8094,23 @@
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>640</v>
+        <v>608</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>641</v>
+        <v>609</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>622</v>
+        <v>590</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>642</v>
+        <v>610</v>
       </c>
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
       <c r="G196" s="2"/>
       <c r="H196" s="2"/>
       <c r="I196" s="2" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="J196" s="2"/>
       <c r="K196" s="2"/>
@@ -8132,23 +8122,23 @@
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>643</v>
+        <v>611</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>644</v>
+        <v>612</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>626</v>
+        <v>594</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>645</v>
+        <v>613</v>
       </c>
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
       <c r="G197" s="2"/>
       <c r="H197" s="2"/>
       <c r="I197" s="2" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="J197" s="2"/>
       <c r="K197" s="2"/>
@@ -8160,16 +8150,16 @@
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>647</v>
+        <v>615</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>629</v>
+        <v>597</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>648</v>
+        <v>616</v>
       </c>
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
@@ -8186,16 +8176,16 @@
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>649</v>
+        <v>617</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>650</v>
+        <v>618</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>632</v>
+        <v>600</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>651</v>
+        <v>619</v>
       </c>
       <c r="E199" s="2"/>
       <c r="F199" s="2"/>
@@ -8212,23 +8202,23 @@
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>652</v>
+        <v>620</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>653</v>
+        <v>621</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>654</v>
+        <v>622</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>655</v>
+        <v>623</v>
       </c>
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
       <c r="G200" s="2"/>
       <c r="H200" s="2"/>
       <c r="I200" s="2" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="J200" s="2"/>
       <c r="K200" s="2"/>
@@ -8240,16 +8230,16 @@
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>656</v>
+        <v>624</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>654</v>
+        <v>622</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>596</v>
+        <v>564</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>657</v>
+        <v>625</v>
       </c>
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
@@ -8266,23 +8256,23 @@
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>658</v>
+        <v>626</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>659</v>
+        <v>627</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>615</v>
+        <v>583</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>660</v>
+        <v>628</v>
       </c>
       <c r="E202" s="2"/>
       <c r="F202" s="2"/>
       <c r="G202" s="2"/>
       <c r="H202" s="2"/>
       <c r="I202" s="2" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="J202" s="2"/>
       <c r="K202" s="2"/>
@@ -8294,16 +8284,16 @@
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>661</v>
+        <v>629</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>662</v>
+        <v>630</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>619</v>
+        <v>587</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>663</v>
+        <v>631</v>
       </c>
       <c r="E203" s="2"/>
       <c r="F203" s="2"/>
@@ -8320,16 +8310,16 @@
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>664</v>
+        <v>632</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>665</v>
+        <v>633</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>622</v>
+        <v>590</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>666</v>
+        <v>634</v>
       </c>
       <c r="E204" s="2"/>
       <c r="F204" s="2"/>
@@ -8346,16 +8336,16 @@
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>667</v>
+        <v>635</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>668</v>
+        <v>636</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>626</v>
+        <v>594</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>669</v>
+        <v>637</v>
       </c>
       <c r="E205" s="2"/>
       <c r="F205" s="2"/>
@@ -8372,23 +8362,23 @@
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>670</v>
+        <v>638</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>671</v>
+        <v>639</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>629</v>
+        <v>597</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>672</v>
+        <v>640</v>
       </c>
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
       <c r="G206" s="2"/>
       <c r="H206" s="2"/>
       <c r="I206" s="2" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="J206" s="2"/>
       <c r="K206" s="2"/>
@@ -8400,16 +8390,16 @@
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>673</v>
+        <v>641</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>674</v>
+        <v>642</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>632</v>
+        <v>600</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>675</v>
+        <v>643</v>
       </c>
       <c r="E207" s="2"/>
       <c r="F207" s="2"/>
@@ -8426,16 +8416,16 @@
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>676</v>
+        <v>644</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>677</v>
+        <v>645</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>654</v>
+        <v>622</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>678</v>
+        <v>646</v>
       </c>
       <c r="E208" s="2"/>
       <c r="F208" s="2"/>
@@ -8452,23 +8442,23 @@
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>679</v>
+        <v>647</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>680</v>
+        <v>648</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>681</v>
+        <v>649</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>682</v>
+        <v>650</v>
       </c>
       <c r="E209" s="2"/>
       <c r="F209" s="2"/>
       <c r="G209" s="2"/>
       <c r="H209" s="2"/>
       <c r="I209" s="2" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="J209" s="2"/>
       <c r="K209" s="2"/>
@@ -8480,16 +8470,16 @@
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>683</v>
+        <v>651</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>684</v>
+        <v>652</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>579</v>
+        <v>547</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>685</v>
+        <v>653</v>
       </c>
       <c r="E210" s="2"/>
       <c r="F210" s="2"/>
@@ -8506,23 +8496,23 @@
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>686</v>
+        <v>654</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>687</v>
+        <v>655</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>684</v>
+        <v>652</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>688</v>
+        <v>656</v>
       </c>
       <c r="E211" s="2"/>
       <c r="F211" s="2"/>
       <c r="G211" s="2"/>
       <c r="H211" s="2"/>
       <c r="I211" s="2" t="s">
-        <v>569</v>
+        <v>537</v>
       </c>
       <c r="J211" s="2"/>
       <c r="K211" s="2"/>
@@ -8534,23 +8524,23 @@
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>689</v>
+        <v>657</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>690</v>
+        <v>658</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>691</v>
+        <v>659</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>692</v>
+        <v>660</v>
       </c>
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
       <c r="G212" s="2"/>
       <c r="H212" s="2"/>
       <c r="I212" s="2" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="J212" s="2"/>
       <c r="K212" s="2"/>
@@ -8562,16 +8552,16 @@
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>693</v>
+        <v>661</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>691</v>
+        <v>659</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>593</v>
+        <v>561</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>694</v>
+        <v>662</v>
       </c>
       <c r="E213" s="2"/>
       <c r="F213" s="2"/>
@@ -8588,16 +8578,16 @@
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>695</v>
+        <v>663</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>696</v>
+        <v>664</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>684</v>
+        <v>652</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>697</v>
+        <v>665</v>
       </c>
       <c r="E214" s="2"/>
       <c r="F214" s="2"/>
@@ -8614,16 +8604,16 @@
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>698</v>
+        <v>666</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>699</v>
+        <v>667</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>691</v>
+        <v>659</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>700</v>
+        <v>668</v>
       </c>
       <c r="E215" s="2"/>
       <c r="F215" s="2"/>
@@ -8640,16 +8630,16 @@
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
-        <v>701</v>
+        <v>669</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>616</v>
+        <v>584</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="E216" s="2"/>
       <c r="F216" s="2"/>
@@ -8666,16 +8656,16 @@
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>705</v>
+        <v>673</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>706</v>
+        <v>674</v>
       </c>
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
@@ -8692,16 +8682,16 @@
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
-        <v>707</v>
+        <v>675</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>681</v>
+        <v>649</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>654</v>
+        <v>622</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>708</v>
+        <v>676</v>
       </c>
       <c r="E218" s="2"/>
       <c r="F218" s="2"/>
@@ -8718,16 +8708,16 @@
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>709</v>
+        <v>677</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>710</v>
+        <v>678</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>711</v>
+        <v>679</v>
       </c>
       <c r="E219" s="2"/>
       <c r="F219" s="2"/>
@@ -8744,16 +8734,16 @@
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
-        <v>712</v>
+        <v>680</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>713</v>
+        <v>681</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>681</v>
+        <v>649</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>714</v>
+        <v>682</v>
       </c>
       <c r="E220" s="2"/>
       <c r="F220" s="2"/>
@@ -8770,16 +8760,16 @@
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
-        <v>715</v>
+        <v>683</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>716</v>
+        <v>684</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>212</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>717</v>
+        <v>685</v>
       </c>
       <c r="E221" s="2"/>
       <c r="F221" s="2"/>
@@ -8796,23 +8786,23 @@
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
-        <v>718</v>
+        <v>686</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>719</v>
+        <v>687</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>337</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>720</v>
+        <v>688</v>
       </c>
       <c r="E222" s="2"/>
       <c r="F222" s="2"/>
       <c r="G222" s="2"/>
       <c r="H222" s="2"/>
       <c r="I222" s="2" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="J222" s="2"/>
       <c r="K222" s="2"/>
@@ -8824,16 +8814,16 @@
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>721</v>
+        <v>689</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>722</v>
+        <v>690</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>337</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>723</v>
+        <v>691</v>
       </c>
       <c r="E223" s="2"/>
       <c r="F223" s="2"/>
@@ -8850,16 +8840,16 @@
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
-        <v>724</v>
+        <v>692</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>725</v>
+        <v>693</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>726</v>
+        <v>694</v>
       </c>
       <c r="E224" s="2"/>
       <c r="F224" s="2"/>
@@ -8876,23 +8866,23 @@
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
-        <v>727</v>
+        <v>695</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>728</v>
+        <v>696</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>729</v>
+        <v>697</v>
       </c>
       <c r="E225" s="2"/>
       <c r="F225" s="2"/>
       <c r="G225" s="2"/>
       <c r="H225" s="2"/>
       <c r="I225" s="2" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="J225" s="2"/>
       <c r="K225" s="2"/>
@@ -8904,16 +8894,16 @@
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>730</v>
+        <v>698</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>731</v>
+        <v>699</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>732</v>
+        <v>700</v>
       </c>
       <c r="E226" s="2"/>
       <c r="F226" s="2"/>
@@ -8930,16 +8920,16 @@
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>733</v>
+        <v>701</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>734</v>
+        <v>702</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>212</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>735</v>
+        <v>703</v>
       </c>
       <c r="E227" s="2"/>
       <c r="F227" s="2"/>
@@ -8956,16 +8946,16 @@
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
-        <v>736</v>
+        <v>704</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>737</v>
+        <v>705</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>333</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>738</v>
+        <v>706</v>
       </c>
       <c r="E228" s="2"/>
       <c r="F228" s="2"/>
@@ -8982,40 +8972,40 @@
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>739</v>
+        <v>707</v>
       </c>
       <c r="B229" t="s">
-        <v>740</v>
+        <v>708</v>
       </c>
       <c r="C229" t="s">
         <v>110</v>
       </c>
       <c r="D229" t="s">
-        <v>741</v>
+        <v>709</v>
       </c>
       <c r="L229" s="2" t="s">
-        <v>844</v>
+        <v>812</v>
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>742</v>
+        <v>710</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>743</v>
+        <v>711</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>153</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>744</v>
+        <v>712</v>
       </c>
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
       <c r="G230" s="2"/>
       <c r="H230" s="2"/>
       <c r="I230" s="2" t="s">
-        <v>487</v>
+        <v>465</v>
       </c>
       <c r="J230" s="2"/>
       <c r="K230" s="2"/>
@@ -9027,23 +9017,23 @@
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
-        <v>745</v>
+        <v>713</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>746</v>
+        <v>714</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>743</v>
+        <v>711</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>747</v>
+        <v>715</v>
       </c>
       <c r="E231" s="2"/>
       <c r="F231" s="2"/>
       <c r="G231" s="2"/>
       <c r="H231" s="2"/>
       <c r="I231" s="2" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="J231" s="2"/>
       <c r="K231" s="2"/>
@@ -9055,16 +9045,16 @@
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
-        <v>748</v>
+        <v>716</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>749</v>
+        <v>717</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>746</v>
+        <v>714</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>750</v>
+        <v>718</v>
       </c>
       <c r="E232" s="2"/>
       <c r="F232" s="2"/>
@@ -9081,16 +9071,16 @@
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
-        <v>751</v>
+        <v>719</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>752</v>
+        <v>720</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>753</v>
+        <v>721</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>754</v>
+        <v>722</v>
       </c>
       <c r="E233" s="2"/>
       <c r="F233" s="2"/>
@@ -9107,23 +9097,23 @@
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>755</v>
+        <v>723</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>753</v>
+        <v>721</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>756</v>
+        <v>724</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>757</v>
+        <v>725</v>
       </c>
       <c r="E234" s="2"/>
       <c r="F234" s="2"/>
       <c r="G234" s="2"/>
       <c r="H234" s="2"/>
       <c r="I234" s="2" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="J234" s="2"/>
       <c r="K234" s="2"/>
@@ -9135,16 +9125,16 @@
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>758</v>
+        <v>726</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>759</v>
+        <v>727</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>746</v>
+        <v>714</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>760</v>
+        <v>728</v>
       </c>
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
@@ -9161,23 +9151,23 @@
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
-        <v>761</v>
+        <v>729</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>762</v>
+        <v>730</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>753</v>
+        <v>721</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>763</v>
+        <v>731</v>
       </c>
       <c r="E236" s="2"/>
       <c r="F236" s="2"/>
       <c r="G236" s="2"/>
       <c r="H236" s="2"/>
       <c r="I236" s="2" t="s">
-        <v>569</v>
+        <v>537</v>
       </c>
       <c r="J236" s="2"/>
       <c r="K236" s="2"/>
@@ -9189,23 +9179,23 @@
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
-        <v>764</v>
+        <v>732</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>756</v>
+        <v>724</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>348</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>765</v>
+        <v>733</v>
       </c>
       <c r="E237" s="2"/>
       <c r="F237" s="2"/>
       <c r="G237" s="2"/>
       <c r="H237" s="2"/>
       <c r="I237" s="2" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="J237" s="2"/>
       <c r="K237" s="2"/>
@@ -9217,16 +9207,16 @@
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>766</v>
+        <v>734</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>767</v>
+        <v>735</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>743</v>
+        <v>711</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>768</v>
+        <v>736</v>
       </c>
       <c r="E238" s="2"/>
       <c r="F238" s="2"/>
@@ -9243,16 +9233,16 @@
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
-        <v>769</v>
+        <v>737</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>770</v>
+        <v>738</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>767</v>
+        <v>735</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>771</v>
+        <v>739</v>
       </c>
       <c r="E239" s="2"/>
       <c r="F239" s="2"/>
@@ -9269,23 +9259,23 @@
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
-        <v>772</v>
+        <v>740</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>773</v>
+        <v>741</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>774</v>
+        <v>742</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>775</v>
+        <v>743</v>
       </c>
       <c r="E240" s="2"/>
       <c r="F240" s="2"/>
       <c r="G240" s="2"/>
       <c r="H240" s="2"/>
       <c r="I240" s="2" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="J240" s="2"/>
       <c r="K240" s="2"/>
@@ -9297,16 +9287,16 @@
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
-        <v>776</v>
+        <v>744</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>774</v>
+        <v>742</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>756</v>
+        <v>724</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>777</v>
+        <v>745</v>
       </c>
       <c r="E241" s="2"/>
       <c r="F241" s="2"/>
@@ -9323,16 +9313,16 @@
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>778</v>
+        <v>746</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>779</v>
+        <v>747</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>767</v>
+        <v>735</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>780</v>
+        <v>748</v>
       </c>
       <c r="E242" s="2"/>
       <c r="F242" s="2"/>
@@ -9349,23 +9339,23 @@
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
-        <v>781</v>
+        <v>749</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>782</v>
+        <v>750</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>774</v>
+        <v>742</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>783</v>
+        <v>751</v>
       </c>
       <c r="E243" s="2"/>
       <c r="F243" s="2"/>
       <c r="G243" s="2"/>
       <c r="H243" s="2"/>
       <c r="I243" s="2" t="s">
-        <v>601</v>
+        <v>569</v>
       </c>
       <c r="J243" s="2"/>
       <c r="K243" s="2"/>
@@ -9377,23 +9367,23 @@
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
-        <v>784</v>
+        <v>752</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>785</v>
+        <v>753</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>786</v>
+        <v>754</v>
       </c>
       <c r="E244" s="2"/>
       <c r="F244" s="2"/>
       <c r="G244" s="2"/>
       <c r="H244" s="2"/>
       <c r="I244" s="2" t="s">
-        <v>787</v>
+        <v>755</v>
       </c>
       <c r="J244" s="2"/>
       <c r="K244" s="2"/>
@@ -9405,23 +9395,23 @@
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
-        <v>788</v>
+        <v>756</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>789</v>
+        <v>757</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>790</v>
+        <v>758</v>
       </c>
       <c r="E245" s="2"/>
       <c r="F245" s="2"/>
       <c r="G245" s="2"/>
       <c r="H245" s="2"/>
       <c r="I245" s="2" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="J245" s="2"/>
       <c r="K245" s="2"/>
@@ -9433,16 +9423,16 @@
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
-        <v>791</v>
+        <v>759</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>792</v>
+        <v>760</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>793</v>
+        <v>761</v>
       </c>
       <c r="E246" s="2"/>
       <c r="F246" s="2"/>
@@ -9459,23 +9449,23 @@
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
-        <v>794</v>
+        <v>762</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>795</v>
+        <v>763</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>796</v>
+        <v>764</v>
       </c>
       <c r="E247" s="2"/>
       <c r="F247" s="2"/>
       <c r="G247" s="2"/>
       <c r="H247" s="2"/>
       <c r="I247" s="2" t="s">
-        <v>610</v>
+        <v>578</v>
       </c>
       <c r="J247" s="2"/>
       <c r="K247" s="2"/>
@@ -9487,23 +9477,23 @@
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
-        <v>797</v>
+        <v>765</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>798</v>
+        <v>766</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>337</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>799</v>
+        <v>767</v>
       </c>
       <c r="E248" s="2"/>
       <c r="F248" s="2"/>
       <c r="G248" s="2"/>
       <c r="H248" s="2"/>
       <c r="I248" s="2" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="J248" s="2"/>
       <c r="K248" s="2"/>
@@ -9515,16 +9505,16 @@
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
-        <v>800</v>
+        <v>768</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>801</v>
+        <v>769</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>337</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>802</v>
+        <v>770</v>
       </c>
       <c r="E249" s="2"/>
       <c r="F249" s="2"/>
@@ -9541,23 +9531,23 @@
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>803</v>
+        <v>771</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>804</v>
+        <v>772</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>101</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>805</v>
+        <v>773</v>
       </c>
       <c r="E250" s="2"/>
       <c r="F250" s="2"/>
       <c r="G250" s="2"/>
       <c r="H250" s="2"/>
       <c r="I250" s="2" t="s">
-        <v>806</v>
+        <v>774</v>
       </c>
       <c r="J250" s="2"/>
       <c r="K250" s="2"/>
@@ -9569,23 +9559,23 @@
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>807</v>
+        <v>775</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>808</v>
+        <v>776</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>809</v>
+        <v>777</v>
       </c>
       <c r="E251" s="2"/>
       <c r="F251" s="2"/>
       <c r="G251" s="2"/>
       <c r="H251" s="2"/>
       <c r="I251" s="2" t="s">
-        <v>601</v>
+        <v>569</v>
       </c>
       <c r="J251" s="2"/>
       <c r="K251" s="2"/>
@@ -9597,23 +9587,23 @@
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>810</v>
+        <v>778</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>811</v>
+        <v>779</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>804</v>
+        <v>772</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>812</v>
+        <v>780</v>
       </c>
       <c r="E252" s="2"/>
       <c r="F252" s="2"/>
       <c r="G252" s="2"/>
       <c r="H252" s="2"/>
       <c r="I252" s="2" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="J252" s="2"/>
       <c r="K252" s="2"/>
@@ -9625,16 +9615,16 @@
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
-        <v>813</v>
+        <v>781</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>814</v>
+        <v>782</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>815</v>
+        <v>783</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>816</v>
+        <v>784</v>
       </c>
       <c r="E253" s="2"/>
       <c r="F253" s="2"/>
@@ -9651,23 +9641,23 @@
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>817</v>
+        <v>785</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>815</v>
+        <v>783</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>101</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>818</v>
+        <v>786</v>
       </c>
       <c r="E254" s="2"/>
       <c r="F254" s="2"/>
       <c r="G254" s="2"/>
       <c r="H254" s="2"/>
       <c r="I254" s="2" t="s">
-        <v>610</v>
+        <v>578</v>
       </c>
       <c r="J254" s="2"/>
       <c r="K254" s="2"/>
@@ -9679,7 +9669,7 @@
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>819</v>
+        <v>787</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>90</v>
@@ -9688,14 +9678,14 @@
         <v>60</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>820</v>
+        <v>788</v>
       </c>
       <c r="E255" s="2"/>
       <c r="F255" s="2"/>
       <c r="G255" s="2"/>
       <c r="H255" s="2"/>
       <c r="I255" s="2" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="J255" s="2"/>
       <c r="K255" s="2"/>
@@ -9707,16 +9697,16 @@
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
-        <v>821</v>
+        <v>789</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>822</v>
+        <v>790</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>823</v>
+        <v>791</v>
       </c>
       <c r="E256" s="2"/>
       <c r="F256" s="2"/>
@@ -9733,7 +9723,7 @@
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
-        <v>824</v>
+        <v>792</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>212</v>
@@ -9742,7 +9732,7 @@
         <v>60</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>825</v>
+        <v>793</v>
       </c>
       <c r="E257" s="2"/>
       <c r="F257" s="2"/>
@@ -9759,23 +9749,23 @@
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
-        <v>826</v>
+        <v>794</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>827</v>
+        <v>795</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>828</v>
+        <v>796</v>
       </c>
       <c r="E258" s="2"/>
       <c r="F258" s="2"/>
       <c r="G258" s="2"/>
       <c r="H258" s="2"/>
       <c r="I258" s="2" t="s">
-        <v>487</v>
+        <v>465</v>
       </c>
       <c r="J258" s="2"/>
       <c r="K258" s="2"/>
@@ -9787,23 +9777,23 @@
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>829</v>
+        <v>797</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>830</v>
+        <v>798</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>146</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>831</v>
+        <v>799</v>
       </c>
       <c r="E259" s="2"/>
       <c r="F259" s="2"/>
       <c r="G259" s="2"/>
       <c r="H259" s="2"/>
       <c r="I259" s="2" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="J259" s="2"/>
       <c r="K259" s="2"/>
@@ -9815,16 +9805,16 @@
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
-        <v>832</v>
+        <v>800</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>833</v>
+        <v>801</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>128</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>834</v>
+        <v>802</v>
       </c>
       <c r="E260" s="2"/>
       <c r="F260" s="2"/>
@@ -9841,23 +9831,23 @@
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
-        <v>835</v>
+        <v>803</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>836</v>
+        <v>804</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>146</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>837</v>
+        <v>805</v>
       </c>
       <c r="E261" s="2"/>
       <c r="F261" s="2"/>
       <c r="G261" s="2"/>
       <c r="H261" s="2"/>
       <c r="I261" s="2" t="s">
-        <v>569</v>
+        <v>537</v>
       </c>
       <c r="J261" s="2"/>
       <c r="K261" s="2"/>
@@ -9869,23 +9859,23 @@
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>838</v>
+        <v>806</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>839</v>
+        <v>807</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>167</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>840</v>
+        <v>808</v>
       </c>
       <c r="E262" s="2"/>
       <c r="F262" s="2"/>
       <c r="G262" s="2"/>
       <c r="H262" s="2"/>
       <c r="I262" s="2" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="J262" s="2"/>
       <c r="K262" s="2"/>
@@ -9897,16 +9887,16 @@
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
-        <v>841</v>
+        <v>809</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>842</v>
+        <v>810</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>167</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>843</v>
+        <v>811</v>
       </c>
       <c r="E263" s="2"/>
       <c r="F263" s="2"/>

--- a/BehaviourChangeTechniques/inputs/BCTO.xlsx
+++ b/BehaviourChangeTechniques/inputs/BCTO.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisazhang/Documents/GitHub/ontologies/BehaviourChangeTechniques/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4839B692-60B1-974B-94CE-54E910ACF720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D889ABD-DD63-3547-B6B9-49024229AB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="8920" windowWidth="30240" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="873">
   <si>
     <t>ID</t>
   </si>
@@ -76,9 +89,6 @@
     <t>A goal directed BCT that involves making a detailed plan for the performance of the behaviour, which must include at least one of context, frequency, duration or intensity.</t>
   </si>
   <si>
-    <t>Discussed</t>
-  </si>
-  <si>
     <t>BCIO:007163</t>
   </si>
   <si>
@@ -94,12 +104,6 @@
     <t>BCIO:007156</t>
   </si>
   <si>
-    <t>environmental restructuring BCT</t>
-  </si>
-  <si>
-    <t>An environmental restructuring BCT that adds objects to the person's physical surroundings.</t>
-  </si>
-  <si>
     <t>BCIO:007164</t>
   </si>
   <si>
@@ -136,9 +140,6 @@
     <t>advise behavioural ways to change emotions BCT</t>
   </si>
   <si>
-    <t>advise to change emotions BCT</t>
-  </si>
-  <si>
     <t>An advise how to change emotions BCT that suggests the person perform a particular behaviour to change an emotion.</t>
   </si>
   <si>
@@ -218,9 +219,6 @@
   </si>
   <si>
     <t>A guide how to perform behaviour BCT that involves suggesting the person avoid spending time with others who do a behaviour that the person wants to reduce or stop.</t>
-  </si>
-  <si>
-    <t>Proposed</t>
   </si>
   <si>
     <t>BCIO:007147</t>
@@ -648,12 +646,6 @@
     <t>BCIO:007151</t>
   </si>
   <si>
-    <t>direct environmental restructuring BCT</t>
-  </si>
-  <si>
-    <t>An environmental restructuring BCT that changes the person’s directly experienced environment at the time the behaviour is, or would have been, performed.</t>
-  </si>
-  <si>
     <t>BCIO:007057</t>
   </si>
   <si>
@@ -853,12 +845,6 @@
   </si>
   <si>
     <t>BCIO:007152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">indirect environmental restructuring BCT </t>
-  </si>
-  <si>
-    <t>An environmental restructuring BCT that changes the person's environment at a time or location other than when and where the behaviour is performed.</t>
   </si>
   <si>
     <t xml:space="preserve">Example 1: Putting cigarette packs out of sight in shops in order to promote smoking cessation or reduce smoking uptake
@@ -1360,9 +1346,6 @@
     <t>BCIO:007217</t>
   </si>
   <si>
-    <t>promise positive outcome consequence removal BCT</t>
-  </si>
-  <si>
     <t>BCIO:007218</t>
   </si>
   <si>
@@ -1438,63 +1421,24 @@
     <t>BCIO:007232</t>
   </si>
   <si>
-    <t>promise negative outcome consequence removal BCT</t>
-  </si>
-  <si>
     <t>BCIO:007233</t>
   </si>
   <si>
-    <t>A promise negative behavioural consequence removal BCT in which the consequence is an interpersonal process or a proxy interpersonal process</t>
-  </si>
-  <si>
     <t>BCIO:007234</t>
   </si>
   <si>
-    <t>promise removal of negative social outcome consequence BCT</t>
-  </si>
-  <si>
-    <t>A promise negative outcome consequence removal BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
-  </si>
-  <si>
     <t>BCIO:007235</t>
   </si>
   <si>
-    <t>promise removal of positive material behavioural consequence BCT</t>
-  </si>
-  <si>
-    <t>promise positive behavioural consequence removal BCT</t>
-  </si>
-  <si>
-    <t>A promise positive behavioural consequence removal BCT in which the consequence is money, vouchers or other valued objects.</t>
-  </si>
-  <si>
     <t>BCIO:007236</t>
   </si>
   <si>
-    <t>promise removal of positive material outcome consequence BCT</t>
-  </si>
-  <si>
-    <t>A promise positive outcome consequence removal BCT where the consequence is money, vouchers or other valued objects.</t>
-  </si>
-  <si>
     <t>BCIO:007237</t>
   </si>
   <si>
-    <t>promise removal of positive social behavioural consequence BCT</t>
-  </si>
-  <si>
-    <t>A promise positive behavioural consequence removal BCT in which the consequence is an interpersonal process or a proxy interpersonal process</t>
-  </si>
-  <si>
     <t>BCIO:007238</t>
   </si>
   <si>
-    <t>promise removal of positive social outcome consequence BCT</t>
-  </si>
-  <si>
-    <t>A promise positive outcome consequence removal BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
-  </si>
-  <si>
     <t>BCIO:007188</t>
   </si>
   <si>
@@ -1633,9 +1577,6 @@
     <t xml:space="preserve">provide distraction BCT </t>
   </si>
   <si>
-    <t>An environmental restructuring BCT that organises an alternative focus for attention for the person to avoid internal or external states or events associated with an unwanted behaviour.</t>
-  </si>
-  <si>
     <t>To qualify as negative, the consequence should be negatively valued by the person receiving it.</t>
   </si>
   <si>
@@ -1666,72 +1607,30 @@
     <t>BCIO:007241</t>
   </si>
   <si>
-    <t>provide negative behavioural consequence BCT</t>
-  </si>
-  <si>
-    <t>provide behavioural consequence BCT</t>
-  </si>
-  <si>
-    <t>A provide behavioural consequence BCT where the consequence is negative.</t>
-  </si>
-  <si>
     <t>BCIO:007242</t>
   </si>
   <si>
     <t>provide negative consequence for situation specific behaviour BCT</t>
   </si>
   <si>
-    <t>A provide negative behavioural consequence BCT that provides the consequence for the behaviour in one situation but not in another.</t>
-  </si>
-  <si>
     <t>BCIO:007243</t>
   </si>
   <si>
-    <t>provide negative material behavioural consequence BCT</t>
-  </si>
-  <si>
-    <t>A provide negative behavioural consequence BCT where the consequence is money, vouchers or other valued objects.</t>
-  </si>
-  <si>
     <t>BCIO:007244</t>
   </si>
   <si>
     <t>provide negative material consequence for situation specific behaviour BCT</t>
   </si>
   <si>
-    <t>A provide negative behavioural consequence for situation specific behaviour BCT where the consequence is money, vouchers or other valued objects.</t>
-  </si>
-  <si>
     <t>BCIO:007245</t>
   </si>
   <si>
-    <t>provide negative material outcome consequence BCT</t>
-  </si>
-  <si>
-    <t>provide negative outcome consequence BCT</t>
-  </si>
-  <si>
-    <t>A provide negative outcome consequence BCT where the consequence is money, vouchers or other valued objects.</t>
-  </si>
-  <si>
     <t>BCIO:007246</t>
   </si>
   <si>
-    <t>provide outcome consequence BCT</t>
-  </si>
-  <si>
-    <t>A provide outcome consequence BCT where the consequence is negative.</t>
-  </si>
-  <si>
     <t>BCIO:007247</t>
   </si>
   <si>
-    <t>provide negative social behavioural consequence BCT</t>
-  </si>
-  <si>
-    <t>A provide negative behavioural consequence BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
-  </si>
-  <si>
     <t>To qualify as positive, the consequence should have been positively valued by the person receiving it.</t>
   </si>
   <si>
@@ -1741,18 +1640,9 @@
     <t>provide negative social consequence for situation specific behaviour BCT</t>
   </si>
   <si>
-    <t>A provide negative behavioural consequence for situation specific behaviour BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
-  </si>
-  <si>
     <t>BCIO:007249</t>
   </si>
   <si>
-    <t>provide negative social outcome consequence BCT</t>
-  </si>
-  <si>
-    <t>A provide negative outcome consequence BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
-  </si>
-  <si>
     <t>BCIO:007250</t>
   </si>
   <si>
@@ -1777,21 +1667,12 @@
     <t>provide positive behavioural  consequence for alternative behaviour BCT</t>
   </si>
   <si>
-    <t>provide positive behavioural consequence BCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A provide positive behavioural consequence BCT that provides the consequence for a behaviour that is different from the unwanted behaviour. </t>
-  </si>
-  <si>
     <t>BCIO:007253</t>
   </si>
   <si>
     <t>provide positive consequence for approximating behaviour BCT</t>
   </si>
   <si>
-    <t xml:space="preserve">A provide positive behavioural consequence BCT where the consequence is provided for approximation to the behaviour, gradually rewarding only performance closer to the behaviour. </t>
-  </si>
-  <si>
     <t>BCIO:007252</t>
   </si>
   <si>
@@ -1807,9 +1688,6 @@
     <t>BCIO:007254</t>
   </si>
   <si>
-    <t>provide positive consequence for behavioural sequence BCT</t>
-  </si>
-  <si>
     <t>A provide positive consequence for behaviour BCT where the consequence is provided for performing the behaviour that is the final step of a sequence of behaviours, and then gradually adding behaviours that occur earlier in the sequence.</t>
   </si>
   <si>
@@ -1819,18 +1697,12 @@
     <t>provide positive consequence for incompatible behaviour BCT</t>
   </si>
   <si>
-    <t>A provide positive behavioural consequence BCT that provides the consequence for a behaviour that is incompatible with the unwanted behaviour.</t>
-  </si>
-  <si>
     <t>BCIO:007256</t>
   </si>
   <si>
     <t>provide positive consequence for situation specific behaviour BCT</t>
   </si>
   <si>
-    <t>A provide positive behavioural consequence BCT that provides the consequence for the behaviour in one situation but not in another.</t>
-  </si>
-  <si>
     <t>BCIO:007258</t>
   </si>
   <si>
@@ -1861,12 +1733,6 @@
     <t>BCIO:007260</t>
   </si>
   <si>
-    <t>provide positive material consequence for behavioural sequence BCT</t>
-  </si>
-  <si>
-    <t>A provide positive consequence for behavioural sequence BCT where the consequence is money, vouchers or other valued objects.</t>
-  </si>
-  <si>
     <t>BCIO:007261</t>
   </si>
   <si>
@@ -1888,21 +1754,9 @@
     <t>BCIO:007263</t>
   </si>
   <si>
-    <t>provide positive material outcome consequence BCT</t>
-  </si>
-  <si>
-    <t>provide positive outcome consequence BCT</t>
-  </si>
-  <si>
-    <t>A provide positive outcome consequence BCT where the consequence is money, vouchers or other valued objects.</t>
-  </si>
-  <si>
     <t>BCIO:007264</t>
   </si>
   <si>
-    <t>A provide outcome consequence BCT where the consequence is positive.</t>
-  </si>
-  <si>
     <t>BCIO:007266</t>
   </si>
   <si>
@@ -1933,12 +1787,6 @@
     <t>BCIO:007268</t>
   </si>
   <si>
-    <t>provide positive social consequence for behavioural sequence BCT</t>
-  </si>
-  <si>
-    <t>A provide positive consequence for behavioural sequence BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
-  </si>
-  <si>
     <t>BCIO:007269</t>
   </si>
   <si>
@@ -1960,120 +1808,42 @@
     <t>BCIO:007271</t>
   </si>
   <si>
-    <t>provide positive social outcome consequence BCT</t>
-  </si>
-  <si>
-    <t>A provide positive outcome consequence BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
-  </si>
-  <si>
     <t>BCIO:007272</t>
   </si>
   <si>
-    <t>provide reduced frequency of material outcome consequence BCT</t>
-  </si>
-  <si>
-    <t>provide reduced frequency of positive outcome consequence BCT</t>
-  </si>
-  <si>
-    <t>A provide reduced frequency of positive outcome consequence BCT where the consequence is money, vouchers or other valued objects.</t>
-  </si>
-  <si>
     <t>BCIO:007273</t>
   </si>
   <si>
-    <t>provide reduced frequency of negative behavioural consequence BCT</t>
-  </si>
-  <si>
-    <t>A provide negative behavioural consequence BCT that provides the consequence at increasingly less frequent intervals.</t>
-  </si>
-  <si>
     <t>BCIO:007274</t>
   </si>
   <si>
-    <t>provide reduced frequency of negative material behavioural consequence BCT</t>
-  </si>
-  <si>
-    <t>A provide reduced frequency of negative behavioural consequence BCT where the consequence is money, vouchers or other valued objects.</t>
-  </si>
-  <si>
     <t>BCIO:007275</t>
   </si>
   <si>
-    <t>provide reduced frequency of negative material outcome consequence BCT</t>
-  </si>
-  <si>
-    <t>provide reduced frequency of negative outcome consequence BCT</t>
-  </si>
-  <si>
-    <t>A provide reduced frequency of negative outcome consequence BCT where the consequence is money, vouchers or other valued objects.</t>
-  </si>
-  <si>
     <t>BCIO:007276</t>
   </si>
   <si>
-    <t>A provide negative outcome consequence BCT  that provides the consequence at increasingly less frequent intervals.</t>
-  </si>
-  <si>
     <t>BCIO:007277</t>
   </si>
   <si>
-    <t>provide reduced frequency of negative social behavioural consequence BCT</t>
-  </si>
-  <si>
-    <t>A provide reduced frequency of negative behavioural consequence BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
-  </si>
-  <si>
     <t>BCIO:007278</t>
   </si>
   <si>
-    <t>provide reduced frequency of negative social outcome consequence BCT</t>
-  </si>
-  <si>
-    <t>A provide reduced frequency of negative outcome consequence BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
-  </si>
-  <si>
     <t>BCIO:007279</t>
   </si>
   <si>
-    <t>provide reduced frequency of positive behavioural consequence BCT</t>
-  </si>
-  <si>
-    <t>A provide positive behavioural consequence BCT that provides the consequence at increasingly less frequent intervals.</t>
-  </si>
-  <si>
     <t>BCIO:007280</t>
   </si>
   <si>
-    <t>provide reduced frequency of positive material behavioural consequence BCT</t>
-  </si>
-  <si>
-    <t>A provide reduced frequency of positive behavioural consequence BCT where the consequence is money, vouchers or other valued objects.</t>
-  </si>
-  <si>
     <t>BCIO:007281</t>
   </si>
   <si>
-    <t>A provide positive outcome consequence BCT that provides the consequence at increasingly less frequent intervals.</t>
-  </si>
-  <si>
     <t>BCIO:007282</t>
   </si>
   <si>
-    <t>provide reduced frequency of positive social behavioural consequence BCT</t>
-  </si>
-  <si>
-    <t>A provide reduced frequency of positive behavioural consequence BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
-  </si>
-  <si>
     <t>BCIO:007283</t>
   </si>
   <si>
-    <t>provide reduced frequency of social outcome consequence BCT</t>
-  </si>
-  <si>
-    <t>A provide reduced frequency of positive outcome consequence BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
-  </si>
-  <si>
     <t>BCIO:007053</t>
   </si>
   <si>
@@ -2116,9 +1886,6 @@
     <t>reduce distraction BCT</t>
   </si>
   <si>
-    <t>An environmental restructuring BCT that reduces an alternative focus for attention for the person to concentrate on internal or external states or events associated with the behaviour.</t>
-  </si>
-  <si>
     <t>BCIO:007153</t>
   </si>
   <si>
@@ -2158,69 +1925,27 @@
     <t>BCIO:007285</t>
   </si>
   <si>
-    <t>remove behavioural consequence BCT</t>
-  </si>
-  <si>
     <t>A behavioural consequence BCT that removes a previously provided consequence for performing the behaviour.</t>
   </si>
   <si>
     <t>BCIO:007286</t>
   </si>
   <si>
-    <t>remove negative behavioural consequence BCT</t>
-  </si>
-  <si>
-    <t>A remove behavioural consequence BCT where the consequence is negative.</t>
-  </si>
-  <si>
     <t>BCIO:007287</t>
   </si>
   <si>
-    <t>remove negative material behavioural consequence BCT</t>
-  </si>
-  <si>
-    <t>A remove negative behavioural consequence BCT where the consequence is money, vouchers or other valued objects.</t>
-  </si>
-  <si>
     <t>BCIO:007288</t>
   </si>
   <si>
-    <t>remove negative material outcome consequence BCT</t>
-  </si>
-  <si>
-    <t>remove negative outcome consequence BCT</t>
-  </si>
-  <si>
-    <t>A remove negative outcome consequence BCT in which the consequence is money, vouchers or other valued objects.</t>
-  </si>
-  <si>
     <t>BCIO:007289</t>
   </si>
   <si>
-    <t>remove outcome consequence BCT</t>
-  </si>
-  <si>
-    <t>A remove outcome consequence BCT in which the consequence is negative.</t>
-  </si>
-  <si>
     <t>BCIO:007290</t>
   </si>
   <si>
-    <t>remove negative social behavioural consequence BCT</t>
-  </si>
-  <si>
-    <t>A remove negative behavioural consequence BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
-  </si>
-  <si>
     <t>BCIO:007291</t>
   </si>
   <si>
-    <t>remove negative social outcome consequence BCT</t>
-  </si>
-  <si>
-    <t>A remove negative outcome consequence BCT in which the consequence is an interpersonal process or a proxy interpersonal process.</t>
-  </si>
-  <si>
     <t>BCIO:007292</t>
   </si>
   <si>
@@ -2230,57 +1955,21 @@
     <t>BCIO:007293</t>
   </si>
   <si>
-    <t>remove positive behavioural consequence BCT</t>
-  </si>
-  <si>
-    <t>A remove behavioural consequence BCT where the consequence is positive.</t>
-  </si>
-  <si>
     <t>BCIO:007294</t>
   </si>
   <si>
-    <t>remove positive material behavioural consequence BCT</t>
-  </si>
-  <si>
-    <t>A remove positive behavioural consequence BCT where the consequence is money, vouchers or other valued objects.</t>
-  </si>
-  <si>
     <t>BCIO:007295</t>
   </si>
   <si>
-    <t>remove positive material outcome consequence BCT</t>
-  </si>
-  <si>
-    <t>remove positive outcome consequence BCT</t>
-  </si>
-  <si>
-    <t>A remove positive outcome consequence BCT in which the consequence is money, vouchers or other valued objects.</t>
-  </si>
-  <si>
     <t>BCIO:007296</t>
   </si>
   <si>
-    <t>A remove outcome consequence BCT in which the consequence is positive.</t>
-  </si>
-  <si>
     <t>BCIO:007297</t>
   </si>
   <si>
-    <t>remove positive social behavioural consequence BCT</t>
-  </si>
-  <si>
-    <t>A remove positive behavioural consequence BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
-  </si>
-  <si>
     <t>BCIO:007298</t>
   </si>
   <si>
-    <t>remove positive social outcome consequence BCT</t>
-  </si>
-  <si>
-    <t>A remove positive outcome consequence BCT in which the consequence is an interpersonal process or a proxy interpersonal process.</t>
-  </si>
-  <si>
     <t>BCIO:007150</t>
   </si>
   <si>
@@ -2543,6 +2232,429 @@
   </si>
   <si>
     <t>promise to remove negative social consequence for behaviour BCT</t>
+  </si>
+  <si>
+    <t>A promise to remove negative consequence for behaviour BCT in which the consequence is an interpersonal process or a proxy interpersonal process</t>
+  </si>
+  <si>
+    <t>promise to remove positive material consequence for behaviour BCT</t>
+  </si>
+  <si>
+    <t>promise to remove positive social consequence for behaviour BCT</t>
+  </si>
+  <si>
+    <t>A promise to remove positive consequence for behaviour BCT in which the consequence is an interpersonal process or a proxy interpersonal process</t>
+  </si>
+  <si>
+    <t>A promise to remove positive consequence for behaviour BCT in which the consequence is money, vouchers or other valued objects.</t>
+  </si>
+  <si>
+    <t>provide negative consequence for behaviour BCT</t>
+  </si>
+  <si>
+    <t>A provide consequence for behaviour BCT where the consequence is negative.</t>
+  </si>
+  <si>
+    <t>A provide negative consequence for behaviour BCT that provides the consequence for the behaviour in one situation but not in another.</t>
+  </si>
+  <si>
+    <t>provide negative material consequence for behaviour BCT</t>
+  </si>
+  <si>
+    <t>A provide negative consequence for behaviour BCT where the consequence is money, vouchers or other valued objects.</t>
+  </si>
+  <si>
+    <t>A provide negative consequencefor situation specific behaviour BCT where the consequence is money, vouchers or other valued objects.</t>
+  </si>
+  <si>
+    <t>provide negative social consequence for behaviour BCT</t>
+  </si>
+  <si>
+    <t>A provide negative consequence for behaviour BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
+  </si>
+  <si>
+    <t>A provide negative consequence for situation specific behaviour BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
+  </si>
+  <si>
+    <t>provide positive consequence for alternative behaviour BCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A provide positive consequence for behaviour BCT that provides the consequence for a behaviour that is different from the unwanted behaviour. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A provide positive consequence for behaviour BCT where the consequence is provided for approximation to the behaviour, gradually rewarding only performance closer to the behaviour. </t>
+  </si>
+  <si>
+    <t>A provide positive consequence for behaviour BCT that provides the consequence for a behaviour that is incompatible with the unwanted behaviour.</t>
+  </si>
+  <si>
+    <t>A provide positive consequence for behaviour BCT that provides the consequence for the behaviour in one situation but not in another.</t>
+  </si>
+  <si>
+    <t>provide reduced frequency of negative consequence for behaviour BCT</t>
+  </si>
+  <si>
+    <t>A provide negative consequence for behaviour BCT that provides the consequence at increasingly less frequent intervals.</t>
+  </si>
+  <si>
+    <t>provide reduced frequency of negative material consequence for behaviour BCT</t>
+  </si>
+  <si>
+    <t>A provide reduced frequency of negative consequence for behaviour BCT where the consequence is money, vouchers or other valued objects.</t>
+  </si>
+  <si>
+    <t>provide reduced frequency of negative social consequence for behaviour BCT</t>
+  </si>
+  <si>
+    <t>A provide reduced frequency of negative consequence for behaviour BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
+  </si>
+  <si>
+    <t>provide reduced frequency of positive consequence for behaviour BCT</t>
+  </si>
+  <si>
+    <t>A provide positive consequence for behaviour BCT that provides the consequence at increasingly less frequent intervals.</t>
+  </si>
+  <si>
+    <t>provide reduced frequency of positive material consequence for behaviour BCT</t>
+  </si>
+  <si>
+    <t>A provide reduced frequency of positive consequence for behaviour BCT where the consequence is money, vouchers or other valued objects.</t>
+  </si>
+  <si>
+    <t>provide reduced frequency of positive social consequence for behaviour BCT</t>
+  </si>
+  <si>
+    <t>A provide reduced frequency of positive consequence for behaviour BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
+  </si>
+  <si>
+    <t>remove consequence for behaviour BCT</t>
+  </si>
+  <si>
+    <t>remove negative consequence for behaviour BCT</t>
+  </si>
+  <si>
+    <t>A remove consequence for behaviour BCT where the consequence is negative.</t>
+  </si>
+  <si>
+    <t>remove negative material consequence for behaviour BCT</t>
+  </si>
+  <si>
+    <t>A remove negative consequence for behaviour BCT where the consequence is money, vouchers or other valued objects.</t>
+  </si>
+  <si>
+    <t>remove negative social consequence for behaviour BCT</t>
+  </si>
+  <si>
+    <t>A remove negative consequence for behaviour BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
+  </si>
+  <si>
+    <t>remove positive consequence for behaviour BCT</t>
+  </si>
+  <si>
+    <t>A remove consequence for behaviour BCT where the consequence is positive.</t>
+  </si>
+  <si>
+    <t>remove positive material consequence for behaviour BCT</t>
+  </si>
+  <si>
+    <t>A remove positive consequence for behaviour BCT where the consequence is money, vouchers or other valued objects.</t>
+  </si>
+  <si>
+    <t>remove positive social consequence for behaviour BCT</t>
+  </si>
+  <si>
+    <t>A remove positive consequence for behaviour BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
+  </si>
+  <si>
+    <t>promise to remove negative social consequence for outcome of behaviour BCT</t>
+  </si>
+  <si>
+    <t>A promise to remove negative consequence for outcome of behaviour BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
+  </si>
+  <si>
+    <t>promise to remove positive material consequence for outcome of behaviour BCT</t>
+  </si>
+  <si>
+    <t>A promise to remove positive consequence for outcome of behaviour BCT where the consequence is money, vouchers or other valued objects.</t>
+  </si>
+  <si>
+    <t>promise to remove positive social consequence for outcome of behaviour BCT</t>
+  </si>
+  <si>
+    <t>A promise to remove positive consequence for outcome of behaviour BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
+  </si>
+  <si>
+    <t>provide negative material consequence for outcome of behaviour BCT</t>
+  </si>
+  <si>
+    <t>provide negative consequence for outcome of behaviour BCT</t>
+  </si>
+  <si>
+    <t>A provide negative consequence for outcome of behaviour BCT where the consequence is money, vouchers or other valued objects.</t>
+  </si>
+  <si>
+    <t>provide consequence for outcome of behaviour BCT</t>
+  </si>
+  <si>
+    <t>A provide consequence for outcome of behaviour BCT where the consequence is negative.</t>
+  </si>
+  <si>
+    <t>provide negative social consequence for outcome of behaviour BCT</t>
+  </si>
+  <si>
+    <t>A provide negative consequence for outcome of behaviour BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
+  </si>
+  <si>
+    <t>provide positive material consequence for outcome of behaviour BCT</t>
+  </si>
+  <si>
+    <t>provide positive consequence for outcome of behaviour BCT</t>
+  </si>
+  <si>
+    <t>A provide positive consequence for outcome of behaviour BCT where the consequence is money, vouchers or other valued objects.</t>
+  </si>
+  <si>
+    <t>A provide consequence for outcome of behaviour BCT where the consequence is positive.</t>
+  </si>
+  <si>
+    <t>provide positive social consequence for outcome of behaviour BCT</t>
+  </si>
+  <si>
+    <t>A provide positive consequence for outcome of behaviour BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
+  </si>
+  <si>
+    <t>provide reduced frequency of material consequence for outcome of behaviour BCT</t>
+  </si>
+  <si>
+    <t>provide reduced frequency of positive consequence for outcome of behaviour BCT</t>
+  </si>
+  <si>
+    <t>A provide reduced frequency of positive consequence for outcome of behaviour BCT where the consequence is money, vouchers or other valued objects.</t>
+  </si>
+  <si>
+    <t>provide reduced frequency of negative material consequence for outcome of behaviour BCT</t>
+  </si>
+  <si>
+    <t>provide reduced frequency of negative consequence for outcome of behaviour BCT</t>
+  </si>
+  <si>
+    <t>A provide reduced frequency of negative consequence for outcome of behaviour BCT where the consequence is money, vouchers or other valued objects.</t>
+  </si>
+  <si>
+    <t>A provide negative consequence for outcome of behaviour BCT  that provides the consequence at increasingly less frequent intervals.</t>
+  </si>
+  <si>
+    <t>provide reduced frequency of negative social consequence for outcome of behaviour BCT</t>
+  </si>
+  <si>
+    <t>A provide reduced frequency of negative consequence for outcome of behaviour BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
+  </si>
+  <si>
+    <t>A provide positive consequence for outcome of behaviour BCT that provides the consequence at increasingly less frequent intervals.</t>
+  </si>
+  <si>
+    <t>provide reduced frequency of positive social consequence for outcome of behaviour BCT</t>
+  </si>
+  <si>
+    <t>A provide reduced frequency of positive consequence for outcome of behaviour BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
+  </si>
+  <si>
+    <t>remove negative material consequence for outcome of behaviour BCT</t>
+  </si>
+  <si>
+    <t>remove negative consequence for outcome of behaviour BCT</t>
+  </si>
+  <si>
+    <t>A remove negative consequence for outcome of behaviour BCT in which the consequence is money, vouchers or other valued objects.</t>
+  </si>
+  <si>
+    <t>remove consequence for outcome of behaviour BCT</t>
+  </si>
+  <si>
+    <t>A remove consequence for outcome of behaviour BCT in which the consequence is negative.</t>
+  </si>
+  <si>
+    <t>remove negative social consequence for outcome of behaviour BCT</t>
+  </si>
+  <si>
+    <t>A remove negative consequence for outcome of behaviour BCT in which the consequence is an interpersonal process or a proxy interpersonal process.</t>
+  </si>
+  <si>
+    <t>remove positive material consequence for outcome of behaviour BCT</t>
+  </si>
+  <si>
+    <t>remove positive consequence for outcome of behaviour BCT</t>
+  </si>
+  <si>
+    <t>A remove positive consequence for outcome of behaviour BCT in which the consequence is money, vouchers or other valued objects.</t>
+  </si>
+  <si>
+    <t>A remove consequence for outcome of behaviour BCT in which the consequence is positive.</t>
+  </si>
+  <si>
+    <t>remove positive social consequence for outcome of behaviour BCT</t>
+  </si>
+  <si>
+    <t>A remove positive consequence for outcome of behaviour BCT in which the consequence is an interpersonal process or a proxy interpersonal process.</t>
+  </si>
+  <si>
+    <t>provide positive consequence for completion of behavioural sequence BCT</t>
+  </si>
+  <si>
+    <t>provide positive material consequence for completion of behavioural sequence BCT</t>
+  </si>
+  <si>
+    <t>A provide positive consequence for completion of behavioural sequence BCT where the consequence is money, vouchers or other valued objects.</t>
+  </si>
+  <si>
+    <t>provide positive social consequence for completion of behavioural sequence BCT</t>
+  </si>
+  <si>
+    <t>A provide positive consequence for completion of behavioural sequence BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
+  </si>
+  <si>
+    <t>advise how to change emotions BCT</t>
+  </si>
+  <si>
+    <t>advise how to increase negative emotions BCT</t>
+  </si>
+  <si>
+    <t>An advise how to change emotions BCT suggesting a method to enhance negative emotions.</t>
+  </si>
+  <si>
+    <t>advise how to increase positive emotions BCT</t>
+  </si>
+  <si>
+    <t>An advise how to change emotions BCT suggesting a method to enhance positive emotions.</t>
+  </si>
+  <si>
+    <t>advise how to reduce negative emotions BCT</t>
+  </si>
+  <si>
+    <t>An advise how to change emotions BCT suggesting a method to decrease negative emotions.</t>
+  </si>
+  <si>
+    <t>advise how to reduce positive emotions BCT</t>
+  </si>
+  <si>
+    <t>An advise how to change emotions BCT suggesting a method to decrease positive emotions.</t>
+  </si>
+  <si>
+    <t>advise behavioural ways to increase positive emotions BCT</t>
+  </si>
+  <si>
+    <t>An advise behavioural ways to change emotions BCT suggesting the person perform a particular behaviour to enhance positive emotions.</t>
+  </si>
+  <si>
+    <t>advise behavioural ways to reduce positive emotions BCT</t>
+  </si>
+  <si>
+    <t>An advise behavioural ways to change emotions BCT suggesting the person perform a particular behaviour to decrease positive emotions.</t>
+  </si>
+  <si>
+    <t>advise behavioural ways to increase negative emotions BCT</t>
+  </si>
+  <si>
+    <t>An advise behavioural ways to change emotions BCT suggesting the person perform a particular behaviour to enhance negative emotions.</t>
+  </si>
+  <si>
+    <t>advise behavioural ways to reduce negative emotions BCT</t>
+  </si>
+  <si>
+    <t>An advise behavioural ways to change emotions BCT suggesting the person perform a particular behaviour to decrease negative emotions.</t>
+  </si>
+  <si>
+    <t>advise cognitive ways to increase positive emotions BCT</t>
+  </si>
+  <si>
+    <t>advise cognitive ways to reduce positive emotions BCT</t>
+  </si>
+  <si>
+    <t>advise cognitive ways to reduce negative emotions BCT</t>
+  </si>
+  <si>
+    <t>advise cognitive ways to increase negative emotions BCT</t>
+  </si>
+  <si>
+    <t>An advise cognitive ways to change emotions BCT suggesting the person deliberately use a particular mental process to decrease positive emotions.</t>
+  </si>
+  <si>
+    <t>An advise cognitive ways to change emotions BCT suggesting the person deliberately use a particular mental process to enhance positive emotions.</t>
+  </si>
+  <si>
+    <t>An advise cognitive ways to change emotions BCT suggesting the person deliberately use a particular mental process to enhance negative emotions.</t>
+  </si>
+  <si>
+    <t>An advise cognitive ways to change emotions BCT suggesting the person deliberately use a particular mental process to decrease negative emotions.</t>
+  </si>
+  <si>
+    <t>advise sensory ways to increase positive emotions BCT</t>
+  </si>
+  <si>
+    <t>advise sensory ways to reduce positive emotions BCT</t>
+  </si>
+  <si>
+    <t>advise sensory ways to increase negative emotions BCT</t>
+  </si>
+  <si>
+    <t>advise sensory ways to reduce negative emotions BCT</t>
+  </si>
+  <si>
+    <t>An advise sensory ways to change emotions BCT suggesting the person use a method that stimulates one or more senses to enhance positive emotions.</t>
+  </si>
+  <si>
+    <t>An advise sensory ways to change emotions BCT suggesting the person use a method that stimulates one or more senses to decrease positive emotions.</t>
+  </si>
+  <si>
+    <t>An advise sensory ways to change emotions BCT suggesting the person use a method that stimulates one or more senses to enhance negative emotions.</t>
+  </si>
+  <si>
+    <t>An advise sensory ways to change emotions BCT suggesting the person use a method that stimulates one or more senses to decrease negative emotions.</t>
+  </si>
+  <si>
+    <t>restructure the social environment BCT</t>
+  </si>
+  <si>
+    <t>A restructure the environment BCT that alters the social environment in which the behaviour is, or would have been, performed in a way that facilitates or impedes the behaviour.</t>
+  </si>
+  <si>
+    <t>directly restructure the physical environment BCT</t>
+  </si>
+  <si>
+    <t>restructure the physical environment BCT</t>
+  </si>
+  <si>
+    <t>directly restructure the social environment BCT</t>
+  </si>
+  <si>
+    <t>A restructure the physical environment BCT that changes the person’s directly experienced environment at the time the behaviour is, or would have been, performed.</t>
+  </si>
+  <si>
+    <t>A restructure the environment BCT that alters the physical environment in which the behaviour is, or would have been, performed in a way that facilitates or impedes the behaviour.</t>
+  </si>
+  <si>
+    <t>A restructure the social environment BCT that changes the person's directly experienced environment at the time the behaviour is, or would have been, performed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indirectly restructure the physical environment BCT </t>
+  </si>
+  <si>
+    <t>A restructure the environment BCT that changes the person's environment at a time or location other than when and where the behaviour is performed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indirectly restructure the social environment BCT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A restructure the social environment BCT that changes the person's environment at a time or location other than when and where the behaviour is performed. </t>
+  </si>
+  <si>
+    <t>A restructure the physical environment BCT that organises an alternative focus for attention for the person to avoid internal or external states or events associated with an unwanted behaviour.</t>
+  </si>
+  <si>
+    <t>A restructure the physical environment BCT that reduces an alternative focus for attention for the person to concentrate on internal or external states or events associated with the behaviour.</t>
+  </si>
+  <si>
+    <t>A restructure the physical environment BCT that adds objects to the person's physical surroundings.</t>
   </si>
 </sst>
 </file>
@@ -2901,17 +3013,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N263"/>
+  <dimension ref="A1:N283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="C152" sqref="C152"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G278" sqref="G278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="65.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="58.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="115.1640625" customWidth="1"/>
+    <col min="4" max="4" width="119.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16" x14ac:dyDescent="0.2">
@@ -2979,23 +3091,23 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>812</v>
+        <v>704</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -3005,23 +3117,23 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>861</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>872</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -3031,23 +3143,23 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -3057,23 +3169,23 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -3083,23 +3195,23 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -3109,79 +3221,73 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>825</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>834</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>43</v>
+        <v>835</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>836</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>48</v>
+        <v>837</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -3191,23 +3297,21 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>838</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>51</v>
+        <v>839</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -3217,23 +3321,21 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>53</v>
+        <v>840</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>55</v>
+        <v>841</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -3243,49 +3345,49 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>38</v>
+        <v>825</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>54</v>
+        <v>842</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>61</v>
+        <v>847</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -3295,49 +3397,45 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>845</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>68</v>
+        <v>848</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -3347,51 +3445,47 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>70</v>
+        <v>844</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>71</v>
+        <v>849</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -3401,51 +3495,49 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -3455,23 +3547,23 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>78</v>
+        <v>825</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -3481,23 +3573,21 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
-        <v>87</v>
+        <v>850</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>88</v>
+        <v>854</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -3507,51 +3597,45 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
-        <v>78</v>
+        <v>851</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>91</v>
+        <v>855</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="2" t="s">
-        <v>92</v>
-      </c>
+      <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>93</v>
-      </c>
+      <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
-        <v>94</v>
+        <v>852</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>95</v>
+        <v>856</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -3561,23 +3645,21 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
-        <v>97</v>
+        <v>853</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>98</v>
+        <v>857</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -3587,23 +3669,23 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -3613,49 +3695,49 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
+      <c r="A27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
       <c r="L27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+        <v>704</v>
+      </c>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>107</v>
+        <v>825</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -3665,23 +3747,21 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>109</v>
-      </c>
+      <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
-        <v>110</v>
+        <v>826</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>111</v>
+        <v>825</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>112</v>
+        <v>827</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -3691,23 +3771,21 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>113</v>
-      </c>
+      <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
-        <v>114</v>
+        <v>828</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>115</v>
+        <v>825</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>116</v>
+        <v>829</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -3717,23 +3795,21 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
-        <v>118</v>
+        <v>830</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>115</v>
+        <v>825</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>119</v>
+        <v>831</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -3743,23 +3819,21 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>120</v>
-      </c>
+      <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
-        <v>121</v>
+        <v>832</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>115</v>
+        <v>825</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>122</v>
+        <v>833</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -3769,49 +3843,51 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
+      <c r="I33" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -3821,51 +3897,51 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2" t="s">
-        <v>132</v>
+        <v>67</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -3875,23 +3951,23 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -3901,105 +3977,103 @@
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
-      <c r="J38" s="2" t="s">
-        <v>141</v>
-      </c>
+      <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
+      <c r="I39" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="2" t="s">
-        <v>148</v>
-      </c>
+      <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>150</v>
+        <v>28</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>151</v>
+        <v>93</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -4009,51 +4083,49 @@
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>152</v>
+        <v>94</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>153</v>
+        <v>95</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
-      <c r="I42" s="2" t="s">
-        <v>155</v>
-      </c>
+      <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>156</v>
+        <v>98</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>157</v>
+        <v>99</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -4063,23 +4135,23 @@
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>161</v>
+        <v>103</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -4089,23 +4161,23 @@
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>162</v>
+        <v>104</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>163</v>
+        <v>105</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>164</v>
+        <v>107</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -4115,23 +4187,23 @@
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>165</v>
+        <v>108</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>166</v>
+        <v>109</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -4141,23 +4213,23 @@
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>170</v>
+        <v>113</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>171</v>
+        <v>114</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -4167,23 +4239,23 @@
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>174</v>
+        <v>117</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -4193,23 +4265,23 @@
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>175</v>
+        <v>118</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>176</v>
+        <v>119</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>177</v>
+        <v>120</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -4219,23 +4291,23 @@
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>178</v>
+        <v>121</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -4245,77 +4317,77 @@
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>182</v>
+        <v>110</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>183</v>
+        <v>126</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
+      <c r="I51" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>185</v>
+        <v>106</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>186</v>
+        <v>129</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
-      <c r="J52" s="2" t="s">
-        <v>187</v>
-      </c>
+      <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>188</v>
+        <v>130</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>190</v>
+        <v>106</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>191</v>
+        <v>132</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -4325,51 +4397,51 @@
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>192</v>
+        <v>133</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>193</v>
+        <v>134</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>190</v>
+        <v>106</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>194</v>
+        <v>135</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
-      <c r="I54" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="J54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="K54" s="2"/>
       <c r="L54" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>196</v>
+        <v>137</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>190</v>
+        <v>16</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>198</v>
+        <v>139</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -4379,49 +4451,51 @@
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>199</v>
+        <v>140</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>200</v>
+        <v>141</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>190</v>
+        <v>56</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>201</v>
+        <v>142</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
+      <c r="I56" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>202</v>
+        <v>144</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>190</v>
+        <v>56</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>203</v>
+        <v>146</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -4431,49 +4505,51 @@
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>204</v>
+        <v>147</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>206</v>
+        <v>149</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
+      <c r="I58" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>207</v>
+        <v>151</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>208</v>
+        <v>152</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>209</v>
+        <v>153</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -4483,23 +4559,23 @@
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>210</v>
+        <v>154</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>211</v>
+        <v>155</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>212</v>
+        <v>56</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>213</v>
+        <v>156</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -4509,23 +4585,23 @@
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>214</v>
+        <v>157</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>215</v>
+        <v>158</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -4535,23 +4611,23 @@
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>217</v>
+        <v>160</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>218</v>
+        <v>161</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>219</v>
+        <v>162</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -4561,23 +4637,23 @@
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>221</v>
+        <v>164</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>222</v>
+        <v>166</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -4587,23 +4663,23 @@
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>223</v>
+        <v>167</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>224</v>
+        <v>168</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>225</v>
+        <v>169</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
@@ -4613,23 +4689,23 @@
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>226</v>
+        <v>170</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>228</v>
+        <v>172</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -4639,23 +4715,23 @@
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>229</v>
+        <v>173</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>230</v>
+        <v>174</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>231</v>
+        <v>175</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -4665,79 +4741,77 @@
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>232</v>
+        <v>176</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>16</v>
+        <v>177</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>233</v>
+        <v>178</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
-      <c r="I67" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="I67" s="2"/>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
       <c r="L67" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>234</v>
+        <v>179</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>101</v>
+        <v>180</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>235</v>
+        <v>181</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
-      <c r="I68" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="K68" s="2"/>
       <c r="L68" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>236</v>
+        <v>183</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>237</v>
+        <v>184</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>238</v>
+        <v>186</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
@@ -4747,51 +4821,51 @@
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>239</v>
+        <v>187</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>240</v>
+        <v>188</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>128</v>
+        <v>185</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>241</v>
+        <v>189</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2" t="s">
-        <v>242</v>
+        <v>190</v>
       </c>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
       <c r="L70" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>243</v>
+        <v>191</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>244</v>
+        <v>192</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>245</v>
+        <v>193</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
@@ -4801,79 +4875,75 @@
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
       <c r="L71" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>246</v>
+        <v>194</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>247</v>
+        <v>195</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>31</v>
+        <v>185</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>248</v>
+        <v>196</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
-      <c r="I72" s="2" t="s">
-        <v>242</v>
-      </c>
+      <c r="I72" s="2"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>249</v>
+        <v>197</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>250</v>
+        <v>185</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>167</v>
+        <v>85</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>251</v>
+        <v>198</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
-      <c r="I73" s="2" t="s">
-        <v>242</v>
-      </c>
+      <c r="I73" s="2"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
       <c r="L73" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>252</v>
+        <v>199</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>253</v>
+        <v>200</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>167</v>
+        <v>60</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>254</v>
+        <v>201</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
@@ -4883,23 +4953,23 @@
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>255</v>
+        <v>202</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>256</v>
+        <v>860</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>146</v>
+        <v>861</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>257</v>
+        <v>863</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
@@ -4909,23 +4979,21 @@
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>258</v>
-      </c>
+      <c r="A76" s="2"/>
       <c r="B76" s="2" t="s">
-        <v>259</v>
+        <v>862</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>60</v>
+        <v>858</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>260</v>
+        <v>865</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
@@ -4935,23 +5003,23 @@
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
       <c r="L76" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>261</v>
+        <v>203</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>60</v>
+        <v>205</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>262</v>
+        <v>206</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
@@ -4961,23 +5029,23 @@
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>263</v>
+        <v>207</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>264</v>
+        <v>208</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>259</v>
+        <v>43</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>265</v>
+        <v>209</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
@@ -4987,23 +5055,23 @@
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>266</v>
+        <v>210</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>267</v>
+        <v>211</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>268</v>
+        <v>213</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
@@ -5013,51 +5081,49 @@
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>269</v>
+        <v>214</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>270</v>
+        <v>123</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>259</v>
+        <v>105</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>271</v>
+        <v>215</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
-      <c r="I80" s="2" t="s">
-        <v>272</v>
-      </c>
+      <c r="I80" s="2"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
       <c r="L80" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>273</v>
+        <v>216</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>274</v>
+        <v>217</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>167</v>
+        <v>123</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>275</v>
+        <v>218</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
@@ -5067,51 +5133,49 @@
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
       <c r="L81" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>276</v>
+        <v>219</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>277</v>
+        <v>220</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>278</v>
+        <v>221</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
-      <c r="J82" s="2" t="s">
-        <v>279</v>
-      </c>
+      <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>280</v>
+        <v>222</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>281</v>
+        <v>223</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>282</v>
+        <v>50</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>283</v>
+        <v>224</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
@@ -5121,75 +5185,79 @@
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
       <c r="L83" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>284</v>
+        <v>225</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>285</v>
+        <v>16</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>212</v>
+        <v>56</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>286</v>
+        <v>226</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
+      <c r="I84" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
       <c r="L84" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>287</v>
+        <v>227</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>288</v>
+        <v>228</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
+      <c r="I85" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
       <c r="L85" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>289</v>
+        <v>229</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>291</v>
+        <v>231</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
@@ -5199,49 +5267,51 @@
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
       <c r="L86" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>292</v>
+        <v>232</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>293</v>
+        <v>233</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>167</v>
+        <v>123</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>294</v>
+        <v>234</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
+      <c r="I87" s="2" t="s">
+        <v>235</v>
+      </c>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
       <c r="L87" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>295</v>
+        <v>236</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>296</v>
+        <v>237</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>282</v>
+        <v>56</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>297</v>
+        <v>238</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
@@ -5251,75 +5321,79 @@
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
       <c r="L88" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>298</v>
+        <v>239</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>299</v>
+        <v>240</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>290</v>
+        <v>28</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>300</v>
+        <v>241</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
+      <c r="I89" s="2" t="s">
+        <v>235</v>
+      </c>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
       <c r="L89" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>301</v>
+        <v>242</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>302</v>
+        <v>243</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>293</v>
+        <v>162</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>303</v>
+        <v>244</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
+      <c r="I90" s="2" t="s">
+        <v>235</v>
+      </c>
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
       <c r="L90" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>304</v>
+        <v>245</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>305</v>
+        <v>246</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>306</v>
+        <v>162</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>307</v>
+        <v>247</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
@@ -5329,23 +5403,23 @@
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
       <c r="L91" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>308</v>
+        <v>248</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>309</v>
+        <v>249</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>282</v>
+        <v>141</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>310</v>
+        <v>250</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
@@ -5355,23 +5429,23 @@
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
       <c r="L92" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>311</v>
+        <v>251</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>312</v>
+        <v>252</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>290</v>
+        <v>56</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>313</v>
+        <v>253</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
@@ -5381,23 +5455,23 @@
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
       <c r="L93" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>314</v>
+        <v>254</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>315</v>
+        <v>162</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>293</v>
+        <v>56</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>316</v>
+        <v>255</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
@@ -5407,23 +5481,23 @@
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
       <c r="L94" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>317</v>
+        <v>256</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>318</v>
+        <v>257</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>306</v>
+        <v>252</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>319</v>
+        <v>258</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
@@ -5433,23 +5507,23 @@
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
       <c r="L95" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>320</v>
+        <v>259</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>306</v>
+        <v>260</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>321</v>
+        <v>261</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
@@ -5459,103 +5533,103 @@
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
       <c r="L96" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>322</v>
+        <v>262</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>323</v>
+        <v>263</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>64</v>
+        <v>252</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>324</v>
+        <v>264</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
+      <c r="I97" s="2" t="s">
+        <v>265</v>
+      </c>
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
       <c r="L97" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>325</v>
+        <v>266</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>326</v>
+        <v>267</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>327</v>
+        <v>268</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
-      <c r="I98" s="2" t="s">
-        <v>328</v>
-      </c>
+      <c r="I98" s="2"/>
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
       <c r="L98" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>329</v>
+        <v>269</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>47</v>
+        <v>866</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>60</v>
+        <v>645</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>330</v>
+        <v>867</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
-      <c r="J99" s="2"/>
+      <c r="J99" s="2" t="s">
+        <v>270</v>
+      </c>
       <c r="K99" s="2"/>
       <c r="L99" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
-        <v>331</v>
-      </c>
+      <c r="A100" s="2"/>
       <c r="B100" s="2" t="s">
-        <v>332</v>
+        <v>868</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>333</v>
+        <v>645</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>334</v>
+        <v>869</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
@@ -5565,23 +5639,23 @@
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
       <c r="L100" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>335</v>
+        <v>271</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>336</v>
+        <v>272</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>337</v>
+        <v>273</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>338</v>
+        <v>274</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
@@ -5591,23 +5665,23 @@
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
       <c r="L101" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>339</v>
+        <v>275</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>337</v>
+        <v>276</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>60</v>
+        <v>205</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>340</v>
+        <v>277</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
@@ -5617,23 +5691,23 @@
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
       <c r="L102" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>341</v>
+        <v>278</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>342</v>
+        <v>273</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>337</v>
+        <v>162</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>343</v>
+        <v>279</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
@@ -5643,23 +5717,23 @@
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
       <c r="L103" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>344</v>
+        <v>280</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>345</v>
+        <v>281</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>337</v>
+        <v>162</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>346</v>
+        <v>282</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
@@ -5669,23 +5743,23 @@
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
       <c r="L104" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>347</v>
+        <v>283</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>348</v>
+        <v>284</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>60</v>
+        <v>162</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>349</v>
+        <v>285</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
@@ -5695,23 +5769,23 @@
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
       <c r="L105" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>350</v>
+        <v>286</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>351</v>
+        <v>287</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>54</v>
+        <v>273</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>352</v>
+        <v>288</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
@@ -5721,23 +5795,23 @@
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
       <c r="L106" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>353</v>
+        <v>289</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>354</v>
+        <v>290</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>333</v>
+        <v>281</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>355</v>
+        <v>291</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
@@ -5747,23 +5821,23 @@
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
       <c r="L107" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>356</v>
+        <v>292</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>357</v>
+        <v>293</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>16</v>
+        <v>284</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>358</v>
+        <v>294</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
@@ -5773,23 +5847,23 @@
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
       <c r="L108" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>359</v>
+        <v>295</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>360</v>
+        <v>296</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>54</v>
+        <v>297</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>361</v>
+        <v>298</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
@@ -5799,23 +5873,23 @@
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
       <c r="L109" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>362</v>
+        <v>299</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>363</v>
+        <v>300</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>146</v>
+        <v>273</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>364</v>
+        <v>301</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
@@ -5825,23 +5899,23 @@
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
       <c r="L110" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>365</v>
+        <v>302</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>366</v>
+        <v>303</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>153</v>
+        <v>281</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>367</v>
+        <v>304</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
@@ -5851,23 +5925,23 @@
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
       <c r="L111" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>368</v>
+        <v>305</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>369</v>
+        <v>306</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>348</v>
+        <v>284</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>370</v>
+        <v>307</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
@@ -5877,23 +5951,23 @@
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
       <c r="L112" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>371</v>
+        <v>308</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>372</v>
+        <v>309</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>366</v>
+        <v>297</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>373</v>
+        <v>310</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
@@ -5903,23 +5977,23 @@
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
       <c r="L113" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>374</v>
+        <v>311</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>375</v>
+        <v>297</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>369</v>
+        <v>162</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>376</v>
+        <v>312</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
@@ -5929,23 +6003,23 @@
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
       <c r="L114" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>377</v>
+        <v>313</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>378</v>
+        <v>314</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>372</v>
+        <v>60</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>379</v>
+        <v>315</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
@@ -5955,49 +6029,51 @@
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
       <c r="L115" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>380</v>
+        <v>316</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>372</v>
+        <v>16</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>382</v>
+        <v>318</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
-      <c r="I116" s="2"/>
+      <c r="I116" s="2" t="s">
+        <v>319</v>
+      </c>
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
       <c r="L116" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>383</v>
+        <v>320</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>384</v>
+        <v>43</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>375</v>
+        <v>56</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>385</v>
+        <v>321</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
@@ -6007,23 +6083,23 @@
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
       <c r="L117" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>386</v>
+        <v>322</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>387</v>
+        <v>323</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>378</v>
+        <v>324</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>388</v>
+        <v>325</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
@@ -6033,23 +6109,23 @@
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
       <c r="L118" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>389</v>
+        <v>326</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>390</v>
+        <v>327</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>372</v>
+        <v>328</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>391</v>
+        <v>329</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
@@ -6059,23 +6135,23 @@
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
       <c r="L119" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>392</v>
+        <v>330</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>393</v>
+        <v>328</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>375</v>
+        <v>56</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>394</v>
+        <v>331</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
@@ -6085,23 +6161,23 @@
       <c r="J120" s="2"/>
       <c r="K120" s="2"/>
       <c r="L120" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>395</v>
+        <v>332</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>396</v>
+        <v>333</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>378</v>
+        <v>328</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>397</v>
+        <v>334</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
@@ -6111,23 +6187,23 @@
       <c r="J121" s="2"/>
       <c r="K121" s="2"/>
       <c r="L121" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>398</v>
+        <v>335</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>399</v>
+        <v>336</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>400</v>
+        <v>328</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>401</v>
+        <v>337</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
@@ -6137,23 +6213,23 @@
       <c r="J122" s="2"/>
       <c r="K122" s="2"/>
       <c r="L122" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>402</v>
+        <v>338</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>403</v>
+        <v>339</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>400</v>
+        <v>56</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>404</v>
+        <v>340</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
@@ -6163,51 +6239,49 @@
       <c r="J123" s="2"/>
       <c r="K123" s="2"/>
       <c r="L123" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>405</v>
+        <v>341</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>400</v>
+        <v>342</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>366</v>
+        <v>50</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>406</v>
+        <v>343</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
-      <c r="I124" s="2" t="s">
-        <v>407</v>
-      </c>
+      <c r="I124" s="2"/>
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
       <c r="L124" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>408</v>
+        <v>344</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>409</v>
+        <v>345</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>400</v>
+        <v>324</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>410</v>
+        <v>346</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
@@ -6217,23 +6291,23 @@
       <c r="J125" s="2"/>
       <c r="K125" s="2"/>
       <c r="L125" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>411</v>
+        <v>347</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>412</v>
+        <v>348</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>400</v>
+        <v>16</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>413</v>
+        <v>349</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
@@ -6243,23 +6317,23 @@
       <c r="J126" s="2"/>
       <c r="K126" s="2"/>
       <c r="L126" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>414</v>
+        <v>350</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>415</v>
+        <v>351</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>416</v>
+        <v>352</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
@@ -6269,23 +6343,23 @@
       <c r="J127" s="2"/>
       <c r="K127" s="2"/>
       <c r="L127" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>417</v>
+        <v>353</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>418</v>
+        <v>354</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>399</v>
+        <v>141</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>419</v>
+        <v>355</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
@@ -6295,23 +6369,23 @@
       <c r="J128" s="2"/>
       <c r="K128" s="2"/>
       <c r="L128" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>420</v>
+        <v>356</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>421</v>
+        <v>357</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>403</v>
+        <v>148</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>422</v>
+        <v>358</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
@@ -6321,23 +6395,23 @@
       <c r="J129" s="2"/>
       <c r="K129" s="2"/>
       <c r="L129" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" s="2"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>423</v>
+        <v>359</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>424</v>
+        <v>360</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>400</v>
+        <v>339</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>425</v>
+        <v>361</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
@@ -6347,23 +6421,23 @@
       <c r="J130" s="2"/>
       <c r="K130" s="2"/>
       <c r="L130" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" s="2"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>426</v>
+        <v>362</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>427</v>
+        <v>363</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>409</v>
+        <v>357</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>428</v>
+        <v>364</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
@@ -6373,163 +6447,153 @@
       <c r="J131" s="2"/>
       <c r="K131" s="2"/>
       <c r="L131" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M131" s="2"/>
       <c r="N131" s="2"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>429</v>
+        <v>365</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>430</v>
+        <v>366</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>412</v>
+        <v>360</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>431</v>
+        <v>367</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
-      <c r="I132" s="2" t="s">
-        <v>432</v>
-      </c>
+      <c r="I132" s="2"/>
       <c r="J132" s="2"/>
       <c r="K132" s="2"/>
       <c r="L132" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M132" s="2"/>
       <c r="N132" s="2"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>433</v>
+        <v>368</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>434</v>
+        <v>369</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>435</v>
+        <v>363</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>436</v>
+        <v>370</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
-      <c r="I133" s="2" t="s">
-        <v>437</v>
-      </c>
+      <c r="I133" s="2"/>
       <c r="J133" s="2"/>
       <c r="K133" s="2"/>
       <c r="L133" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>438</v>
+        <v>371</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>439</v>
+        <v>372</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>415</v>
+        <v>363</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>440</v>
+        <v>373</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
-      <c r="I134" s="2" t="s">
-        <v>441</v>
-      </c>
+      <c r="I134" s="2"/>
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
       <c r="L134" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>442</v>
+        <v>374</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>435</v>
+        <v>375</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>813</v>
+        <v>376</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
-      <c r="I135" s="2" t="s">
-        <v>443</v>
-      </c>
+      <c r="I135" s="2"/>
       <c r="J135" s="2"/>
       <c r="K135" s="2"/>
       <c r="L135" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>444</v>
+        <v>377</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>814</v>
+        <v>378</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>494</v>
+        <v>369</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>815</v>
+        <v>379</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
       <c r="H136" s="2"/>
-      <c r="I136" s="2" t="s">
-        <v>441</v>
-      </c>
+      <c r="I136" s="2"/>
       <c r="J136" s="2"/>
       <c r="K136" s="2"/>
       <c r="L136" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M136" s="2"/>
       <c r="N136" s="2"/>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>446</v>
+        <v>380</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>816</v>
+        <v>381</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>400</v>
+        <v>363</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>817</v>
+        <v>382</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
@@ -6539,23 +6603,23 @@
       <c r="J137" s="2"/>
       <c r="K137" s="2"/>
       <c r="L137" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M137" s="2"/>
       <c r="N137" s="2"/>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>447</v>
+        <v>383</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>448</v>
+        <v>384</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>399</v>
+        <v>366</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>449</v>
+        <v>385</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
@@ -6565,23 +6629,23 @@
       <c r="J138" s="2"/>
       <c r="K138" s="2"/>
       <c r="L138" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M138" s="2"/>
       <c r="N138" s="2"/>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>450</v>
+        <v>386</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>451</v>
+        <v>387</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>403</v>
+        <v>369</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>452</v>
+        <v>388</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
@@ -6591,23 +6655,23 @@
       <c r="J139" s="2"/>
       <c r="K139" s="2"/>
       <c r="L139" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>453</v>
+        <v>389</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>818</v>
+        <v>390</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>819</v>
+        <v>392</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
@@ -6617,23 +6681,23 @@
       <c r="J140" s="2"/>
       <c r="K140" s="2"/>
       <c r="L140" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>454</v>
+        <v>393</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>455</v>
+        <v>394</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>456</v>
+        <v>395</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
@@ -6643,49 +6707,51 @@
       <c r="J141" s="2"/>
       <c r="K141" s="2"/>
       <c r="L141" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>457</v>
+        <v>396</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>458</v>
+        <v>391</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>415</v>
+        <v>357</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>459</v>
+        <v>397</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
-      <c r="I142" s="2"/>
+      <c r="I142" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="J142" s="2"/>
       <c r="K142" s="2"/>
       <c r="L142" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" s="2"/>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>460</v>
+        <v>399</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>820</v>
+        <v>400</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>435</v>
+        <v>391</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>821</v>
+        <v>401</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
@@ -6695,23 +6761,23 @@
       <c r="J143" s="2"/>
       <c r="K143" s="2"/>
       <c r="L143" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" s="2"/>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>461</v>
+        <v>402</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>822</v>
+        <v>403</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>823</v>
+        <v>404</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
@@ -6721,23 +6787,23 @@
       <c r="J144" s="2"/>
       <c r="K144" s="2"/>
       <c r="L144" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>462</v>
+        <v>405</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>824</v>
+        <v>406</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>822</v>
+        <v>391</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>825</v>
+        <v>407</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
@@ -6747,23 +6813,23 @@
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
       <c r="L145" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>463</v>
+        <v>408</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>826</v>
+        <v>409</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>822</v>
+        <v>390</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>827</v>
+        <v>410</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
@@ -6773,79 +6839,75 @@
       <c r="J146" s="2"/>
       <c r="K146" s="2"/>
       <c r="L146" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>464</v>
+        <v>411</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>828</v>
+        <v>412</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>829</v>
+        <v>413</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
       <c r="H147" s="2"/>
-      <c r="I147" s="2" t="s">
-        <v>465</v>
-      </c>
+      <c r="I147" s="2"/>
       <c r="J147" s="2"/>
       <c r="K147" s="2"/>
       <c r="L147" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>466</v>
+        <v>414</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>830</v>
+        <v>415</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>828</v>
+        <v>391</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>831</v>
+        <v>416</v>
       </c>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
-      <c r="I148" s="2" t="s">
-        <v>467</v>
-      </c>
+      <c r="I148" s="2"/>
       <c r="J148" s="2"/>
       <c r="K148" s="2"/>
       <c r="L148" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>468</v>
+        <v>417</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>832</v>
+        <v>418</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>828</v>
+        <v>400</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>833</v>
+        <v>419</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
@@ -6855,157 +6917,163 @@
       <c r="J149" s="2"/>
       <c r="K149" s="2"/>
       <c r="L149" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M149" s="2"/>
       <c r="N149" s="2"/>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>469</v>
+        <v>420</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>834</v>
+        <v>421</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>835</v>
+        <v>403</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>836</v>
+        <v>422</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
       <c r="H150" s="2"/>
-      <c r="I150" s="2"/>
+      <c r="I150" s="2" t="s">
+        <v>423</v>
+      </c>
       <c r="J150" s="2"/>
       <c r="K150" s="2"/>
       <c r="L150" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M150" s="2"/>
       <c r="N150" s="2"/>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>470</v>
+        <v>424</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>837</v>
+        <v>425</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>500</v>
+        <v>426</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>838</v>
+        <v>427</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
       <c r="H151" s="2"/>
       <c r="I151" s="2" t="s">
-        <v>467</v>
+        <v>428</v>
       </c>
       <c r="J151" s="2"/>
       <c r="K151" s="2"/>
       <c r="L151" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>472</v>
+        <v>429</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>839</v>
+        <v>430</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>497</v>
+        <v>406</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>473</v>
+        <v>431</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
       <c r="H152" s="2"/>
-      <c r="I152" s="2"/>
+      <c r="I152" s="2" t="s">
+        <v>432</v>
+      </c>
       <c r="J152" s="2"/>
       <c r="K152" s="2"/>
       <c r="L152" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M152" s="2"/>
       <c r="N152" s="2"/>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>474</v>
+        <v>433</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>475</v>
+        <v>426</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>471</v>
+        <v>360</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>476</v>
+        <v>705</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
       <c r="H153" s="2"/>
-      <c r="I153" s="2"/>
+      <c r="I153" s="2" t="s">
+        <v>434</v>
+      </c>
       <c r="J153" s="2"/>
       <c r="K153" s="2"/>
       <c r="L153" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M153" s="2"/>
       <c r="N153" s="2"/>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>477</v>
+        <v>435</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>478</v>
+        <v>706</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>480</v>
+        <v>707</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
       <c r="H154" s="2"/>
       <c r="I154" s="2" t="s">
-        <v>467</v>
+        <v>432</v>
       </c>
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
       <c r="L154" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>481</v>
+        <v>436</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>482</v>
+        <v>708</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>445</v>
+        <v>391</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>483</v>
+        <v>709</v>
       </c>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
@@ -7015,23 +7083,23 @@
       <c r="J155" s="2"/>
       <c r="K155" s="2"/>
       <c r="L155" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M155" s="2"/>
       <c r="N155" s="2"/>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>484</v>
+        <v>437</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>485</v>
+        <v>438</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>479</v>
+        <v>390</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>486</v>
+        <v>439</v>
       </c>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
@@ -7041,51 +7109,49 @@
       <c r="J156" s="2"/>
       <c r="K156" s="2"/>
       <c r="L156" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M156" s="2"/>
       <c r="N156" s="2"/>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>487</v>
+        <v>440</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>488</v>
+        <v>441</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>445</v>
+        <v>394</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>489</v>
+        <v>442</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
       <c r="H157" s="2"/>
-      <c r="I157" s="2" t="s">
-        <v>467</v>
-      </c>
+      <c r="I157" s="2"/>
       <c r="J157" s="2"/>
       <c r="K157" s="2"/>
       <c r="L157" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M157" s="2"/>
       <c r="N157" s="2"/>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>490</v>
+        <v>443</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>491</v>
+        <v>710</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>153</v>
+        <v>400</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>492</v>
+        <v>711</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
@@ -7095,23 +7161,23 @@
       <c r="J158" s="2"/>
       <c r="K158" s="2"/>
       <c r="L158" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M158" s="2"/>
       <c r="N158" s="2"/>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>493</v>
+        <v>444</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>494</v>
+        <v>445</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>348</v>
+        <v>403</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>495</v>
+        <v>446</v>
       </c>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
@@ -7121,23 +7187,23 @@
       <c r="J159" s="2"/>
       <c r="K159" s="2"/>
       <c r="L159" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" s="2"/>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>496</v>
+        <v>447</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>497</v>
+        <v>448</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>491</v>
+        <v>406</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>498</v>
+        <v>449</v>
       </c>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
@@ -7147,23 +7213,23 @@
       <c r="J160" s="2"/>
       <c r="K160" s="2"/>
       <c r="L160" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M160" s="2"/>
       <c r="N160" s="2"/>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>499</v>
+        <v>450</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>500</v>
+        <v>712</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>494</v>
+        <v>426</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>501</v>
+        <v>713</v>
       </c>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
@@ -7173,51 +7239,49 @@
       <c r="J161" s="2"/>
       <c r="K161" s="2"/>
       <c r="L161" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M161" s="2"/>
       <c r="N161" s="2"/>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>502</v>
+        <v>451</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>503</v>
+        <v>714</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>491</v>
+        <v>363</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>504</v>
+        <v>715</v>
       </c>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
       <c r="H162" s="2"/>
-      <c r="I162" s="2" t="s">
-        <v>505</v>
-      </c>
+      <c r="I162" s="2"/>
       <c r="J162" s="2"/>
       <c r="K162" s="2"/>
       <c r="L162" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M162" s="2"/>
       <c r="N162" s="2"/>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>506</v>
+        <v>452</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>219</v>
+        <v>716</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>60</v>
+        <v>714</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>507</v>
+        <v>717</v>
       </c>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
@@ -7227,23 +7291,23 @@
       <c r="J163" s="2"/>
       <c r="K163" s="2"/>
       <c r="L163" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M163" s="2"/>
       <c r="N163" s="2"/>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>508</v>
+        <v>453</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>509</v>
+        <v>718</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>167</v>
+        <v>714</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>510</v>
+        <v>719</v>
       </c>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
@@ -7253,77 +7317,79 @@
       <c r="J164" s="2"/>
       <c r="K164" s="2"/>
       <c r="L164" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M164" s="2"/>
       <c r="N164" s="2"/>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>511</v>
+        <v>454</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>512</v>
+        <v>720</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>333</v>
+        <v>391</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>513</v>
+        <v>721</v>
       </c>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
       <c r="H165" s="2"/>
       <c r="I165" s="2" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="J165" s="2"/>
       <c r="K165" s="2"/>
       <c r="L165" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M165" s="2"/>
       <c r="N165" s="2"/>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>514</v>
+        <v>456</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>31</v>
+        <v>722</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>60</v>
+        <v>720</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>515</v>
+        <v>723</v>
       </c>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
       <c r="G166" s="2"/>
       <c r="H166" s="2"/>
-      <c r="I166" s="2"/>
+      <c r="I166" s="2" t="s">
+        <v>457</v>
+      </c>
       <c r="J166" s="2"/>
       <c r="K166" s="2"/>
       <c r="L166" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" s="2"/>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>516</v>
+        <v>458</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>517</v>
+        <v>724</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>110</v>
+        <v>720</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>518</v>
+        <v>725</v>
       </c>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
@@ -7333,77 +7399,77 @@
       <c r="J167" s="2"/>
       <c r="K167" s="2"/>
       <c r="L167" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M167" s="2"/>
       <c r="N167" s="2"/>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>519</v>
+        <v>459</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>520</v>
+        <v>726</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>333</v>
+        <v>727</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>521</v>
+        <v>728</v>
       </c>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
       <c r="G168" s="2"/>
       <c r="H168" s="2"/>
-      <c r="I168" s="2" t="s">
-        <v>467</v>
-      </c>
+      <c r="I168" s="2"/>
       <c r="J168" s="2"/>
       <c r="K168" s="2"/>
       <c r="L168" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M168" s="2"/>
       <c r="N168" s="2"/>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>522</v>
+        <v>460</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>523</v>
+        <v>729</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>146</v>
+        <v>477</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>524</v>
+        <v>730</v>
       </c>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
       <c r="H169" s="2"/>
-      <c r="I169" s="2"/>
+      <c r="I169" s="2" t="s">
+        <v>457</v>
+      </c>
       <c r="J169" s="2"/>
       <c r="K169" s="2"/>
       <c r="L169" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M169" s="2"/>
       <c r="N169" s="2"/>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>525</v>
+        <v>461</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>333</v>
+        <v>731</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>60</v>
+        <v>474</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>526</v>
+        <v>732</v>
       </c>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
@@ -7413,23 +7479,23 @@
       <c r="J170" s="2"/>
       <c r="K170" s="2"/>
       <c r="L170" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" s="2"/>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>527</v>
+        <v>462</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>528</v>
+        <v>776</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>529</v>
+        <v>477</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>530</v>
+        <v>777</v>
       </c>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
@@ -7439,133 +7505,131 @@
       <c r="J171" s="2"/>
       <c r="K171" s="2"/>
       <c r="L171" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M171" s="2"/>
       <c r="N171" s="2"/>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>531</v>
+        <v>463</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>532</v>
+        <v>733</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>153</v>
+        <v>480</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>533</v>
+        <v>736</v>
       </c>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
       <c r="H172" s="2"/>
       <c r="I172" s="2" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="J172" s="2"/>
       <c r="K172" s="2"/>
       <c r="L172" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M172" s="2"/>
       <c r="N172" s="2"/>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>534</v>
+        <v>464</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>535</v>
+        <v>778</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>24</v>
+        <v>706</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>536</v>
+        <v>779</v>
       </c>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
       <c r="H173" s="2"/>
-      <c r="I173" s="2" t="s">
-        <v>537</v>
-      </c>
+      <c r="I173" s="2"/>
       <c r="J173" s="2"/>
       <c r="K173" s="2"/>
       <c r="L173" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M173" s="2"/>
       <c r="N173" s="2"/>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>538</v>
+        <v>465</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>529</v>
+        <v>734</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>337</v>
+        <v>480</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>539</v>
+        <v>735</v>
       </c>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
       <c r="H174" s="2"/>
-      <c r="I174" s="2" t="s">
-        <v>467</v>
-      </c>
+      <c r="I174" s="2"/>
       <c r="J174" s="2"/>
       <c r="K174" s="2"/>
       <c r="L174" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M174" s="2"/>
       <c r="N174" s="2"/>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>540</v>
+        <v>466</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>541</v>
+        <v>780</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>529</v>
+        <v>706</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>542</v>
+        <v>781</v>
       </c>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
       <c r="H175" s="2"/>
-      <c r="I175" s="2"/>
+      <c r="I175" s="2" t="s">
+        <v>457</v>
+      </c>
       <c r="J175" s="2"/>
       <c r="K175" s="2"/>
       <c r="L175" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M175" s="2"/>
       <c r="N175" s="2"/>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>543</v>
+        <v>467</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>544</v>
+        <v>468</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>529</v>
+        <v>148</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>545</v>
+        <v>469</v>
       </c>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
@@ -7575,51 +7639,49 @@
       <c r="J176" s="2"/>
       <c r="K176" s="2"/>
       <c r="L176" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M176" s="2"/>
       <c r="N176" s="2"/>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>546</v>
+        <v>470</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>547</v>
+        <v>471</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>548</v>
+        <v>339</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>549</v>
+        <v>472</v>
       </c>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
       <c r="G177" s="2"/>
       <c r="H177" s="2"/>
-      <c r="I177" s="2" t="s">
-        <v>467</v>
-      </c>
+      <c r="I177" s="2"/>
       <c r="J177" s="2"/>
       <c r="K177" s="2"/>
       <c r="L177" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M177" s="2"/>
       <c r="N177" s="2"/>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>550</v>
+        <v>473</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>551</v>
+        <v>474</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>547</v>
+        <v>468</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>552</v>
+        <v>475</v>
       </c>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
@@ -7629,23 +7691,23 @@
       <c r="J178" s="2"/>
       <c r="K178" s="2"/>
       <c r="L178" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M178" s="2"/>
       <c r="N178" s="2"/>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>553</v>
+        <v>476</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>554</v>
+        <v>477</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>547</v>
+        <v>471</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>555</v>
+        <v>478</v>
       </c>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
@@ -7655,51 +7717,51 @@
       <c r="J179" s="2"/>
       <c r="K179" s="2"/>
       <c r="L179" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M179" s="2"/>
       <c r="N179" s="2"/>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>556</v>
+        <v>479</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>557</v>
+        <v>480</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>551</v>
+        <v>468</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>558</v>
+        <v>481</v>
       </c>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
       <c r="H180" s="2"/>
       <c r="I180" s="2" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="J180" s="2"/>
       <c r="K180" s="2"/>
       <c r="L180" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M180" s="2"/>
       <c r="N180" s="2"/>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>559</v>
+        <v>483</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>560</v>
+        <v>212</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>561</v>
+        <v>56</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>562</v>
+        <v>484</v>
       </c>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
@@ -7709,23 +7771,23 @@
       <c r="J181" s="2"/>
       <c r="K181" s="2"/>
       <c r="L181" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M181" s="2"/>
       <c r="N181" s="2"/>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>563</v>
+        <v>485</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>561</v>
+        <v>486</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>564</v>
+        <v>162</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>565</v>
+        <v>487</v>
       </c>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
@@ -7735,79 +7797,77 @@
       <c r="J182" s="2"/>
       <c r="K182" s="2"/>
       <c r="L182" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M182" s="2"/>
       <c r="N182" s="2"/>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>566</v>
+        <v>488</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>567</v>
+        <v>489</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>547</v>
+        <v>324</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>568</v>
+        <v>490</v>
       </c>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
       <c r="G183" s="2"/>
       <c r="H183" s="2"/>
       <c r="I183" s="2" t="s">
-        <v>569</v>
+        <v>457</v>
       </c>
       <c r="J183" s="2"/>
       <c r="K183" s="2"/>
       <c r="L183" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M183" s="2"/>
       <c r="N183" s="2"/>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>570</v>
+        <v>491</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>571</v>
+        <v>28</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>551</v>
+        <v>56</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>572</v>
+        <v>492</v>
       </c>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
       <c r="H184" s="2"/>
-      <c r="I184" s="2" t="s">
-        <v>467</v>
-      </c>
+      <c r="I184" s="2"/>
       <c r="J184" s="2"/>
       <c r="K184" s="2"/>
       <c r="L184" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M184" s="2"/>
       <c r="N184" s="2"/>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>574</v>
+        <v>494</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>561</v>
+        <v>105</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>575</v>
+        <v>495</v>
       </c>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
@@ -7817,79 +7877,77 @@
       <c r="J185" s="2"/>
       <c r="K185" s="2"/>
       <c r="L185" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M185" s="2"/>
       <c r="N185" s="2"/>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>576</v>
+        <v>496</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>564</v>
+        <v>497</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>577</v>
+        <v>498</v>
       </c>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
       <c r="G186" s="2"/>
       <c r="H186" s="2"/>
       <c r="I186" s="2" t="s">
-        <v>578</v>
+        <v>457</v>
       </c>
       <c r="J186" s="2"/>
       <c r="K186" s="2"/>
       <c r="L186" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M186" s="2"/>
       <c r="N186" s="2"/>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>579</v>
+        <v>499</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>219</v>
+        <v>141</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>581</v>
+        <v>501</v>
       </c>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
       <c r="G187" s="2"/>
       <c r="H187" s="2"/>
-      <c r="I187" s="2" t="s">
-        <v>467</v>
-      </c>
+      <c r="I187" s="2"/>
       <c r="J187" s="2"/>
       <c r="K187" s="2"/>
       <c r="L187" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M187" s="2"/>
       <c r="N187" s="2"/>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>582</v>
+        <v>502</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>583</v>
+        <v>324</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>584</v>
+        <v>56</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>585</v>
+        <v>503</v>
       </c>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
@@ -7899,133 +7957,133 @@
       <c r="J188" s="2"/>
       <c r="K188" s="2"/>
       <c r="L188" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M188" s="2"/>
       <c r="N188" s="2"/>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
-        <v>586</v>
+        <v>504</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>587</v>
+        <v>505</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>584</v>
+        <v>506</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>588</v>
+        <v>507</v>
       </c>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
       <c r="G189" s="2"/>
       <c r="H189" s="2"/>
-      <c r="I189" s="2" t="s">
-        <v>465</v>
-      </c>
+      <c r="I189" s="2"/>
       <c r="J189" s="2"/>
       <c r="K189" s="2"/>
       <c r="L189" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M189" s="2"/>
       <c r="N189" s="2"/>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>589</v>
+        <v>508</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>590</v>
+        <v>509</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>532</v>
+        <v>148</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>591</v>
+        <v>510</v>
       </c>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
       <c r="G190" s="2"/>
       <c r="H190" s="2"/>
       <c r="I190" s="2" t="s">
-        <v>592</v>
+        <v>457</v>
       </c>
       <c r="J190" s="2"/>
       <c r="K190" s="2"/>
       <c r="L190" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M190" s="2"/>
       <c r="N190" s="2"/>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>593</v>
+        <v>511</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>594</v>
+        <v>512</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>584</v>
+        <v>861</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>595</v>
+        <v>870</v>
       </c>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
       <c r="G191" s="2"/>
       <c r="H191" s="2"/>
       <c r="I191" s="2" t="s">
-        <v>467</v>
+        <v>513</v>
       </c>
       <c r="J191" s="2"/>
       <c r="K191" s="2"/>
       <c r="L191" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M191" s="2"/>
       <c r="N191" s="2"/>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>596</v>
+        <v>514</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>597</v>
+        <v>506</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>584</v>
+        <v>328</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>598</v>
+        <v>515</v>
       </c>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
       <c r="G192" s="2"/>
       <c r="H192" s="2"/>
-      <c r="I192" s="2"/>
+      <c r="I192" s="2" t="s">
+        <v>457</v>
+      </c>
       <c r="J192" s="2"/>
       <c r="K192" s="2"/>
       <c r="L192" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M192" s="2"/>
       <c r="N192" s="2"/>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>599</v>
+        <v>516</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>600</v>
+        <v>517</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>584</v>
+        <v>506</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>601</v>
+        <v>518</v>
       </c>
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
@@ -8035,23 +8093,23 @@
       <c r="J193" s="2"/>
       <c r="K193" s="2"/>
       <c r="L193" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M193" s="2"/>
       <c r="N193" s="2"/>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>602</v>
+        <v>519</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>603</v>
+        <v>520</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>583</v>
+        <v>506</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>604</v>
+        <v>521</v>
       </c>
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
@@ -8061,131 +8119,131 @@
       <c r="J194" s="2"/>
       <c r="K194" s="2"/>
       <c r="L194" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M194" s="2"/>
       <c r="N194" s="2"/>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>605</v>
+        <v>522</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>606</v>
+        <v>737</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>587</v>
+        <v>509</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>607</v>
+        <v>738</v>
       </c>
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
       <c r="G195" s="2"/>
       <c r="H195" s="2"/>
-      <c r="I195" s="2"/>
+      <c r="I195" s="2" t="s">
+        <v>457</v>
+      </c>
       <c r="J195" s="2"/>
       <c r="K195" s="2"/>
       <c r="L195" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M195" s="2"/>
       <c r="N195" s="2"/>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>608</v>
+        <v>523</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>609</v>
+        <v>524</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>590</v>
+        <v>737</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>610</v>
+        <v>739</v>
       </c>
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
       <c r="G196" s="2"/>
       <c r="H196" s="2"/>
-      <c r="I196" s="2" t="s">
-        <v>467</v>
-      </c>
+      <c r="I196" s="2"/>
       <c r="J196" s="2"/>
       <c r="K196" s="2"/>
       <c r="L196" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M196" s="2"/>
       <c r="N196" s="2"/>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>611</v>
+        <v>525</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>612</v>
+        <v>740</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>594</v>
+        <v>737</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>613</v>
+        <v>741</v>
       </c>
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
       <c r="G197" s="2"/>
       <c r="H197" s="2"/>
-      <c r="I197" s="2" t="s">
-        <v>467</v>
-      </c>
+      <c r="I197" s="2"/>
       <c r="J197" s="2"/>
       <c r="K197" s="2"/>
       <c r="L197" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M197" s="2"/>
       <c r="N197" s="2"/>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>614</v>
+        <v>526</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>615</v>
+        <v>527</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>597</v>
+        <v>524</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>616</v>
+        <v>742</v>
       </c>
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
       <c r="G198" s="2"/>
       <c r="H198" s="2"/>
-      <c r="I198" s="2"/>
+      <c r="I198" s="2" t="s">
+        <v>457</v>
+      </c>
       <c r="J198" s="2"/>
       <c r="K198" s="2"/>
       <c r="L198" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M198" s="2"/>
       <c r="N198" s="2"/>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>617</v>
+        <v>528</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>618</v>
+        <v>782</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>600</v>
+        <v>783</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>619</v>
+        <v>784</v>
       </c>
       <c r="E199" s="2"/>
       <c r="F199" s="2"/>
@@ -8195,105 +8253,105 @@
       <c r="J199" s="2"/>
       <c r="K199" s="2"/>
       <c r="L199" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M199" s="2"/>
       <c r="N199" s="2"/>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>620</v>
+        <v>529</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>621</v>
+        <v>783</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>622</v>
+        <v>785</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>623</v>
+        <v>786</v>
       </c>
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
       <c r="G200" s="2"/>
       <c r="H200" s="2"/>
-      <c r="I200" s="2" t="s">
-        <v>467</v>
-      </c>
+      <c r="I200" s="2"/>
       <c r="J200" s="2"/>
       <c r="K200" s="2"/>
       <c r="L200" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M200" s="2"/>
       <c r="N200" s="2"/>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>624</v>
+        <v>530</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>622</v>
+        <v>743</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>564</v>
+        <v>737</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>625</v>
+        <v>744</v>
       </c>
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
       <c r="G201" s="2"/>
       <c r="H201" s="2"/>
-      <c r="I201" s="2"/>
+      <c r="I201" s="2" t="s">
+        <v>531</v>
+      </c>
       <c r="J201" s="2"/>
       <c r="K201" s="2"/>
       <c r="L201" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M201" s="2"/>
       <c r="N201" s="2"/>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>626</v>
+        <v>532</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>627</v>
+        <v>533</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>583</v>
+        <v>524</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>628</v>
+        <v>745</v>
       </c>
       <c r="E202" s="2"/>
       <c r="F202" s="2"/>
       <c r="G202" s="2"/>
       <c r="H202" s="2"/>
       <c r="I202" s="2" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="J202" s="2"/>
       <c r="K202" s="2"/>
       <c r="L202" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M202" s="2"/>
       <c r="N202" s="2"/>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>629</v>
+        <v>534</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>630</v>
+        <v>787</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>587</v>
+        <v>783</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>631</v>
+        <v>788</v>
       </c>
       <c r="E203" s="2"/>
       <c r="F203" s="2"/>
@@ -8303,183 +8361,189 @@
       <c r="J203" s="2"/>
       <c r="K203" s="2"/>
       <c r="L203" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M203" s="2"/>
       <c r="N203" s="2"/>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>632</v>
+        <v>535</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>633</v>
+        <v>785</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>590</v>
+        <v>339</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>634</v>
+        <v>536</v>
       </c>
       <c r="E204" s="2"/>
       <c r="F204" s="2"/>
       <c r="G204" s="2"/>
       <c r="H204" s="2"/>
-      <c r="I204" s="2"/>
+      <c r="I204" s="2" t="s">
+        <v>537</v>
+      </c>
       <c r="J204" s="2"/>
       <c r="K204" s="2"/>
       <c r="L204" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M204" s="2"/>
       <c r="N204" s="2"/>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>635</v>
+        <v>538</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>636</v>
+        <v>539</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>594</v>
+        <v>212</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>637</v>
+        <v>540</v>
       </c>
       <c r="E205" s="2"/>
       <c r="F205" s="2"/>
       <c r="G205" s="2"/>
       <c r="H205" s="2"/>
-      <c r="I205" s="2"/>
+      <c r="I205" s="2" t="s">
+        <v>457</v>
+      </c>
       <c r="J205" s="2"/>
       <c r="K205" s="2"/>
       <c r="L205" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M205" s="2"/>
       <c r="N205" s="2"/>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>638</v>
+        <v>541</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>639</v>
+        <v>746</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>597</v>
+        <v>546</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>640</v>
+        <v>747</v>
       </c>
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
       <c r="G206" s="2"/>
       <c r="H206" s="2"/>
-      <c r="I206" s="2" t="s">
-        <v>467</v>
-      </c>
+      <c r="I206" s="2"/>
       <c r="J206" s="2"/>
       <c r="K206" s="2"/>
       <c r="L206" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M206" s="2"/>
       <c r="N206" s="2"/>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>641</v>
+        <v>543</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>642</v>
+        <v>544</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>600</v>
+        <v>546</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>643</v>
+        <v>748</v>
       </c>
       <c r="E207" s="2"/>
       <c r="F207" s="2"/>
       <c r="G207" s="2"/>
       <c r="H207" s="2"/>
-      <c r="I207" s="2"/>
+      <c r="I207" s="2" t="s">
+        <v>455</v>
+      </c>
       <c r="J207" s="2"/>
       <c r="K207" s="2"/>
       <c r="L207" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M207" s="2"/>
       <c r="N207" s="2"/>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>644</v>
+        <v>545</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>645</v>
+        <v>546</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>622</v>
+        <v>509</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>646</v>
+        <v>547</v>
       </c>
       <c r="E208" s="2"/>
       <c r="F208" s="2"/>
       <c r="G208" s="2"/>
       <c r="H208" s="2"/>
-      <c r="I208" s="2"/>
+      <c r="I208" s="2" t="s">
+        <v>548</v>
+      </c>
       <c r="J208" s="2"/>
       <c r="K208" s="2"/>
       <c r="L208" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M208" s="2"/>
       <c r="N208" s="2"/>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>647</v>
+        <v>549</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>648</v>
+        <v>820</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>649</v>
+        <v>546</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="E209" s="2"/>
       <c r="F209" s="2"/>
       <c r="G209" s="2"/>
       <c r="H209" s="2"/>
       <c r="I209" s="2" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="J209" s="2"/>
       <c r="K209" s="2"/>
       <c r="L209" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M209" s="2"/>
       <c r="N209" s="2"/>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>651</v>
+        <v>551</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>652</v>
+        <v>552</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>653</v>
+        <v>749</v>
       </c>
       <c r="E210" s="2"/>
       <c r="F210" s="2"/>
@@ -8489,79 +8553,75 @@
       <c r="J210" s="2"/>
       <c r="K210" s="2"/>
       <c r="L210" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M210" s="2"/>
       <c r="N210" s="2"/>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>654</v>
+        <v>553</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>655</v>
+        <v>554</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>652</v>
+        <v>546</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>656</v>
+        <v>750</v>
       </c>
       <c r="E211" s="2"/>
       <c r="F211" s="2"/>
       <c r="G211" s="2"/>
       <c r="H211" s="2"/>
-      <c r="I211" s="2" t="s">
-        <v>537</v>
-      </c>
+      <c r="I211" s="2"/>
       <c r="J211" s="2"/>
       <c r="K211" s="2"/>
       <c r="L211" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M211" s="2"/>
       <c r="N211" s="2"/>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>657</v>
+        <v>555</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>658</v>
+        <v>556</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>659</v>
+        <v>542</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>660</v>
+        <v>557</v>
       </c>
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
       <c r="G212" s="2"/>
       <c r="H212" s="2"/>
-      <c r="I212" s="2" t="s">
-        <v>467</v>
-      </c>
+      <c r="I212" s="2"/>
       <c r="J212" s="2"/>
       <c r="K212" s="2"/>
       <c r="L212" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M212" s="2"/>
       <c r="N212" s="2"/>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>661</v>
+        <v>558</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>659</v>
+        <v>559</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>662</v>
+        <v>560</v>
       </c>
       <c r="E213" s="2"/>
       <c r="F213" s="2"/>
@@ -8571,75 +8631,79 @@
       <c r="J213" s="2"/>
       <c r="K213" s="2"/>
       <c r="L213" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M213" s="2"/>
       <c r="N213" s="2"/>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>663</v>
+        <v>561</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>664</v>
+        <v>562</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>652</v>
+        <v>546</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>665</v>
+        <v>563</v>
       </c>
       <c r="E214" s="2"/>
       <c r="F214" s="2"/>
       <c r="G214" s="2"/>
       <c r="H214" s="2"/>
-      <c r="I214" s="2"/>
+      <c r="I214" s="2" t="s">
+        <v>457</v>
+      </c>
       <c r="J214" s="2"/>
       <c r="K214" s="2"/>
       <c r="L214" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M214" s="2"/>
       <c r="N214" s="2"/>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>666</v>
+        <v>564</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>667</v>
+        <v>821</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>659</v>
+        <v>820</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>668</v>
+        <v>822</v>
       </c>
       <c r="E215" s="2"/>
       <c r="F215" s="2"/>
       <c r="G215" s="2"/>
       <c r="H215" s="2"/>
-      <c r="I215" s="2"/>
+      <c r="I215" s="2" t="s">
+        <v>457</v>
+      </c>
       <c r="J215" s="2"/>
       <c r="K215" s="2"/>
       <c r="L215" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M215" s="2"/>
       <c r="N215" s="2"/>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
-        <v>669</v>
+        <v>565</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>670</v>
+        <v>566</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>584</v>
+        <v>552</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>671</v>
+        <v>567</v>
       </c>
       <c r="E216" s="2"/>
       <c r="F216" s="2"/>
@@ -8649,23 +8713,23 @@
       <c r="J216" s="2"/>
       <c r="K216" s="2"/>
       <c r="L216" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M216" s="2"/>
       <c r="N216" s="2"/>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
-        <v>672</v>
+        <v>568</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>673</v>
+        <v>569</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>670</v>
+        <v>554</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>674</v>
+        <v>570</v>
       </c>
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
@@ -8675,49 +8739,51 @@
       <c r="J217" s="2"/>
       <c r="K217" s="2"/>
       <c r="L217" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M217" s="2"/>
       <c r="N217" s="2"/>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
-        <v>675</v>
+        <v>571</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>649</v>
+        <v>789</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>622</v>
+        <v>790</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>676</v>
+        <v>791</v>
       </c>
       <c r="E218" s="2"/>
       <c r="F218" s="2"/>
       <c r="G218" s="2"/>
       <c r="H218" s="2"/>
-      <c r="I218" s="2"/>
+      <c r="I218" s="2" t="s">
+        <v>457</v>
+      </c>
       <c r="J218" s="2"/>
       <c r="K218" s="2"/>
       <c r="L218" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M218" s="2"/>
       <c r="N218" s="2"/>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>677</v>
+        <v>572</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>678</v>
+        <v>790</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>670</v>
+        <v>785</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>679</v>
+        <v>792</v>
       </c>
       <c r="E219" s="2"/>
       <c r="F219" s="2"/>
@@ -8727,49 +8793,51 @@
       <c r="J219" s="2"/>
       <c r="K219" s="2"/>
       <c r="L219" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M219" s="2"/>
       <c r="N219" s="2"/>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
-        <v>680</v>
+        <v>573</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>681</v>
+        <v>574</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>649</v>
+        <v>542</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>682</v>
+        <v>575</v>
       </c>
       <c r="E220" s="2"/>
       <c r="F220" s="2"/>
       <c r="G220" s="2"/>
       <c r="H220" s="2"/>
-      <c r="I220" s="2"/>
+      <c r="I220" s="2" t="s">
+        <v>457</v>
+      </c>
       <c r="J220" s="2"/>
       <c r="K220" s="2"/>
       <c r="L220" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M220" s="2"/>
       <c r="N220" s="2"/>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
-        <v>683</v>
+        <v>576</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>684</v>
+        <v>577</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>212</v>
+        <v>544</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>685</v>
+        <v>578</v>
       </c>
       <c r="E221" s="2"/>
       <c r="F221" s="2"/>
@@ -8779,51 +8847,49 @@
       <c r="J221" s="2"/>
       <c r="K221" s="2"/>
       <c r="L221" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M221" s="2"/>
       <c r="N221" s="2"/>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
-        <v>686</v>
+        <v>579</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>687</v>
+        <v>580</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>337</v>
+        <v>546</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>688</v>
+        <v>581</v>
       </c>
       <c r="E222" s="2"/>
       <c r="F222" s="2"/>
       <c r="G222" s="2"/>
       <c r="H222" s="2"/>
-      <c r="I222" s="2" t="s">
-        <v>467</v>
-      </c>
+      <c r="I222" s="2"/>
       <c r="J222" s="2"/>
       <c r="K222" s="2"/>
       <c r="L222" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M222" s="2"/>
       <c r="N222" s="2"/>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>689</v>
+        <v>582</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>690</v>
+        <v>823</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>337</v>
+        <v>820</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>691</v>
+        <v>824</v>
       </c>
       <c r="E223" s="2"/>
       <c r="F223" s="2"/>
@@ -8833,77 +8899,77 @@
       <c r="J223" s="2"/>
       <c r="K223" s="2"/>
       <c r="L223" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M223" s="2"/>
       <c r="N223" s="2"/>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
-        <v>692</v>
+        <v>583</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>693</v>
+        <v>584</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>110</v>
+        <v>552</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>694</v>
+        <v>585</v>
       </c>
       <c r="E224" s="2"/>
       <c r="F224" s="2"/>
       <c r="G224" s="2"/>
       <c r="H224" s="2"/>
-      <c r="I224" s="2"/>
+      <c r="I224" s="2" t="s">
+        <v>457</v>
+      </c>
       <c r="J224" s="2"/>
       <c r="K224" s="2"/>
       <c r="L224" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M224" s="2"/>
       <c r="N224" s="2"/>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
-        <v>695</v>
+        <v>586</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>696</v>
+        <v>587</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>24</v>
+        <v>554</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>697</v>
+        <v>588</v>
       </c>
       <c r="E225" s="2"/>
       <c r="F225" s="2"/>
       <c r="G225" s="2"/>
       <c r="H225" s="2"/>
-      <c r="I225" s="2" t="s">
-        <v>467</v>
-      </c>
+      <c r="I225" s="2"/>
       <c r="J225" s="2"/>
       <c r="K225" s="2"/>
       <c r="L225" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M225" s="2"/>
       <c r="N225" s="2"/>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>698</v>
+        <v>589</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>699</v>
+        <v>793</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>110</v>
+        <v>790</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>700</v>
+        <v>794</v>
       </c>
       <c r="E226" s="2"/>
       <c r="F226" s="2"/>
@@ -8913,49 +8979,51 @@
       <c r="J226" s="2"/>
       <c r="K226" s="2"/>
       <c r="L226" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M226" s="2"/>
       <c r="N226" s="2"/>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>701</v>
+        <v>590</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>702</v>
+        <v>795</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>212</v>
+        <v>796</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>703</v>
+        <v>797</v>
       </c>
       <c r="E227" s="2"/>
       <c r="F227" s="2"/>
       <c r="G227" s="2"/>
       <c r="H227" s="2"/>
-      <c r="I227" s="2"/>
+      <c r="I227" s="2" t="s">
+        <v>457</v>
+      </c>
       <c r="J227" s="2"/>
       <c r="K227" s="2"/>
       <c r="L227" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M227" s="2"/>
       <c r="N227" s="2"/>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
-        <v>704</v>
+        <v>591</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>705</v>
+        <v>751</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>333</v>
+        <v>737</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>706</v>
+        <v>752</v>
       </c>
       <c r="E228" s="2"/>
       <c r="F228" s="2"/>
@@ -8965,96 +9033,105 @@
       <c r="J228" s="2"/>
       <c r="K228" s="2"/>
       <c r="L228" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M228" s="2"/>
       <c r="N228" s="2"/>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
-        <v>707</v>
-      </c>
-      <c r="B229" t="s">
-        <v>708</v>
-      </c>
-      <c r="C229" t="s">
-        <v>110</v>
-      </c>
-      <c r="D229" t="s">
-        <v>709</v>
-      </c>
+      <c r="A229" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="E229" s="2"/>
+      <c r="F229" s="2"/>
+      <c r="G229" s="2"/>
+      <c r="H229" s="2"/>
+      <c r="I229" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="J229" s="2"/>
+      <c r="K229" s="2"/>
       <c r="L229" s="2" t="s">
-        <v>812</v>
-      </c>
+        <v>704</v>
+      </c>
+      <c r="M229" s="2"/>
+      <c r="N229" s="2"/>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>710</v>
+        <v>593</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>711</v>
+        <v>798</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>153</v>
+        <v>799</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>712</v>
+        <v>800</v>
       </c>
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
       <c r="G230" s="2"/>
       <c r="H230" s="2"/>
       <c r="I230" s="2" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="J230" s="2"/>
       <c r="K230" s="2"/>
       <c r="L230" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M230" s="2"/>
       <c r="N230" s="2"/>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
-        <v>713</v>
+        <v>594</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>714</v>
+        <v>799</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>711</v>
+        <v>783</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>715</v>
+        <v>801</v>
       </c>
       <c r="E231" s="2"/>
       <c r="F231" s="2"/>
       <c r="G231" s="2"/>
       <c r="H231" s="2"/>
-      <c r="I231" s="2" t="s">
-        <v>467</v>
-      </c>
+      <c r="I231" s="2"/>
       <c r="J231" s="2"/>
       <c r="K231" s="2"/>
       <c r="L231" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M231" s="2"/>
       <c r="N231" s="2"/>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
-        <v>716</v>
+        <v>595</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>717</v>
+        <v>755</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>714</v>
+        <v>751</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>718</v>
+        <v>756</v>
       </c>
       <c r="E232" s="2"/>
       <c r="F232" s="2"/>
@@ -9064,23 +9141,23 @@
       <c r="J232" s="2"/>
       <c r="K232" s="2"/>
       <c r="L232" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M232" s="2"/>
       <c r="N232" s="2"/>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
-        <v>719</v>
+        <v>596</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>720</v>
+        <v>802</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>721</v>
+        <v>799</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>722</v>
+        <v>803</v>
       </c>
       <c r="E233" s="2"/>
       <c r="F233" s="2"/>
@@ -9090,51 +9167,49 @@
       <c r="J233" s="2"/>
       <c r="K233" s="2"/>
       <c r="L233" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M233" s="2"/>
       <c r="N233" s="2"/>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>723</v>
+        <v>597</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>721</v>
+        <v>757</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>724</v>
+        <v>546</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>725</v>
+        <v>758</v>
       </c>
       <c r="E234" s="2"/>
       <c r="F234" s="2"/>
       <c r="G234" s="2"/>
       <c r="H234" s="2"/>
-      <c r="I234" s="2" t="s">
-        <v>467</v>
-      </c>
+      <c r="I234" s="2"/>
       <c r="J234" s="2"/>
       <c r="K234" s="2"/>
       <c r="L234" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M234" s="2"/>
       <c r="N234" s="2"/>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>726</v>
+        <v>598</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>727</v>
+        <v>759</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>714</v>
+        <v>757</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>728</v>
+        <v>760</v>
       </c>
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
@@ -9144,79 +9219,75 @@
       <c r="J235" s="2"/>
       <c r="K235" s="2"/>
       <c r="L235" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M235" s="2"/>
       <c r="N235" s="2"/>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
-        <v>729</v>
+        <v>599</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>730</v>
+        <v>796</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>721</v>
+        <v>790</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>731</v>
+        <v>804</v>
       </c>
       <c r="E236" s="2"/>
       <c r="F236" s="2"/>
       <c r="G236" s="2"/>
       <c r="H236" s="2"/>
-      <c r="I236" s="2" t="s">
-        <v>537</v>
-      </c>
+      <c r="I236" s="2"/>
       <c r="J236" s="2"/>
       <c r="K236" s="2"/>
       <c r="L236" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M236" s="2"/>
       <c r="N236" s="2"/>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
-        <v>732</v>
+        <v>600</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>724</v>
+        <v>761</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>348</v>
+        <v>757</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>733</v>
+        <v>762</v>
       </c>
       <c r="E237" s="2"/>
       <c r="F237" s="2"/>
       <c r="G237" s="2"/>
       <c r="H237" s="2"/>
-      <c r="I237" s="2" t="s">
-        <v>467</v>
-      </c>
+      <c r="I237" s="2"/>
       <c r="J237" s="2"/>
       <c r="K237" s="2"/>
       <c r="L237" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M237" s="2"/>
       <c r="N237" s="2"/>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>734</v>
+        <v>601</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>735</v>
+        <v>805</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>711</v>
+        <v>796</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>736</v>
+        <v>806</v>
       </c>
       <c r="E238" s="2"/>
       <c r="F238" s="2"/>
@@ -9226,23 +9297,23 @@
       <c r="J238" s="2"/>
       <c r="K238" s="2"/>
       <c r="L238" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M238" s="2"/>
       <c r="N238" s="2"/>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
-        <v>737</v>
+        <v>602</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>738</v>
+        <v>603</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>735</v>
+        <v>205</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>739</v>
+        <v>604</v>
       </c>
       <c r="E239" s="2"/>
       <c r="F239" s="2"/>
@@ -9252,51 +9323,51 @@
       <c r="J239" s="2"/>
       <c r="K239" s="2"/>
       <c r="L239" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M239" s="2"/>
       <c r="N239" s="2"/>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
-        <v>740</v>
+        <v>605</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>741</v>
+        <v>606</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>742</v>
+        <v>328</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>743</v>
+        <v>607</v>
       </c>
       <c r="E240" s="2"/>
       <c r="F240" s="2"/>
       <c r="G240" s="2"/>
       <c r="H240" s="2"/>
       <c r="I240" s="2" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="J240" s="2"/>
       <c r="K240" s="2"/>
       <c r="L240" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M240" s="2"/>
       <c r="N240" s="2"/>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
-        <v>744</v>
+        <v>608</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>742</v>
+        <v>609</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>724</v>
+        <v>328</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>745</v>
+        <v>610</v>
       </c>
       <c r="E241" s="2"/>
       <c r="F241" s="2"/>
@@ -9306,23 +9377,23 @@
       <c r="J241" s="2"/>
       <c r="K241" s="2"/>
       <c r="L241" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M241" s="2"/>
       <c r="N241" s="2"/>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>746</v>
+        <v>611</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>747</v>
+        <v>612</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>735</v>
+        <v>105</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>748</v>
+        <v>613</v>
       </c>
       <c r="E242" s="2"/>
       <c r="F242" s="2"/>
@@ -9332,107 +9403,103 @@
       <c r="J242" s="2"/>
       <c r="K242" s="2"/>
       <c r="L242" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M242" s="2"/>
       <c r="N242" s="2"/>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
-        <v>749</v>
+        <v>614</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>750</v>
+        <v>615</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>742</v>
+        <v>861</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>751</v>
+        <v>871</v>
       </c>
       <c r="E243" s="2"/>
       <c r="F243" s="2"/>
       <c r="G243" s="2"/>
       <c r="H243" s="2"/>
       <c r="I243" s="2" t="s">
-        <v>569</v>
+        <v>457</v>
       </c>
       <c r="J243" s="2"/>
       <c r="K243" s="2"/>
       <c r="L243" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M243" s="2"/>
       <c r="N243" s="2"/>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
-        <v>752</v>
+        <v>616</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>753</v>
+        <v>617</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>754</v>
+        <v>618</v>
       </c>
       <c r="E244" s="2"/>
       <c r="F244" s="2"/>
       <c r="G244" s="2"/>
       <c r="H244" s="2"/>
-      <c r="I244" s="2" t="s">
-        <v>755</v>
-      </c>
+      <c r="I244" s="2"/>
       <c r="J244" s="2"/>
       <c r="K244" s="2"/>
       <c r="L244" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M244" s="2"/>
       <c r="N244" s="2"/>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
-        <v>756</v>
+        <v>619</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>757</v>
+        <v>620</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>16</v>
+        <v>205</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>758</v>
+        <v>621</v>
       </c>
       <c r="E245" s="2"/>
       <c r="F245" s="2"/>
       <c r="G245" s="2"/>
       <c r="H245" s="2"/>
-      <c r="I245" s="2" t="s">
-        <v>467</v>
-      </c>
+      <c r="I245" s="2"/>
       <c r="J245" s="2"/>
       <c r="K245" s="2"/>
       <c r="L245" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M245" s="2"/>
       <c r="N245" s="2"/>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
-        <v>759</v>
+        <v>622</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>760</v>
+        <v>623</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>16</v>
+        <v>324</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>761</v>
+        <v>624</v>
       </c>
       <c r="E246" s="2"/>
       <c r="F246" s="2"/>
@@ -9442,189 +9509,176 @@
       <c r="J246" s="2"/>
       <c r="K246" s="2"/>
       <c r="L246" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M246" s="2"/>
       <c r="N246" s="2"/>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A247" s="2" t="s">
-        <v>762</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>763</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="E247" s="2"/>
-      <c r="F247" s="2"/>
-      <c r="G247" s="2"/>
-      <c r="H247" s="2"/>
-      <c r="I247" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="J247" s="2"/>
-      <c r="K247" s="2"/>
+      <c r="A247" t="s">
+        <v>625</v>
+      </c>
+      <c r="B247" t="s">
+        <v>626</v>
+      </c>
+      <c r="C247" t="s">
+        <v>105</v>
+      </c>
+      <c r="D247" t="s">
+        <v>627</v>
+      </c>
       <c r="L247" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M247" s="2"/>
-      <c r="N247" s="2"/>
+        <v>704</v>
+      </c>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
-        <v>765</v>
+        <v>628</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>337</v>
+        <v>148</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>767</v>
+        <v>629</v>
       </c>
       <c r="E248" s="2"/>
       <c r="F248" s="2"/>
       <c r="G248" s="2"/>
       <c r="H248" s="2"/>
       <c r="I248" s="2" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="J248" s="2"/>
       <c r="K248" s="2"/>
       <c r="L248" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M248" s="2"/>
       <c r="N248" s="2"/>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
-        <v>768</v>
+        <v>630</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>337</v>
+        <v>763</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="E249" s="2"/>
       <c r="F249" s="2"/>
       <c r="G249" s="2"/>
       <c r="H249" s="2"/>
-      <c r="I249" s="2"/>
+      <c r="I249" s="2" t="s">
+        <v>457</v>
+      </c>
       <c r="J249" s="2"/>
       <c r="K249" s="2"/>
       <c r="L249" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M249" s="2"/>
       <c r="N249" s="2"/>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>771</v>
+        <v>631</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>101</v>
+        <v>764</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="E250" s="2"/>
       <c r="F250" s="2"/>
       <c r="G250" s="2"/>
       <c r="H250" s="2"/>
-      <c r="I250" s="2" t="s">
-        <v>774</v>
-      </c>
+      <c r="I250" s="2"/>
       <c r="J250" s="2"/>
       <c r="K250" s="2"/>
       <c r="L250" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M250" s="2"/>
       <c r="N250" s="2"/>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>775</v>
+        <v>632</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>776</v>
+        <v>807</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>16</v>
+        <v>808</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>777</v>
+        <v>809</v>
       </c>
       <c r="E251" s="2"/>
       <c r="F251" s="2"/>
       <c r="G251" s="2"/>
       <c r="H251" s="2"/>
-      <c r="I251" s="2" t="s">
-        <v>569</v>
-      </c>
+      <c r="I251" s="2"/>
       <c r="J251" s="2"/>
       <c r="K251" s="2"/>
       <c r="L251" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M251" s="2"/>
       <c r="N251" s="2"/>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>778</v>
+        <v>633</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>779</v>
+        <v>808</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>772</v>
+        <v>810</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>780</v>
+        <v>811</v>
       </c>
       <c r="E252" s="2"/>
       <c r="F252" s="2"/>
       <c r="G252" s="2"/>
       <c r="H252" s="2"/>
       <c r="I252" s="2" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="J252" s="2"/>
       <c r="K252" s="2"/>
       <c r="L252" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M252" s="2"/>
       <c r="N252" s="2"/>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
-        <v>781</v>
+        <v>634</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>783</v>
+        <v>764</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>784</v>
+        <v>769</v>
       </c>
       <c r="E253" s="2"/>
       <c r="F253" s="2"/>
@@ -9634,79 +9688,79 @@
       <c r="J253" s="2"/>
       <c r="K253" s="2"/>
       <c r="L253" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M253" s="2"/>
       <c r="N253" s="2"/>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>785</v>
+        <v>635</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>783</v>
+        <v>812</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>101</v>
+        <v>808</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="E254" s="2"/>
       <c r="F254" s="2"/>
       <c r="G254" s="2"/>
       <c r="H254" s="2"/>
       <c r="I254" s="2" t="s">
-        <v>578</v>
+        <v>513</v>
       </c>
       <c r="J254" s="2"/>
       <c r="K254" s="2"/>
       <c r="L254" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M254" s="2"/>
       <c r="N254" s="2"/>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>787</v>
+        <v>636</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>90</v>
+        <v>810</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>60</v>
+        <v>339</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>788</v>
+        <v>637</v>
       </c>
       <c r="E255" s="2"/>
       <c r="F255" s="2"/>
       <c r="G255" s="2"/>
       <c r="H255" s="2"/>
       <c r="I255" s="2" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="J255" s="2"/>
       <c r="K255" s="2"/>
       <c r="L255" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M255" s="2"/>
       <c r="N255" s="2"/>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
-        <v>789</v>
+        <v>638</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>790</v>
+        <v>770</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>54</v>
+        <v>763</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>791</v>
+        <v>771</v>
       </c>
       <c r="E256" s="2"/>
       <c r="F256" s="2"/>
@@ -9716,23 +9770,23 @@
       <c r="J256" s="2"/>
       <c r="K256" s="2"/>
       <c r="L256" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M256" s="2"/>
       <c r="N256" s="2"/>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
-        <v>792</v>
+        <v>639</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>212</v>
+        <v>772</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>60</v>
+        <v>770</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>793</v>
+        <v>773</v>
       </c>
       <c r="E257" s="2"/>
       <c r="F257" s="2"/>
@@ -9742,79 +9796,77 @@
       <c r="J257" s="2"/>
       <c r="K257" s="2"/>
       <c r="L257" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M257" s="2"/>
       <c r="N257" s="2"/>
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
-        <v>794</v>
+        <v>640</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>795</v>
+        <v>814</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>64</v>
+        <v>815</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>796</v>
+        <v>816</v>
       </c>
       <c r="E258" s="2"/>
       <c r="F258" s="2"/>
       <c r="G258" s="2"/>
       <c r="H258" s="2"/>
       <c r="I258" s="2" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="J258" s="2"/>
       <c r="K258" s="2"/>
       <c r="L258" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M258" s="2"/>
       <c r="N258" s="2"/>
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>797</v>
+        <v>641</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>798</v>
+        <v>815</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>146</v>
+        <v>810</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>799</v>
+        <v>817</v>
       </c>
       <c r="E259" s="2"/>
       <c r="F259" s="2"/>
       <c r="G259" s="2"/>
       <c r="H259" s="2"/>
-      <c r="I259" s="2" t="s">
-        <v>467</v>
-      </c>
+      <c r="I259" s="2"/>
       <c r="J259" s="2"/>
       <c r="K259" s="2"/>
       <c r="L259" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M259" s="2"/>
       <c r="N259" s="2"/>
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
-        <v>800</v>
+        <v>642</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>801</v>
+        <v>774</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>128</v>
+        <v>770</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>802</v>
+        <v>775</v>
       </c>
       <c r="E260" s="2"/>
       <c r="F260" s="2"/>
@@ -9824,79 +9876,77 @@
       <c r="J260" s="2"/>
       <c r="K260" s="2"/>
       <c r="L260" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M260" s="2"/>
       <c r="N260" s="2"/>
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
-        <v>803</v>
+        <v>643</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>804</v>
+        <v>818</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>146</v>
+        <v>815</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>805</v>
+        <v>819</v>
       </c>
       <c r="E261" s="2"/>
       <c r="F261" s="2"/>
       <c r="G261" s="2"/>
       <c r="H261" s="2"/>
       <c r="I261" s="2" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="J261" s="2"/>
       <c r="K261" s="2"/>
       <c r="L261" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M261" s="2"/>
       <c r="N261" s="2"/>
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>806</v>
+        <v>644</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>807</v>
+        <v>645</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>167</v>
+        <v>56</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>808</v>
+        <v>646</v>
       </c>
       <c r="E262" s="2"/>
       <c r="F262" s="2"/>
       <c r="G262" s="2"/>
       <c r="H262" s="2"/>
       <c r="I262" s="2" t="s">
-        <v>467</v>
+        <v>647</v>
       </c>
       <c r="J262" s="2"/>
       <c r="K262" s="2"/>
       <c r="L262" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M262" s="2"/>
       <c r="N262" s="2"/>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A263" s="2" t="s">
-        <v>809</v>
-      </c>
+      <c r="A263" s="2"/>
       <c r="B263" s="2" t="s">
-        <v>810</v>
+        <v>861</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>167</v>
+        <v>645</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>811</v>
+        <v>864</v>
       </c>
       <c r="E263" s="2"/>
       <c r="F263" s="2"/>
@@ -9906,10 +9956,552 @@
       <c r="J263" s="2"/>
       <c r="K263" s="2"/>
       <c r="L263" s="2" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="M263" s="2"/>
       <c r="N263" s="2"/>
+    </row>
+    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A264" s="2"/>
+      <c r="B264" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="E264" s="2"/>
+      <c r="F264" s="2"/>
+      <c r="G264" s="2"/>
+      <c r="H264" s="2"/>
+      <c r="I264" s="2"/>
+      <c r="J264" s="2"/>
+      <c r="K264" s="2"/>
+      <c r="L264" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="M264" s="2"/>
+      <c r="N264" s="2"/>
+    </row>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A265" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="E265" s="2"/>
+      <c r="F265" s="2"/>
+      <c r="G265" s="2"/>
+      <c r="H265" s="2"/>
+      <c r="I265" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="J265" s="2"/>
+      <c r="K265" s="2"/>
+      <c r="L265" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="M265" s="2"/>
+      <c r="N265" s="2"/>
+    </row>
+    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A266" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="E266" s="2"/>
+      <c r="F266" s="2"/>
+      <c r="G266" s="2"/>
+      <c r="H266" s="2"/>
+      <c r="I266" s="2"/>
+      <c r="J266" s="2"/>
+      <c r="K266" s="2"/>
+      <c r="L266" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="M266" s="2"/>
+      <c r="N266" s="2"/>
+    </row>
+    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A267" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="E267" s="2"/>
+      <c r="F267" s="2"/>
+      <c r="G267" s="2"/>
+      <c r="H267" s="2"/>
+      <c r="I267" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="J267" s="2"/>
+      <c r="K267" s="2"/>
+      <c r="L267" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="M267" s="2"/>
+      <c r="N267" s="2"/>
+    </row>
+    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A268" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="E268" s="2"/>
+      <c r="F268" s="2"/>
+      <c r="G268" s="2"/>
+      <c r="H268" s="2"/>
+      <c r="I268" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="J268" s="2"/>
+      <c r="K268" s="2"/>
+      <c r="L268" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="M268" s="2"/>
+      <c r="N268" s="2"/>
+    </row>
+    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A269" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="E269" s="2"/>
+      <c r="F269" s="2"/>
+      <c r="G269" s="2"/>
+      <c r="H269" s="2"/>
+      <c r="I269" s="2"/>
+      <c r="J269" s="2"/>
+      <c r="K269" s="2"/>
+      <c r="L269" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="M269" s="2"/>
+      <c r="N269" s="2"/>
+    </row>
+    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A270" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="E270" s="2"/>
+      <c r="F270" s="2"/>
+      <c r="G270" s="2"/>
+      <c r="H270" s="2"/>
+      <c r="I270" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="J270" s="2"/>
+      <c r="K270" s="2"/>
+      <c r="L270" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="M270" s="2"/>
+      <c r="N270" s="2"/>
+    </row>
+    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A271" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E271" s="2"/>
+      <c r="F271" s="2"/>
+      <c r="G271" s="2"/>
+      <c r="H271" s="2"/>
+      <c r="I271" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="J271" s="2"/>
+      <c r="K271" s="2"/>
+      <c r="L271" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="M271" s="2"/>
+      <c r="N271" s="2"/>
+    </row>
+    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A272" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="E272" s="2"/>
+      <c r="F272" s="2"/>
+      <c r="G272" s="2"/>
+      <c r="H272" s="2"/>
+      <c r="I272" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="J272" s="2"/>
+      <c r="K272" s="2"/>
+      <c r="L272" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="M272" s="2"/>
+      <c r="N272" s="2"/>
+    </row>
+    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A273" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="E273" s="2"/>
+      <c r="F273" s="2"/>
+      <c r="G273" s="2"/>
+      <c r="H273" s="2"/>
+      <c r="I273" s="2"/>
+      <c r="J273" s="2"/>
+      <c r="K273" s="2"/>
+      <c r="L273" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="M273" s="2"/>
+      <c r="N273" s="2"/>
+    </row>
+    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A274" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="E274" s="2"/>
+      <c r="F274" s="2"/>
+      <c r="G274" s="2"/>
+      <c r="H274" s="2"/>
+      <c r="I274" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="J274" s="2"/>
+      <c r="K274" s="2"/>
+      <c r="L274" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="M274" s="2"/>
+      <c r="N274" s="2"/>
+    </row>
+    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A275" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="E275" s="2"/>
+      <c r="F275" s="2"/>
+      <c r="G275" s="2"/>
+      <c r="H275" s="2"/>
+      <c r="I275" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="J275" s="2"/>
+      <c r="K275" s="2"/>
+      <c r="L275" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="M275" s="2"/>
+      <c r="N275" s="2"/>
+    </row>
+    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A276" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="E276" s="2"/>
+      <c r="F276" s="2"/>
+      <c r="G276" s="2"/>
+      <c r="H276" s="2"/>
+      <c r="I276" s="2"/>
+      <c r="J276" s="2"/>
+      <c r="K276" s="2"/>
+      <c r="L276" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="M276" s="2"/>
+      <c r="N276" s="2"/>
+    </row>
+    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A277" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="E277" s="2"/>
+      <c r="F277" s="2"/>
+      <c r="G277" s="2"/>
+      <c r="H277" s="2"/>
+      <c r="I277" s="2"/>
+      <c r="J277" s="2"/>
+      <c r="K277" s="2"/>
+      <c r="L277" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="M277" s="2"/>
+      <c r="N277" s="2"/>
+    </row>
+    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A278" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="E278" s="2"/>
+      <c r="F278" s="2"/>
+      <c r="G278" s="2"/>
+      <c r="H278" s="2"/>
+      <c r="I278" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="J278" s="2"/>
+      <c r="K278" s="2"/>
+      <c r="L278" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="M278" s="2"/>
+      <c r="N278" s="2"/>
+    </row>
+    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A279" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="E279" s="2"/>
+      <c r="F279" s="2"/>
+      <c r="G279" s="2"/>
+      <c r="H279" s="2"/>
+      <c r="I279" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="J279" s="2"/>
+      <c r="K279" s="2"/>
+      <c r="L279" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="M279" s="2"/>
+      <c r="N279" s="2"/>
+    </row>
+    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A280" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="E280" s="2"/>
+      <c r="F280" s="2"/>
+      <c r="G280" s="2"/>
+      <c r="H280" s="2"/>
+      <c r="I280" s="2"/>
+      <c r="J280" s="2"/>
+      <c r="K280" s="2"/>
+      <c r="L280" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="M280" s="2"/>
+      <c r="N280" s="2"/>
+    </row>
+    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A281" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="E281" s="2"/>
+      <c r="F281" s="2"/>
+      <c r="G281" s="2"/>
+      <c r="H281" s="2"/>
+      <c r="I281" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="J281" s="2"/>
+      <c r="K281" s="2"/>
+      <c r="L281" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="M281" s="2"/>
+      <c r="N281" s="2"/>
+    </row>
+    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A282" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="E282" s="2"/>
+      <c r="F282" s="2"/>
+      <c r="G282" s="2"/>
+      <c r="H282" s="2"/>
+      <c r="I282" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="J282" s="2"/>
+      <c r="K282" s="2"/>
+      <c r="L282" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="M282" s="2"/>
+      <c r="N282" s="2"/>
+    </row>
+    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A283" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="E283" s="2"/>
+      <c r="F283" s="2"/>
+      <c r="G283" s="2"/>
+      <c r="H283" s="2"/>
+      <c r="I283" s="2"/>
+      <c r="J283" s="2"/>
+      <c r="K283" s="2"/>
+      <c r="L283" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="M283" s="2"/>
+      <c r="N283" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/BehaviourChangeTechniques/inputs/BCTO.xlsx
+++ b/BehaviourChangeTechniques/inputs/BCTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisazhang/Documents/GitHub/ontologies/BehaviourChangeTechniques/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D889ABD-DD63-3547-B6B9-49024229AB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E71BF5-6BD6-7346-BC98-A5C5EC6E3A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="874">
   <si>
     <t>ID</t>
   </si>
@@ -2655,6 +2655,9 @@
   </si>
   <si>
     <t>A restructure the physical environment BCT that adds objects to the person's physical surroundings.</t>
+  </si>
+  <si>
+    <t>Proposed</t>
   </si>
 </sst>
 </file>
@@ -3015,15 +3018,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N283"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G278" sqref="G278"/>
+    <sheetView tabSelected="1" topLeftCell="A254" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N265" sqref="N265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="65.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="119.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="28.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16" x14ac:dyDescent="0.2">
@@ -3273,7 +3276,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2" t="s">
-        <v>704</v>
+        <v>873</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -3297,7 +3300,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2" t="s">
-        <v>704</v>
+        <v>873</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -3321,7 +3324,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2" t="s">
-        <v>704</v>
+        <v>873</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3345,7 +3348,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>704</v>
+        <v>873</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3397,7 +3400,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2" t="s">
-        <v>704</v>
+        <v>873</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3421,7 +3424,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2" t="s">
-        <v>704</v>
+        <v>873</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3445,7 +3448,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2" t="s">
-        <v>704</v>
+        <v>873</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3469,7 +3472,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2" t="s">
-        <v>704</v>
+        <v>873</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3597,7 +3600,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2" t="s">
-        <v>704</v>
+        <v>873</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3621,7 +3624,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2" t="s">
-        <v>704</v>
+        <v>873</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3645,7 +3648,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2" t="s">
-        <v>704</v>
+        <v>873</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3669,7 +3672,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2" t="s">
-        <v>704</v>
+        <v>873</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3771,7 +3774,7 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2" t="s">
-        <v>704</v>
+        <v>873</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3795,7 +3798,7 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2" t="s">
-        <v>704</v>
+        <v>873</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -3819,7 +3822,7 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2" t="s">
-        <v>704</v>
+        <v>873</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -3843,7 +3846,7 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2" t="s">
-        <v>704</v>
+        <v>873</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5003,7 +5006,7 @@
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
       <c r="L76" s="2" t="s">
-        <v>704</v>
+        <v>873</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -5639,7 +5642,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
       <c r="L100" s="2" t="s">
-        <v>704</v>
+        <v>873</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -9956,7 +9959,7 @@
       <c r="J263" s="2"/>
       <c r="K263" s="2"/>
       <c r="L263" s="2" t="s">
-        <v>704</v>
+        <v>873</v>
       </c>
       <c r="M263" s="2"/>
       <c r="N263" s="2"/>
@@ -9980,7 +9983,7 @@
       <c r="J264" s="2"/>
       <c r="K264" s="2"/>
       <c r="L264" s="2" t="s">
-        <v>704</v>
+        <v>873</v>
       </c>
       <c r="M264" s="2"/>
       <c r="N264" s="2"/>

--- a/BehaviourChangeTechniques/inputs/BCTO.xlsx
+++ b/BehaviourChangeTechniques/inputs/BCTO.xlsx
@@ -44,7 +44,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ffffff"/>
+        <fgColor rgb="00ffe4b5"/>
       </patternFill>
     </fill>
   </fills>
@@ -796,7 +796,7 @@
       <c r="K9" s="3" t="inlineStr"/>
       <c r="L9" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="M9" s="3" t="inlineStr"/>
@@ -805,7 +805,7 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050330</t>
+          <t>BCIO:050350</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -832,7 +832,7 @@
       <c r="K10" s="3" t="inlineStr"/>
       <c r="L10" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="M10" s="3" t="inlineStr"/>
@@ -868,7 +868,7 @@
       <c r="K11" s="3" t="inlineStr"/>
       <c r="L11" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="M11" s="3" t="inlineStr"/>
@@ -877,7 +877,7 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050331</t>
+          <t>BCIO:050351</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -904,7 +904,7 @@
       <c r="K12" s="3" t="inlineStr"/>
       <c r="L12" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="M12" s="3" t="inlineStr"/>
@@ -980,7 +980,7 @@
       <c r="K14" s="3" t="inlineStr"/>
       <c r="L14" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="M14" s="3" t="inlineStr"/>
@@ -1016,7 +1016,7 @@
       <c r="K15" s="3" t="inlineStr"/>
       <c r="L15" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="M15" s="3" t="inlineStr"/>
@@ -1052,7 +1052,7 @@
       <c r="K16" s="3" t="inlineStr"/>
       <c r="L16" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="M16" s="3" t="inlineStr"/>
@@ -1088,7 +1088,7 @@
       <c r="K17" s="3" t="inlineStr"/>
       <c r="L17" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="M17" s="3" t="inlineStr"/>
@@ -1232,7 +1232,7 @@
       <c r="K21" s="3" t="inlineStr"/>
       <c r="L21" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="M21" s="3" t="inlineStr"/>
@@ -1268,7 +1268,7 @@
       <c r="K22" s="3" t="inlineStr"/>
       <c r="L22" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="M22" s="3" t="inlineStr"/>
@@ -1304,7 +1304,7 @@
       <c r="K23" s="3" t="inlineStr"/>
       <c r="L23" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="M23" s="3" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
       <c r="K24" s="3" t="inlineStr"/>
       <c r="L24" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="M24" s="3" t="inlineStr"/>
@@ -1448,7 +1448,7 @@
       <c r="K27" s="3" t="inlineStr"/>
       <c r="L27" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="M27" s="3" t="inlineStr"/>
@@ -1484,7 +1484,7 @@
       <c r="K28" s="3" t="inlineStr"/>
       <c r="L28" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="M28" s="3" t="inlineStr"/>
@@ -1520,7 +1520,7 @@
       <c r="K29" s="3" t="inlineStr"/>
       <c r="L29" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="M29" s="3" t="inlineStr"/>
@@ -1556,7 +1556,7 @@
       <c r="K30" s="3" t="inlineStr"/>
       <c r="L30" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="M30" s="3" t="inlineStr"/>
@@ -3250,7 +3250,7 @@
       <c r="K76" s="3" t="inlineStr"/>
       <c r="L76" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="M76" s="3" t="inlineStr"/>
@@ -4143,7 +4143,7 @@
       <c r="K100" s="3" t="inlineStr"/>
       <c r="L100" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="M100" s="3" t="inlineStr"/>
@@ -10191,7 +10191,7 @@
       <c r="K263" s="3" t="inlineStr"/>
       <c r="L263" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="M263" s="3" t="inlineStr"/>
@@ -10227,7 +10227,7 @@
       <c r="K264" s="3" t="inlineStr"/>
       <c r="L264" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="M264" s="3" t="inlineStr"/>

--- a/BehaviourChangeTechniques/inputs/BCTO.xlsx
+++ b/BehaviourChangeTechniques/inputs/BCTO.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -40,11 +40,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="007fffd4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffe4b5"/>
       </patternFill>
     </fill>
   </fills>
@@ -60,11 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -767,148 +761,148 @@
       <c r="N8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>BCIO:050332</t>
         </is>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>advise behavioural ways to increase negative emotions BCT</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>advise behavioural ways to change emotions BCT</t>
         </is>
       </c>
-      <c r="D9" s="3" t="inlineStr">
+      <c r="D9" s="2" t="inlineStr">
         <is>
           <t>An advise behavioural ways to change emotions BCT suggesting the person perform a particular behaviour to enhance negative emotions.</t>
         </is>
       </c>
-      <c r="E9" s="3" t="inlineStr"/>
-      <c r="F9" s="3" t="inlineStr"/>
-      <c r="G9" s="3" t="inlineStr"/>
-      <c r="H9" s="3" t="inlineStr"/>
-      <c r="I9" s="3" t="inlineStr"/>
-      <c r="J9" s="3" t="inlineStr"/>
-      <c r="K9" s="3" t="inlineStr"/>
-      <c r="L9" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="M9" s="3" t="inlineStr"/>
-      <c r="N9" s="3" t="inlineStr"/>
+      <c r="E9" s="2" t="inlineStr"/>
+      <c r="F9" s="2" t="inlineStr"/>
+      <c r="G9" s="2" t="inlineStr"/>
+      <c r="H9" s="2" t="inlineStr"/>
+      <c r="I9" s="2" t="inlineStr"/>
+      <c r="J9" s="2" t="inlineStr"/>
+      <c r="K9" s="2" t="inlineStr"/>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr"/>
+      <c r="N9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>BCIO:050350</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>advise behavioural ways to increase positive emotions BCT</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>advise behavioural ways to change emotions BCT</t>
         </is>
       </c>
-      <c r="D10" s="3" t="inlineStr">
+      <c r="D10" s="2" t="inlineStr">
         <is>
           <t>An advise behavioural ways to change emotions BCT suggesting the person perform a particular behaviour to enhance positive emotions.</t>
         </is>
       </c>
-      <c r="E10" s="3" t="inlineStr"/>
-      <c r="F10" s="3" t="inlineStr"/>
-      <c r="G10" s="3" t="inlineStr"/>
-      <c r="H10" s="3" t="inlineStr"/>
-      <c r="I10" s="3" t="inlineStr"/>
-      <c r="J10" s="3" t="inlineStr"/>
-      <c r="K10" s="3" t="inlineStr"/>
-      <c r="L10" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="M10" s="3" t="inlineStr"/>
-      <c r="N10" s="3" t="inlineStr"/>
+      <c r="E10" s="2" t="inlineStr"/>
+      <c r="F10" s="2" t="inlineStr"/>
+      <c r="G10" s="2" t="inlineStr"/>
+      <c r="H10" s="2" t="inlineStr"/>
+      <c r="I10" s="2" t="inlineStr"/>
+      <c r="J10" s="2" t="inlineStr"/>
+      <c r="K10" s="2" t="inlineStr"/>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr"/>
+      <c r="N10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>BCIO:050333</t>
         </is>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>advise behavioural ways to reduce negative emotions BCT</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
         <is>
           <t>advise behavioural ways to change emotions BCT</t>
         </is>
       </c>
-      <c r="D11" s="3" t="inlineStr">
+      <c r="D11" s="2" t="inlineStr">
         <is>
           <t>An advise behavioural ways to change emotions BCT suggesting the person perform a particular behaviour to decrease negative emotions.</t>
         </is>
       </c>
-      <c r="E11" s="3" t="inlineStr"/>
-      <c r="F11" s="3" t="inlineStr"/>
-      <c r="G11" s="3" t="inlineStr"/>
-      <c r="H11" s="3" t="inlineStr"/>
-      <c r="I11" s="3" t="inlineStr"/>
-      <c r="J11" s="3" t="inlineStr"/>
-      <c r="K11" s="3" t="inlineStr"/>
-      <c r="L11" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="M11" s="3" t="inlineStr"/>
-      <c r="N11" s="3" t="inlineStr"/>
+      <c r="E11" s="2" t="inlineStr"/>
+      <c r="F11" s="2" t="inlineStr"/>
+      <c r="G11" s="2" t="inlineStr"/>
+      <c r="H11" s="2" t="inlineStr"/>
+      <c r="I11" s="2" t="inlineStr"/>
+      <c r="J11" s="2" t="inlineStr"/>
+      <c r="K11" s="2" t="inlineStr"/>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr"/>
+      <c r="N11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="inlineStr">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>BCIO:050351</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>advise behavioural ways to reduce positive emotions BCT</t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>advise behavioural ways to change emotions BCT</t>
         </is>
       </c>
-      <c r="D12" s="3" t="inlineStr">
+      <c r="D12" s="2" t="inlineStr">
         <is>
           <t>An advise behavioural ways to change emotions BCT suggesting the person perform a particular behaviour to decrease positive emotions.</t>
         </is>
       </c>
-      <c r="E12" s="3" t="inlineStr"/>
-      <c r="F12" s="3" t="inlineStr"/>
-      <c r="G12" s="3" t="inlineStr"/>
-      <c r="H12" s="3" t="inlineStr"/>
-      <c r="I12" s="3" t="inlineStr"/>
-      <c r="J12" s="3" t="inlineStr"/>
-      <c r="K12" s="3" t="inlineStr"/>
-      <c r="L12" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="M12" s="3" t="inlineStr"/>
-      <c r="N12" s="3" t="inlineStr"/>
+      <c r="E12" s="2" t="inlineStr"/>
+      <c r="F12" s="2" t="inlineStr"/>
+      <c r="G12" s="2" t="inlineStr"/>
+      <c r="H12" s="2" t="inlineStr"/>
+      <c r="I12" s="2" t="inlineStr"/>
+      <c r="J12" s="2" t="inlineStr"/>
+      <c r="K12" s="2" t="inlineStr"/>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr"/>
+      <c r="N12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -951,148 +945,148 @@
       <c r="N13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>BCIO:050336</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>advise cognitive ways to increase negative emotions BCT</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t>advise behavioural ways to change emotions BCT</t>
         </is>
       </c>
-      <c r="D14" s="3" t="inlineStr">
+      <c r="D14" s="2" t="inlineStr">
         <is>
           <t>An advise cognitive ways to change emotions BCT suggesting the person deliberately use a particular mental process to enhance negative emotions.</t>
         </is>
       </c>
-      <c r="E14" s="3" t="inlineStr"/>
-      <c r="F14" s="3" t="inlineStr"/>
-      <c r="G14" s="3" t="inlineStr"/>
-      <c r="H14" s="3" t="inlineStr"/>
-      <c r="I14" s="3" t="inlineStr"/>
-      <c r="J14" s="3" t="inlineStr"/>
-      <c r="K14" s="3" t="inlineStr"/>
-      <c r="L14" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="M14" s="3" t="inlineStr"/>
-      <c r="N14" s="3" t="inlineStr"/>
+      <c r="E14" s="2" t="inlineStr"/>
+      <c r="F14" s="2" t="inlineStr"/>
+      <c r="G14" s="2" t="inlineStr"/>
+      <c r="H14" s="2" t="inlineStr"/>
+      <c r="I14" s="2" t="inlineStr"/>
+      <c r="J14" s="2" t="inlineStr"/>
+      <c r="K14" s="2" t="inlineStr"/>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr"/>
+      <c r="N14" s="2" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>BCIO:050334</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr">
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>advise cognitive ways to increase positive emotions BCT</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
         <is>
           <t>advise behavioural ways to change emotions BCT</t>
         </is>
       </c>
-      <c r="D15" s="3" t="inlineStr">
+      <c r="D15" s="2" t="inlineStr">
         <is>
           <t>An advise cognitive ways to change emotions BCT suggesting the person deliberately use a particular mental process to enhance positive emotions.</t>
         </is>
       </c>
-      <c r="E15" s="3" t="inlineStr"/>
-      <c r="F15" s="3" t="inlineStr"/>
-      <c r="G15" s="3" t="inlineStr"/>
-      <c r="H15" s="3" t="inlineStr"/>
-      <c r="I15" s="3" t="inlineStr"/>
-      <c r="J15" s="3" t="inlineStr"/>
-      <c r="K15" s="3" t="inlineStr"/>
-      <c r="L15" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="M15" s="3" t="inlineStr"/>
-      <c r="N15" s="3" t="inlineStr"/>
+      <c r="E15" s="2" t="inlineStr"/>
+      <c r="F15" s="2" t="inlineStr"/>
+      <c r="G15" s="2" t="inlineStr"/>
+      <c r="H15" s="2" t="inlineStr"/>
+      <c r="I15" s="2" t="inlineStr"/>
+      <c r="J15" s="2" t="inlineStr"/>
+      <c r="K15" s="2" t="inlineStr"/>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr"/>
+      <c r="N15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>BCIO:050337</t>
         </is>
       </c>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>advise cognitive ways to reduce negative emotions BCT</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
         <is>
           <t>advise behavioural ways to change emotions BCT</t>
         </is>
       </c>
-      <c r="D16" s="3" t="inlineStr">
+      <c r="D16" s="2" t="inlineStr">
         <is>
           <t>An advise cognitive ways to change emotions BCT suggesting the person deliberately use a particular mental process to decrease negative emotions.</t>
         </is>
       </c>
-      <c r="E16" s="3" t="inlineStr"/>
-      <c r="F16" s="3" t="inlineStr"/>
-      <c r="G16" s="3" t="inlineStr"/>
-      <c r="H16" s="3" t="inlineStr"/>
-      <c r="I16" s="3" t="inlineStr"/>
-      <c r="J16" s="3" t="inlineStr"/>
-      <c r="K16" s="3" t="inlineStr"/>
-      <c r="L16" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="M16" s="3" t="inlineStr"/>
-      <c r="N16" s="3" t="inlineStr"/>
+      <c r="E16" s="2" t="inlineStr"/>
+      <c r="F16" s="2" t="inlineStr"/>
+      <c r="G16" s="2" t="inlineStr"/>
+      <c r="H16" s="2" t="inlineStr"/>
+      <c r="I16" s="2" t="inlineStr"/>
+      <c r="J16" s="2" t="inlineStr"/>
+      <c r="K16" s="2" t="inlineStr"/>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr"/>
+      <c r="N16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="inlineStr">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>BCIO:050335</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr">
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>advise cognitive ways to reduce positive emotions BCT</t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
         <is>
           <t>advise behavioural ways to change emotions BCT</t>
         </is>
       </c>
-      <c r="D17" s="3" t="inlineStr">
+      <c r="D17" s="2" t="inlineStr">
         <is>
           <t>An advise cognitive ways to change emotions BCT suggesting the person deliberately use a particular mental process to decrease positive emotions.</t>
         </is>
       </c>
-      <c r="E17" s="3" t="inlineStr"/>
-      <c r="F17" s="3" t="inlineStr"/>
-      <c r="G17" s="3" t="inlineStr"/>
-      <c r="H17" s="3" t="inlineStr"/>
-      <c r="I17" s="3" t="inlineStr"/>
-      <c r="J17" s="3" t="inlineStr"/>
-      <c r="K17" s="3" t="inlineStr"/>
-      <c r="L17" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="M17" s="3" t="inlineStr"/>
-      <c r="N17" s="3" t="inlineStr"/>
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr"/>
+      <c r="G17" s="2" t="inlineStr"/>
+      <c r="H17" s="2" t="inlineStr"/>
+      <c r="I17" s="2" t="inlineStr"/>
+      <c r="J17" s="2" t="inlineStr"/>
+      <c r="K17" s="2" t="inlineStr"/>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr"/>
+      <c r="N17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
@@ -1203,148 +1197,148 @@
       <c r="N20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="inlineStr">
+      <c r="A21" s="2" t="inlineStr">
         <is>
           <t>BCIO:050342</t>
         </is>
       </c>
-      <c r="B21" s="3" t="inlineStr">
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>advise how to increase negative emotions BCT</t>
         </is>
       </c>
-      <c r="C21" s="3" t="inlineStr">
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>advise how to change emotions BCT</t>
         </is>
       </c>
-      <c r="D21" s="3" t="inlineStr">
+      <c r="D21" s="2" t="inlineStr">
         <is>
           <t>An advise how to change emotions BCT suggesting a method to enhance negative emotions.</t>
         </is>
       </c>
-      <c r="E21" s="3" t="inlineStr"/>
-      <c r="F21" s="3" t="inlineStr"/>
-      <c r="G21" s="3" t="inlineStr"/>
-      <c r="H21" s="3" t="inlineStr"/>
-      <c r="I21" s="3" t="inlineStr"/>
-      <c r="J21" s="3" t="inlineStr"/>
-      <c r="K21" s="3" t="inlineStr"/>
-      <c r="L21" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="M21" s="3" t="inlineStr"/>
-      <c r="N21" s="3" t="inlineStr"/>
+      <c r="E21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr"/>
+      <c r="G21" s="2" t="inlineStr"/>
+      <c r="H21" s="2" t="inlineStr"/>
+      <c r="I21" s="2" t="inlineStr"/>
+      <c r="J21" s="2" t="inlineStr"/>
+      <c r="K21" s="2" t="inlineStr"/>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr"/>
+      <c r="N21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="inlineStr">
+      <c r="A22" s="2" t="inlineStr">
         <is>
           <t>BCIO:050343</t>
         </is>
       </c>
-      <c r="B22" s="3" t="inlineStr">
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>advise how to increase positive emotions BCT</t>
         </is>
       </c>
-      <c r="C22" s="3" t="inlineStr">
+      <c r="C22" s="2" t="inlineStr">
         <is>
           <t>advise how to change emotions BCT</t>
         </is>
       </c>
-      <c r="D22" s="3" t="inlineStr">
+      <c r="D22" s="2" t="inlineStr">
         <is>
           <t>An advise how to change emotions BCT suggesting a method to enhance positive emotions.</t>
         </is>
       </c>
-      <c r="E22" s="3" t="inlineStr"/>
-      <c r="F22" s="3" t="inlineStr"/>
-      <c r="G22" s="3" t="inlineStr"/>
-      <c r="H22" s="3" t="inlineStr"/>
-      <c r="I22" s="3" t="inlineStr"/>
-      <c r="J22" s="3" t="inlineStr"/>
-      <c r="K22" s="3" t="inlineStr"/>
-      <c r="L22" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="M22" s="3" t="inlineStr"/>
-      <c r="N22" s="3" t="inlineStr"/>
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr"/>
+      <c r="G22" s="2" t="inlineStr"/>
+      <c r="H22" s="2" t="inlineStr"/>
+      <c r="I22" s="2" t="inlineStr"/>
+      <c r="J22" s="2" t="inlineStr"/>
+      <c r="K22" s="2" t="inlineStr"/>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr"/>
+      <c r="N22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="inlineStr">
+      <c r="A23" s="2" t="inlineStr">
         <is>
           <t>BCIO:050344</t>
         </is>
       </c>
-      <c r="B23" s="3" t="inlineStr">
+      <c r="B23" s="2" t="inlineStr">
         <is>
           <t>advise how to reduce negative emotions BCT</t>
         </is>
       </c>
-      <c r="C23" s="3" t="inlineStr">
+      <c r="C23" s="2" t="inlineStr">
         <is>
           <t>advise how to change emotions BCT</t>
         </is>
       </c>
-      <c r="D23" s="3" t="inlineStr">
+      <c r="D23" s="2" t="inlineStr">
         <is>
           <t>An advise how to change emotions BCT suggesting a method to decrease negative emotions.</t>
         </is>
       </c>
-      <c r="E23" s="3" t="inlineStr"/>
-      <c r="F23" s="3" t="inlineStr"/>
-      <c r="G23" s="3" t="inlineStr"/>
-      <c r="H23" s="3" t="inlineStr"/>
-      <c r="I23" s="3" t="inlineStr"/>
-      <c r="J23" s="3" t="inlineStr"/>
-      <c r="K23" s="3" t="inlineStr"/>
-      <c r="L23" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="M23" s="3" t="inlineStr"/>
-      <c r="N23" s="3" t="inlineStr"/>
+      <c r="E23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="inlineStr"/>
+      <c r="G23" s="2" t="inlineStr"/>
+      <c r="H23" s="2" t="inlineStr"/>
+      <c r="I23" s="2" t="inlineStr"/>
+      <c r="J23" s="2" t="inlineStr"/>
+      <c r="K23" s="2" t="inlineStr"/>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr"/>
+      <c r="N23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="inlineStr">
+      <c r="A24" s="2" t="inlineStr">
         <is>
           <t>BCIO:050345</t>
         </is>
       </c>
-      <c r="B24" s="3" t="inlineStr">
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>advise how to reduce positive emotions BCT</t>
         </is>
       </c>
-      <c r="C24" s="3" t="inlineStr">
+      <c r="C24" s="2" t="inlineStr">
         <is>
           <t>advise how to change emotions BCT</t>
         </is>
       </c>
-      <c r="D24" s="3" t="inlineStr">
+      <c r="D24" s="2" t="inlineStr">
         <is>
           <t>An advise how to change emotions BCT suggesting a method to decrease positive emotions.</t>
         </is>
       </c>
-      <c r="E24" s="3" t="inlineStr"/>
-      <c r="F24" s="3" t="inlineStr"/>
-      <c r="G24" s="3" t="inlineStr"/>
-      <c r="H24" s="3" t="inlineStr"/>
-      <c r="I24" s="3" t="inlineStr"/>
-      <c r="J24" s="3" t="inlineStr"/>
-      <c r="K24" s="3" t="inlineStr"/>
-      <c r="L24" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="M24" s="3" t="inlineStr"/>
-      <c r="N24" s="3" t="inlineStr"/>
+      <c r="E24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="inlineStr"/>
+      <c r="G24" s="2" t="inlineStr"/>
+      <c r="H24" s="2" t="inlineStr"/>
+      <c r="I24" s="2" t="inlineStr"/>
+      <c r="J24" s="2" t="inlineStr"/>
+      <c r="K24" s="2" t="inlineStr"/>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr"/>
+      <c r="N24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
@@ -1419,148 +1413,148 @@
       <c r="N26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="inlineStr">
+      <c r="A27" s="2" t="inlineStr">
         <is>
           <t>BCIO:050340</t>
         </is>
       </c>
-      <c r="B27" s="3" t="inlineStr">
+      <c r="B27" s="2" t="inlineStr">
         <is>
           <t>advise sensory ways to increase negative emotions BCT</t>
         </is>
       </c>
-      <c r="C27" s="3" t="inlineStr">
+      <c r="C27" s="2" t="inlineStr">
         <is>
           <t>advise sensory ways to change emotions BCT</t>
         </is>
       </c>
-      <c r="D27" s="3" t="inlineStr">
+      <c r="D27" s="2" t="inlineStr">
         <is>
           <t>An advise sensory ways to change emotions BCT suggesting the person use a method that stimulates one or more senses to enhance negative emotions.</t>
         </is>
       </c>
-      <c r="E27" s="3" t="inlineStr"/>
-      <c r="F27" s="3" t="inlineStr"/>
-      <c r="G27" s="3" t="inlineStr"/>
-      <c r="H27" s="3" t="inlineStr"/>
-      <c r="I27" s="3" t="inlineStr"/>
-      <c r="J27" s="3" t="inlineStr"/>
-      <c r="K27" s="3" t="inlineStr"/>
-      <c r="L27" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="M27" s="3" t="inlineStr"/>
-      <c r="N27" s="3" t="inlineStr"/>
+      <c r="E27" s="2" t="inlineStr"/>
+      <c r="F27" s="2" t="inlineStr"/>
+      <c r="G27" s="2" t="inlineStr"/>
+      <c r="H27" s="2" t="inlineStr"/>
+      <c r="I27" s="2" t="inlineStr"/>
+      <c r="J27" s="2" t="inlineStr"/>
+      <c r="K27" s="2" t="inlineStr"/>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr"/>
+      <c r="N27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="inlineStr">
+      <c r="A28" s="2" t="inlineStr">
         <is>
           <t>BCIO:050338</t>
         </is>
       </c>
-      <c r="B28" s="3" t="inlineStr">
+      <c r="B28" s="2" t="inlineStr">
         <is>
           <t>advise sensory ways to increase positive emotions BCT</t>
         </is>
       </c>
-      <c r="C28" s="3" t="inlineStr">
+      <c r="C28" s="2" t="inlineStr">
         <is>
           <t>advise sensory ways to change emotions BCT</t>
         </is>
       </c>
-      <c r="D28" s="3" t="inlineStr">
+      <c r="D28" s="2" t="inlineStr">
         <is>
           <t>An advise sensory ways to change emotions BCT suggesting the person use a method that stimulates one or more senses to enhance positive emotions.</t>
         </is>
       </c>
-      <c r="E28" s="3" t="inlineStr"/>
-      <c r="F28" s="3" t="inlineStr"/>
-      <c r="G28" s="3" t="inlineStr"/>
-      <c r="H28" s="3" t="inlineStr"/>
-      <c r="I28" s="3" t="inlineStr"/>
-      <c r="J28" s="3" t="inlineStr"/>
-      <c r="K28" s="3" t="inlineStr"/>
-      <c r="L28" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="M28" s="3" t="inlineStr"/>
-      <c r="N28" s="3" t="inlineStr"/>
+      <c r="E28" s="2" t="inlineStr"/>
+      <c r="F28" s="2" t="inlineStr"/>
+      <c r="G28" s="2" t="inlineStr"/>
+      <c r="H28" s="2" t="inlineStr"/>
+      <c r="I28" s="2" t="inlineStr"/>
+      <c r="J28" s="2" t="inlineStr"/>
+      <c r="K28" s="2" t="inlineStr"/>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr"/>
+      <c r="N28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="inlineStr">
+      <c r="A29" s="2" t="inlineStr">
         <is>
           <t>BCIO:050341</t>
         </is>
       </c>
-      <c r="B29" s="3" t="inlineStr">
+      <c r="B29" s="2" t="inlineStr">
         <is>
           <t>advise sensory ways to reduce negative emotions BCT</t>
         </is>
       </c>
-      <c r="C29" s="3" t="inlineStr">
+      <c r="C29" s="2" t="inlineStr">
         <is>
           <t>advise sensory ways to change emotions BCT</t>
         </is>
       </c>
-      <c r="D29" s="3" t="inlineStr">
+      <c r="D29" s="2" t="inlineStr">
         <is>
           <t>An advise sensory ways to change emotions BCT suggesting the person use a method that stimulates one or more senses to decrease negative emotions.</t>
         </is>
       </c>
-      <c r="E29" s="3" t="inlineStr"/>
-      <c r="F29" s="3" t="inlineStr"/>
-      <c r="G29" s="3" t="inlineStr"/>
-      <c r="H29" s="3" t="inlineStr"/>
-      <c r="I29" s="3" t="inlineStr"/>
-      <c r="J29" s="3" t="inlineStr"/>
-      <c r="K29" s="3" t="inlineStr"/>
-      <c r="L29" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="M29" s="3" t="inlineStr"/>
-      <c r="N29" s="3" t="inlineStr"/>
+      <c r="E29" s="2" t="inlineStr"/>
+      <c r="F29" s="2" t="inlineStr"/>
+      <c r="G29" s="2" t="inlineStr"/>
+      <c r="H29" s="2" t="inlineStr"/>
+      <c r="I29" s="2" t="inlineStr"/>
+      <c r="J29" s="2" t="inlineStr"/>
+      <c r="K29" s="2" t="inlineStr"/>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr"/>
+      <c r="N29" s="2" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="inlineStr">
+      <c r="A30" s="2" t="inlineStr">
         <is>
           <t>BCIO:050339</t>
         </is>
       </c>
-      <c r="B30" s="3" t="inlineStr">
+      <c r="B30" s="2" t="inlineStr">
         <is>
           <t>advise sensory ways to reduce positive emotions BCT</t>
         </is>
       </c>
-      <c r="C30" s="3" t="inlineStr">
+      <c r="C30" s="2" t="inlineStr">
         <is>
           <t>advise sensory ways to change emotions BCT</t>
         </is>
       </c>
-      <c r="D30" s="3" t="inlineStr">
+      <c r="D30" s="2" t="inlineStr">
         <is>
           <t>An advise sensory ways to change emotions BCT suggesting the person use a method that stimulates one or more senses to decrease positive emotions.</t>
         </is>
       </c>
-      <c r="E30" s="3" t="inlineStr"/>
-      <c r="F30" s="3" t="inlineStr"/>
-      <c r="G30" s="3" t="inlineStr"/>
-      <c r="H30" s="3" t="inlineStr"/>
-      <c r="I30" s="3" t="inlineStr"/>
-      <c r="J30" s="3" t="inlineStr"/>
-      <c r="K30" s="3" t="inlineStr"/>
-      <c r="L30" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="M30" s="3" t="inlineStr"/>
-      <c r="N30" s="3" t="inlineStr"/>
+      <c r="E30" s="2" t="inlineStr"/>
+      <c r="F30" s="2" t="inlineStr"/>
+      <c r="G30" s="2" t="inlineStr"/>
+      <c r="H30" s="2" t="inlineStr"/>
+      <c r="I30" s="2" t="inlineStr"/>
+      <c r="J30" s="2" t="inlineStr"/>
+      <c r="K30" s="2" t="inlineStr"/>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr"/>
+      <c r="N30" s="2" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
@@ -3221,40 +3215,40 @@
       <c r="N75" s="2" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="A76" s="3" t="inlineStr">
+      <c r="A76" s="2" t="inlineStr">
         <is>
           <t>BCIO:050346</t>
         </is>
       </c>
-      <c r="B76" s="3" t="inlineStr">
+      <c r="B76" s="2" t="inlineStr">
         <is>
           <t>directly restructure the social environment BCT</t>
         </is>
       </c>
-      <c r="C76" s="3" t="inlineStr">
+      <c r="C76" s="2" t="inlineStr">
         <is>
           <t>restructure the social environment BCT</t>
         </is>
       </c>
-      <c r="D76" s="3" t="inlineStr">
+      <c r="D76" s="2" t="inlineStr">
         <is>
           <t>A restructure the social environment BCT that changes the person's directly experienced environment at the time the behaviour is, or would have been, performed.</t>
         </is>
       </c>
-      <c r="E76" s="3" t="inlineStr"/>
-      <c r="F76" s="3" t="inlineStr"/>
-      <c r="G76" s="3" t="inlineStr"/>
-      <c r="H76" s="3" t="inlineStr"/>
-      <c r="I76" s="3" t="inlineStr"/>
-      <c r="J76" s="3" t="inlineStr"/>
-      <c r="K76" s="3" t="inlineStr"/>
-      <c r="L76" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="M76" s="3" t="inlineStr"/>
-      <c r="N76" s="3" t="inlineStr"/>
+      <c r="E76" s="2" t="inlineStr"/>
+      <c r="F76" s="2" t="inlineStr"/>
+      <c r="G76" s="2" t="inlineStr"/>
+      <c r="H76" s="2" t="inlineStr"/>
+      <c r="I76" s="2" t="inlineStr"/>
+      <c r="J76" s="2" t="inlineStr"/>
+      <c r="K76" s="2" t="inlineStr"/>
+      <c r="L76" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="M76" s="2" t="inlineStr"/>
+      <c r="N76" s="2" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
@@ -4114,40 +4108,40 @@
       <c r="N99" s="2" t="inlineStr"/>
     </row>
     <row r="100">
-      <c r="A100" s="3" t="inlineStr">
+      <c r="A100" s="2" t="inlineStr">
         <is>
           <t>BCIO:050347</t>
         </is>
       </c>
-      <c r="B100" s="3" t="inlineStr">
+      <c r="B100" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">indirectly restructure the social environment BCT </t>
         </is>
       </c>
-      <c r="C100" s="3" t="inlineStr">
+      <c r="C100" s="2" t="inlineStr">
         <is>
           <t>restructure the environment BCT</t>
         </is>
       </c>
-      <c r="D100" s="3" t="inlineStr">
+      <c r="D100" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A restructure the social environment BCT that changes the person's environment at a time or location other than when and where the behaviour is performed. </t>
         </is>
       </c>
-      <c r="E100" s="3" t="inlineStr"/>
-      <c r="F100" s="3" t="inlineStr"/>
-      <c r="G100" s="3" t="inlineStr"/>
-      <c r="H100" s="3" t="inlineStr"/>
-      <c r="I100" s="3" t="inlineStr"/>
-      <c r="J100" s="3" t="inlineStr"/>
-      <c r="K100" s="3" t="inlineStr"/>
-      <c r="L100" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="M100" s="3" t="inlineStr"/>
-      <c r="N100" s="3" t="inlineStr"/>
+      <c r="E100" s="2" t="inlineStr"/>
+      <c r="F100" s="2" t="inlineStr"/>
+      <c r="G100" s="2" t="inlineStr"/>
+      <c r="H100" s="2" t="inlineStr"/>
+      <c r="I100" s="2" t="inlineStr"/>
+      <c r="J100" s="2" t="inlineStr"/>
+      <c r="K100" s="2" t="inlineStr"/>
+      <c r="L100" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="M100" s="2" t="inlineStr"/>
+      <c r="N100" s="2" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
@@ -10162,76 +10156,76 @@
       <c r="N262" s="2" t="inlineStr"/>
     </row>
     <row r="263">
-      <c r="A263" s="3" t="inlineStr">
+      <c r="A263" s="2" t="inlineStr">
         <is>
           <t>BCIO:050348</t>
         </is>
       </c>
-      <c r="B263" s="3" t="inlineStr">
+      <c r="B263" s="2" t="inlineStr">
         <is>
           <t>restructure the physical environment BCT</t>
         </is>
       </c>
-      <c r="C263" s="3" t="inlineStr">
+      <c r="C263" s="2" t="inlineStr">
         <is>
           <t>restructure the environment BCT</t>
         </is>
       </c>
-      <c r="D263" s="3" t="inlineStr">
+      <c r="D263" s="2" t="inlineStr">
         <is>
           <t>A restructure the environment BCT that alters the physical environment in which the behaviour is, or would have been, performed in a way that facilitates or impedes the behaviour.</t>
         </is>
       </c>
-      <c r="E263" s="3" t="inlineStr"/>
-      <c r="F263" s="3" t="inlineStr"/>
-      <c r="G263" s="3" t="inlineStr"/>
-      <c r="H263" s="3" t="inlineStr"/>
-      <c r="I263" s="3" t="inlineStr"/>
-      <c r="J263" s="3" t="inlineStr"/>
-      <c r="K263" s="3" t="inlineStr"/>
-      <c r="L263" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="M263" s="3" t="inlineStr"/>
-      <c r="N263" s="3" t="inlineStr"/>
+      <c r="E263" s="2" t="inlineStr"/>
+      <c r="F263" s="2" t="inlineStr"/>
+      <c r="G263" s="2" t="inlineStr"/>
+      <c r="H263" s="2" t="inlineStr"/>
+      <c r="I263" s="2" t="inlineStr"/>
+      <c r="J263" s="2" t="inlineStr"/>
+      <c r="K263" s="2" t="inlineStr"/>
+      <c r="L263" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="M263" s="2" t="inlineStr"/>
+      <c r="N263" s="2" t="inlineStr"/>
     </row>
     <row r="264">
-      <c r="A264" s="3" t="inlineStr">
+      <c r="A264" s="2" t="inlineStr">
         <is>
           <t>BCIO:050349</t>
         </is>
       </c>
-      <c r="B264" s="3" t="inlineStr">
+      <c r="B264" s="2" t="inlineStr">
         <is>
           <t>restructure the social environment BCT</t>
         </is>
       </c>
-      <c r="C264" s="3" t="inlineStr">
+      <c r="C264" s="2" t="inlineStr">
         <is>
           <t>restructure the environment BCT</t>
         </is>
       </c>
-      <c r="D264" s="3" t="inlineStr">
+      <c r="D264" s="2" t="inlineStr">
         <is>
           <t>A restructure the environment BCT that alters the social environment in which the behaviour is, or would have been, performed in a way that facilitates or impedes the behaviour.</t>
         </is>
       </c>
-      <c r="E264" s="3" t="inlineStr"/>
-      <c r="F264" s="3" t="inlineStr"/>
-      <c r="G264" s="3" t="inlineStr"/>
-      <c r="H264" s="3" t="inlineStr"/>
-      <c r="I264" s="3" t="inlineStr"/>
-      <c r="J264" s="3" t="inlineStr"/>
-      <c r="K264" s="3" t="inlineStr"/>
-      <c r="L264" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="M264" s="3" t="inlineStr"/>
-      <c r="N264" s="3" t="inlineStr"/>
+      <c r="E264" s="2" t="inlineStr"/>
+      <c r="F264" s="2" t="inlineStr"/>
+      <c r="G264" s="2" t="inlineStr"/>
+      <c r="H264" s="2" t="inlineStr"/>
+      <c r="I264" s="2" t="inlineStr"/>
+      <c r="J264" s="2" t="inlineStr"/>
+      <c r="K264" s="2" t="inlineStr"/>
+      <c r="L264" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="M264" s="2" t="inlineStr"/>
+      <c r="N264" s="2" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="2" t="inlineStr">

--- a/BehaviourChangeTechniques/inputs/BCTO.xlsx
+++ b/BehaviourChangeTechniques/inputs/BCTO.xlsx
@@ -5645,7 +5645,7 @@
       </c>
       <c r="D142" s="2" t="inlineStr">
         <is>
-          <t>A promise positive consequence for behaviour BCT in which the consequence will be provided for performing the behaviour that is the final step of a sequence of behaviours, and then gradually adding behaviours that occur earlier in the sequence.</t>
+          <t>A promise positive consequence for behaviour BCT in which the consequence will be provided for performing the behaviour that is the final step of a sequence of behaviours, followed by adding behaviours that occur earlier in the sequence.</t>
         </is>
       </c>
       <c r="E142" s="2" t="inlineStr"/>
@@ -8153,7 +8153,7 @@
       </c>
       <c r="D209" s="2" t="inlineStr">
         <is>
-          <t>A provide positive consequence for behaviour BCT where the consequence is provided for performing the behaviour that is the final step of a sequence of behaviours, and then gradually adding behaviours that occur earlier in the sequence.</t>
+          <t>A provide positive consequence for behaviour BCT where the consequence is provided for performing the behaviour that is the final step of a sequence of behaviours, followed by adding behaviours that occur earlier in the sequence.</t>
         </is>
       </c>
       <c r="E209" s="2" t="inlineStr"/>

--- a/BehaviourChangeTechniques/inputs/BCTO.xlsx
+++ b/BehaviourChangeTechniques/inputs/BCTO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisazhang/Documents/GitHub/ontologies/BehaviourChangeTechniques/inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/HBCP/ontologies/BehaviourChangeTechniques/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1EA8D2-E962-C54A-A749-9B8BCFEC89BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0938D3-33D0-474B-9E7E-FCABE5F0AE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="891">
   <si>
     <t>ID</t>
   </si>
@@ -599,9 +599,6 @@
   </si>
   <si>
     <t>BCIO:007072</t>
-  </si>
-  <si>
-    <t>awareness of other people's thoughts, feelings and actions BCT</t>
   </si>
   <si>
     <t>A behaviour change technique that increases awareness of what other people think, do, or feel.</t>
@@ -978,9 +975,6 @@
     <t>BCIO:007074</t>
   </si>
   <si>
-    <t>increase awareness of others' approval BCT</t>
-  </si>
-  <si>
     <t>An awareness of other people's thoughts, feelings and actions BCT that increases awareness of whether others will like, approve, dislike, or disapprove of the behaviour.</t>
   </si>
   <si>
@@ -1681,9 +1675,6 @@
     <t>promise to remove negative material consequence for behaviour BCT</t>
   </si>
   <si>
-    <t>promise to remove negative consequence for behaviour  BCT</t>
-  </si>
-  <si>
     <t>A promise to remove negative consequence for behaviour BCT in which the consequence is money, vouchers or other valued objects.</t>
   </si>
   <si>
@@ -2077,9 +2068,6 @@
     <t>provide positive material consequence for alternative behaviour BCT</t>
   </si>
   <si>
-    <t>provide positive behavioural  consequence for alternative behaviour BCT</t>
-  </si>
-  <si>
     <t>A provide positive consequence for alternative behaviour BCT where the consequence is money, vouchers or other valued objects.</t>
   </si>
   <si>
@@ -2702,6 +2690,12 @@
   </si>
   <si>
     <t>An increase awareness of consequences BCT that prompts observation of another person being rewarded when they perform the behaviour.</t>
+  </si>
+  <si>
+    <t>awareness of other peoples thoughts, feelings and actions BCT</t>
+  </si>
+  <si>
+    <t>increase awareness of others approval BCT</t>
   </si>
 </sst>
 </file>
@@ -3056,8 +3050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="D185" sqref="D185"/>
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="C224" sqref="C224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4529,20 +4523,20 @@
         <v>192</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>193</v>
+        <v>889</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
@@ -4554,16 +4548,16 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C57" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -4580,23 +4574,23 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
@@ -4608,16 +4602,16 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -4634,16 +4628,16 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>207</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -4660,16 +4654,16 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -4686,16 +4680,16 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="C62" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -4712,16 +4706,16 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -4738,16 +4732,16 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
@@ -4764,16 +4758,16 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -4790,16 +4784,16 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>226</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -4816,16 +4810,16 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>157</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
@@ -4842,16 +4836,16 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>157</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
@@ -4859,7 +4853,7 @@
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K68" s="2"/>
       <c r="L68" s="2" t="s">
@@ -4870,16 +4864,16 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
@@ -4896,23 +4890,23 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="C70" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
@@ -4924,16 +4918,16 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="C71" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
@@ -4950,16 +4944,16 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="C72" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>248</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
@@ -4976,16 +4970,16 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>137</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
@@ -5002,16 +4996,16 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
@@ -5028,16 +5022,16 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
@@ -5054,16 +5048,16 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="C76" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="D76" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
@@ -5080,16 +5074,16 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="C77" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
@@ -5106,16 +5100,16 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>266</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
@@ -5132,16 +5126,16 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>271</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
@@ -5158,7 +5152,7 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>175</v>
@@ -5167,7 +5161,7 @@
         <v>157</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
@@ -5184,16 +5178,16 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>275</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>175</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
@@ -5210,16 +5204,16 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
@@ -5236,16 +5230,16 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>281</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
@@ -5262,7 +5256,7 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>16</v>
@@ -5271,7 +5265,7 @@
         <v>77</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
@@ -5290,7 +5284,7 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>148</v>
@@ -5299,7 +5293,7 @@
         <v>16</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
@@ -5318,16 +5312,16 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>288</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
@@ -5344,23 +5338,23 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>291</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>175</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
@@ -5372,16 +5366,16 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>295</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
@@ -5398,23 +5392,23 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>298</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
       <c r="I89" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
@@ -5426,23 +5420,23 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="C90" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
@@ -5454,16 +5448,16 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="C91" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>305</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
@@ -5480,16 +5474,16 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="C92" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>308</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
@@ -5506,16 +5500,16 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>310</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
@@ -5532,16 +5526,16 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
@@ -5558,16 +5552,16 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="C95" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>316</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
@@ -5584,16 +5578,16 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>319</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
@@ -5610,23 +5604,23 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
       <c r="I97" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
@@ -5638,16 +5632,16 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
@@ -5664,16 +5658,16 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="D99" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>330</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
@@ -5681,7 +5675,7 @@
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
       <c r="J99" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K99" s="2"/>
       <c r="L99" s="2" t="s">
@@ -5692,16 +5686,16 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>334</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
@@ -5718,16 +5712,16 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="D101" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>338</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
@@ -5744,16 +5738,16 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>339</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>341</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
@@ -5770,16 +5764,16 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
@@ -5796,16 +5790,16 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>344</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>346</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
@@ -5822,16 +5816,16 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>347</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>349</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
@@ -5848,16 +5842,16 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>352</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
@@ -5874,16 +5868,16 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>353</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>355</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
@@ -5900,16 +5894,16 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>356</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>358</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
@@ -5926,16 +5920,16 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="D109" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>362</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
@@ -5952,16 +5946,16 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
@@ -5978,16 +5972,16 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>366</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>368</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
@@ -6004,16 +5998,16 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>369</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>371</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
@@ -6030,16 +6024,16 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>372</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>374</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
@@ -6056,16 +6050,16 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
@@ -6082,16 +6076,16 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
@@ -6108,23 +6102,23 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
       <c r="I116" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
@@ -6136,7 +6130,7 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>71</v>
@@ -6145,7 +6139,7 @@
         <v>77</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
@@ -6162,16 +6156,16 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C118" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="D118" s="2" t="s">
         <v>387</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>389</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
@@ -6188,16 +6182,16 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
@@ -6214,16 +6208,16 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>392</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>394</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
@@ -6240,16 +6234,16 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>395</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>397</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
@@ -6266,16 +6260,16 @@
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
@@ -6292,16 +6286,16 @@
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
@@ -6318,16 +6312,16 @@
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C124" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="D124" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>407</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
@@ -6344,16 +6338,16 @@
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
@@ -6370,16 +6364,16 @@
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
@@ -6396,16 +6390,16 @@
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
@@ -6422,16 +6416,16 @@
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>419</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
@@ -6448,16 +6442,16 @@
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>422</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
@@ -6474,16 +6468,16 @@
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>425</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
@@ -6500,16 +6494,16 @@
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>426</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>428</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
@@ -6526,16 +6520,16 @@
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>431</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
@@ -6552,16 +6546,16 @@
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>432</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>434</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
@@ -6578,16 +6572,16 @@
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>437</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
@@ -6604,16 +6598,16 @@
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>438</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>440</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
@@ -6630,16 +6624,16 @@
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>443</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
@@ -6656,16 +6650,16 @@
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>444</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>446</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
@@ -6682,16 +6676,16 @@
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>447</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>449</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
@@ -6708,16 +6702,16 @@
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C139" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="D139" s="2" t="s">
         <v>451</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>453</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
@@ -6734,16 +6728,16 @@
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>454</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>456</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
@@ -6760,23 +6754,23 @@
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
       <c r="I141" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="J141" s="2"/>
       <c r="K141" s="2"/>
@@ -6788,16 +6782,16 @@
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>462</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
@@ -6814,16 +6808,16 @@
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>463</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>465</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
@@ -6840,23 +6834,23 @@
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>466</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>468</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
       <c r="I144" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="J144" s="2"/>
       <c r="K144" s="2"/>
@@ -6868,16 +6862,16 @@
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>470</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>472</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
@@ -6894,16 +6888,16 @@
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>473</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>475</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
@@ -6920,16 +6914,16 @@
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>476</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>478</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
@@ -6946,16 +6940,16 @@
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>479</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>481</v>
       </c>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
@@ -6972,16 +6966,16 @@
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>482</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>484</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
@@ -6998,23 +6992,23 @@
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>485</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>487</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
       <c r="H150" s="2"/>
       <c r="I150" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="J150" s="2"/>
       <c r="K150" s="2"/>
@@ -7026,23 +7020,23 @@
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>489</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>491</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
       <c r="H151" s="2"/>
       <c r="I151" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="J151" s="2"/>
       <c r="K151" s="2"/>
@@ -7054,23 +7048,23 @@
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>493</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>495</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
       <c r="H152" s="2"/>
       <c r="I152" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="J152" s="2"/>
       <c r="K152" s="2"/>
@@ -7082,16 +7076,16 @@
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>497</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>499</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
@@ -7108,16 +7102,16 @@
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D154" s="2" t="s">
         <v>500</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>502</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
@@ -7134,16 +7128,16 @@
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>505</v>
       </c>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
@@ -7160,16 +7154,16 @@
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D156" s="2" t="s">
         <v>506</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>508</v>
       </c>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
@@ -7186,16 +7180,16 @@
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D157" s="2" t="s">
         <v>509</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>511</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
@@ -7212,16 +7206,16 @@
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D158" s="2" t="s">
         <v>512</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>514</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
@@ -7238,16 +7232,16 @@
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D159" s="2" t="s">
         <v>515</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>517</v>
       </c>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
@@ -7264,16 +7258,16 @@
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D160" s="2" t="s">
         <v>518</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>520</v>
       </c>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
@@ -7290,16 +7284,16 @@
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="D161" s="2" t="s">
         <v>521</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>523</v>
       </c>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
@@ -7316,16 +7310,16 @@
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="D162" s="2" t="s">
         <v>524</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>526</v>
       </c>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
@@ -7342,23 +7336,23 @@
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D163" s="2" t="s">
         <v>527</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>529</v>
       </c>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
       <c r="H163" s="2"/>
       <c r="I163" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="J163" s="2"/>
       <c r="K163" s="2"/>
@@ -7370,23 +7364,23 @@
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D164" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>533</v>
       </c>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
       <c r="H164" s="2"/>
       <c r="I164" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="J164" s="2"/>
       <c r="K164" s="2"/>
@@ -7398,16 +7392,16 @@
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D165" s="2" t="s">
         <v>535</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>537</v>
       </c>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
@@ -7424,16 +7418,16 @@
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D166" s="2" t="s">
         <v>538</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>540</v>
       </c>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
@@ -7450,16 +7444,16 @@
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D167" s="2" t="s">
         <v>541</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>543</v>
       </c>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
@@ -7476,16 +7470,16 @@
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="D168" s="2" t="s">
         <v>544</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>546</v>
       </c>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
@@ -7502,16 +7496,16 @@
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="D169" s="2" t="s">
         <v>547</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>549</v>
       </c>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
@@ -7528,16 +7522,16 @@
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="D170" s="2" t="s">
         <v>550</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>553</v>
       </c>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
@@ -7554,23 +7548,23 @@
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
       <c r="H171" s="2"/>
       <c r="I171" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="J171" s="2"/>
       <c r="K171" s="2"/>
@@ -7582,16 +7576,16 @@
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
@@ -7608,16 +7602,16 @@
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
@@ -7634,23 +7628,23 @@
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
       <c r="H174" s="2"/>
       <c r="I174" s="2" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="J174" s="2"/>
       <c r="K174" s="2"/>
@@ -7662,23 +7656,23 @@
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
       <c r="H175" s="2"/>
       <c r="I175" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="J175" s="2"/>
       <c r="K175" s="2"/>
@@ -7690,23 +7684,23 @@
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
       <c r="H176" s="2"/>
       <c r="I176" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="J176" s="2"/>
       <c r="K176" s="2"/>
@@ -7718,16 +7712,16 @@
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
@@ -7744,16 +7738,16 @@
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
@@ -7770,23 +7764,23 @@
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
       <c r="G179" s="2"/>
       <c r="H179" s="2"/>
       <c r="I179" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="J179" s="2"/>
       <c r="K179" s="2"/>
@@ -7798,16 +7792,16 @@
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
@@ -7824,16 +7818,16 @@
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
@@ -7850,23 +7844,23 @@
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
       <c r="G182" s="2"/>
       <c r="H182" s="2"/>
       <c r="I182" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="J182" s="2"/>
       <c r="K182" s="2"/>
@@ -7878,7 +7872,7 @@
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>31</v>
@@ -7887,7 +7881,7 @@
         <v>77</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
@@ -7904,16 +7898,16 @@
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>157</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
@@ -7930,16 +7924,16 @@
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
@@ -7956,23 +7950,23 @@
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
       <c r="G186" s="2"/>
       <c r="H186" s="2"/>
       <c r="I186" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="J186" s="2"/>
       <c r="K186" s="2"/>
@@ -7984,16 +7978,16 @@
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>193</v>
+        <v>889</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
@@ -8010,16 +8004,16 @@
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
@@ -8036,16 +8030,16 @@
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="D189" s="2" t="s">
         <v>606</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>609</v>
       </c>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
@@ -8062,23 +8056,23 @@
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
       <c r="G190" s="2"/>
       <c r="H190" s="2"/>
       <c r="I190" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="J190" s="2"/>
       <c r="K190" s="2"/>
@@ -8090,23 +8084,23 @@
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
       <c r="G191" s="2"/>
       <c r="H191" s="2"/>
       <c r="I191" s="2" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="J191" s="2"/>
       <c r="K191" s="2"/>
@@ -8118,23 +8112,23 @@
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
       <c r="G192" s="2"/>
       <c r="H192" s="2"/>
       <c r="I192" s="2" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="J192" s="2"/>
       <c r="K192" s="2"/>
@@ -8146,23 +8140,23 @@
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
       <c r="G193" s="2"/>
       <c r="H193" s="2"/>
       <c r="I193" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="J193" s="2"/>
       <c r="K193" s="2"/>
@@ -8174,16 +8168,16 @@
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
@@ -8200,16 +8194,16 @@
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
@@ -8226,23 +8220,23 @@
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
       <c r="G196" s="2"/>
       <c r="H196" s="2"/>
       <c r="I196" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="J196" s="2"/>
       <c r="K196" s="2"/>
@@ -8254,16 +8248,16 @@
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
@@ -8280,16 +8274,16 @@
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
@@ -8306,16 +8300,16 @@
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E199" s="2"/>
       <c r="F199" s="2"/>
@@ -8332,16 +8326,16 @@
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
@@ -8358,23 +8352,23 @@
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
       <c r="G201" s="2"/>
       <c r="H201" s="2"/>
       <c r="I201" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="J201" s="2"/>
       <c r="K201" s="2"/>
@@ -8386,23 +8380,23 @@
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="E202" s="2"/>
       <c r="F202" s="2"/>
       <c r="G202" s="2"/>
       <c r="H202" s="2"/>
       <c r="I202" s="2" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="J202" s="2"/>
       <c r="K202" s="2"/>
@@ -8414,16 +8408,16 @@
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="E203" s="2"/>
       <c r="F203" s="2"/>
@@ -8440,23 +8434,23 @@
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="E204" s="2"/>
       <c r="F204" s="2"/>
       <c r="G204" s="2"/>
       <c r="H204" s="2"/>
       <c r="I204" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="J204" s="2"/>
       <c r="K204" s="2"/>
@@ -8468,23 +8462,23 @@
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E205" s="2"/>
       <c r="F205" s="2"/>
       <c r="G205" s="2"/>
       <c r="H205" s="2"/>
       <c r="I205" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="J205" s="2"/>
       <c r="K205" s="2"/>
@@ -8496,16 +8490,16 @@
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="D206" s="2" t="s">
         <v>660</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>663</v>
       </c>
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
@@ -8522,23 +8516,23 @@
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="E207" s="2"/>
       <c r="F207" s="2"/>
       <c r="G207" s="2"/>
       <c r="H207" s="2"/>
       <c r="I207" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="J207" s="2"/>
       <c r="K207" s="2"/>
@@ -8550,23 +8544,23 @@
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="E208" s="2"/>
       <c r="F208" s="2"/>
       <c r="G208" s="2"/>
       <c r="H208" s="2"/>
       <c r="I208" s="2" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="J208" s="2"/>
       <c r="K208" s="2"/>
@@ -8578,23 +8572,23 @@
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="E209" s="2"/>
       <c r="F209" s="2"/>
       <c r="G209" s="2"/>
       <c r="H209" s="2"/>
       <c r="I209" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="J209" s="2"/>
       <c r="K209" s="2"/>
@@ -8606,16 +8600,16 @@
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="E210" s="2"/>
       <c r="F210" s="2"/>
@@ -8632,16 +8626,16 @@
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="E211" s="2"/>
       <c r="F211" s="2"/>
@@ -8658,16 +8652,16 @@
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
@@ -8684,16 +8678,16 @@
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>684</v>
+        <v>658</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="E213" s="2"/>
       <c r="F213" s="2"/>
@@ -8710,16 +8704,16 @@
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="E214" s="2"/>
       <c r="F214" s="2"/>
@@ -8736,23 +8730,23 @@
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="E215" s="2"/>
       <c r="F215" s="2"/>
       <c r="G215" s="2"/>
       <c r="H215" s="2"/>
       <c r="I215" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="J215" s="2"/>
       <c r="K215" s="2"/>
@@ -8764,23 +8758,23 @@
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="E216" s="2"/>
       <c r="F216" s="2"/>
       <c r="G216" s="2"/>
       <c r="H216" s="2"/>
       <c r="I216" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="J216" s="2"/>
       <c r="K216" s="2"/>
@@ -8792,16 +8786,16 @@
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
@@ -8818,23 +8812,23 @@
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="E218" s="2"/>
       <c r="F218" s="2"/>
       <c r="G218" s="2"/>
       <c r="H218" s="2"/>
       <c r="I218" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="J218" s="2"/>
       <c r="K218" s="2"/>
@@ -8846,16 +8840,16 @@
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="E219" s="2"/>
       <c r="F219" s="2"/>
@@ -8872,23 +8866,23 @@
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>684</v>
+        <v>658</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="E220" s="2"/>
       <c r="F220" s="2"/>
       <c r="G220" s="2"/>
       <c r="H220" s="2"/>
       <c r="I220" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="J220" s="2"/>
       <c r="K220" s="2"/>
@@ -8900,16 +8894,16 @@
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="E221" s="2"/>
       <c r="F221" s="2"/>
@@ -8926,16 +8920,16 @@
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="E222" s="2"/>
       <c r="F222" s="2"/>
@@ -8952,16 +8946,16 @@
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="E223" s="2"/>
       <c r="F223" s="2"/>
@@ -8978,23 +8972,23 @@
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="E224" s="2"/>
       <c r="F224" s="2"/>
       <c r="G224" s="2"/>
       <c r="H224" s="2"/>
       <c r="I224" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="J224" s="2"/>
       <c r="K224" s="2"/>
@@ -9006,16 +9000,16 @@
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="E225" s="2"/>
       <c r="F225" s="2"/>
@@ -9032,16 +9026,16 @@
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="E226" s="2"/>
       <c r="F226" s="2"/>
@@ -9058,23 +9052,23 @@
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="E227" s="2"/>
       <c r="F227" s="2"/>
       <c r="G227" s="2"/>
       <c r="H227" s="2"/>
       <c r="I227" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="J227" s="2"/>
       <c r="K227" s="2"/>
@@ -9086,16 +9080,16 @@
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="E228" s="2"/>
       <c r="F228" s="2"/>
@@ -9112,16 +9106,16 @@
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="E229" s="2"/>
       <c r="F229" s="2"/>
@@ -9138,23 +9132,23 @@
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
       <c r="G230" s="2"/>
       <c r="H230" s="2"/>
       <c r="I230" s="2" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="J230" s="2"/>
       <c r="K230" s="2"/>
@@ -9166,23 +9160,23 @@
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="E231" s="2"/>
       <c r="F231" s="2"/>
       <c r="G231" s="2"/>
       <c r="H231" s="2"/>
       <c r="I231" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="J231" s="2"/>
       <c r="K231" s="2"/>
@@ -9194,16 +9188,16 @@
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="E232" s="2"/>
       <c r="F232" s="2"/>
@@ -9220,16 +9214,16 @@
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="E233" s="2"/>
       <c r="F233" s="2"/>
@@ -9246,16 +9240,16 @@
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="E234" s="2"/>
       <c r="F234" s="2"/>
@@ -9272,16 +9266,16 @@
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
@@ -9298,16 +9292,16 @@
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="E236" s="2"/>
       <c r="F236" s="2"/>
@@ -9324,16 +9318,16 @@
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="E237" s="2"/>
       <c r="F237" s="2"/>
@@ -9350,16 +9344,16 @@
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="E238" s="2"/>
       <c r="F238" s="2"/>
@@ -9376,16 +9370,16 @@
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="E239" s="2"/>
       <c r="F239" s="2"/>
@@ -9402,23 +9396,23 @@
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="E240" s="2"/>
       <c r="F240" s="2"/>
       <c r="G240" s="2"/>
       <c r="H240" s="2"/>
       <c r="I240" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="J240" s="2"/>
       <c r="K240" s="2"/>
@@ -9430,16 +9424,16 @@
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="E241" s="2"/>
       <c r="F241" s="2"/>
@@ -9456,16 +9450,16 @@
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>157</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="E242" s="2"/>
       <c r="F242" s="2"/>
@@ -9482,23 +9476,23 @@
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="E243" s="2"/>
       <c r="F243" s="2"/>
       <c r="G243" s="2"/>
       <c r="H243" s="2"/>
       <c r="I243" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="J243" s="2"/>
       <c r="K243" s="2"/>
@@ -9510,16 +9504,16 @@
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>157</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="E244" s="2"/>
       <c r="F244" s="2"/>
@@ -9536,16 +9530,16 @@
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="E245" s="2"/>
       <c r="F245" s="2"/>
@@ -9562,16 +9556,16 @@
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="E246" s="2"/>
       <c r="F246" s="2"/>
@@ -9588,16 +9582,16 @@
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>157</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="E247" s="2"/>
       <c r="F247" s="2"/>
@@ -9614,23 +9608,23 @@
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="E248" s="2"/>
       <c r="F248" s="2"/>
       <c r="G248" s="2"/>
       <c r="H248" s="2"/>
       <c r="I248" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="J248" s="2"/>
       <c r="K248" s="2"/>
@@ -9642,23 +9636,23 @@
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="E249" s="2"/>
       <c r="F249" s="2"/>
       <c r="G249" s="2"/>
       <c r="H249" s="2"/>
       <c r="I249" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="J249" s="2"/>
       <c r="K249" s="2"/>
@@ -9670,23 +9664,23 @@
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="E250" s="2"/>
       <c r="F250" s="2"/>
       <c r="G250" s="2"/>
       <c r="H250" s="2"/>
       <c r="I250" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="J250" s="2"/>
       <c r="K250" s="2"/>
@@ -9698,23 +9692,23 @@
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="E251" s="2"/>
       <c r="F251" s="2"/>
       <c r="G251" s="2"/>
       <c r="H251" s="2"/>
       <c r="I251" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="J251" s="2"/>
       <c r="K251" s="2"/>
@@ -9726,16 +9720,16 @@
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="E252" s="2"/>
       <c r="F252" s="2"/>
@@ -9752,16 +9746,16 @@
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="E253" s="2"/>
       <c r="F253" s="2"/>
@@ -9778,16 +9772,16 @@
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="E254" s="2"/>
       <c r="F254" s="2"/>
@@ -9804,23 +9798,23 @@
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="E255" s="2"/>
       <c r="F255" s="2"/>
       <c r="G255" s="2"/>
       <c r="H255" s="2"/>
       <c r="I255" s="2" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="J255" s="2"/>
       <c r="K255" s="2"/>
@@ -9832,16 +9826,16 @@
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="E256" s="2"/>
       <c r="F256" s="2"/>
@@ -9858,16 +9852,16 @@
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="E257" s="2"/>
       <c r="F257" s="2"/>
@@ -9884,16 +9878,16 @@
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="E258" s="2"/>
       <c r="F258" s="2"/>
@@ -9910,23 +9904,23 @@
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="E259" s="2"/>
       <c r="F259" s="2"/>
       <c r="G259" s="2"/>
       <c r="H259" s="2"/>
       <c r="I259" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="J259" s="2"/>
       <c r="K259" s="2"/>
@@ -9938,16 +9932,16 @@
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="E260" s="2"/>
       <c r="F260" s="2"/>
@@ -9964,23 +9958,23 @@
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="E261" s="2"/>
       <c r="F261" s="2"/>
       <c r="G261" s="2"/>
       <c r="H261" s="2"/>
       <c r="I261" s="2" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="J261" s="2"/>
       <c r="K261" s="2"/>
@@ -9992,23 +9986,23 @@
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="E262" s="2"/>
       <c r="F262" s="2"/>
       <c r="G262" s="2"/>
       <c r="H262" s="2"/>
       <c r="I262" s="2" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="J262" s="2"/>
       <c r="K262" s="2"/>
@@ -10020,16 +10014,16 @@
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="E263" s="2"/>
       <c r="F263" s="2"/>
@@ -10046,16 +10040,16 @@
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="E264" s="2"/>
       <c r="F264" s="2"/>
@@ -10072,23 +10066,23 @@
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="E265" s="2"/>
       <c r="F265" s="2"/>
       <c r="G265" s="2"/>
       <c r="H265" s="2"/>
       <c r="I265" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="J265" s="2"/>
       <c r="K265" s="2"/>
@@ -10100,16 +10094,16 @@
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="E266" s="2"/>
       <c r="F266" s="2"/>
@@ -10126,23 +10120,23 @@
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="E267" s="2"/>
       <c r="F267" s="2"/>
       <c r="G267" s="2"/>
       <c r="H267" s="2"/>
       <c r="I267" s="2" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="J267" s="2"/>
       <c r="K267" s="2"/>
@@ -10154,23 +10148,23 @@
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="E268" s="2"/>
       <c r="F268" s="2"/>
       <c r="G268" s="2"/>
       <c r="H268" s="2"/>
       <c r="I268" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="J268" s="2"/>
       <c r="K268" s="2"/>
@@ -10182,16 +10176,16 @@
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="E269" s="2"/>
       <c r="F269" s="2"/>
@@ -10208,23 +10202,23 @@
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>148</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="E270" s="2"/>
       <c r="F270" s="2"/>
       <c r="G270" s="2"/>
       <c r="H270" s="2"/>
       <c r="I270" s="2" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="J270" s="2"/>
       <c r="K270" s="2"/>
@@ -10236,23 +10230,23 @@
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="E271" s="2"/>
       <c r="F271" s="2"/>
       <c r="G271" s="2"/>
       <c r="H271" s="2"/>
       <c r="I271" s="2" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="J271" s="2"/>
       <c r="K271" s="2"/>
@@ -10264,23 +10258,23 @@
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="E272" s="2"/>
       <c r="F272" s="2"/>
       <c r="G272" s="2"/>
       <c r="H272" s="2"/>
       <c r="I272" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="J272" s="2"/>
       <c r="K272" s="2"/>
@@ -10292,16 +10286,16 @@
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="E273" s="2"/>
       <c r="F273" s="2"/>
@@ -10318,23 +10312,23 @@
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>148</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="E274" s="2"/>
       <c r="F274" s="2"/>
       <c r="G274" s="2"/>
       <c r="H274" s="2"/>
       <c r="I274" s="2" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="J274" s="2"/>
       <c r="K274" s="2"/>
@@ -10346,7 +10340,7 @@
     </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>137</v>
@@ -10355,14 +10349,14 @@
         <v>77</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="E275" s="2"/>
       <c r="F275" s="2"/>
       <c r="G275" s="2"/>
       <c r="H275" s="2"/>
       <c r="I275" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="J275" s="2"/>
       <c r="K275" s="2"/>
@@ -10374,16 +10368,16 @@
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="E276" s="2"/>
       <c r="F276" s="2"/>
@@ -10400,16 +10394,16 @@
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="E277" s="2"/>
       <c r="F277" s="2"/>
@@ -10426,23 +10420,23 @@
     </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="E278" s="2"/>
       <c r="F278" s="2"/>
       <c r="G278" s="2"/>
       <c r="H278" s="2"/>
       <c r="I278" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="J278" s="2"/>
       <c r="K278" s="2"/>
@@ -10454,23 +10448,23 @@
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>193</v>
+        <v>889</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="E279" s="2"/>
       <c r="F279" s="2"/>
       <c r="G279" s="2"/>
       <c r="H279" s="2"/>
       <c r="I279" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="J279" s="2"/>
       <c r="K279" s="2"/>
@@ -10482,16 +10476,16 @@
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>175</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="E280" s="2"/>
       <c r="F280" s="2"/>
@@ -10508,23 +10502,23 @@
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>193</v>
+        <v>889</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="E281" s="2"/>
       <c r="F281" s="2"/>
       <c r="G281" s="2"/>
       <c r="H281" s="2"/>
       <c r="I281" s="2" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="J281" s="2"/>
       <c r="K281" s="2"/>
@@ -10536,23 +10530,23 @@
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="E282" s="2"/>
       <c r="F282" s="2"/>
       <c r="G282" s="2"/>
       <c r="H282" s="2"/>
       <c r="I282" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="J282" s="2"/>
       <c r="K282" s="2"/>
@@ -10564,16 +10558,16 @@
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="E283" s="2"/>
       <c r="F283" s="2"/>
